--- a/ADC_Sample_Generator.xlsx
+++ b/ADC_Sample_Generator.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/guy/development/avrsnd/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55A77DBF-5014-1D4C-AA59-F541BF924B00}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70862C3A-4529-0C44-A7A2-97F5D811CDE9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20" yWindow="480" windowWidth="37920" windowHeight="22460" activeTab="1" xr2:uid="{DD120292-E540-4843-A0F3-C6A293117715}"/>
   </bookViews>
@@ -1098,769 +1098,769 @@
                   <c:v>511</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>556.70718916200565</c:v>
+                  <c:v>585.8601719929004</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>601.42811362956627</c:v>
+                  <c:v>659.1050194381678</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>644.19779021920544</c:v>
+                  <c:v>729.15407308337819</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>684.0933395592848</c:v>
+                  <c:v>794.49582216280305</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>720.25389987945664</c:v>
+                  <c:v>853.720329610264</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>751.89920259114683</c:v>
+                  <c:v>905.54965552588465</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>778.34640883723478</c:v>
+                  <c:v>948.86543242252219</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>799.02484371371861</c:v>
+                  <c:v>982.73299723625064</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>813.48831022995057</c:v>
+                  <c:v>1006.421559383028</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>821.42471729816566</c:v>
+                  <c:v>1019.4199696774444</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>822.66281400060598</c:v>
+                  <c:v>1021.4477498535567</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>817.17588482296605</c:v>
+                  <c:v>1012.4611446940246</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>805.0823261188184</c:v>
+                  <c:v>992.65406617537235</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>786.6430913661336</c:v>
+                  <c:v>962.45390925671245</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>762.2560603418699</c:v>
+                  <c:v>922.51232959838319</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>732.44745371596014</c:v>
+                  <c:v>873.69118220787061</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>697.86047831964311</c:v>
+                  <c:v>817.04392442736412</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>659.24144809928998</c:v>
+                  <c:v>753.79288454723462</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>617.42368023625397</c:v>
+                  <c:v>685.30288654078777</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>573.30951392049485</c:v>
+                  <c:v>613.05180004286183</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>527.85083977490626</c:v>
+                  <c:v>538.59865104159326</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>482.0285600642755</c:v>
+                  <c:v>463.54998138732304</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>436.83142289423211</c:v>
+                  <c:v>389.52518300946343</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>393.23468711350552</c:v>
+                  <c:v>318.12155485577352</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>352.17907828588403</c:v>
+                  <c:v>250.87983655156006</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>314.5504898175908</c:v>
+                  <c:v>189.250962489708</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>281.16086724692053</c:v>
+                  <c:v>134.56475372812946</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>252.73068817282552</c:v>
+                  <c:v>88.0012232574162</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>229.87341586862499</c:v>
+                  <c:v>50.565113810472383</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>213.08226203904735</c:v>
+                  <c:v>23.064217634465365</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>202.71954435237922</c:v>
+                  <c:v>6.091946038672404</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>199.00886838971729</c:v>
+                  <c:v>1.4524830594723426E-2</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>202.03030270836285</c:v>
+                  <c:v>4.9630919358122014</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>211.71865113130957</c:v>
+                  <c:v>20.830867718266632</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>227.86485954317158</c:v>
+                  <c:v>47.275459059489322</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>250.12052683686437</c:v>
+                  <c:v>83.726247479607935</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>278.00542267432672</c:v>
+                  <c:v>129.39670188006716</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>310.91784984387311</c:v>
+                  <c:v>183.30135022506136</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>348.14762761636814</c:v>
+                  <c:v>244.27704394860297</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>388.89141594679307</c:v>
+                  <c:v>311.00805624618994</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>432.27004985727575</c:v>
+                  <c:v>382.05447268290993</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>477.3475099621665</c:v>
+                  <c:v>455.88326150854834</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>523.15111979126891</c:v>
+                  <c:v>530.90135324787957</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>568.69253409560156</c:v>
+                  <c:v>605.49001577837294</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>612.98906525234213</c:v>
+                  <c:v>678.03978315367578</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>655.08488759014176</c:v>
+                  <c:v>746.98518448257187</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>694.07166209020261</c:v>
+                  <c:v>810.83852348747916</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>729.10813642560038</c:v>
+                  <c:v>868.22197985090315</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>759.43829741135528</c:v>
+                  <c:v>917.89733967052098</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>784.40768417368554</c:v>
+                  <c:v>958.79271350241447</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>803.47751003467192</c:v>
+                  <c:v>990.02566547345293</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>816.23628839186188</c:v>
+                  <c:v>1010.9222543853891</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>822.40871173086578</c:v>
+                  <c:v>1021.0315759438218</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>821.86159218058401</c:v>
+                  <c:v>1020.1354923214051</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>814.60673542642348</c:v>
+                  <c:v>1008.2533391118666</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>800.80068596851788</c:v>
+                  <c:v>985.64150810869432</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>780.74134922174301</c:v>
+                  <c:v>952.78791491125207</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>754.86156334547866</c:v>
+                  <c:v>910.4014707357037</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>723.71975950947137</c:v>
+                  <c:v>859.39678560685854</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>687.98791212754759</c:v>
+                  <c:v>800.87443300377186</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>648.43703906771066</c:v>
+                  <c:v>736.09720180641079</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>605.92056471348747</c:v>
+                  <c:v>666.46284797625663</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>561.35590486656542</c:v>
+                  <c:v>593.47393393209916</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>515.70467084964309</c:v>
+                  <c:v>518.70540642361414</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>469.95191996320779</c:v>
+                  <c:v>443.77061250384349</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>425.084900027576</c:v>
+                  <c:v>370.28648690413888</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>382.07174665814603</c:v>
+                  <c:v>299.83866199459169</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>341.84059294170044</c:v>
+                  <c:v>233.94725318336191</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>305.25954228286162</c:v>
+                  <c:v>174.03405803378945</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>273.11793656442813</c:v>
+                  <c:v>121.3918768731499</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>246.10932381514584</c:v>
+                  <c:v>77.156616889549753</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>224.81649290672073</c:v>
+                  <c:v>42.282781651712469</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>209.69889819972047</c:v>
+                  <c:v>17.522874936080598</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>201.08274548797749</c:v>
+                  <c:v>3.4111632831939005</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>199.15395316589178</c:v>
+                  <c:v>0.25214765311119436</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>203.95414050178994</c:v>
+                  <c:v>8.1139929372264419</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>215.37972958193666</c:v>
+                  <c:v>26.827057103748814</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>233.18418030335039</c:v>
+                  <c:v>55.987551714782171</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>256.98331018899694</c:v>
+                  <c:v>94.966254828773799</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>286.26358423497339</c:v>
+                  <c:v>142.92208828228013</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>320.39319591226968</c:v>
+                  <c:v>198.82026638195447</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>358.63570021847988</c:v>
+                  <c:v>261.45462439629239</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>400.16590460696153</c:v>
+                  <c:v>329.47364504537609</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>444.08767490074291</c:v>
+                  <c:v>401.40962139192192</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>489.45327197710549</c:v>
+                  <c:v>475.71032685993879</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>535.28380197801289</c:v>
+                  <c:v>550.77250900886088</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>580.59033877398053</c:v>
+                  <c:v>624.97648433815402</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>624.39526290319623</c:v>
+                  <c:v>696.72108763952963</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>665.75335653661557</c:v>
+                  <c:v>764.45822176349543</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>703.77219928418447</c:v>
+                  <c:v>826.72626228916113</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>737.63142474374581</c:v>
+                  <c:v>882.18159629504532</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>766.60042227692327</c:v>
+                  <c:v>929.62761469073018</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>790.05410204502266</c:v>
+                  <c:v>968.04053251604671</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>807.48638312873572</c:v>
+                  <c:v>996.59148006020496</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>818.52111368648752</c:v>
+                  <c:v>1014.6643881211381</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>822.9201875174515</c:v>
+                  <c:v>1021.8692814789028</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>820.58868189093073</c:v>
+                  <c:v>1018.0506937380308</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>811.57690577858784</c:v>
+                  <c:v>1003.2910219642898</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>796.07931429299538</c:v>
+                  <c:v>977.90874872987388</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>774.43031275662838</c:v>
+                  <c:v>942.45156993152932</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>747.09704094064227</c:v>
+                  <c:v>897.6845766688084</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>714.66929317433357</c:v>
+                  <c:v>844.57374619257826</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>677.84679182804678</c:v>
+                  <c:v>784.26509815426891</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>637.42408878092556</c:v>
+                  <c:v>718.05996592004146</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>594.27342066795654</c:v>
+                  <c:v>647.38691654271088</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>549.32588785391442</c:v>
+                  <c:v>573.77092529919958</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>503.55136325222156</c:v>
+                  <c:v>498.80046994193975</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>457.93756451402612</c:v>
+                  <c:v>424.09325470085685</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>413.46874116549191</c:v>
+                  <c:v>351.2613036396358</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>371.10443657990925</c:v>
+                  <c:v>281.8761765779924</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>331.75878305645404</c:v>
+                  <c:v>217.43505814694879</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>296.28077677409829</c:v>
+                  <c:v>159.32845170373145</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>265.4359582455503</c:v>
+                  <c:v>108.81017520344932</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>239.88989356837629</c:v>
+                  <c:v>66.970306453334274</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>220.19381291303785</c:v>
+                  <c:v>34.711661533853714</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>206.77271613897699</c:v>
+                  <c:v>12.730313932747606</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>199.91620219444769</c:v>
+                  <c:v>1.5005747479576144</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>199.77222018230344</c:v>
+                  <c:v>1.2647580549905797</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>206.34387693054663</c:v>
+                  <c:v>12.027952280478587</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>219.48936995353739</c:v>
+                  <c:v>33.557910404671816</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>238.92504725041158</c:v>
+                  <c:v>65.390061362052336</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>264.23152791672152</c:v>
+                  <c:v>106.83753450463041</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>294.86275149940855</c:v>
+                  <c:v>157.00598082114675</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>330.15776082912907</c:v>
+                  <c:v>214.81287110155432</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>369.35496408126244</c:v>
+                  <c:v>279.01085463309329</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>411.60856832044635</c:v>
+                  <c:v>348.21467439662842</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>456.00682992739132</c:v>
+                  <c:v>420.9310579900544</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>501.5917281022937</c:v>
+                  <c:v>495.59093929574385</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>547.37963693216238</c:v>
+                  <c:v>570.58331561645832</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>592.38254996244802</c:v>
+                  <c:v>644.29000971413757</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>635.62939929152162</c:v>
+                  <c:v>715.12058666015241</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>676.18700916691739</c:v>
+                  <c:v>781.54667206504746</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>713.18023194896523</c:v>
+                  <c:v>842.13493117282439</c:v>
                 </c:pt>
                 <c:pt idx="134">
-                  <c:v>745.81083195018027</c:v>
+                  <c:v>895.57799720045546</c:v>
                 </c:pt>
                 <c:pt idx="135">
-                  <c:v>773.37470967702961</c:v>
+                  <c:v>940.72268155436564</c:v>
                 </c:pt>
                 <c:pt idx="136">
-                  <c:v>795.2770948112684</c:v>
+                  <c:v>976.59485720691714</c:v>
                 </c:pt>
                 <c:pt idx="137">
-                  <c:v>811.04538009836904</c:v>
+                  <c:v>1002.4204783021364</c:v>
                 </c:pt>
                 <c:pt idx="138">
-                  <c:v>820.33931921481599</c:v>
+                  <c:v>1017.6422824319583</c:v>
                 </c:pt>
                 <c:pt idx="139">
-                  <c:v>822.95836856580615</c:v>
+                  <c:v>1021.9318151830992</c:v>
                 </c:pt>
                 <c:pt idx="140">
-                  <c:v>818.84601459285477</c:v>
+                  <c:v>1015.1965174902205</c:v>
                 </c:pt>
                 <c:pt idx="141">
-                  <c:v>808.09099321713632</c:v>
+                  <c:v>997.58172286524564</c:v>
                 </c:pt>
                 <c:pt idx="142">
-                  <c:v>790.9253751055486</c:v>
+                  <c:v>969.46752140684407</c:v>
                 </c:pt>
                 <c:pt idx="143">
-                  <c:v>767.7195580754194</c:v>
+                  <c:v>931.46055825813869</c:v>
                 </c:pt>
                 <c:pt idx="144">
-                  <c:v>738.97427469119236</c:v>
+                  <c:v>884.38094348461311</c:v>
                 </c:pt>
                 <c:pt idx="145">
-                  <c:v>705.30978751228974</c:v>
+                  <c:v>829.24455582942323</c:v>
                 </c:pt>
                 <c:pt idx="146">
-                  <c:v>667.45250513591373</c:v>
+                  <c:v>767.24112219375615</c:v>
                 </c:pt>
                 <c:pt idx="147">
-                  <c:v>626.21930783232301</c:v>
+                  <c:v>699.70854584075983</c:v>
                 </c:pt>
                 <c:pt idx="148">
-                  <c:v>582.4999209923194</c:v>
+                  <c:v>628.1040372662668</c:v>
                 </c:pt>
                 <c:pt idx="149">
-                  <c:v>537.23771673074032</c:v>
+                  <c:v>553.97267067118048</c:v>
                 </c:pt>
                 <c:pt idx="150">
-                  <c:v>491.40935790685353</c:v>
+                  <c:v>478.91404452051967</c:v>
                 </c:pt>
                 <c:pt idx="151">
-                  <c:v>446.00372380072383</c:v>
+                  <c:v>404.54776558387778</c:v>
                 </c:pt>
                 <c:pt idx="152">
-                  <c:v>402.00057218500797</c:v>
+                  <c:v>332.47850123890731</c:v>
                 </c:pt>
                 <c:pt idx="153">
-                  <c:v>360.34939821962462</c:v>
+                  <c:v>264.26135413534678</c:v>
                 </c:pt>
                 <c:pt idx="154">
-                  <c:v>321.94894634976004</c:v>
+                  <c:v>201.36830636130577</c:v>
                 </c:pt>
                 <c:pt idx="155">
-                  <c:v>287.62781729718807</c:v>
+                  <c:v>145.15645717584329</c:v>
                 </c:pt>
                 <c:pt idx="156">
-                  <c:v>258.12658860514898</c:v>
+                  <c:v>96.83873967061254</c:v>
                 </c:pt>
                 <c:pt idx="157">
-                  <c:v>234.08183453767464</c:v>
+                  <c:v>57.457748233178677</c:v>
                 </c:pt>
                 <c:pt idx="158">
-                  <c:v>216.01239015021514</c:v>
+                  <c:v>27.86324156012796</c:v>
                 </c:pt>
                 <c:pt idx="159">
-                  <c:v>204.30815592394902</c:v>
+                  <c:v>8.6938066574934396</c:v>
                 </c:pt>
                 <c:pt idx="160">
-                  <c:v>199.22168453613614</c:v>
+                  <c:v>0.3630794806588824</c:v>
                 </c:pt>
                 <c:pt idx="161">
-                  <c:v>200.86273130625869</c:v>
+                  <c:v>3.0508195432634011</c:v>
                 </c:pt>
                 <c:pt idx="162">
-                  <c:v>209.19588590782348</c:v>
+                  <c:v>16.699031086210937</c:v>
                 </c:pt>
                 <c:pt idx="163">
-                  <c:v>224.04133644848901</c:v>
+                  <c:v>41.013214503775259</c:v>
                 </c:pt>
                 <c:pt idx="164">
-                  <c:v>245.07874943127376</c:v>
+                  <c:v>75.468721023656713</c:v>
                 </c:pt>
                 <c:pt idx="165">
-                  <c:v>271.85418187548362</c:v>
+                  <c:v>119.32207352042343</c:v>
                 </c:pt>
                 <c:pt idx="166">
-                  <c:v>303.78987644835786</c:v>
+                  <c:v>171.62700918304762</c:v>
                 </c:pt>
                 <c:pt idx="167">
-                  <c:v>340.19672824917456</c:v>
+                  <c:v>231.25489786964164</c:v>
                 </c:pt>
                 <c:pt idx="168">
-                  <c:v>380.28915423890999</c:v>
+                  <c:v>296.9190955643686</c:v>
                 </c:pt>
                 <c:pt idx="169">
-                  <c:v>423.20204446455136</c:v>
+                  <c:v>367.20270744033888</c:v>
                 </c:pt>
                 <c:pt idx="170">
-                  <c:v>468.00942930639309</c:v>
+                  <c:v>440.58916146015019</c:v>
                 </c:pt>
                 <c:pt idx="171">
-                  <c:v>513.74445994852499</c:v>
+                  <c:v>515.49493280030856</c:v>
                 </c:pt>
                 <c:pt idx="172">
-                  <c:v>559.4202709361075</c:v>
+                  <c:v>590.30371297548368</c:v>
                 </c:pt>
                 <c:pt idx="173">
-                  <c:v>604.05127464948987</c:v>
+                  <c:v>663.40128636502993</c:v>
                 </c:pt>
                 <c:pt idx="174">
-                  <c:v>646.67442820532642</c:v>
+                  <c:v>733.2103615798776</c:v>
                 </c:pt>
                 <c:pt idx="175">
-                  <c:v>686.37001388986596</c:v>
+                  <c:v>798.22460608244069</c:v>
                 </c:pt>
                 <c:pt idx="176">
-                  <c:v>722.28148472650093</c:v>
+                  <c:v>857.04114966423708</c:v>
                 </c:pt>
                 <c:pt idx="177">
-                  <c:v>753.63394695210309</c:v>
+                  <c:v>908.39085542475868</c:v>
                 </c:pt>
                 <c:pt idx="178">
-                  <c:v>779.75088058931374</c:v>
+                  <c:v>951.16570506775429</c:v>
                 </c:pt>
                 <c:pt idx="179">
-                  <c:v>800.06873732011445</c:v>
+                  <c:v>984.44270759800793</c:v>
                 </c:pt>
                 <c:pt idx="180">
-                  <c:v>814.14910066937841</c:v>
+                  <c:v>1007.5038155193986</c:v>
                 </c:pt>
                 <c:pt idx="181">
-                  <c:v>821.68814610729021</c:v>
+                  <c:v>1019.8514187846965</c:v>
                 </c:pt>
                 <c:pt idx="182">
-                  <c:v>822.5231969415928</c:v>
+                  <c:v>1021.219082170365</c:v>
                 </c:pt>
                 <c:pt idx="183">
-                  <c:v>816.63623453733965</c:v>
+                  <c:v>1011.5772943864761</c:v>
                 </c:pt>
                 <c:pt idx="184">
-                  <c:v>804.15428712101561</c:v>
+                  <c:v>991.13410486807356</c:v>
                 </c:pt>
                 <c:pt idx="185">
-                  <c:v>785.34668877945273</c:v>
+                  <c:v>960.33063450737291</c:v>
                 </c:pt>
                 <c:pt idx="186">
-                  <c:v>760.61926779856663</c:v>
+                  <c:v>919.83155719572926</c:v>
                 </c:pt>
                 <c:pt idx="187">
-                  <c:v>730.50558974528951</c:v>
+                  <c:v>870.5107575635991</c:v>
                 </c:pt>
                 <c:pt idx="188">
-                  <c:v>695.65544424852476</c:v>
+                  <c:v>813.43247439421839</c:v>
                 </c:pt>
                 <c:pt idx="189">
-                  <c:v>656.82082391009226</c:v>
+                  <c:v>749.82833659633707</c:v>
                 </c:pt>
                 <c:pt idx="190">
-                  <c:v>614.83969789117123</c:v>
+                  <c:v>681.07078725124506</c:v>
                 </c:pt>
                 <c:pt idx="191">
-                  <c:v>570.61793030602053</c:v>
+                  <c:v>608.64346918710407</c:v>
                 </c:pt>
                 <c:pt idx="192">
-                  <c:v>525.10973358587285</c:v>
+                  <c:v>534.10921109737512</c:v>
                 </c:pt>
                 <c:pt idx="193">
-                  <c:v>479.29707858818063</c:v>
+                  <c:v>459.07630499538556</c:v>
                 </c:pt>
                 <c:pt idx="194">
-                  <c:v>434.16850573757512</c:v>
+                  <c:v>385.163802666349</c:v>
                 </c:pt>
                 <c:pt idx="195">
-                  <c:v>390.69779440945047</c:v>
+                  <c:v>313.96657994624741</c:v>
                 </c:pt>
                 <c:pt idx="196">
-                  <c:v>349.82295082583619</c:v>
+                  <c:v>247.02092266667404</c:v>
                 </c:pt>
                 <c:pt idx="197">
-                  <c:v>312.42596786042554</c:v>
+                  <c:v>185.77137684832513</c:v>
                 </c:pt>
                 <c:pt idx="198">
-                  <c:v>279.31379349347628</c:v>
+                  <c:v>131.53957844604616</c:v>
                 </c:pt>
                 <c:pt idx="199">
-                  <c:v>251.20091857715312</c:v>
+                  <c:v>85.495735233734763</c:v>
                 </c:pt>
                 <c:pt idx="200">
-                  <c:v>228.69395963060146</c:v>
+                  <c:v>48.633376189863327</c:v>
                 </c:pt>
                 <c:pt idx="201">
-                  <c:v>212.27856933549464</c:v>
+                  <c:v>21.747913238582612</c:v>
                 </c:pt>
                 <c:pt idx="202">
-                  <c:v>202.30895717595126</c:v>
+                  <c:v>5.4194779388175789</c:v>
                 </c:pt>
                 <c:pt idx="203">
-                  <c:v>199.00024634529342</c:v>
+                  <c:v>4.0346937481672285E-4</c:v>
                 </c:pt>
                 <c:pt idx="204">
-                  <c:v>202.42383184146809</c:v>
+                  <c:v>5.6076220224044278</c:v>
                 </c:pt>
                 <c:pt idx="205">
-                  <c:v>212.50583991364522</c:v>
+                  <c:v>22.120141653438168</c:v>
                 </c:pt>
                 <c:pt idx="206">
-                  <c:v>229.02872210187832</c:v>
+                  <c:v>49.181657032243038</c:v>
                 </c:pt>
                 <c:pt idx="207">
-                  <c:v>251.63594947381495</c:v>
+                  <c:v>86.208237759998156</c:v>
                 </c:pt>
                 <c:pt idx="208">
-                  <c:v>279.83970576673994</c:v>
+                  <c:v>132.40092835514133</c:v>
                 </c:pt>
                 <c:pt idx="209">
-                  <c:v>313.03141343317265</c:v>
+                  <c:v>186.76298802676672</c:v>
                 </c:pt>
                 <c:pt idx="210">
-                  <c:v>350.49486546017101</c:v>
+                  <c:v>248.12139823765193</c:v>
                 </c:pt>
                 <c:pt idx="211">
-                  <c:v>391.42167960538393</c:v>
+                  <c:v>315.1521739690744</c:v>
                 </c:pt>
                 <c:pt idx="212">
-                  <c:v>434.92874158006384</c:v>
+                  <c:v>386.40893252375849</c:v>
                 </c:pt>
                 <c:pt idx="213">
-                  <c:v>480.07726079193401</c:v>
+                  <c:v>460.35410341243039</c:v>
                 </c:pt>
                 <c:pt idx="214">
-                  <c:v>525.89302746521116</c:v>
+                  <c:v>535.39210588052219</c:v>
                 </c:pt>
                 <c:pt idx="215">
-                  <c:v>571.3874340318697</c:v>
+                  <c:v>609.90377817399178</c:v>
                 </c:pt>
                 <c:pt idx="216">
-                  <c:v>615.57880719687535</c:v>
+                  <c:v>682.28131563334387</c:v>
                 </c:pt>
                 <c:pt idx="217">
-                  <c:v>657.51359037644477</c:v>
+                  <c:v>750.96296372552331</c:v>
                 </c:pt>
                 <c:pt idx="218">
-                  <c:v>696.28691943700039</c:v>
+                  <c:v>814.46671741124101</c:v>
                 </c:pt>
                 <c:pt idx="219">
-                  <c:v>731.06214775381147</c:v>
+                  <c:v>871.42229968653089</c:v>
                 </c:pt>
                 <c:pt idx="220">
-                  <c:v>761.08889927971438</c:v>
+                  <c:v>920.60072926901944</c:v>
                 </c:pt>
                 <c:pt idx="221">
-                  <c:v>785.71926007684215</c:v>
+                  <c:v>960.94083942072552</c:v>
                 </c:pt>
                 <c:pt idx="222">
-                  <c:v>804.42175893221975</c:v>
+                  <c:v>991.57217568706494</c:v>
                 </c:pt>
                 <c:pt idx="223">
-                  <c:v>816.79283538506979</c:v>
+                  <c:v>1011.8337784672137</c:v>
                 </c:pt>
                 <c:pt idx="224">
-                  <c:v>822.56554771000151</c:v>
+                  <c:v>1021.2884451275987</c:v>
                 </c:pt>
                 <c:pt idx="225">
-                  <c:v>821.61533295616084</c:v>
+                  <c:v>1019.7321639121736</c:v>
                 </c:pt>
                 <c:pt idx="226">
-                  <c:v>813.96269475286795</c:v>
+                  <c:v>1007.1985160856266</c:v>
                 </c:pt>
                 <c:pt idx="227">
-                  <c:v>799.7727608845621</c:v>
+                  <c:v>983.95795132054889</c:v>
                 </c:pt>
                 <c:pt idx="228">
-                  <c:v>779.35172018165304</c:v>
+                  <c:v>950.51195196418166</c:v>
                 </c:pt>
                 <c:pt idx="229">
-                  <c:v>753.14021561165532</c:v>
+                  <c:v>907.58221210755096</c:v>
                 </c:pt>
                 <c:pt idx="230">
-                  <c:v>721.70383613375839</c:v>
+                  <c:v>856.09506494984134</c:v>
                 </c:pt>
                 <c:pt idx="231">
-                  <c:v>685.7209124825531</c:v>
+                  <c:v>797.16149448264309</c:v>
                 </c:pt>
                 <c:pt idx="232">
-                  <c:v>645.96788022213127</c:v>
+                  <c:v>732.0531627997085</c:v>
                 </c:pt>
                 <c:pt idx="233">
-                  <c:v>603.30252590498719</c:v>
+                  <c:v>662.17497031233484</c:v>
                 </c:pt>
                 <c:pt idx="234">
-                  <c:v>558.64547784825584</c:v>
+                  <c:v>589.03474096300874</c:v>
                 </c:pt>
                 <c:pt idx="235">
-                  <c:v>512.96034091725244</c:v>
+                  <c:v>514.2106865663975</c:v>
                 </c:pt>
                 <c:pt idx="236">
-                  <c:v>467.23290396581012</c:v>
+                  <c:v>439.31735232861854</c:v>
                 </c:pt>
                 <c:pt idx="237">
-                  <c:v>422.44986859294465</c:v>
+                  <c:v>365.97077836857284</c:v>
                 </c:pt>
                 <c:pt idx="238">
-                  <c:v>379.5775582044073</c:v>
+                  <c:v>295.75362898221829</c:v>
                 </c:pt>
                 <c:pt idx="239">
-                  <c:v>339.54106679264703</c:v>
+                  <c:v>230.18104208667506</c:v>
                 </c:pt>
                 <c:pt idx="240">
-                  <c:v>303.20429736051199</c:v>
+                  <c:v>170.66793574109488</c:v>
                 </c:pt>
                 <c:pt idx="241">
-                  <c:v>271.35132071739361</c:v>
+                  <c:v>118.49847720060302</c:v>
                 </c:pt>
                 <c:pt idx="242">
-                  <c:v>244.66945688563374</c:v>
+                  <c:v>74.79837329666293</c:v>
                 </c:pt>
                 <c:pt idx="243">
-                  <c:v>223.73444418477732</c:v>
+                  <c:v>40.510580059042297</c:v>
                 </c:pt>
                 <c:pt idx="244">
-                  <c:v>208.99801601351197</c:v>
+                  <c:v>16.374955714437874</c:v>
                 </c:pt>
                 <c:pt idx="245">
-                  <c:v>200.77815339613636</c:v>
+                  <c:v>2.9122961071335567</c:v>
                 </c:pt>
                 <c:pt idx="246">
-                  <c:v>199.25222362303384</c:v>
+                  <c:v>0.41309702362275402</c:v>
                 </c:pt>
                 <c:pt idx="247">
-                  <c:v>204.45315303881341</c:v>
+                  <c:v>8.9312859065181556</c:v>
                 </c:pt>
                 <c:pt idx="248">
-                  <c:v>216.2687165612686</c:v>
+                  <c:v>28.283058214129028</c:v>
                 </c:pt>
                 <c:pt idx="249">
-                  <c:v>234.4439592618462</c:v>
+                  <c:v>58.050843534626324</c:v>
                 </c:pt>
                 <c:pt idx="250">
-                  <c:v>258.58669775501778</c:v>
+                  <c:v>97.592315874404107</c:v>
                 </c:pt>
                 <c:pt idx="251">
-                  <c:v>288.17598268818489</c:v>
+                  <c:v>146.05425369763617</c:v>
                 </c:pt>
                 <c:pt idx="252">
-                  <c:v>322.57333972944275</c:v>
+                  <c:v>202.39095064661939</c:v>
                 </c:pt>
                 <c:pt idx="253">
-                  <c:v>361.03654649640487</c:v>
+                  <c:v>265.3867796784067</c:v>
                 </c:pt>
                 <c:pt idx="254">
-                  <c:v>402.73564814903841</c:v>
+                  <c:v>333.68242373127771</c:v>
                 </c:pt>
                 <c:pt idx="255">
-                  <c:v>446.77086606379942</c:v>
+                  <c:v>405.80420691859456</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2908,769 +2908,769 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>45.707189162005648</c:v>
+                  <c:v>74.860171992900405</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>90.428113629566269</c:v>
+                  <c:v>148.1050194381678</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>133.19779021920544</c:v>
+                  <c:v>218.15407308337819</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>173.0933395592848</c:v>
+                  <c:v>283.49582216280305</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>209.25389987945664</c:v>
+                  <c:v>342.720329610264</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>240.89920259114683</c:v>
+                  <c:v>394.54965552588465</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>267.34640883723478</c:v>
+                  <c:v>437.86543242252219</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>288.02484371371861</c:v>
+                  <c:v>471.73299723625064</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>302.48831022995057</c:v>
+                  <c:v>495.42155938302801</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>310.42471729816566</c:v>
+                  <c:v>508.41996967744444</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>311.66281400060598</c:v>
+                  <c:v>510.44774985355673</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>306.17588482296605</c:v>
+                  <c:v>501.4611446940246</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>294.0823261188184</c:v>
+                  <c:v>481.65406617537235</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>275.6430913661336</c:v>
+                  <c:v>451.45390925671245</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>251.2560603418699</c:v>
+                  <c:v>411.51232959838319</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>221.44745371596014</c:v>
+                  <c:v>362.69118220787061</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>186.86047831964311</c:v>
+                  <c:v>306.04392442736412</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>148.24144809928998</c:v>
+                  <c:v>242.79288454723462</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>106.42368023625397</c:v>
+                  <c:v>174.30288654078777</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>62.309513920494851</c:v>
+                  <c:v>102.05180004286183</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>16.850839774906262</c:v>
+                  <c:v>27.598651041593257</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>28.971439935724504</c:v>
+                  <c:v>47.450018612676956</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>74.168577105767895</c:v>
+                  <c:v>121.47481699053657</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>117.76531288649448</c:v>
+                  <c:v>192.87844514422648</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>158.82092171411597</c:v>
+                  <c:v>260.12016344843994</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>196.4495101824092</c:v>
+                  <c:v>321.749037510292</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>229.83913275307947</c:v>
+                  <c:v>376.43524627187054</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>258.26931182717448</c:v>
+                  <c:v>422.9987767425838</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>281.12658413137501</c:v>
+                  <c:v>460.43488618952762</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>297.91773796095265</c:v>
+                  <c:v>487.93578236553464</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>308.28045564762078</c:v>
+                  <c:v>504.9080539613276</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>311.99113161028271</c:v>
+                  <c:v>510.98547516940528</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>308.96969729163715</c:v>
+                  <c:v>506.0369080641878</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>299.28134886869043</c:v>
+                  <c:v>490.16913228173337</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>283.13514045682842</c:v>
+                  <c:v>463.72454094051068</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>260.87947316313563</c:v>
+                  <c:v>427.27375252039207</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>232.99457732567328</c:v>
+                  <c:v>381.60329811993284</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>200.08215015612689</c:v>
+                  <c:v>327.69864977493864</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>162.85237238363186</c:v>
+                  <c:v>266.72295605139703</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>122.10858405320693</c:v>
+                  <c:v>199.99194375381006</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>78.729950142724249</c:v>
+                  <c:v>128.94552731709007</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>33.652490037833502</c:v>
+                  <c:v>55.116738491451656</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>12.151119791268911</c:v>
+                  <c:v>19.90135324787957</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>57.692534095601559</c:v>
+                  <c:v>94.490015778372936</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>101.98906525234213</c:v>
+                  <c:v>167.03978315367578</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>144.08488759014176</c:v>
+                  <c:v>235.98518448257187</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>183.07166209020261</c:v>
+                  <c:v>299.83852348747916</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>218.10813642560038</c:v>
+                  <c:v>357.22197985090315</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>248.43829741135528</c:v>
+                  <c:v>406.89733967052098</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>273.40768417368554</c:v>
+                  <c:v>447.79271350241447</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>292.47751003467192</c:v>
+                  <c:v>479.02566547345293</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>305.23628839186188</c:v>
+                  <c:v>499.92225438538912</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>311.40871173086578</c:v>
+                  <c:v>510.03157594382185</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>310.86159218058401</c:v>
+                  <c:v>509.13549232140508</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>303.60673542642348</c:v>
+                  <c:v>497.25333911186658</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>289.80068596851788</c:v>
+                  <c:v>474.64150810869432</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>269.74134922174301</c:v>
+                  <c:v>441.78791491125207</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>243.86156334547866</c:v>
+                  <c:v>399.4014707357037</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>212.71975950947137</c:v>
+                  <c:v>348.39678560685854</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>176.98791212754759</c:v>
+                  <c:v>289.87443300377186</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>137.43703906771066</c:v>
+                  <c:v>225.09720180641079</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>94.920564713487465</c:v>
+                  <c:v>155.46284797625663</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>50.355904866565425</c:v>
+                  <c:v>82.473933932099158</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>4.7046708496430938</c:v>
+                  <c:v>7.7054064236141357</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>41.048080036792214</c:v>
+                  <c:v>67.229387496156505</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>85.915099972424002</c:v>
+                  <c:v>140.71351309586112</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>128.92825334185397</c:v>
+                  <c:v>211.16133800540831</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>169.15940705829956</c:v>
+                  <c:v>277.05274681663809</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>205.74045771713838</c:v>
+                  <c:v>336.96594196621055</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>237.88206343557187</c:v>
+                  <c:v>389.6081231268501</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>264.89067618485416</c:v>
+                  <c:v>433.84338311045025</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>286.18350709327927</c:v>
+                  <c:v>468.71721834828753</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>301.30110180027953</c:v>
+                  <c:v>493.4771250639194</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>309.91725451202251</c:v>
+                  <c:v>507.5888367168061</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>311.84604683410822</c:v>
+                  <c:v>510.74785234688881</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>307.04585949821006</c:v>
+                  <c:v>502.88600706277356</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>295.62027041806334</c:v>
+                  <c:v>484.17294289625119</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>277.81581969664961</c:v>
+                  <c:v>455.01244828521783</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>254.01668981100306</c:v>
+                  <c:v>416.0337451712262</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>224.73641576502661</c:v>
+                  <c:v>368.07791171771987</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>190.60680408773032</c:v>
+                  <c:v>312.17973361804553</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>152.36429978152012</c:v>
+                  <c:v>249.54537560370761</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>110.83409539303847</c:v>
+                  <c:v>181.52635495462391</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>66.912325099257089</c:v>
+                  <c:v>109.59037860807808</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>21.546728022894513</c:v>
+                  <c:v>35.289673140061211</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>24.283801978012889</c:v>
+                  <c:v>39.772509008860879</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>69.590338773980534</c:v>
+                  <c:v>113.97648433815402</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>113.39526290319623</c:v>
+                  <c:v>185.72108763952963</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>154.75335653661557</c:v>
+                  <c:v>253.45822176349543</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>192.77219928418447</c:v>
+                  <c:v>315.72626228916113</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>226.63142474374581</c:v>
+                  <c:v>371.18159629504532</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>255.60042227692327</c:v>
+                  <c:v>418.62761469073018</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>279.05410204502266</c:v>
+                  <c:v>457.04053251604671</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>296.48638312873572</c:v>
+                  <c:v>485.59148006020496</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>307.52111368648752</c:v>
+                  <c:v>503.66438812113813</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>311.9201875174515</c:v>
+                  <c:v>510.86928147890285</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>309.58868189093073</c:v>
+                  <c:v>507.05069373803076</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>300.57690577858784</c:v>
+                  <c:v>492.29102196428983</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>285.07931429299538</c:v>
+                  <c:v>466.90874872987388</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>263.43031275662838</c:v>
+                  <c:v>431.45156993152932</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>236.09704094064227</c:v>
+                  <c:v>386.6845766688084</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>203.66929317433357</c:v>
+                  <c:v>333.57374619257826</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>166.84679182804678</c:v>
+                  <c:v>273.26509815426891</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>126.42408878092556</c:v>
+                  <c:v>207.05996592004146</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>83.273420667956543</c:v>
+                  <c:v>136.38691654271088</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>38.325887853914423</c:v>
+                  <c:v>62.770925299199575</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>7.448636747778437</c:v>
+                  <c:v>12.199530058060247</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>53.062435485973879</c:v>
+                  <c:v>86.906745299143154</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>97.531258834508094</c:v>
+                  <c:v>159.7386963603642</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>139.89556342009075</c:v>
+                  <c:v>229.1238234220076</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>179.24121694354596</c:v>
+                  <c:v>293.56494185305121</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>214.71922322590171</c:v>
+                  <c:v>351.67154829626855</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>245.5640417544497</c:v>
+                  <c:v>402.18982479655068</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>271.11010643162371</c:v>
+                  <c:v>444.02969354666573</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>290.80618708696215</c:v>
+                  <c:v>476.28833846614629</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>304.22728386102301</c:v>
+                  <c:v>498.26968606725239</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>311.08379780555231</c:v>
+                  <c:v>509.49942525204239</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>311.22777981769656</c:v>
+                  <c:v>509.73524194500942</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>304.65612306945337</c:v>
+                  <c:v>498.97204771952141</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>291.51063004646261</c:v>
+                  <c:v>477.44208959532818</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>272.07495274958842</c:v>
+                  <c:v>445.60993863794766</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>246.76847208327848</c:v>
+                  <c:v>404.16246549536959</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>216.13724850059145</c:v>
+                  <c:v>353.99401917885325</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>180.84223917087093</c:v>
+                  <c:v>296.18712889844568</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>141.64503591873756</c:v>
+                  <c:v>231.98914536690671</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>99.391431679553648</c:v>
+                  <c:v>162.78532560337158</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>54.993170072608677</c:v>
+                  <c:v>90.068942009945602</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>9.4082718977062996</c:v>
+                  <c:v>15.409060704256149</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>36.379636932162384</c:v>
+                  <c:v>59.583315616458322</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>81.382549962448024</c:v>
+                  <c:v>133.29000971413757</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>124.62939929152162</c:v>
+                  <c:v>204.12058666015241</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>165.18700916691739</c:v>
+                  <c:v>270.54667206504746</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>202.18023194896523</c:v>
+                  <c:v>331.13493117282439</c:v>
                 </c:pt>
                 <c:pt idx="134">
-                  <c:v>234.81083195018027</c:v>
+                  <c:v>384.57799720045546</c:v>
                 </c:pt>
                 <c:pt idx="135">
-                  <c:v>262.37470967702961</c:v>
+                  <c:v>429.72268155436564</c:v>
                 </c:pt>
                 <c:pt idx="136">
-                  <c:v>284.2770948112684</c:v>
+                  <c:v>465.59485720691714</c:v>
                 </c:pt>
                 <c:pt idx="137">
-                  <c:v>300.04538009836904</c:v>
+                  <c:v>491.42047830213642</c:v>
                 </c:pt>
                 <c:pt idx="138">
-                  <c:v>309.33931921481599</c:v>
+                  <c:v>506.64228243195828</c:v>
                 </c:pt>
                 <c:pt idx="139">
-                  <c:v>311.95836856580615</c:v>
+                  <c:v>510.93181518309916</c:v>
                 </c:pt>
                 <c:pt idx="140">
-                  <c:v>307.84601459285477</c:v>
+                  <c:v>504.19651749022046</c:v>
                 </c:pt>
                 <c:pt idx="141">
-                  <c:v>297.09099321713632</c:v>
+                  <c:v>486.58172286524564</c:v>
                 </c:pt>
                 <c:pt idx="142">
-                  <c:v>279.9253751055486</c:v>
+                  <c:v>458.46752140684407</c:v>
                 </c:pt>
                 <c:pt idx="143">
-                  <c:v>256.7195580754194</c:v>
+                  <c:v>420.46055825813869</c:v>
                 </c:pt>
                 <c:pt idx="144">
-                  <c:v>227.97427469119236</c:v>
+                  <c:v>373.38094348461311</c:v>
                 </c:pt>
                 <c:pt idx="145">
-                  <c:v>194.30978751228974</c:v>
+                  <c:v>318.24455582942323</c:v>
                 </c:pt>
                 <c:pt idx="146">
-                  <c:v>156.45250513591373</c:v>
+                  <c:v>256.24112219375615</c:v>
                 </c:pt>
                 <c:pt idx="147">
-                  <c:v>115.21930783232301</c:v>
+                  <c:v>188.70854584075983</c:v>
                 </c:pt>
                 <c:pt idx="148">
-                  <c:v>71.499920992319403</c:v>
+                  <c:v>117.1040372662668</c:v>
                 </c:pt>
                 <c:pt idx="149">
-                  <c:v>26.237716730740317</c:v>
+                  <c:v>42.972670671180481</c:v>
                 </c:pt>
                 <c:pt idx="150">
-                  <c:v>19.590642093146471</c:v>
+                  <c:v>32.085955479480333</c:v>
                 </c:pt>
                 <c:pt idx="151">
-                  <c:v>64.996276199276167</c:v>
+                  <c:v>106.45223441612222</c:v>
                 </c:pt>
                 <c:pt idx="152">
-                  <c:v>108.99942781499203</c:v>
+                  <c:v>178.52149876109269</c:v>
                 </c:pt>
                 <c:pt idx="153">
-                  <c:v>150.65060178037538</c:v>
+                  <c:v>246.73864586465322</c:v>
                 </c:pt>
                 <c:pt idx="154">
-                  <c:v>189.05105365023996</c:v>
+                  <c:v>309.63169363869423</c:v>
                 </c:pt>
                 <c:pt idx="155">
-                  <c:v>223.37218270281193</c:v>
+                  <c:v>365.84354282415671</c:v>
                 </c:pt>
                 <c:pt idx="156">
-                  <c:v>252.87341139485102</c:v>
+                  <c:v>414.16126032938746</c:v>
                 </c:pt>
                 <c:pt idx="157">
-                  <c:v>276.91816546232536</c:v>
+                  <c:v>453.54225176682132</c:v>
                 </c:pt>
                 <c:pt idx="158">
-                  <c:v>294.98760984978486</c:v>
+                  <c:v>483.13675843987204</c:v>
                 </c:pt>
                 <c:pt idx="159">
-                  <c:v>306.69184407605098</c:v>
+                  <c:v>502.30619334250656</c:v>
                 </c:pt>
                 <c:pt idx="160">
-                  <c:v>311.77831546386386</c:v>
+                  <c:v>510.63692051934112</c:v>
                 </c:pt>
                 <c:pt idx="161">
-                  <c:v>310.13726869374131</c:v>
+                  <c:v>507.9491804567366</c:v>
                 </c:pt>
                 <c:pt idx="162">
-                  <c:v>301.80411409217652</c:v>
+                  <c:v>494.30096891378906</c:v>
                 </c:pt>
                 <c:pt idx="163">
-                  <c:v>286.95866355151099</c:v>
+                  <c:v>469.98678549622474</c:v>
                 </c:pt>
                 <c:pt idx="164">
-                  <c:v>265.92125056872624</c:v>
+                  <c:v>435.53127897634329</c:v>
                 </c:pt>
                 <c:pt idx="165">
-                  <c:v>239.14581812451638</c:v>
+                  <c:v>391.67792647957657</c:v>
                 </c:pt>
                 <c:pt idx="166">
-                  <c:v>207.21012355164214</c:v>
+                  <c:v>339.37299081695238</c:v>
                 </c:pt>
                 <c:pt idx="167">
-                  <c:v>170.80327175082544</c:v>
+                  <c:v>279.74510213035836</c:v>
                 </c:pt>
                 <c:pt idx="168">
-                  <c:v>130.71084576109001</c:v>
+                  <c:v>214.0809044356314</c:v>
                 </c:pt>
                 <c:pt idx="169">
-                  <c:v>87.797955535448637</c:v>
+                  <c:v>143.79729255966112</c:v>
                 </c:pt>
                 <c:pt idx="170">
-                  <c:v>42.990570693606912</c:v>
+                  <c:v>70.410838539849806</c:v>
                 </c:pt>
                 <c:pt idx="171">
-                  <c:v>2.744459948524991</c:v>
+                  <c:v>4.4949328003085611</c:v>
                 </c:pt>
                 <c:pt idx="172">
-                  <c:v>48.420270936107499</c:v>
+                  <c:v>79.303712975483677</c:v>
                 </c:pt>
                 <c:pt idx="173">
-                  <c:v>93.051274649489869</c:v>
+                  <c:v>152.40128636502993</c:v>
                 </c:pt>
                 <c:pt idx="174">
-                  <c:v>135.67442820532642</c:v>
+                  <c:v>222.2103615798776</c:v>
                 </c:pt>
                 <c:pt idx="175">
-                  <c:v>175.37001388986596</c:v>
+                  <c:v>287.22460608244069</c:v>
                 </c:pt>
                 <c:pt idx="176">
-                  <c:v>211.28148472650093</c:v>
+                  <c:v>346.04114966423708</c:v>
                 </c:pt>
                 <c:pt idx="177">
-                  <c:v>242.63394695210309</c:v>
+                  <c:v>397.39085542475868</c:v>
                 </c:pt>
                 <c:pt idx="178">
-                  <c:v>268.75088058931374</c:v>
+                  <c:v>440.16570506775429</c:v>
                 </c:pt>
                 <c:pt idx="179">
-                  <c:v>289.06873732011445</c:v>
+                  <c:v>473.44270759800793</c:v>
                 </c:pt>
                 <c:pt idx="180">
-                  <c:v>303.14910066937841</c:v>
+                  <c:v>496.50381551939859</c:v>
                 </c:pt>
                 <c:pt idx="181">
-                  <c:v>310.68814610729021</c:v>
+                  <c:v>508.85141878469653</c:v>
                 </c:pt>
                 <c:pt idx="182">
-                  <c:v>311.5231969415928</c:v>
+                  <c:v>510.21908217036503</c:v>
                 </c:pt>
                 <c:pt idx="183">
-                  <c:v>305.63623453733965</c:v>
+                  <c:v>500.57729438647607</c:v>
                 </c:pt>
                 <c:pt idx="184">
-                  <c:v>293.15428712101561</c:v>
+                  <c:v>480.13410486807356</c:v>
                 </c:pt>
                 <c:pt idx="185">
-                  <c:v>274.34668877945273</c:v>
+                  <c:v>449.33063450737291</c:v>
                 </c:pt>
                 <c:pt idx="186">
-                  <c:v>249.61926779856663</c:v>
+                  <c:v>408.83155719572926</c:v>
                 </c:pt>
                 <c:pt idx="187">
-                  <c:v>219.50558974528951</c:v>
+                  <c:v>359.5107575635991</c:v>
                 </c:pt>
                 <c:pt idx="188">
-                  <c:v>184.65544424852476</c:v>
+                  <c:v>302.43247439421839</c:v>
                 </c:pt>
                 <c:pt idx="189">
-                  <c:v>145.82082391009226</c:v>
+                  <c:v>238.82833659633707</c:v>
                 </c:pt>
                 <c:pt idx="190">
-                  <c:v>103.83969789117123</c:v>
+                  <c:v>170.07078725124506</c:v>
                 </c:pt>
                 <c:pt idx="191">
-                  <c:v>59.617930306020526</c:v>
+                  <c:v>97.643469187104074</c:v>
                 </c:pt>
                 <c:pt idx="192">
-                  <c:v>14.109733585872846</c:v>
+                  <c:v>23.109211097375123</c:v>
                 </c:pt>
                 <c:pt idx="193">
-                  <c:v>31.702921411819375</c:v>
+                  <c:v>51.923695004614444</c:v>
                 </c:pt>
                 <c:pt idx="194">
-                  <c:v>76.831494262424883</c:v>
+                  <c:v>125.836197333651</c:v>
                 </c:pt>
                 <c:pt idx="195">
-                  <c:v>120.30220559054953</c:v>
+                  <c:v>197.03342005375259</c:v>
                 </c:pt>
                 <c:pt idx="196">
-                  <c:v>161.17704917416381</c:v>
+                  <c:v>263.97907733332596</c:v>
                 </c:pt>
                 <c:pt idx="197">
-                  <c:v>198.57403213957446</c:v>
+                  <c:v>325.22862315167487</c:v>
                 </c:pt>
                 <c:pt idx="198">
-                  <c:v>231.68620650652372</c:v>
+                  <c:v>379.46042155395384</c:v>
                 </c:pt>
                 <c:pt idx="199">
-                  <c:v>259.79908142284688</c:v>
+                  <c:v>425.50426476626524</c:v>
                 </c:pt>
                 <c:pt idx="200">
-                  <c:v>282.30604036939854</c:v>
+                  <c:v>462.36662381013667</c:v>
                 </c:pt>
                 <c:pt idx="201">
-                  <c:v>298.72143066450536</c:v>
+                  <c:v>489.25208676141739</c:v>
                 </c:pt>
                 <c:pt idx="202">
-                  <c:v>308.69104282404874</c:v>
+                  <c:v>505.58052206118242</c:v>
                 </c:pt>
                 <c:pt idx="203">
-                  <c:v>311.99975365470658</c:v>
+                  <c:v>510.99959653062518</c:v>
                 </c:pt>
                 <c:pt idx="204">
-                  <c:v>308.57616815853191</c:v>
+                  <c:v>505.39237797759557</c:v>
                 </c:pt>
                 <c:pt idx="205">
-                  <c:v>298.49416008635478</c:v>
+                  <c:v>488.87985834656183</c:v>
                 </c:pt>
                 <c:pt idx="206">
-                  <c:v>281.97127789812168</c:v>
+                  <c:v>461.81834296775696</c:v>
                 </c:pt>
                 <c:pt idx="207">
-                  <c:v>259.36405052618505</c:v>
+                  <c:v>424.79176224000184</c:v>
                 </c:pt>
                 <c:pt idx="208">
-                  <c:v>231.16029423326006</c:v>
+                  <c:v>378.59907164485867</c:v>
                 </c:pt>
                 <c:pt idx="209">
-                  <c:v>197.96858656682735</c:v>
+                  <c:v>324.23701197323328</c:v>
                 </c:pt>
                 <c:pt idx="210">
-                  <c:v>160.50513453982899</c:v>
+                  <c:v>262.87860176234807</c:v>
                 </c:pt>
                 <c:pt idx="211">
-                  <c:v>119.57832039461607</c:v>
+                  <c:v>195.8478260309256</c:v>
                 </c:pt>
                 <c:pt idx="212">
-                  <c:v>76.071258419936157</c:v>
+                  <c:v>124.59106747624151</c:v>
                 </c:pt>
                 <c:pt idx="213">
-                  <c:v>30.922739208065991</c:v>
+                  <c:v>50.645896587569609</c:v>
                 </c:pt>
                 <c:pt idx="214">
-                  <c:v>14.893027465211162</c:v>
+                  <c:v>24.392105880522195</c:v>
                 </c:pt>
                 <c:pt idx="215">
-                  <c:v>60.387434031869702</c:v>
+                  <c:v>98.903778173991782</c:v>
                 </c:pt>
                 <c:pt idx="216">
-                  <c:v>104.57880719687535</c:v>
+                  <c:v>171.28131563334387</c:v>
                 </c:pt>
                 <c:pt idx="217">
-                  <c:v>146.51359037644477</c:v>
+                  <c:v>239.96296372552331</c:v>
                 </c:pt>
                 <c:pt idx="218">
-                  <c:v>185.28691943700039</c:v>
+                  <c:v>303.46671741124101</c:v>
                 </c:pt>
                 <c:pt idx="219">
-                  <c:v>220.06214775381147</c:v>
+                  <c:v>360.42229968653089</c:v>
                 </c:pt>
                 <c:pt idx="220">
-                  <c:v>250.08889927971438</c:v>
+                  <c:v>409.60072926901944</c:v>
                 </c:pt>
                 <c:pt idx="221">
-                  <c:v>274.71926007684215</c:v>
+                  <c:v>449.94083942072552</c:v>
                 </c:pt>
                 <c:pt idx="222">
-                  <c:v>293.42175893221975</c:v>
+                  <c:v>480.57217568706494</c:v>
                 </c:pt>
                 <c:pt idx="223">
-                  <c:v>305.79283538506979</c:v>
+                  <c:v>500.83377846721373</c:v>
                 </c:pt>
                 <c:pt idx="224">
-                  <c:v>311.56554771000151</c:v>
+                  <c:v>510.28844512759872</c:v>
                 </c:pt>
                 <c:pt idx="225">
-                  <c:v>310.61533295616084</c:v>
+                  <c:v>508.73216391217363</c:v>
                 </c:pt>
                 <c:pt idx="226">
-                  <c:v>302.96269475286795</c:v>
+                  <c:v>496.19851608562658</c:v>
                 </c:pt>
                 <c:pt idx="227">
-                  <c:v>288.7727608845621</c:v>
+                  <c:v>472.95795132054889</c:v>
                 </c:pt>
                 <c:pt idx="228">
-                  <c:v>268.35172018165304</c:v>
+                  <c:v>439.51195196418166</c:v>
                 </c:pt>
                 <c:pt idx="229">
-                  <c:v>242.14021561165532</c:v>
+                  <c:v>396.58221210755096</c:v>
                 </c:pt>
                 <c:pt idx="230">
-                  <c:v>210.70383613375839</c:v>
+                  <c:v>345.09506494984134</c:v>
                 </c:pt>
                 <c:pt idx="231">
-                  <c:v>174.7209124825531</c:v>
+                  <c:v>286.16149448264309</c:v>
                 </c:pt>
                 <c:pt idx="232">
-                  <c:v>134.96788022213127</c:v>
+                  <c:v>221.0531627997085</c:v>
                 </c:pt>
                 <c:pt idx="233">
-                  <c:v>92.302525904987192</c:v>
+                  <c:v>151.17497031233484</c:v>
                 </c:pt>
                 <c:pt idx="234">
-                  <c:v>47.645477848255837</c:v>
+                  <c:v>78.034740963008744</c:v>
                 </c:pt>
                 <c:pt idx="235">
-                  <c:v>1.960340917252438</c:v>
+                  <c:v>3.2106865663974986</c:v>
                 </c:pt>
                 <c:pt idx="236">
-                  <c:v>43.767096034189876</c:v>
+                  <c:v>71.68264767138146</c:v>
                 </c:pt>
                 <c:pt idx="237">
-                  <c:v>88.550131407055346</c:v>
+                  <c:v>145.02922163142716</c:v>
                 </c:pt>
                 <c:pt idx="238">
-                  <c:v>131.4224417955927</c:v>
+                  <c:v>215.24637101778171</c:v>
                 </c:pt>
                 <c:pt idx="239">
-                  <c:v>171.45893320735297</c:v>
+                  <c:v>280.81895791332494</c:v>
                 </c:pt>
                 <c:pt idx="240">
-                  <c:v>207.79570263948801</c:v>
+                  <c:v>340.33206425890512</c:v>
                 </c:pt>
                 <c:pt idx="241">
-                  <c:v>239.64867928260639</c:v>
+                  <c:v>392.50152279939698</c:v>
                 </c:pt>
                 <c:pt idx="242">
-                  <c:v>266.33054311436626</c:v>
+                  <c:v>436.20162670333707</c:v>
                 </c:pt>
                 <c:pt idx="243">
-                  <c:v>287.26555581522268</c:v>
+                  <c:v>470.4894199409577</c:v>
                 </c:pt>
                 <c:pt idx="244">
-                  <c:v>302.00198398648803</c:v>
+                  <c:v>494.62504428556213</c:v>
                 </c:pt>
                 <c:pt idx="245">
-                  <c:v>310.22184660386364</c:v>
+                  <c:v>508.08770389286644</c:v>
                 </c:pt>
                 <c:pt idx="246">
-                  <c:v>311.74777637696616</c:v>
+                  <c:v>510.58690297637725</c:v>
                 </c:pt>
                 <c:pt idx="247">
-                  <c:v>306.54684696118659</c:v>
+                  <c:v>502.06871409348184</c:v>
                 </c:pt>
                 <c:pt idx="248">
-                  <c:v>294.7312834387314</c:v>
+                  <c:v>482.71694178587097</c:v>
                 </c:pt>
                 <c:pt idx="249">
-                  <c:v>276.5560407381538</c:v>
+                  <c:v>452.94915646537368</c:v>
                 </c:pt>
                 <c:pt idx="250">
-                  <c:v>252.41330224498222</c:v>
+                  <c:v>413.40768412559589</c:v>
                 </c:pt>
                 <c:pt idx="251">
-                  <c:v>222.82401731181511</c:v>
+                  <c:v>364.94574630236383</c:v>
                 </c:pt>
                 <c:pt idx="252">
-                  <c:v>188.42666027055725</c:v>
+                  <c:v>308.60904935338061</c:v>
                 </c:pt>
                 <c:pt idx="253">
-                  <c:v>149.96345350359513</c:v>
+                  <c:v>245.6132203215933</c:v>
                 </c:pt>
                 <c:pt idx="254">
-                  <c:v>108.26435185096159</c:v>
+                  <c:v>177.31757626872229</c:v>
                 </c:pt>
                 <c:pt idx="255">
-                  <c:v>64.229133936200583</c:v>
+                  <c:v>105.19579308140544</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5344,7 +5344,7 @@
   <dimension ref="B2:D7"/>
   <sheetViews>
     <sheetView zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5385,7 +5385,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="2">
-        <v>312</v>
+        <v>511</v>
       </c>
       <c r="D5" s="1"/>
     </row>
@@ -5424,7 +5424,7 @@
   <dimension ref="B2:J258"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3:J258"/>
+      <selection activeCell="J34" sqref="J34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5485,7 +5485,7 @@
       </c>
       <c r="H3" s="12">
         <f>MAX($E$13:$E$268)</f>
-        <v>311.99975365470658</v>
+        <v>510.99959653062518</v>
       </c>
       <c r="I3" s="1"/>
       <c r="J3" s="14" t="str">
@@ -5503,23 +5503,23 @@
       </c>
       <c r="D4" s="11">
         <f t="shared" si="1"/>
-        <v>556.70718916200565</v>
+        <v>585.8601719929004</v>
       </c>
       <c r="E4" s="4">
         <f t="shared" ref="E4:E67" si="2">IF($D4 &lt; 511, 511 - $D4, $D4 - 511)</f>
-        <v>45.707189162005648</v>
+        <v>74.860171992900405</v>
       </c>
       <c r="G4" s="9" t="s">
         <v>6</v>
       </c>
       <c r="H4" s="12">
         <f>PEAK_VALUE * 0.707</f>
-        <v>220.58382583387754</v>
+        <v>361.27671474715197</v>
       </c>
       <c r="I4" s="1"/>
       <c r="J4" s="14" t="str">
         <f t="shared" ref="J4:J67" si="3">CONCATENATE(ROUND($D4, 0), ",")</f>
-        <v>557,</v>
+        <v>586,</v>
       </c>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.2">
@@ -5532,15 +5532,15 @@
       </c>
       <c r="D5" s="11">
         <f t="shared" si="1"/>
-        <v>601.42811362956627</v>
+        <v>659.1050194381678</v>
       </c>
       <c r="E5" s="4">
         <f t="shared" si="2"/>
-        <v>90.428113629566269</v>
+        <v>148.1050194381678</v>
       </c>
       <c r="J5" s="14" t="str">
         <f t="shared" si="3"/>
-        <v>601,</v>
+        <v>659,</v>
       </c>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.2">
@@ -5553,15 +5553,15 @@
       </c>
       <c r="D6" s="11">
         <f t="shared" si="1"/>
-        <v>644.19779021920544</v>
+        <v>729.15407308337819</v>
       </c>
       <c r="E6" s="4">
         <f t="shared" si="2"/>
-        <v>133.19779021920544</v>
+        <v>218.15407308337819</v>
       </c>
       <c r="J6" s="14" t="str">
         <f t="shared" si="3"/>
-        <v>644,</v>
+        <v>729,</v>
       </c>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.2">
@@ -5574,15 +5574,15 @@
       </c>
       <c r="D7" s="11">
         <f t="shared" si="1"/>
-        <v>684.0933395592848</v>
+        <v>794.49582216280305</v>
       </c>
       <c r="E7" s="4">
         <f t="shared" si="2"/>
-        <v>173.0933395592848</v>
+        <v>283.49582216280305</v>
       </c>
       <c r="J7" s="14" t="str">
         <f t="shared" si="3"/>
-        <v>684,</v>
+        <v>794,</v>
       </c>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.2">
@@ -5595,15 +5595,15 @@
       </c>
       <c r="D8" s="11">
         <f t="shared" si="1"/>
-        <v>720.25389987945664</v>
+        <v>853.720329610264</v>
       </c>
       <c r="E8" s="4">
         <f t="shared" si="2"/>
-        <v>209.25389987945664</v>
+        <v>342.720329610264</v>
       </c>
       <c r="J8" s="14" t="str">
         <f t="shared" si="3"/>
-        <v>720,</v>
+        <v>854,</v>
       </c>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.2">
@@ -5616,15 +5616,15 @@
       </c>
       <c r="D9" s="11">
         <f t="shared" si="1"/>
-        <v>751.89920259114683</v>
+        <v>905.54965552588465</v>
       </c>
       <c r="E9" s="4">
         <f t="shared" si="2"/>
-        <v>240.89920259114683</v>
+        <v>394.54965552588465</v>
       </c>
       <c r="J9" s="14" t="str">
         <f t="shared" si="3"/>
-        <v>752,</v>
+        <v>906,</v>
       </c>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.2">
@@ -5637,15 +5637,15 @@
       </c>
       <c r="D10" s="11">
         <f t="shared" si="1"/>
-        <v>778.34640883723478</v>
+        <v>948.86543242252219</v>
       </c>
       <c r="E10" s="4">
         <f t="shared" si="2"/>
-        <v>267.34640883723478</v>
+        <v>437.86543242252219</v>
       </c>
       <c r="J10" s="14" t="str">
         <f t="shared" si="3"/>
-        <v>778,</v>
+        <v>949,</v>
       </c>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.2">
@@ -5658,15 +5658,15 @@
       </c>
       <c r="D11" s="11">
         <f t="shared" si="1"/>
-        <v>799.02484371371861</v>
+        <v>982.73299723625064</v>
       </c>
       <c r="E11" s="4">
         <f t="shared" si="2"/>
-        <v>288.02484371371861</v>
+        <v>471.73299723625064</v>
       </c>
       <c r="J11" s="14" t="str">
         <f t="shared" si="3"/>
-        <v>799,</v>
+        <v>983,</v>
       </c>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.2">
@@ -5679,15 +5679,15 @@
       </c>
       <c r="D12" s="11">
         <f t="shared" si="1"/>
-        <v>813.48831022995057</v>
+        <v>1006.421559383028</v>
       </c>
       <c r="E12" s="4">
         <f t="shared" si="2"/>
-        <v>302.48831022995057</v>
+        <v>495.42155938302801</v>
       </c>
       <c r="J12" s="14" t="str">
         <f t="shared" si="3"/>
-        <v>813,</v>
+        <v>1006,</v>
       </c>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.2">
@@ -5700,15 +5700,15 @@
       </c>
       <c r="D13" s="11">
         <f t="shared" si="1"/>
-        <v>821.42471729816566</v>
+        <v>1019.4199696774444</v>
       </c>
       <c r="E13" s="4">
         <f t="shared" si="2"/>
-        <v>310.42471729816566</v>
+        <v>508.41996967744444</v>
       </c>
       <c r="J13" s="14" t="str">
         <f t="shared" si="3"/>
-        <v>821,</v>
+        <v>1019,</v>
       </c>
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.2">
@@ -5721,15 +5721,15 @@
       </c>
       <c r="D14" s="11">
         <f t="shared" si="1"/>
-        <v>822.66281400060598</v>
+        <v>1021.4477498535567</v>
       </c>
       <c r="E14" s="4">
         <f t="shared" si="2"/>
-        <v>311.66281400060598</v>
+        <v>510.44774985355673</v>
       </c>
       <c r="J14" s="14" t="str">
         <f t="shared" si="3"/>
-        <v>823,</v>
+        <v>1021,</v>
       </c>
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.2">
@@ -5742,15 +5742,15 @@
       </c>
       <c r="D15" s="11">
         <f t="shared" si="1"/>
-        <v>817.17588482296605</v>
+        <v>1012.4611446940246</v>
       </c>
       <c r="E15" s="4">
         <f t="shared" si="2"/>
-        <v>306.17588482296605</v>
+        <v>501.4611446940246</v>
       </c>
       <c r="J15" s="14" t="str">
         <f t="shared" si="3"/>
-        <v>817,</v>
+        <v>1012,</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.2">
@@ -5763,15 +5763,15 @@
       </c>
       <c r="D16" s="11">
         <f t="shared" si="1"/>
-        <v>805.0823261188184</v>
+        <v>992.65406617537235</v>
       </c>
       <c r="E16" s="4">
         <f t="shared" si="2"/>
-        <v>294.0823261188184</v>
+        <v>481.65406617537235</v>
       </c>
       <c r="J16" s="14" t="str">
         <f t="shared" si="3"/>
-        <v>805,</v>
+        <v>993,</v>
       </c>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.2">
@@ -5784,15 +5784,15 @@
       </c>
       <c r="D17" s="11">
         <f t="shared" si="1"/>
-        <v>786.6430913661336</v>
+        <v>962.45390925671245</v>
       </c>
       <c r="E17" s="4">
         <f t="shared" si="2"/>
-        <v>275.6430913661336</v>
+        <v>451.45390925671245</v>
       </c>
       <c r="J17" s="14" t="str">
         <f t="shared" si="3"/>
-        <v>787,</v>
+        <v>962,</v>
       </c>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.2">
@@ -5805,15 +5805,15 @@
       </c>
       <c r="D18" s="11">
         <f t="shared" si="1"/>
-        <v>762.2560603418699</v>
+        <v>922.51232959838319</v>
       </c>
       <c r="E18" s="4">
         <f t="shared" si="2"/>
-        <v>251.2560603418699</v>
+        <v>411.51232959838319</v>
       </c>
       <c r="J18" s="14" t="str">
         <f t="shared" si="3"/>
-        <v>762,</v>
+        <v>923,</v>
       </c>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.2">
@@ -5826,15 +5826,15 @@
       </c>
       <c r="D19" s="11">
         <f t="shared" si="1"/>
-        <v>732.44745371596014</v>
+        <v>873.69118220787061</v>
       </c>
       <c r="E19" s="4">
         <f t="shared" si="2"/>
-        <v>221.44745371596014</v>
+        <v>362.69118220787061</v>
       </c>
       <c r="J19" s="14" t="str">
         <f t="shared" si="3"/>
-        <v>732,</v>
+        <v>874,</v>
       </c>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.2">
@@ -5847,15 +5847,15 @@
       </c>
       <c r="D20" s="11">
         <f t="shared" si="1"/>
-        <v>697.86047831964311</v>
+        <v>817.04392442736412</v>
       </c>
       <c r="E20" s="4">
         <f t="shared" si="2"/>
-        <v>186.86047831964311</v>
+        <v>306.04392442736412</v>
       </c>
       <c r="J20" s="14" t="str">
         <f t="shared" si="3"/>
-        <v>698,</v>
+        <v>817,</v>
       </c>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.2">
@@ -5868,15 +5868,15 @@
       </c>
       <c r="D21" s="11">
         <f t="shared" si="1"/>
-        <v>659.24144809928998</v>
+        <v>753.79288454723462</v>
       </c>
       <c r="E21" s="4">
         <f t="shared" si="2"/>
-        <v>148.24144809928998</v>
+        <v>242.79288454723462</v>
       </c>
       <c r="J21" s="14" t="str">
         <f t="shared" si="3"/>
-        <v>659,</v>
+        <v>754,</v>
       </c>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.2">
@@ -5889,15 +5889,15 @@
       </c>
       <c r="D22" s="11">
         <f t="shared" si="1"/>
-        <v>617.42368023625397</v>
+        <v>685.30288654078777</v>
       </c>
       <c r="E22" s="4">
         <f t="shared" si="2"/>
-        <v>106.42368023625397</v>
+        <v>174.30288654078777</v>
       </c>
       <c r="J22" s="14" t="str">
         <f t="shared" si="3"/>
-        <v>617,</v>
+        <v>685,</v>
       </c>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.2">
@@ -5910,15 +5910,15 @@
       </c>
       <c r="D23" s="11">
         <f t="shared" si="1"/>
-        <v>573.30951392049485</v>
+        <v>613.05180004286183</v>
       </c>
       <c r="E23" s="4">
         <f t="shared" si="2"/>
-        <v>62.309513920494851</v>
+        <v>102.05180004286183</v>
       </c>
       <c r="J23" s="14" t="str">
         <f t="shared" si="3"/>
-        <v>573,</v>
+        <v>613,</v>
       </c>
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.2">
@@ -5931,15 +5931,15 @@
       </c>
       <c r="D24" s="11">
         <f t="shared" si="1"/>
-        <v>527.85083977490626</v>
+        <v>538.59865104159326</v>
       </c>
       <c r="E24" s="4">
         <f t="shared" si="2"/>
-        <v>16.850839774906262</v>
+        <v>27.598651041593257</v>
       </c>
       <c r="J24" s="14" t="str">
         <f t="shared" si="3"/>
-        <v>528,</v>
+        <v>539,</v>
       </c>
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.2">
@@ -5952,15 +5952,15 @@
       </c>
       <c r="D25" s="11">
         <f t="shared" si="1"/>
-        <v>482.0285600642755</v>
+        <v>463.54998138732304</v>
       </c>
       <c r="E25" s="4">
         <f t="shared" si="2"/>
-        <v>28.971439935724504</v>
+        <v>47.450018612676956</v>
       </c>
       <c r="J25" s="14" t="str">
         <f t="shared" si="3"/>
-        <v>482,</v>
+        <v>464,</v>
       </c>
     </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.2">
@@ -5973,15 +5973,15 @@
       </c>
       <c r="D26" s="11">
         <f t="shared" si="1"/>
-        <v>436.83142289423211</v>
+        <v>389.52518300946343</v>
       </c>
       <c r="E26" s="4">
         <f t="shared" si="2"/>
-        <v>74.168577105767895</v>
+        <v>121.47481699053657</v>
       </c>
       <c r="J26" s="14" t="str">
         <f t="shared" si="3"/>
-        <v>437,</v>
+        <v>390,</v>
       </c>
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.2">
@@ -5994,15 +5994,15 @@
       </c>
       <c r="D27" s="11">
         <f t="shared" si="1"/>
-        <v>393.23468711350552</v>
+        <v>318.12155485577352</v>
       </c>
       <c r="E27" s="4">
         <f t="shared" si="2"/>
-        <v>117.76531288649448</v>
+        <v>192.87844514422648</v>
       </c>
       <c r="J27" s="14" t="str">
         <f t="shared" si="3"/>
-        <v>393,</v>
+        <v>318,</v>
       </c>
     </row>
     <row r="28" spans="2:10" x14ac:dyDescent="0.2">
@@ -6015,15 +6015,15 @@
       </c>
       <c r="D28" s="11">
         <f t="shared" si="1"/>
-        <v>352.17907828588403</v>
+        <v>250.87983655156006</v>
       </c>
       <c r="E28" s="4">
         <f t="shared" si="2"/>
-        <v>158.82092171411597</v>
+        <v>260.12016344843994</v>
       </c>
       <c r="J28" s="14" t="str">
         <f t="shared" si="3"/>
-        <v>352,</v>
+        <v>251,</v>
       </c>
     </row>
     <row r="29" spans="2:10" x14ac:dyDescent="0.2">
@@ -6036,15 +6036,15 @@
       </c>
       <c r="D29" s="11">
         <f t="shared" si="1"/>
-        <v>314.5504898175908</v>
+        <v>189.250962489708</v>
       </c>
       <c r="E29" s="4">
         <f t="shared" si="2"/>
-        <v>196.4495101824092</v>
+        <v>321.749037510292</v>
       </c>
       <c r="J29" s="14" t="str">
         <f t="shared" si="3"/>
-        <v>315,</v>
+        <v>189,</v>
       </c>
     </row>
     <row r="30" spans="2:10" x14ac:dyDescent="0.2">
@@ -6057,15 +6057,15 @@
       </c>
       <c r="D30" s="11">
         <f t="shared" si="1"/>
-        <v>281.16086724692053</v>
+        <v>134.56475372812946</v>
       </c>
       <c r="E30" s="4">
         <f t="shared" si="2"/>
-        <v>229.83913275307947</v>
+        <v>376.43524627187054</v>
       </c>
       <c r="J30" s="14" t="str">
         <f t="shared" si="3"/>
-        <v>281,</v>
+        <v>135,</v>
       </c>
     </row>
     <row r="31" spans="2:10" x14ac:dyDescent="0.2">
@@ -6078,15 +6078,15 @@
       </c>
       <c r="D31" s="11">
         <f t="shared" si="1"/>
-        <v>252.73068817282552</v>
+        <v>88.0012232574162</v>
       </c>
       <c r="E31" s="4">
         <f t="shared" si="2"/>
-        <v>258.26931182717448</v>
+        <v>422.9987767425838</v>
       </c>
       <c r="J31" s="14" t="str">
         <f t="shared" si="3"/>
-        <v>253,</v>
+        <v>88,</v>
       </c>
     </row>
     <row r="32" spans="2:10" x14ac:dyDescent="0.2">
@@ -6099,15 +6099,15 @@
       </c>
       <c r="D32" s="11">
         <f t="shared" si="1"/>
-        <v>229.87341586862499</v>
+        <v>50.565113810472383</v>
       </c>
       <c r="E32" s="4">
         <f t="shared" si="2"/>
-        <v>281.12658413137501</v>
+        <v>460.43488618952762</v>
       </c>
       <c r="J32" s="14" t="str">
         <f t="shared" si="3"/>
-        <v>230,</v>
+        <v>51,</v>
       </c>
     </row>
     <row r="33" spans="2:10" x14ac:dyDescent="0.2">
@@ -6120,15 +6120,15 @@
       </c>
       <c r="D33" s="11">
         <f t="shared" si="1"/>
-        <v>213.08226203904735</v>
+        <v>23.064217634465365</v>
       </c>
       <c r="E33" s="4">
         <f t="shared" si="2"/>
-        <v>297.91773796095265</v>
+        <v>487.93578236553464</v>
       </c>
       <c r="J33" s="14" t="str">
         <f t="shared" si="3"/>
-        <v>213,</v>
+        <v>23,</v>
       </c>
     </row>
     <row r="34" spans="2:10" x14ac:dyDescent="0.2">
@@ -6141,15 +6141,15 @@
       </c>
       <c r="D34" s="11">
         <f t="shared" si="1"/>
-        <v>202.71954435237922</v>
+        <v>6.091946038672404</v>
       </c>
       <c r="E34" s="4">
         <f t="shared" si="2"/>
-        <v>308.28045564762078</v>
+        <v>504.9080539613276</v>
       </c>
       <c r="J34" s="14" t="str">
         <f t="shared" si="3"/>
-        <v>203,</v>
+        <v>6,</v>
       </c>
     </row>
     <row r="35" spans="2:10" x14ac:dyDescent="0.2">
@@ -6162,15 +6162,15 @@
       </c>
       <c r="D35" s="11">
         <f t="shared" si="1"/>
-        <v>199.00886838971729</v>
+        <v>1.4524830594723426E-2</v>
       </c>
       <c r="E35" s="4">
         <f t="shared" si="2"/>
-        <v>311.99113161028271</v>
+        <v>510.98547516940528</v>
       </c>
       <c r="J35" s="14" t="str">
         <f t="shared" si="3"/>
-        <v>199,</v>
+        <v>0,</v>
       </c>
     </row>
     <row r="36" spans="2:10" x14ac:dyDescent="0.2">
@@ -6183,15 +6183,15 @@
       </c>
       <c r="D36" s="11">
         <f t="shared" si="1"/>
-        <v>202.03030270836285</v>
+        <v>4.9630919358122014</v>
       </c>
       <c r="E36" s="4">
         <f t="shared" si="2"/>
-        <v>308.96969729163715</v>
+        <v>506.0369080641878</v>
       </c>
       <c r="J36" s="14" t="str">
         <f t="shared" si="3"/>
-        <v>202,</v>
+        <v>5,</v>
       </c>
     </row>
     <row r="37" spans="2:10" x14ac:dyDescent="0.2">
@@ -6204,15 +6204,15 @@
       </c>
       <c r="D37" s="11">
         <f t="shared" si="1"/>
-        <v>211.71865113130957</v>
+        <v>20.830867718266632</v>
       </c>
       <c r="E37" s="4">
         <f t="shared" si="2"/>
-        <v>299.28134886869043</v>
+        <v>490.16913228173337</v>
       </c>
       <c r="J37" s="14" t="str">
         <f t="shared" si="3"/>
-        <v>212,</v>
+        <v>21,</v>
       </c>
     </row>
     <row r="38" spans="2:10" x14ac:dyDescent="0.2">
@@ -6225,15 +6225,15 @@
       </c>
       <c r="D38" s="11">
         <f t="shared" si="1"/>
-        <v>227.86485954317158</v>
+        <v>47.275459059489322</v>
       </c>
       <c r="E38" s="4">
         <f t="shared" si="2"/>
-        <v>283.13514045682842</v>
+        <v>463.72454094051068</v>
       </c>
       <c r="J38" s="14" t="str">
         <f t="shared" si="3"/>
-        <v>228,</v>
+        <v>47,</v>
       </c>
     </row>
     <row r="39" spans="2:10" x14ac:dyDescent="0.2">
@@ -6246,15 +6246,15 @@
       </c>
       <c r="D39" s="11">
         <f t="shared" si="1"/>
-        <v>250.12052683686437</v>
+        <v>83.726247479607935</v>
       </c>
       <c r="E39" s="4">
         <f t="shared" si="2"/>
-        <v>260.87947316313563</v>
+        <v>427.27375252039207</v>
       </c>
       <c r="J39" s="14" t="str">
         <f t="shared" si="3"/>
-        <v>250,</v>
+        <v>84,</v>
       </c>
     </row>
     <row r="40" spans="2:10" x14ac:dyDescent="0.2">
@@ -6267,15 +6267,15 @@
       </c>
       <c r="D40" s="11">
         <f t="shared" si="1"/>
-        <v>278.00542267432672</v>
+        <v>129.39670188006716</v>
       </c>
       <c r="E40" s="4">
         <f t="shared" si="2"/>
-        <v>232.99457732567328</v>
+        <v>381.60329811993284</v>
       </c>
       <c r="J40" s="14" t="str">
         <f t="shared" si="3"/>
-        <v>278,</v>
+        <v>129,</v>
       </c>
     </row>
     <row r="41" spans="2:10" x14ac:dyDescent="0.2">
@@ -6288,15 +6288,15 @@
       </c>
       <c r="D41" s="11">
         <f t="shared" si="1"/>
-        <v>310.91784984387311</v>
+        <v>183.30135022506136</v>
       </c>
       <c r="E41" s="4">
         <f t="shared" si="2"/>
-        <v>200.08215015612689</v>
+        <v>327.69864977493864</v>
       </c>
       <c r="J41" s="14" t="str">
         <f t="shared" si="3"/>
-        <v>311,</v>
+        <v>183,</v>
       </c>
     </row>
     <row r="42" spans="2:10" x14ac:dyDescent="0.2">
@@ -6309,15 +6309,15 @@
       </c>
       <c r="D42" s="11">
         <f t="shared" si="1"/>
-        <v>348.14762761636814</v>
+        <v>244.27704394860297</v>
       </c>
       <c r="E42" s="4">
         <f t="shared" si="2"/>
-        <v>162.85237238363186</v>
+        <v>266.72295605139703</v>
       </c>
       <c r="J42" s="14" t="str">
         <f t="shared" si="3"/>
-        <v>348,</v>
+        <v>244,</v>
       </c>
     </row>
     <row r="43" spans="2:10" x14ac:dyDescent="0.2">
@@ -6330,15 +6330,15 @@
       </c>
       <c r="D43" s="11">
         <f t="shared" si="1"/>
-        <v>388.89141594679307</v>
+        <v>311.00805624618994</v>
       </c>
       <c r="E43" s="4">
         <f t="shared" si="2"/>
-        <v>122.10858405320693</v>
+        <v>199.99194375381006</v>
       </c>
       <c r="J43" s="14" t="str">
         <f t="shared" si="3"/>
-        <v>389,</v>
+        <v>311,</v>
       </c>
     </row>
     <row r="44" spans="2:10" x14ac:dyDescent="0.2">
@@ -6351,15 +6351,15 @@
       </c>
       <c r="D44" s="11">
         <f t="shared" si="1"/>
-        <v>432.27004985727575</v>
+        <v>382.05447268290993</v>
       </c>
       <c r="E44" s="4">
         <f t="shared" si="2"/>
-        <v>78.729950142724249</v>
+        <v>128.94552731709007</v>
       </c>
       <c r="J44" s="14" t="str">
         <f t="shared" si="3"/>
-        <v>432,</v>
+        <v>382,</v>
       </c>
     </row>
     <row r="45" spans="2:10" x14ac:dyDescent="0.2">
@@ -6372,15 +6372,15 @@
       </c>
       <c r="D45" s="11">
         <f t="shared" si="1"/>
-        <v>477.3475099621665</v>
+        <v>455.88326150854834</v>
       </c>
       <c r="E45" s="4">
         <f t="shared" si="2"/>
-        <v>33.652490037833502</v>
+        <v>55.116738491451656</v>
       </c>
       <c r="J45" s="14" t="str">
         <f t="shared" si="3"/>
-        <v>477,</v>
+        <v>456,</v>
       </c>
     </row>
     <row r="46" spans="2:10" x14ac:dyDescent="0.2">
@@ -6393,15 +6393,15 @@
       </c>
       <c r="D46" s="11">
         <f t="shared" si="1"/>
-        <v>523.15111979126891</v>
+        <v>530.90135324787957</v>
       </c>
       <c r="E46" s="4">
         <f t="shared" si="2"/>
-        <v>12.151119791268911</v>
+        <v>19.90135324787957</v>
       </c>
       <c r="J46" s="14" t="str">
         <f t="shared" si="3"/>
-        <v>523,</v>
+        <v>531,</v>
       </c>
     </row>
     <row r="47" spans="2:10" x14ac:dyDescent="0.2">
@@ -6414,15 +6414,15 @@
       </c>
       <c r="D47" s="11">
         <f t="shared" si="1"/>
-        <v>568.69253409560156</v>
+        <v>605.49001577837294</v>
       </c>
       <c r="E47" s="4">
         <f t="shared" si="2"/>
-        <v>57.692534095601559</v>
+        <v>94.490015778372936</v>
       </c>
       <c r="J47" s="14" t="str">
         <f t="shared" si="3"/>
-        <v>569,</v>
+        <v>605,</v>
       </c>
     </row>
     <row r="48" spans="2:10" x14ac:dyDescent="0.2">
@@ -6435,15 +6435,15 @@
       </c>
       <c r="D48" s="11">
         <f t="shared" si="1"/>
-        <v>612.98906525234213</v>
+        <v>678.03978315367578</v>
       </c>
       <c r="E48" s="4">
         <f t="shared" si="2"/>
-        <v>101.98906525234213</v>
+        <v>167.03978315367578</v>
       </c>
       <c r="J48" s="14" t="str">
         <f t="shared" si="3"/>
-        <v>613,</v>
+        <v>678,</v>
       </c>
     </row>
     <row r="49" spans="2:10" x14ac:dyDescent="0.2">
@@ -6456,15 +6456,15 @@
       </c>
       <c r="D49" s="11">
         <f t="shared" si="1"/>
-        <v>655.08488759014176</v>
+        <v>746.98518448257187</v>
       </c>
       <c r="E49" s="4">
         <f t="shared" si="2"/>
-        <v>144.08488759014176</v>
+        <v>235.98518448257187</v>
       </c>
       <c r="J49" s="14" t="str">
         <f t="shared" si="3"/>
-        <v>655,</v>
+        <v>747,</v>
       </c>
     </row>
     <row r="50" spans="2:10" x14ac:dyDescent="0.2">
@@ -6477,15 +6477,15 @@
       </c>
       <c r="D50" s="11">
         <f t="shared" si="1"/>
-        <v>694.07166209020261</v>
+        <v>810.83852348747916</v>
       </c>
       <c r="E50" s="4">
         <f t="shared" si="2"/>
-        <v>183.07166209020261</v>
+        <v>299.83852348747916</v>
       </c>
       <c r="J50" s="14" t="str">
         <f t="shared" si="3"/>
-        <v>694,</v>
+        <v>811,</v>
       </c>
     </row>
     <row r="51" spans="2:10" x14ac:dyDescent="0.2">
@@ -6498,15 +6498,15 @@
       </c>
       <c r="D51" s="11">
         <f t="shared" si="1"/>
-        <v>729.10813642560038</v>
+        <v>868.22197985090315</v>
       </c>
       <c r="E51" s="4">
         <f t="shared" si="2"/>
-        <v>218.10813642560038</v>
+        <v>357.22197985090315</v>
       </c>
       <c r="J51" s="14" t="str">
         <f t="shared" si="3"/>
-        <v>729,</v>
+        <v>868,</v>
       </c>
     </row>
     <row r="52" spans="2:10" x14ac:dyDescent="0.2">
@@ -6519,15 +6519,15 @@
       </c>
       <c r="D52" s="11">
         <f t="shared" si="1"/>
-        <v>759.43829741135528</v>
+        <v>917.89733967052098</v>
       </c>
       <c r="E52" s="4">
         <f t="shared" si="2"/>
-        <v>248.43829741135528</v>
+        <v>406.89733967052098</v>
       </c>
       <c r="J52" s="14" t="str">
         <f t="shared" si="3"/>
-        <v>759,</v>
+        <v>918,</v>
       </c>
     </row>
     <row r="53" spans="2:10" x14ac:dyDescent="0.2">
@@ -6540,15 +6540,15 @@
       </c>
       <c r="D53" s="11">
         <f t="shared" si="1"/>
-        <v>784.40768417368554</v>
+        <v>958.79271350241447</v>
       </c>
       <c r="E53" s="4">
         <f t="shared" si="2"/>
-        <v>273.40768417368554</v>
+        <v>447.79271350241447</v>
       </c>
       <c r="J53" s="14" t="str">
         <f t="shared" si="3"/>
-        <v>784,</v>
+        <v>959,</v>
       </c>
     </row>
     <row r="54" spans="2:10" x14ac:dyDescent="0.2">
@@ -6561,15 +6561,15 @@
       </c>
       <c r="D54" s="11">
         <f t="shared" si="1"/>
-        <v>803.47751003467192</v>
+        <v>990.02566547345293</v>
       </c>
       <c r="E54" s="4">
         <f t="shared" si="2"/>
-        <v>292.47751003467192</v>
+        <v>479.02566547345293</v>
       </c>
       <c r="J54" s="14" t="str">
         <f t="shared" si="3"/>
-        <v>803,</v>
+        <v>990,</v>
       </c>
     </row>
     <row r="55" spans="2:10" x14ac:dyDescent="0.2">
@@ -6582,15 +6582,15 @@
       </c>
       <c r="D55" s="11">
         <f t="shared" si="1"/>
-        <v>816.23628839186188</v>
+        <v>1010.9222543853891</v>
       </c>
       <c r="E55" s="4">
         <f t="shared" si="2"/>
-        <v>305.23628839186188</v>
+        <v>499.92225438538912</v>
       </c>
       <c r="J55" s="14" t="str">
         <f t="shared" si="3"/>
-        <v>816,</v>
+        <v>1011,</v>
       </c>
     </row>
     <row r="56" spans="2:10" x14ac:dyDescent="0.2">
@@ -6603,15 +6603,15 @@
       </c>
       <c r="D56" s="11">
         <f t="shared" si="1"/>
-        <v>822.40871173086578</v>
+        <v>1021.0315759438218</v>
       </c>
       <c r="E56" s="4">
         <f t="shared" si="2"/>
-        <v>311.40871173086578</v>
+        <v>510.03157594382185</v>
       </c>
       <c r="J56" s="14" t="str">
         <f t="shared" si="3"/>
-        <v>822,</v>
+        <v>1021,</v>
       </c>
     </row>
     <row r="57" spans="2:10" x14ac:dyDescent="0.2">
@@ -6624,15 +6624,15 @@
       </c>
       <c r="D57" s="11">
         <f t="shared" si="1"/>
-        <v>821.86159218058401</v>
+        <v>1020.1354923214051</v>
       </c>
       <c r="E57" s="4">
         <f t="shared" si="2"/>
-        <v>310.86159218058401</v>
+        <v>509.13549232140508</v>
       </c>
       <c r="J57" s="14" t="str">
         <f t="shared" si="3"/>
-        <v>822,</v>
+        <v>1020,</v>
       </c>
     </row>
     <row r="58" spans="2:10" x14ac:dyDescent="0.2">
@@ -6645,15 +6645,15 @@
       </c>
       <c r="D58" s="11">
         <f t="shared" si="1"/>
-        <v>814.60673542642348</v>
+        <v>1008.2533391118666</v>
       </c>
       <c r="E58" s="4">
         <f t="shared" si="2"/>
-        <v>303.60673542642348</v>
+        <v>497.25333911186658</v>
       </c>
       <c r="J58" s="14" t="str">
         <f t="shared" si="3"/>
-        <v>815,</v>
+        <v>1008,</v>
       </c>
     </row>
     <row r="59" spans="2:10" x14ac:dyDescent="0.2">
@@ -6666,15 +6666,15 @@
       </c>
       <c r="D59" s="11">
         <f t="shared" si="1"/>
-        <v>800.80068596851788</v>
+        <v>985.64150810869432</v>
       </c>
       <c r="E59" s="4">
         <f t="shared" si="2"/>
-        <v>289.80068596851788</v>
+        <v>474.64150810869432</v>
       </c>
       <c r="J59" s="14" t="str">
         <f t="shared" si="3"/>
-        <v>801,</v>
+        <v>986,</v>
       </c>
     </row>
     <row r="60" spans="2:10" x14ac:dyDescent="0.2">
@@ -6687,15 +6687,15 @@
       </c>
       <c r="D60" s="11">
         <f t="shared" si="1"/>
-        <v>780.74134922174301</v>
+        <v>952.78791491125207</v>
       </c>
       <c r="E60" s="4">
         <f t="shared" si="2"/>
-        <v>269.74134922174301</v>
+        <v>441.78791491125207</v>
       </c>
       <c r="J60" s="14" t="str">
         <f t="shared" si="3"/>
-        <v>781,</v>
+        <v>953,</v>
       </c>
     </row>
     <row r="61" spans="2:10" x14ac:dyDescent="0.2">
@@ -6708,15 +6708,15 @@
       </c>
       <c r="D61" s="11">
         <f t="shared" si="1"/>
-        <v>754.86156334547866</v>
+        <v>910.4014707357037</v>
       </c>
       <c r="E61" s="4">
         <f t="shared" si="2"/>
-        <v>243.86156334547866</v>
+        <v>399.4014707357037</v>
       </c>
       <c r="J61" s="14" t="str">
         <f t="shared" si="3"/>
-        <v>755,</v>
+        <v>910,</v>
       </c>
     </row>
     <row r="62" spans="2:10" x14ac:dyDescent="0.2">
@@ -6729,15 +6729,15 @@
       </c>
       <c r="D62" s="11">
         <f t="shared" si="1"/>
-        <v>723.71975950947137</v>
+        <v>859.39678560685854</v>
       </c>
       <c r="E62" s="4">
         <f t="shared" si="2"/>
-        <v>212.71975950947137</v>
+        <v>348.39678560685854</v>
       </c>
       <c r="J62" s="14" t="str">
         <f t="shared" si="3"/>
-        <v>724,</v>
+        <v>859,</v>
       </c>
     </row>
     <row r="63" spans="2:10" x14ac:dyDescent="0.2">
@@ -6750,15 +6750,15 @@
       </c>
       <c r="D63" s="11">
         <f t="shared" si="1"/>
-        <v>687.98791212754759</v>
+        <v>800.87443300377186</v>
       </c>
       <c r="E63" s="4">
         <f t="shared" si="2"/>
-        <v>176.98791212754759</v>
+        <v>289.87443300377186</v>
       </c>
       <c r="J63" s="14" t="str">
         <f t="shared" si="3"/>
-        <v>688,</v>
+        <v>801,</v>
       </c>
     </row>
     <row r="64" spans="2:10" x14ac:dyDescent="0.2">
@@ -6771,15 +6771,15 @@
       </c>
       <c r="D64" s="11">
         <f t="shared" si="1"/>
-        <v>648.43703906771066</v>
+        <v>736.09720180641079</v>
       </c>
       <c r="E64" s="4">
         <f t="shared" si="2"/>
-        <v>137.43703906771066</v>
+        <v>225.09720180641079</v>
       </c>
       <c r="J64" s="14" t="str">
         <f t="shared" si="3"/>
-        <v>648,</v>
+        <v>736,</v>
       </c>
     </row>
     <row r="65" spans="2:10" x14ac:dyDescent="0.2">
@@ -6792,15 +6792,15 @@
       </c>
       <c r="D65" s="11">
         <f t="shared" si="1"/>
-        <v>605.92056471348747</v>
+        <v>666.46284797625663</v>
       </c>
       <c r="E65" s="4">
         <f t="shared" si="2"/>
-        <v>94.920564713487465</v>
+        <v>155.46284797625663</v>
       </c>
       <c r="J65" s="14" t="str">
         <f t="shared" si="3"/>
-        <v>606,</v>
+        <v>666,</v>
       </c>
     </row>
     <row r="66" spans="2:10" x14ac:dyDescent="0.2">
@@ -6813,15 +6813,15 @@
       </c>
       <c r="D66" s="11">
         <f t="shared" si="1"/>
-        <v>561.35590486656542</v>
+        <v>593.47393393209916</v>
       </c>
       <c r="E66" s="4">
         <f t="shared" si="2"/>
-        <v>50.355904866565425</v>
+        <v>82.473933932099158</v>
       </c>
       <c r="J66" s="14" t="str">
         <f t="shared" si="3"/>
-        <v>561,</v>
+        <v>593,</v>
       </c>
     </row>
     <row r="67" spans="2:10" x14ac:dyDescent="0.2">
@@ -6834,15 +6834,15 @@
       </c>
       <c r="D67" s="11">
         <f t="shared" ref="D67:D130" si="5">(SIN($C67 * (PI()/180)) * AMPLITUDE) + 511</f>
-        <v>515.70467084964309</v>
+        <v>518.70540642361414</v>
       </c>
       <c r="E67" s="4">
         <f t="shared" si="2"/>
-        <v>4.7046708496430938</v>
+        <v>7.7054064236141357</v>
       </c>
       <c r="J67" s="14" t="str">
         <f t="shared" si="3"/>
-        <v>516,</v>
+        <v>519,</v>
       </c>
     </row>
     <row r="68" spans="2:10" x14ac:dyDescent="0.2">
@@ -6855,15 +6855,15 @@
       </c>
       <c r="D68" s="11">
         <f t="shared" si="5"/>
-        <v>469.95191996320779</v>
+        <v>443.77061250384349</v>
       </c>
       <c r="E68" s="4">
         <f t="shared" ref="E68:E131" si="6">IF($D68 &lt; 511, 511 - $D68, $D68 - 511)</f>
-        <v>41.048080036792214</v>
+        <v>67.229387496156505</v>
       </c>
       <c r="J68" s="14" t="str">
         <f t="shared" ref="J68:J131" si="7">CONCATENATE(ROUND($D68, 0), ",")</f>
-        <v>470,</v>
+        <v>444,</v>
       </c>
     </row>
     <row r="69" spans="2:10" x14ac:dyDescent="0.2">
@@ -6876,15 +6876,15 @@
       </c>
       <c r="D69" s="11">
         <f t="shared" si="5"/>
-        <v>425.084900027576</v>
+        <v>370.28648690413888</v>
       </c>
       <c r="E69" s="4">
         <f t="shared" si="6"/>
-        <v>85.915099972424002</v>
+        <v>140.71351309586112</v>
       </c>
       <c r="J69" s="14" t="str">
         <f t="shared" si="7"/>
-        <v>425,</v>
+        <v>370,</v>
       </c>
     </row>
     <row r="70" spans="2:10" x14ac:dyDescent="0.2">
@@ -6897,15 +6897,15 @@
       </c>
       <c r="D70" s="11">
         <f t="shared" si="5"/>
-        <v>382.07174665814603</v>
+        <v>299.83866199459169</v>
       </c>
       <c r="E70" s="4">
         <f t="shared" si="6"/>
-        <v>128.92825334185397</v>
+        <v>211.16133800540831</v>
       </c>
       <c r="J70" s="14" t="str">
         <f t="shared" si="7"/>
-        <v>382,</v>
+        <v>300,</v>
       </c>
     </row>
     <row r="71" spans="2:10" x14ac:dyDescent="0.2">
@@ -6918,15 +6918,15 @@
       </c>
       <c r="D71" s="11">
         <f t="shared" si="5"/>
-        <v>341.84059294170044</v>
+        <v>233.94725318336191</v>
       </c>
       <c r="E71" s="4">
         <f t="shared" si="6"/>
-        <v>169.15940705829956</v>
+        <v>277.05274681663809</v>
       </c>
       <c r="J71" s="14" t="str">
         <f t="shared" si="7"/>
-        <v>342,</v>
+        <v>234,</v>
       </c>
     </row>
     <row r="72" spans="2:10" x14ac:dyDescent="0.2">
@@ -6939,15 +6939,15 @@
       </c>
       <c r="D72" s="11">
         <f t="shared" si="5"/>
-        <v>305.25954228286162</v>
+        <v>174.03405803378945</v>
       </c>
       <c r="E72" s="4">
         <f t="shared" si="6"/>
-        <v>205.74045771713838</v>
+        <v>336.96594196621055</v>
       </c>
       <c r="J72" s="14" t="str">
         <f t="shared" si="7"/>
-        <v>305,</v>
+        <v>174,</v>
       </c>
     </row>
     <row r="73" spans="2:10" x14ac:dyDescent="0.2">
@@ -6960,15 +6960,15 @@
       </c>
       <c r="D73" s="11">
         <f t="shared" si="5"/>
-        <v>273.11793656442813</v>
+        <v>121.3918768731499</v>
       </c>
       <c r="E73" s="4">
         <f t="shared" si="6"/>
-        <v>237.88206343557187</v>
+        <v>389.6081231268501</v>
       </c>
       <c r="J73" s="14" t="str">
         <f t="shared" si="7"/>
-        <v>273,</v>
+        <v>121,</v>
       </c>
     </row>
     <row r="74" spans="2:10" x14ac:dyDescent="0.2">
@@ -6981,15 +6981,15 @@
       </c>
       <c r="D74" s="11">
         <f t="shared" si="5"/>
-        <v>246.10932381514584</v>
+        <v>77.156616889549753</v>
       </c>
       <c r="E74" s="4">
         <f t="shared" si="6"/>
-        <v>264.89067618485416</v>
+        <v>433.84338311045025</v>
       </c>
       <c r="J74" s="14" t="str">
         <f t="shared" si="7"/>
-        <v>246,</v>
+        <v>77,</v>
       </c>
     </row>
     <row r="75" spans="2:10" x14ac:dyDescent="0.2">
@@ -7002,15 +7002,15 @@
       </c>
       <c r="D75" s="11">
         <f t="shared" si="5"/>
-        <v>224.81649290672073</v>
+        <v>42.282781651712469</v>
       </c>
       <c r="E75" s="4">
         <f t="shared" si="6"/>
-        <v>286.18350709327927</v>
+        <v>468.71721834828753</v>
       </c>
       <c r="J75" s="14" t="str">
         <f t="shared" si="7"/>
-        <v>225,</v>
+        <v>42,</v>
       </c>
     </row>
     <row r="76" spans="2:10" x14ac:dyDescent="0.2">
@@ -7023,15 +7023,15 @@
       </c>
       <c r="D76" s="11">
         <f t="shared" si="5"/>
-        <v>209.69889819972047</v>
+        <v>17.522874936080598</v>
       </c>
       <c r="E76" s="4">
         <f t="shared" si="6"/>
-        <v>301.30110180027953</v>
+        <v>493.4771250639194</v>
       </c>
       <c r="J76" s="14" t="str">
         <f t="shared" si="7"/>
-        <v>210,</v>
+        <v>18,</v>
       </c>
     </row>
     <row r="77" spans="2:10" x14ac:dyDescent="0.2">
@@ -7044,15 +7044,15 @@
       </c>
       <c r="D77" s="11">
         <f t="shared" si="5"/>
-        <v>201.08274548797749</v>
+        <v>3.4111632831939005</v>
       </c>
       <c r="E77" s="4">
         <f t="shared" si="6"/>
-        <v>309.91725451202251</v>
+        <v>507.5888367168061</v>
       </c>
       <c r="J77" s="14" t="str">
         <f t="shared" si="7"/>
-        <v>201,</v>
+        <v>3,</v>
       </c>
     </row>
     <row r="78" spans="2:10" x14ac:dyDescent="0.2">
@@ -7065,15 +7065,15 @@
       </c>
       <c r="D78" s="11">
         <f t="shared" si="5"/>
-        <v>199.15395316589178</v>
+        <v>0.25214765311119436</v>
       </c>
       <c r="E78" s="4">
         <f t="shared" si="6"/>
-        <v>311.84604683410822</v>
+        <v>510.74785234688881</v>
       </c>
       <c r="J78" s="14" t="str">
         <f t="shared" si="7"/>
-        <v>199,</v>
+        <v>0,</v>
       </c>
     </row>
     <row r="79" spans="2:10" x14ac:dyDescent="0.2">
@@ -7086,15 +7086,15 @@
       </c>
       <c r="D79" s="11">
         <f t="shared" si="5"/>
-        <v>203.95414050178994</v>
+        <v>8.1139929372264419</v>
       </c>
       <c r="E79" s="4">
         <f t="shared" si="6"/>
-        <v>307.04585949821006</v>
+        <v>502.88600706277356</v>
       </c>
       <c r="J79" s="14" t="str">
         <f t="shared" si="7"/>
-        <v>204,</v>
+        <v>8,</v>
       </c>
     </row>
     <row r="80" spans="2:10" x14ac:dyDescent="0.2">
@@ -7107,15 +7107,15 @@
       </c>
       <c r="D80" s="11">
         <f t="shared" si="5"/>
-        <v>215.37972958193666</v>
+        <v>26.827057103748814</v>
       </c>
       <c r="E80" s="4">
         <f t="shared" si="6"/>
-        <v>295.62027041806334</v>
+        <v>484.17294289625119</v>
       </c>
       <c r="J80" s="14" t="str">
         <f t="shared" si="7"/>
-        <v>215,</v>
+        <v>27,</v>
       </c>
     </row>
     <row r="81" spans="2:10" x14ac:dyDescent="0.2">
@@ -7128,15 +7128,15 @@
       </c>
       <c r="D81" s="11">
         <f t="shared" si="5"/>
-        <v>233.18418030335039</v>
+        <v>55.987551714782171</v>
       </c>
       <c r="E81" s="4">
         <f t="shared" si="6"/>
-        <v>277.81581969664961</v>
+        <v>455.01244828521783</v>
       </c>
       <c r="J81" s="14" t="str">
         <f t="shared" si="7"/>
-        <v>233,</v>
+        <v>56,</v>
       </c>
     </row>
     <row r="82" spans="2:10" x14ac:dyDescent="0.2">
@@ -7149,15 +7149,15 @@
       </c>
       <c r="D82" s="11">
         <f t="shared" si="5"/>
-        <v>256.98331018899694</v>
+        <v>94.966254828773799</v>
       </c>
       <c r="E82" s="4">
         <f t="shared" si="6"/>
-        <v>254.01668981100306</v>
+        <v>416.0337451712262</v>
       </c>
       <c r="J82" s="14" t="str">
         <f t="shared" si="7"/>
-        <v>257,</v>
+        <v>95,</v>
       </c>
     </row>
     <row r="83" spans="2:10" x14ac:dyDescent="0.2">
@@ -7170,15 +7170,15 @@
       </c>
       <c r="D83" s="11">
         <f t="shared" si="5"/>
-        <v>286.26358423497339</v>
+        <v>142.92208828228013</v>
       </c>
       <c r="E83" s="4">
         <f t="shared" si="6"/>
-        <v>224.73641576502661</v>
+        <v>368.07791171771987</v>
       </c>
       <c r="J83" s="14" t="str">
         <f t="shared" si="7"/>
-        <v>286,</v>
+        <v>143,</v>
       </c>
     </row>
     <row r="84" spans="2:10" x14ac:dyDescent="0.2">
@@ -7191,15 +7191,15 @@
       </c>
       <c r="D84" s="11">
         <f t="shared" si="5"/>
-        <v>320.39319591226968</v>
+        <v>198.82026638195447</v>
       </c>
       <c r="E84" s="4">
         <f t="shared" si="6"/>
-        <v>190.60680408773032</v>
+        <v>312.17973361804553</v>
       </c>
       <c r="J84" s="14" t="str">
         <f t="shared" si="7"/>
-        <v>320,</v>
+        <v>199,</v>
       </c>
     </row>
     <row r="85" spans="2:10" x14ac:dyDescent="0.2">
@@ -7212,15 +7212,15 @@
       </c>
       <c r="D85" s="11">
         <f t="shared" si="5"/>
-        <v>358.63570021847988</v>
+        <v>261.45462439629239</v>
       </c>
       <c r="E85" s="4">
         <f t="shared" si="6"/>
-        <v>152.36429978152012</v>
+        <v>249.54537560370761</v>
       </c>
       <c r="J85" s="14" t="str">
         <f t="shared" si="7"/>
-        <v>359,</v>
+        <v>261,</v>
       </c>
     </row>
     <row r="86" spans="2:10" x14ac:dyDescent="0.2">
@@ -7233,15 +7233,15 @@
       </c>
       <c r="D86" s="11">
         <f t="shared" si="5"/>
-        <v>400.16590460696153</v>
+        <v>329.47364504537609</v>
       </c>
       <c r="E86" s="4">
         <f t="shared" si="6"/>
-        <v>110.83409539303847</v>
+        <v>181.52635495462391</v>
       </c>
       <c r="J86" s="14" t="str">
         <f t="shared" si="7"/>
-        <v>400,</v>
+        <v>329,</v>
       </c>
     </row>
     <row r="87" spans="2:10" x14ac:dyDescent="0.2">
@@ -7254,15 +7254,15 @@
       </c>
       <c r="D87" s="11">
         <f t="shared" si="5"/>
-        <v>444.08767490074291</v>
+        <v>401.40962139192192</v>
       </c>
       <c r="E87" s="4">
         <f t="shared" si="6"/>
-        <v>66.912325099257089</v>
+        <v>109.59037860807808</v>
       </c>
       <c r="J87" s="14" t="str">
         <f t="shared" si="7"/>
-        <v>444,</v>
+        <v>401,</v>
       </c>
     </row>
     <row r="88" spans="2:10" x14ac:dyDescent="0.2">
@@ -7275,15 +7275,15 @@
       </c>
       <c r="D88" s="11">
         <f t="shared" si="5"/>
-        <v>489.45327197710549</v>
+        <v>475.71032685993879</v>
       </c>
       <c r="E88" s="4">
         <f t="shared" si="6"/>
-        <v>21.546728022894513</v>
+        <v>35.289673140061211</v>
       </c>
       <c r="J88" s="14" t="str">
         <f t="shared" si="7"/>
-        <v>489,</v>
+        <v>476,</v>
       </c>
     </row>
     <row r="89" spans="2:10" x14ac:dyDescent="0.2">
@@ -7296,15 +7296,15 @@
       </c>
       <c r="D89" s="11">
         <f t="shared" si="5"/>
-        <v>535.28380197801289</v>
+        <v>550.77250900886088</v>
       </c>
       <c r="E89" s="4">
         <f t="shared" si="6"/>
-        <v>24.283801978012889</v>
+        <v>39.772509008860879</v>
       </c>
       <c r="J89" s="14" t="str">
         <f t="shared" si="7"/>
-        <v>535,</v>
+        <v>551,</v>
       </c>
     </row>
     <row r="90" spans="2:10" x14ac:dyDescent="0.2">
@@ -7317,15 +7317,15 @@
       </c>
       <c r="D90" s="11">
         <f t="shared" si="5"/>
-        <v>580.59033877398053</v>
+        <v>624.97648433815402</v>
       </c>
       <c r="E90" s="4">
         <f t="shared" si="6"/>
-        <v>69.590338773980534</v>
+        <v>113.97648433815402</v>
       </c>
       <c r="J90" s="14" t="str">
         <f t="shared" si="7"/>
-        <v>581,</v>
+        <v>625,</v>
       </c>
     </row>
     <row r="91" spans="2:10" x14ac:dyDescent="0.2">
@@ -7338,15 +7338,15 @@
       </c>
       <c r="D91" s="11">
         <f t="shared" si="5"/>
-        <v>624.39526290319623</v>
+        <v>696.72108763952963</v>
       </c>
       <c r="E91" s="4">
         <f t="shared" si="6"/>
-        <v>113.39526290319623</v>
+        <v>185.72108763952963</v>
       </c>
       <c r="J91" s="14" t="str">
         <f t="shared" si="7"/>
-        <v>624,</v>
+        <v>697,</v>
       </c>
     </row>
     <row r="92" spans="2:10" x14ac:dyDescent="0.2">
@@ -7359,15 +7359,15 @@
       </c>
       <c r="D92" s="11">
         <f t="shared" si="5"/>
-        <v>665.75335653661557</v>
+        <v>764.45822176349543</v>
       </c>
       <c r="E92" s="4">
         <f t="shared" si="6"/>
-        <v>154.75335653661557</v>
+        <v>253.45822176349543</v>
       </c>
       <c r="J92" s="14" t="str">
         <f t="shared" si="7"/>
-        <v>666,</v>
+        <v>764,</v>
       </c>
     </row>
     <row r="93" spans="2:10" x14ac:dyDescent="0.2">
@@ -7380,15 +7380,15 @@
       </c>
       <c r="D93" s="11">
         <f t="shared" si="5"/>
-        <v>703.77219928418447</v>
+        <v>826.72626228916113</v>
       </c>
       <c r="E93" s="4">
         <f t="shared" si="6"/>
-        <v>192.77219928418447</v>
+        <v>315.72626228916113</v>
       </c>
       <c r="J93" s="14" t="str">
         <f t="shared" si="7"/>
-        <v>704,</v>
+        <v>827,</v>
       </c>
     </row>
     <row r="94" spans="2:10" x14ac:dyDescent="0.2">
@@ -7401,15 +7401,15 @@
       </c>
       <c r="D94" s="11">
         <f t="shared" si="5"/>
-        <v>737.63142474374581</v>
+        <v>882.18159629504532</v>
       </c>
       <c r="E94" s="4">
         <f t="shared" si="6"/>
-        <v>226.63142474374581</v>
+        <v>371.18159629504532</v>
       </c>
       <c r="J94" s="14" t="str">
         <f t="shared" si="7"/>
-        <v>738,</v>
+        <v>882,</v>
       </c>
     </row>
     <row r="95" spans="2:10" x14ac:dyDescent="0.2">
@@ -7422,15 +7422,15 @@
       </c>
       <c r="D95" s="11">
         <f t="shared" si="5"/>
-        <v>766.60042227692327</v>
+        <v>929.62761469073018</v>
       </c>
       <c r="E95" s="4">
         <f t="shared" si="6"/>
-        <v>255.60042227692327</v>
+        <v>418.62761469073018</v>
       </c>
       <c r="J95" s="14" t="str">
         <f t="shared" si="7"/>
-        <v>767,</v>
+        <v>930,</v>
       </c>
     </row>
     <row r="96" spans="2:10" x14ac:dyDescent="0.2">
@@ -7443,15 +7443,15 @@
       </c>
       <c r="D96" s="11">
         <f t="shared" si="5"/>
-        <v>790.05410204502266</v>
+        <v>968.04053251604671</v>
       </c>
       <c r="E96" s="4">
         <f t="shared" si="6"/>
-        <v>279.05410204502266</v>
+        <v>457.04053251604671</v>
       </c>
       <c r="J96" s="14" t="str">
         <f t="shared" si="7"/>
-        <v>790,</v>
+        <v>968,</v>
       </c>
     </row>
     <row r="97" spans="2:10" x14ac:dyDescent="0.2">
@@ -7464,15 +7464,15 @@
       </c>
       <c r="D97" s="11">
         <f t="shared" si="5"/>
-        <v>807.48638312873572</v>
+        <v>996.59148006020496</v>
       </c>
       <c r="E97" s="4">
         <f t="shared" si="6"/>
-        <v>296.48638312873572</v>
+        <v>485.59148006020496</v>
       </c>
       <c r="J97" s="14" t="str">
         <f t="shared" si="7"/>
-        <v>807,</v>
+        <v>997,</v>
       </c>
     </row>
     <row r="98" spans="2:10" x14ac:dyDescent="0.2">
@@ -7485,15 +7485,15 @@
       </c>
       <c r="D98" s="11">
         <f t="shared" si="5"/>
-        <v>818.52111368648752</v>
+        <v>1014.6643881211381</v>
       </c>
       <c r="E98" s="4">
         <f t="shared" si="6"/>
-        <v>307.52111368648752</v>
+        <v>503.66438812113813</v>
       </c>
       <c r="J98" s="14" t="str">
         <f t="shared" si="7"/>
-        <v>819,</v>
+        <v>1015,</v>
       </c>
     </row>
     <row r="99" spans="2:10" x14ac:dyDescent="0.2">
@@ -7506,15 +7506,15 @@
       </c>
       <c r="D99" s="11">
         <f t="shared" si="5"/>
-        <v>822.9201875174515</v>
+        <v>1021.8692814789028</v>
       </c>
       <c r="E99" s="4">
         <f t="shared" si="6"/>
-        <v>311.9201875174515</v>
+        <v>510.86928147890285</v>
       </c>
       <c r="J99" s="14" t="str">
         <f t="shared" si="7"/>
-        <v>823,</v>
+        <v>1022,</v>
       </c>
     </row>
     <row r="100" spans="2:10" x14ac:dyDescent="0.2">
@@ -7527,15 +7527,15 @@
       </c>
       <c r="D100" s="11">
         <f t="shared" si="5"/>
-        <v>820.58868189093073</v>
+        <v>1018.0506937380308</v>
       </c>
       <c r="E100" s="4">
         <f t="shared" si="6"/>
-        <v>309.58868189093073</v>
+        <v>507.05069373803076</v>
       </c>
       <c r="J100" s="14" t="str">
         <f t="shared" si="7"/>
-        <v>821,</v>
+        <v>1018,</v>
       </c>
     </row>
     <row r="101" spans="2:10" x14ac:dyDescent="0.2">
@@ -7548,15 +7548,15 @@
       </c>
       <c r="D101" s="11">
         <f t="shared" si="5"/>
-        <v>811.57690577858784</v>
+        <v>1003.2910219642898</v>
       </c>
       <c r="E101" s="4">
         <f t="shared" si="6"/>
-        <v>300.57690577858784</v>
+        <v>492.29102196428983</v>
       </c>
       <c r="J101" s="14" t="str">
         <f t="shared" si="7"/>
-        <v>812,</v>
+        <v>1003,</v>
       </c>
     </row>
     <row r="102" spans="2:10" x14ac:dyDescent="0.2">
@@ -7569,15 +7569,15 @@
       </c>
       <c r="D102" s="11">
         <f t="shared" si="5"/>
-        <v>796.07931429299538</v>
+        <v>977.90874872987388</v>
       </c>
       <c r="E102" s="4">
         <f t="shared" si="6"/>
-        <v>285.07931429299538</v>
+        <v>466.90874872987388</v>
       </c>
       <c r="J102" s="14" t="str">
         <f t="shared" si="7"/>
-        <v>796,</v>
+        <v>978,</v>
       </c>
     </row>
     <row r="103" spans="2:10" x14ac:dyDescent="0.2">
@@ -7590,15 +7590,15 @@
       </c>
       <c r="D103" s="11">
         <f t="shared" si="5"/>
-        <v>774.43031275662838</v>
+        <v>942.45156993152932</v>
       </c>
       <c r="E103" s="4">
         <f t="shared" si="6"/>
-        <v>263.43031275662838</v>
+        <v>431.45156993152932</v>
       </c>
       <c r="J103" s="14" t="str">
         <f t="shared" si="7"/>
-        <v>774,</v>
+        <v>942,</v>
       </c>
     </row>
     <row r="104" spans="2:10" x14ac:dyDescent="0.2">
@@ -7611,15 +7611,15 @@
       </c>
       <c r="D104" s="11">
         <f t="shared" si="5"/>
-        <v>747.09704094064227</v>
+        <v>897.6845766688084</v>
       </c>
       <c r="E104" s="4">
         <f t="shared" si="6"/>
-        <v>236.09704094064227</v>
+        <v>386.6845766688084</v>
       </c>
       <c r="J104" s="14" t="str">
         <f t="shared" si="7"/>
-        <v>747,</v>
+        <v>898,</v>
       </c>
     </row>
     <row r="105" spans="2:10" x14ac:dyDescent="0.2">
@@ -7632,15 +7632,15 @@
       </c>
       <c r="D105" s="11">
         <f t="shared" si="5"/>
-        <v>714.66929317433357</v>
+        <v>844.57374619257826</v>
       </c>
       <c r="E105" s="4">
         <f t="shared" si="6"/>
-        <v>203.66929317433357</v>
+        <v>333.57374619257826</v>
       </c>
       <c r="J105" s="14" t="str">
         <f t="shared" si="7"/>
-        <v>715,</v>
+        <v>845,</v>
       </c>
     </row>
     <row r="106" spans="2:10" x14ac:dyDescent="0.2">
@@ -7653,15 +7653,15 @@
       </c>
       <c r="D106" s="11">
         <f t="shared" si="5"/>
-        <v>677.84679182804678</v>
+        <v>784.26509815426891</v>
       </c>
       <c r="E106" s="4">
         <f t="shared" si="6"/>
-        <v>166.84679182804678</v>
+        <v>273.26509815426891</v>
       </c>
       <c r="J106" s="14" t="str">
         <f t="shared" si="7"/>
-        <v>678,</v>
+        <v>784,</v>
       </c>
     </row>
     <row r="107" spans="2:10" x14ac:dyDescent="0.2">
@@ -7674,15 +7674,15 @@
       </c>
       <c r="D107" s="11">
         <f t="shared" si="5"/>
-        <v>637.42408878092556</v>
+        <v>718.05996592004146</v>
       </c>
       <c r="E107" s="4">
         <f t="shared" si="6"/>
-        <v>126.42408878092556</v>
+        <v>207.05996592004146</v>
       </c>
       <c r="J107" s="14" t="str">
         <f t="shared" si="7"/>
-        <v>637,</v>
+        <v>718,</v>
       </c>
     </row>
     <row r="108" spans="2:10" x14ac:dyDescent="0.2">
@@ -7695,15 +7695,15 @@
       </c>
       <c r="D108" s="11">
         <f t="shared" si="5"/>
-        <v>594.27342066795654</v>
+        <v>647.38691654271088</v>
       </c>
       <c r="E108" s="4">
         <f t="shared" si="6"/>
-        <v>83.273420667956543</v>
+        <v>136.38691654271088</v>
       </c>
       <c r="J108" s="14" t="str">
         <f t="shared" si="7"/>
-        <v>594,</v>
+        <v>647,</v>
       </c>
     </row>
     <row r="109" spans="2:10" x14ac:dyDescent="0.2">
@@ -7716,15 +7716,15 @@
       </c>
       <c r="D109" s="11">
         <f t="shared" si="5"/>
-        <v>549.32588785391442</v>
+        <v>573.77092529919958</v>
       </c>
       <c r="E109" s="4">
         <f t="shared" si="6"/>
-        <v>38.325887853914423</v>
+        <v>62.770925299199575</v>
       </c>
       <c r="J109" s="14" t="str">
         <f t="shared" si="7"/>
-        <v>549,</v>
+        <v>574,</v>
       </c>
     </row>
     <row r="110" spans="2:10" x14ac:dyDescent="0.2">
@@ -7737,15 +7737,15 @@
       </c>
       <c r="D110" s="11">
         <f t="shared" si="5"/>
-        <v>503.55136325222156</v>
+        <v>498.80046994193975</v>
       </c>
       <c r="E110" s="4">
         <f t="shared" si="6"/>
-        <v>7.448636747778437</v>
+        <v>12.199530058060247</v>
       </c>
       <c r="J110" s="14" t="str">
         <f t="shared" si="7"/>
-        <v>504,</v>
+        <v>499,</v>
       </c>
     </row>
     <row r="111" spans="2:10" x14ac:dyDescent="0.2">
@@ -7758,15 +7758,15 @@
       </c>
       <c r="D111" s="11">
         <f t="shared" si="5"/>
-        <v>457.93756451402612</v>
+        <v>424.09325470085685</v>
       </c>
       <c r="E111" s="4">
         <f t="shared" si="6"/>
-        <v>53.062435485973879</v>
+        <v>86.906745299143154</v>
       </c>
       <c r="J111" s="14" t="str">
         <f t="shared" si="7"/>
-        <v>458,</v>
+        <v>424,</v>
       </c>
     </row>
     <row r="112" spans="2:10" x14ac:dyDescent="0.2">
@@ -7779,15 +7779,15 @@
       </c>
       <c r="D112" s="11">
         <f t="shared" si="5"/>
-        <v>413.46874116549191</v>
+        <v>351.2613036396358</v>
       </c>
       <c r="E112" s="4">
         <f t="shared" si="6"/>
-        <v>97.531258834508094</v>
+        <v>159.7386963603642</v>
       </c>
       <c r="J112" s="14" t="str">
         <f t="shared" si="7"/>
-        <v>413,</v>
+        <v>351,</v>
       </c>
     </row>
     <row r="113" spans="2:10" x14ac:dyDescent="0.2">
@@ -7800,15 +7800,15 @@
       </c>
       <c r="D113" s="11">
         <f t="shared" si="5"/>
-        <v>371.10443657990925</v>
+        <v>281.8761765779924</v>
       </c>
       <c r="E113" s="4">
         <f t="shared" si="6"/>
-        <v>139.89556342009075</v>
+        <v>229.1238234220076</v>
       </c>
       <c r="J113" s="14" t="str">
         <f t="shared" si="7"/>
-        <v>371,</v>
+        <v>282,</v>
       </c>
     </row>
     <row r="114" spans="2:10" x14ac:dyDescent="0.2">
@@ -7821,15 +7821,15 @@
       </c>
       <c r="D114" s="11">
         <f t="shared" si="5"/>
-        <v>331.75878305645404</v>
+        <v>217.43505814694879</v>
       </c>
       <c r="E114" s="4">
         <f t="shared" si="6"/>
-        <v>179.24121694354596</v>
+        <v>293.56494185305121</v>
       </c>
       <c r="J114" s="14" t="str">
         <f t="shared" si="7"/>
-        <v>332,</v>
+        <v>217,</v>
       </c>
     </row>
     <row r="115" spans="2:10" x14ac:dyDescent="0.2">
@@ -7842,15 +7842,15 @@
       </c>
       <c r="D115" s="11">
         <f t="shared" si="5"/>
-        <v>296.28077677409829</v>
+        <v>159.32845170373145</v>
       </c>
       <c r="E115" s="4">
         <f t="shared" si="6"/>
-        <v>214.71922322590171</v>
+        <v>351.67154829626855</v>
       </c>
       <c r="J115" s="14" t="str">
         <f t="shared" si="7"/>
-        <v>296,</v>
+        <v>159,</v>
       </c>
     </row>
     <row r="116" spans="2:10" x14ac:dyDescent="0.2">
@@ -7863,15 +7863,15 @@
       </c>
       <c r="D116" s="11">
         <f t="shared" si="5"/>
-        <v>265.4359582455503</v>
+        <v>108.81017520344932</v>
       </c>
       <c r="E116" s="4">
         <f t="shared" si="6"/>
-        <v>245.5640417544497</v>
+        <v>402.18982479655068</v>
       </c>
       <c r="J116" s="14" t="str">
         <f t="shared" si="7"/>
-        <v>265,</v>
+        <v>109,</v>
       </c>
     </row>
     <row r="117" spans="2:10" x14ac:dyDescent="0.2">
@@ -7884,15 +7884,15 @@
       </c>
       <c r="D117" s="11">
         <f t="shared" si="5"/>
-        <v>239.88989356837629</v>
+        <v>66.970306453334274</v>
       </c>
       <c r="E117" s="4">
         <f t="shared" si="6"/>
-        <v>271.11010643162371</v>
+        <v>444.02969354666573</v>
       </c>
       <c r="J117" s="14" t="str">
         <f t="shared" si="7"/>
-        <v>240,</v>
+        <v>67,</v>
       </c>
     </row>
     <row r="118" spans="2:10" x14ac:dyDescent="0.2">
@@ -7905,15 +7905,15 @@
       </c>
       <c r="D118" s="11">
         <f t="shared" si="5"/>
-        <v>220.19381291303785</v>
+        <v>34.711661533853714</v>
       </c>
       <c r="E118" s="4">
         <f t="shared" si="6"/>
-        <v>290.80618708696215</v>
+        <v>476.28833846614629</v>
       </c>
       <c r="J118" s="14" t="str">
         <f t="shared" si="7"/>
-        <v>220,</v>
+        <v>35,</v>
       </c>
     </row>
     <row r="119" spans="2:10" x14ac:dyDescent="0.2">
@@ -7926,15 +7926,15 @@
       </c>
       <c r="D119" s="11">
         <f t="shared" si="5"/>
-        <v>206.77271613897699</v>
+        <v>12.730313932747606</v>
       </c>
       <c r="E119" s="4">
         <f t="shared" si="6"/>
-        <v>304.22728386102301</v>
+        <v>498.26968606725239</v>
       </c>
       <c r="J119" s="14" t="str">
         <f t="shared" si="7"/>
-        <v>207,</v>
+        <v>13,</v>
       </c>
     </row>
     <row r="120" spans="2:10" x14ac:dyDescent="0.2">
@@ -7947,15 +7947,15 @@
       </c>
       <c r="D120" s="11">
         <f t="shared" si="5"/>
-        <v>199.91620219444769</v>
+        <v>1.5005747479576144</v>
       </c>
       <c r="E120" s="4">
         <f t="shared" si="6"/>
-        <v>311.08379780555231</v>
+        <v>509.49942525204239</v>
       </c>
       <c r="J120" s="14" t="str">
         <f t="shared" si="7"/>
-        <v>200,</v>
+        <v>2,</v>
       </c>
     </row>
     <row r="121" spans="2:10" x14ac:dyDescent="0.2">
@@ -7968,15 +7968,15 @@
       </c>
       <c r="D121" s="11">
         <f t="shared" si="5"/>
-        <v>199.77222018230344</v>
+        <v>1.2647580549905797</v>
       </c>
       <c r="E121" s="4">
         <f t="shared" si="6"/>
-        <v>311.22777981769656</v>
+        <v>509.73524194500942</v>
       </c>
       <c r="J121" s="14" t="str">
         <f t="shared" si="7"/>
-        <v>200,</v>
+        <v>1,</v>
       </c>
     </row>
     <row r="122" spans="2:10" x14ac:dyDescent="0.2">
@@ -7989,15 +7989,15 @@
       </c>
       <c r="D122" s="11">
         <f t="shared" si="5"/>
-        <v>206.34387693054663</v>
+        <v>12.027952280478587</v>
       </c>
       <c r="E122" s="4">
         <f t="shared" si="6"/>
-        <v>304.65612306945337</v>
+        <v>498.97204771952141</v>
       </c>
       <c r="J122" s="14" t="str">
         <f t="shared" si="7"/>
-        <v>206,</v>
+        <v>12,</v>
       </c>
     </row>
     <row r="123" spans="2:10" x14ac:dyDescent="0.2">
@@ -8010,15 +8010,15 @@
       </c>
       <c r="D123" s="11">
         <f t="shared" si="5"/>
-        <v>219.48936995353739</v>
+        <v>33.557910404671816</v>
       </c>
       <c r="E123" s="4">
         <f t="shared" si="6"/>
-        <v>291.51063004646261</v>
+        <v>477.44208959532818</v>
       </c>
       <c r="J123" s="14" t="str">
         <f t="shared" si="7"/>
-        <v>219,</v>
+        <v>34,</v>
       </c>
     </row>
     <row r="124" spans="2:10" x14ac:dyDescent="0.2">
@@ -8031,15 +8031,15 @@
       </c>
       <c r="D124" s="11">
         <f t="shared" si="5"/>
-        <v>238.92504725041158</v>
+        <v>65.390061362052336</v>
       </c>
       <c r="E124" s="4">
         <f t="shared" si="6"/>
-        <v>272.07495274958842</v>
+        <v>445.60993863794766</v>
       </c>
       <c r="J124" s="14" t="str">
         <f t="shared" si="7"/>
-        <v>239,</v>
+        <v>65,</v>
       </c>
     </row>
     <row r="125" spans="2:10" x14ac:dyDescent="0.2">
@@ -8052,15 +8052,15 @@
       </c>
       <c r="D125" s="11">
         <f t="shared" si="5"/>
-        <v>264.23152791672152</v>
+        <v>106.83753450463041</v>
       </c>
       <c r="E125" s="4">
         <f t="shared" si="6"/>
-        <v>246.76847208327848</v>
+        <v>404.16246549536959</v>
       </c>
       <c r="J125" s="14" t="str">
         <f t="shared" si="7"/>
-        <v>264,</v>
+        <v>107,</v>
       </c>
     </row>
     <row r="126" spans="2:10" x14ac:dyDescent="0.2">
@@ -8073,15 +8073,15 @@
       </c>
       <c r="D126" s="11">
         <f t="shared" si="5"/>
-        <v>294.86275149940855</v>
+        <v>157.00598082114675</v>
       </c>
       <c r="E126" s="4">
         <f t="shared" si="6"/>
-        <v>216.13724850059145</v>
+        <v>353.99401917885325</v>
       </c>
       <c r="J126" s="14" t="str">
         <f t="shared" si="7"/>
-        <v>295,</v>
+        <v>157,</v>
       </c>
     </row>
     <row r="127" spans="2:10" x14ac:dyDescent="0.2">
@@ -8094,15 +8094,15 @@
       </c>
       <c r="D127" s="11">
         <f t="shared" si="5"/>
-        <v>330.15776082912907</v>
+        <v>214.81287110155432</v>
       </c>
       <c r="E127" s="4">
         <f t="shared" si="6"/>
-        <v>180.84223917087093</v>
+        <v>296.18712889844568</v>
       </c>
       <c r="J127" s="14" t="str">
         <f t="shared" si="7"/>
-        <v>330,</v>
+        <v>215,</v>
       </c>
     </row>
     <row r="128" spans="2:10" x14ac:dyDescent="0.2">
@@ -8115,15 +8115,15 @@
       </c>
       <c r="D128" s="11">
         <f t="shared" si="5"/>
-        <v>369.35496408126244</v>
+        <v>279.01085463309329</v>
       </c>
       <c r="E128" s="4">
         <f t="shared" si="6"/>
-        <v>141.64503591873756</v>
+        <v>231.98914536690671</v>
       </c>
       <c r="J128" s="14" t="str">
         <f t="shared" si="7"/>
-        <v>369,</v>
+        <v>279,</v>
       </c>
     </row>
     <row r="129" spans="2:10" x14ac:dyDescent="0.2">
@@ -8136,15 +8136,15 @@
       </c>
       <c r="D129" s="11">
         <f t="shared" si="5"/>
-        <v>411.60856832044635</v>
+        <v>348.21467439662842</v>
       </c>
       <c r="E129" s="4">
         <f t="shared" si="6"/>
-        <v>99.391431679553648</v>
+        <v>162.78532560337158</v>
       </c>
       <c r="J129" s="14" t="str">
         <f t="shared" si="7"/>
-        <v>412,</v>
+        <v>348,</v>
       </c>
     </row>
     <row r="130" spans="2:10" x14ac:dyDescent="0.2">
@@ -8157,15 +8157,15 @@
       </c>
       <c r="D130" s="11">
         <f t="shared" si="5"/>
-        <v>456.00682992739132</v>
+        <v>420.9310579900544</v>
       </c>
       <c r="E130" s="4">
         <f t="shared" si="6"/>
-        <v>54.993170072608677</v>
+        <v>90.068942009945602</v>
       </c>
       <c r="J130" s="14" t="str">
         <f t="shared" si="7"/>
-        <v>456,</v>
+        <v>421,</v>
       </c>
     </row>
     <row r="131" spans="2:10" x14ac:dyDescent="0.2">
@@ -8178,15 +8178,15 @@
       </c>
       <c r="D131" s="11">
         <f t="shared" ref="D131:D194" si="9">(SIN($C131 * (PI()/180)) * AMPLITUDE) + 511</f>
-        <v>501.5917281022937</v>
+        <v>495.59093929574385</v>
       </c>
       <c r="E131" s="4">
         <f t="shared" si="6"/>
-        <v>9.4082718977062996</v>
+        <v>15.409060704256149</v>
       </c>
       <c r="J131" s="14" t="str">
         <f t="shared" si="7"/>
-        <v>502,</v>
+        <v>496,</v>
       </c>
     </row>
     <row r="132" spans="2:10" x14ac:dyDescent="0.2">
@@ -8199,15 +8199,15 @@
       </c>
       <c r="D132" s="11">
         <f t="shared" si="9"/>
-        <v>547.37963693216238</v>
+        <v>570.58331561645832</v>
       </c>
       <c r="E132" s="4">
         <f t="shared" ref="E132:E195" si="10">IF($D132 &lt; 511, 511 - $D132, $D132 - 511)</f>
-        <v>36.379636932162384</v>
+        <v>59.583315616458322</v>
       </c>
       <c r="J132" s="14" t="str">
         <f t="shared" ref="J132:J195" si="11">CONCATENATE(ROUND($D132, 0), ",")</f>
-        <v>547,</v>
+        <v>571,</v>
       </c>
     </row>
     <row r="133" spans="2:10" x14ac:dyDescent="0.2">
@@ -8220,15 +8220,15 @@
       </c>
       <c r="D133" s="11">
         <f t="shared" si="9"/>
-        <v>592.38254996244802</v>
+        <v>644.29000971413757</v>
       </c>
       <c r="E133" s="4">
         <f t="shared" si="10"/>
-        <v>81.382549962448024</v>
+        <v>133.29000971413757</v>
       </c>
       <c r="J133" s="14" t="str">
         <f t="shared" si="11"/>
-        <v>592,</v>
+        <v>644,</v>
       </c>
     </row>
     <row r="134" spans="2:10" x14ac:dyDescent="0.2">
@@ -8241,15 +8241,15 @@
       </c>
       <c r="D134" s="11">
         <f t="shared" si="9"/>
-        <v>635.62939929152162</v>
+        <v>715.12058666015241</v>
       </c>
       <c r="E134" s="4">
         <f t="shared" si="10"/>
-        <v>124.62939929152162</v>
+        <v>204.12058666015241</v>
       </c>
       <c r="J134" s="14" t="str">
         <f t="shared" si="11"/>
-        <v>636,</v>
+        <v>715,</v>
       </c>
     </row>
     <row r="135" spans="2:10" x14ac:dyDescent="0.2">
@@ -8262,15 +8262,15 @@
       </c>
       <c r="D135" s="11">
         <f t="shared" si="9"/>
-        <v>676.18700916691739</v>
+        <v>781.54667206504746</v>
       </c>
       <c r="E135" s="4">
         <f t="shared" si="10"/>
-        <v>165.18700916691739</v>
+        <v>270.54667206504746</v>
       </c>
       <c r="J135" s="14" t="str">
         <f t="shared" si="11"/>
-        <v>676,</v>
+        <v>782,</v>
       </c>
     </row>
     <row r="136" spans="2:10" x14ac:dyDescent="0.2">
@@ -8283,15 +8283,15 @@
       </c>
       <c r="D136" s="11">
         <f t="shared" si="9"/>
-        <v>713.18023194896523</v>
+        <v>842.13493117282439</v>
       </c>
       <c r="E136" s="4">
         <f t="shared" si="10"/>
-        <v>202.18023194896523</v>
+        <v>331.13493117282439</v>
       </c>
       <c r="J136" s="14" t="str">
         <f t="shared" si="11"/>
-        <v>713,</v>
+        <v>842,</v>
       </c>
     </row>
     <row r="137" spans="2:10" x14ac:dyDescent="0.2">
@@ -8304,15 +8304,15 @@
       </c>
       <c r="D137" s="11">
         <f t="shared" si="9"/>
-        <v>745.81083195018027</v>
+        <v>895.57799720045546</v>
       </c>
       <c r="E137" s="4">
         <f t="shared" si="10"/>
-        <v>234.81083195018027</v>
+        <v>384.57799720045546</v>
       </c>
       <c r="J137" s="14" t="str">
         <f t="shared" si="11"/>
-        <v>746,</v>
+        <v>896,</v>
       </c>
     </row>
     <row r="138" spans="2:10" x14ac:dyDescent="0.2">
@@ -8325,15 +8325,15 @@
       </c>
       <c r="D138" s="11">
         <f t="shared" si="9"/>
-        <v>773.37470967702961</v>
+        <v>940.72268155436564</v>
       </c>
       <c r="E138" s="4">
         <f t="shared" si="10"/>
-        <v>262.37470967702961</v>
+        <v>429.72268155436564</v>
       </c>
       <c r="J138" s="14" t="str">
         <f t="shared" si="11"/>
-        <v>773,</v>
+        <v>941,</v>
       </c>
     </row>
     <row r="139" spans="2:10" x14ac:dyDescent="0.2">
@@ -8346,15 +8346,15 @@
       </c>
       <c r="D139" s="11">
         <f t="shared" si="9"/>
-        <v>795.2770948112684</v>
+        <v>976.59485720691714</v>
       </c>
       <c r="E139" s="4">
         <f t="shared" si="10"/>
-        <v>284.2770948112684</v>
+        <v>465.59485720691714</v>
       </c>
       <c r="J139" s="14" t="str">
         <f t="shared" si="11"/>
-        <v>795,</v>
+        <v>977,</v>
       </c>
     </row>
     <row r="140" spans="2:10" x14ac:dyDescent="0.2">
@@ -8367,15 +8367,15 @@
       </c>
       <c r="D140" s="11">
         <f t="shared" si="9"/>
-        <v>811.04538009836904</v>
+        <v>1002.4204783021364</v>
       </c>
       <c r="E140" s="4">
         <f t="shared" si="10"/>
-        <v>300.04538009836904</v>
+        <v>491.42047830213642</v>
       </c>
       <c r="J140" s="14" t="str">
         <f t="shared" si="11"/>
-        <v>811,</v>
+        <v>1002,</v>
       </c>
     </row>
     <row r="141" spans="2:10" x14ac:dyDescent="0.2">
@@ -8388,15 +8388,15 @@
       </c>
       <c r="D141" s="11">
         <f t="shared" si="9"/>
-        <v>820.33931921481599</v>
+        <v>1017.6422824319583</v>
       </c>
       <c r="E141" s="4">
         <f t="shared" si="10"/>
-        <v>309.33931921481599</v>
+        <v>506.64228243195828</v>
       </c>
       <c r="J141" s="14" t="str">
         <f t="shared" si="11"/>
-        <v>820,</v>
+        <v>1018,</v>
       </c>
     </row>
     <row r="142" spans="2:10" x14ac:dyDescent="0.2">
@@ -8409,15 +8409,15 @@
       </c>
       <c r="D142" s="11">
         <f t="shared" si="9"/>
-        <v>822.95836856580615</v>
+        <v>1021.9318151830992</v>
       </c>
       <c r="E142" s="4">
         <f t="shared" si="10"/>
-        <v>311.95836856580615</v>
+        <v>510.93181518309916</v>
       </c>
       <c r="J142" s="14" t="str">
         <f t="shared" si="11"/>
-        <v>823,</v>
+        <v>1022,</v>
       </c>
     </row>
     <row r="143" spans="2:10" x14ac:dyDescent="0.2">
@@ -8430,15 +8430,15 @@
       </c>
       <c r="D143" s="11">
         <f t="shared" si="9"/>
-        <v>818.84601459285477</v>
+        <v>1015.1965174902205</v>
       </c>
       <c r="E143" s="4">
         <f t="shared" si="10"/>
-        <v>307.84601459285477</v>
+        <v>504.19651749022046</v>
       </c>
       <c r="J143" s="14" t="str">
         <f t="shared" si="11"/>
-        <v>819,</v>
+        <v>1015,</v>
       </c>
     </row>
     <row r="144" spans="2:10" x14ac:dyDescent="0.2">
@@ -8451,15 +8451,15 @@
       </c>
       <c r="D144" s="11">
         <f t="shared" si="9"/>
-        <v>808.09099321713632</v>
+        <v>997.58172286524564</v>
       </c>
       <c r="E144" s="4">
         <f t="shared" si="10"/>
-        <v>297.09099321713632</v>
+        <v>486.58172286524564</v>
       </c>
       <c r="J144" s="14" t="str">
         <f t="shared" si="11"/>
-        <v>808,</v>
+        <v>998,</v>
       </c>
     </row>
     <row r="145" spans="2:10" x14ac:dyDescent="0.2">
@@ -8472,15 +8472,15 @@
       </c>
       <c r="D145" s="11">
         <f t="shared" si="9"/>
-        <v>790.9253751055486</v>
+        <v>969.46752140684407</v>
       </c>
       <c r="E145" s="4">
         <f t="shared" si="10"/>
-        <v>279.9253751055486</v>
+        <v>458.46752140684407</v>
       </c>
       <c r="J145" s="14" t="str">
         <f t="shared" si="11"/>
-        <v>791,</v>
+        <v>969,</v>
       </c>
     </row>
     <row r="146" spans="2:10" x14ac:dyDescent="0.2">
@@ -8493,15 +8493,15 @@
       </c>
       <c r="D146" s="11">
         <f t="shared" si="9"/>
-        <v>767.7195580754194</v>
+        <v>931.46055825813869</v>
       </c>
       <c r="E146" s="4">
         <f t="shared" si="10"/>
-        <v>256.7195580754194</v>
+        <v>420.46055825813869</v>
       </c>
       <c r="J146" s="14" t="str">
         <f t="shared" si="11"/>
-        <v>768,</v>
+        <v>931,</v>
       </c>
     </row>
     <row r="147" spans="2:10" x14ac:dyDescent="0.2">
@@ -8514,15 +8514,15 @@
       </c>
       <c r="D147" s="11">
         <f t="shared" si="9"/>
-        <v>738.97427469119236</v>
+        <v>884.38094348461311</v>
       </c>
       <c r="E147" s="4">
         <f t="shared" si="10"/>
-        <v>227.97427469119236</v>
+        <v>373.38094348461311</v>
       </c>
       <c r="J147" s="14" t="str">
         <f t="shared" si="11"/>
-        <v>739,</v>
+        <v>884,</v>
       </c>
     </row>
     <row r="148" spans="2:10" x14ac:dyDescent="0.2">
@@ -8535,15 +8535,15 @@
       </c>
       <c r="D148" s="11">
         <f t="shared" si="9"/>
-        <v>705.30978751228974</v>
+        <v>829.24455582942323</v>
       </c>
       <c r="E148" s="4">
         <f t="shared" si="10"/>
-        <v>194.30978751228974</v>
+        <v>318.24455582942323</v>
       </c>
       <c r="J148" s="14" t="str">
         <f t="shared" si="11"/>
-        <v>705,</v>
+        <v>829,</v>
       </c>
     </row>
     <row r="149" spans="2:10" x14ac:dyDescent="0.2">
@@ -8556,15 +8556,15 @@
       </c>
       <c r="D149" s="11">
         <f t="shared" si="9"/>
-        <v>667.45250513591373</v>
+        <v>767.24112219375615</v>
       </c>
       <c r="E149" s="4">
         <f t="shared" si="10"/>
-        <v>156.45250513591373</v>
+        <v>256.24112219375615</v>
       </c>
       <c r="J149" s="14" t="str">
         <f t="shared" si="11"/>
-        <v>667,</v>
+        <v>767,</v>
       </c>
     </row>
     <row r="150" spans="2:10" x14ac:dyDescent="0.2">
@@ -8577,15 +8577,15 @@
       </c>
       <c r="D150" s="11">
         <f t="shared" si="9"/>
-        <v>626.21930783232301</v>
+        <v>699.70854584075983</v>
       </c>
       <c r="E150" s="4">
         <f t="shared" si="10"/>
-        <v>115.21930783232301</v>
+        <v>188.70854584075983</v>
       </c>
       <c r="J150" s="14" t="str">
         <f t="shared" si="11"/>
-        <v>626,</v>
+        <v>700,</v>
       </c>
     </row>
     <row r="151" spans="2:10" x14ac:dyDescent="0.2">
@@ -8598,15 +8598,15 @@
       </c>
       <c r="D151" s="11">
         <f t="shared" si="9"/>
-        <v>582.4999209923194</v>
+        <v>628.1040372662668</v>
       </c>
       <c r="E151" s="4">
         <f t="shared" si="10"/>
-        <v>71.499920992319403</v>
+        <v>117.1040372662668</v>
       </c>
       <c r="J151" s="14" t="str">
         <f t="shared" si="11"/>
-        <v>582,</v>
+        <v>628,</v>
       </c>
     </row>
     <row r="152" spans="2:10" x14ac:dyDescent="0.2">
@@ -8619,15 +8619,15 @@
       </c>
       <c r="D152" s="11">
         <f t="shared" si="9"/>
-        <v>537.23771673074032</v>
+        <v>553.97267067118048</v>
       </c>
       <c r="E152" s="4">
         <f t="shared" si="10"/>
-        <v>26.237716730740317</v>
+        <v>42.972670671180481</v>
       </c>
       <c r="J152" s="14" t="str">
         <f t="shared" si="11"/>
-        <v>537,</v>
+        <v>554,</v>
       </c>
     </row>
     <row r="153" spans="2:10" x14ac:dyDescent="0.2">
@@ -8640,15 +8640,15 @@
       </c>
       <c r="D153" s="11">
         <f t="shared" si="9"/>
-        <v>491.40935790685353</v>
+        <v>478.91404452051967</v>
       </c>
       <c r="E153" s="4">
         <f t="shared" si="10"/>
-        <v>19.590642093146471</v>
+        <v>32.085955479480333</v>
       </c>
       <c r="J153" s="14" t="str">
         <f t="shared" si="11"/>
-        <v>491,</v>
+        <v>479,</v>
       </c>
     </row>
     <row r="154" spans="2:10" x14ac:dyDescent="0.2">
@@ -8661,15 +8661,15 @@
       </c>
       <c r="D154" s="11">
         <f t="shared" si="9"/>
-        <v>446.00372380072383</v>
+        <v>404.54776558387778</v>
       </c>
       <c r="E154" s="4">
         <f t="shared" si="10"/>
-        <v>64.996276199276167</v>
+        <v>106.45223441612222</v>
       </c>
       <c r="J154" s="14" t="str">
         <f t="shared" si="11"/>
-        <v>446,</v>
+        <v>405,</v>
       </c>
     </row>
     <row r="155" spans="2:10" x14ac:dyDescent="0.2">
@@ -8682,15 +8682,15 @@
       </c>
       <c r="D155" s="11">
         <f t="shared" si="9"/>
-        <v>402.00057218500797</v>
+        <v>332.47850123890731</v>
       </c>
       <c r="E155" s="4">
         <f t="shared" si="10"/>
-        <v>108.99942781499203</v>
+        <v>178.52149876109269</v>
       </c>
       <c r="J155" s="14" t="str">
         <f t="shared" si="11"/>
-        <v>402,</v>
+        <v>332,</v>
       </c>
     </row>
     <row r="156" spans="2:10" x14ac:dyDescent="0.2">
@@ -8703,15 +8703,15 @@
       </c>
       <c r="D156" s="11">
         <f t="shared" si="9"/>
-        <v>360.34939821962462</v>
+        <v>264.26135413534678</v>
       </c>
       <c r="E156" s="4">
         <f t="shared" si="10"/>
-        <v>150.65060178037538</v>
+        <v>246.73864586465322</v>
       </c>
       <c r="J156" s="14" t="str">
         <f t="shared" si="11"/>
-        <v>360,</v>
+        <v>264,</v>
       </c>
     </row>
     <row r="157" spans="2:10" x14ac:dyDescent="0.2">
@@ -8724,15 +8724,15 @@
       </c>
       <c r="D157" s="11">
         <f t="shared" si="9"/>
-        <v>321.94894634976004</v>
+        <v>201.36830636130577</v>
       </c>
       <c r="E157" s="4">
         <f t="shared" si="10"/>
-        <v>189.05105365023996</v>
+        <v>309.63169363869423</v>
       </c>
       <c r="J157" s="14" t="str">
         <f t="shared" si="11"/>
-        <v>322,</v>
+        <v>201,</v>
       </c>
     </row>
     <row r="158" spans="2:10" x14ac:dyDescent="0.2">
@@ -8745,15 +8745,15 @@
       </c>
       <c r="D158" s="11">
         <f t="shared" si="9"/>
-        <v>287.62781729718807</v>
+        <v>145.15645717584329</v>
       </c>
       <c r="E158" s="4">
         <f t="shared" si="10"/>
-        <v>223.37218270281193</v>
+        <v>365.84354282415671</v>
       </c>
       <c r="J158" s="14" t="str">
         <f t="shared" si="11"/>
-        <v>288,</v>
+        <v>145,</v>
       </c>
     </row>
     <row r="159" spans="2:10" x14ac:dyDescent="0.2">
@@ -8766,15 +8766,15 @@
       </c>
       <c r="D159" s="11">
         <f t="shared" si="9"/>
-        <v>258.12658860514898</v>
+        <v>96.83873967061254</v>
       </c>
       <c r="E159" s="4">
         <f t="shared" si="10"/>
-        <v>252.87341139485102</v>
+        <v>414.16126032938746</v>
       </c>
       <c r="J159" s="14" t="str">
         <f t="shared" si="11"/>
-        <v>258,</v>
+        <v>97,</v>
       </c>
     </row>
     <row r="160" spans="2:10" x14ac:dyDescent="0.2">
@@ -8787,15 +8787,15 @@
       </c>
       <c r="D160" s="11">
         <f t="shared" si="9"/>
-        <v>234.08183453767464</v>
+        <v>57.457748233178677</v>
       </c>
       <c r="E160" s="4">
         <f t="shared" si="10"/>
-        <v>276.91816546232536</v>
+        <v>453.54225176682132</v>
       </c>
       <c r="J160" s="14" t="str">
         <f t="shared" si="11"/>
-        <v>234,</v>
+        <v>57,</v>
       </c>
     </row>
     <row r="161" spans="2:10" x14ac:dyDescent="0.2">
@@ -8808,15 +8808,15 @@
       </c>
       <c r="D161" s="11">
         <f t="shared" si="9"/>
-        <v>216.01239015021514</v>
+        <v>27.86324156012796</v>
       </c>
       <c r="E161" s="4">
         <f t="shared" si="10"/>
-        <v>294.98760984978486</v>
+        <v>483.13675843987204</v>
       </c>
       <c r="J161" s="14" t="str">
         <f t="shared" si="11"/>
-        <v>216,</v>
+        <v>28,</v>
       </c>
     </row>
     <row r="162" spans="2:10" x14ac:dyDescent="0.2">
@@ -8829,15 +8829,15 @@
       </c>
       <c r="D162" s="11">
         <f t="shared" si="9"/>
-        <v>204.30815592394902</v>
+        <v>8.6938066574934396</v>
       </c>
       <c r="E162" s="4">
         <f t="shared" si="10"/>
-        <v>306.69184407605098</v>
+        <v>502.30619334250656</v>
       </c>
       <c r="J162" s="14" t="str">
         <f t="shared" si="11"/>
-        <v>204,</v>
+        <v>9,</v>
       </c>
     </row>
     <row r="163" spans="2:10" x14ac:dyDescent="0.2">
@@ -8850,15 +8850,15 @@
       </c>
       <c r="D163" s="11">
         <f t="shared" si="9"/>
-        <v>199.22168453613614</v>
+        <v>0.3630794806588824</v>
       </c>
       <c r="E163" s="4">
         <f t="shared" si="10"/>
-        <v>311.77831546386386</v>
+        <v>510.63692051934112</v>
       </c>
       <c r="J163" s="14" t="str">
         <f t="shared" si="11"/>
-        <v>199,</v>
+        <v>0,</v>
       </c>
     </row>
     <row r="164" spans="2:10" x14ac:dyDescent="0.2">
@@ -8871,15 +8871,15 @@
       </c>
       <c r="D164" s="11">
         <f t="shared" si="9"/>
-        <v>200.86273130625869</v>
+        <v>3.0508195432634011</v>
       </c>
       <c r="E164" s="4">
         <f t="shared" si="10"/>
-        <v>310.13726869374131</v>
+        <v>507.9491804567366</v>
       </c>
       <c r="J164" s="14" t="str">
         <f t="shared" si="11"/>
-        <v>201,</v>
+        <v>3,</v>
       </c>
     </row>
     <row r="165" spans="2:10" x14ac:dyDescent="0.2">
@@ -8892,15 +8892,15 @@
       </c>
       <c r="D165" s="11">
         <f t="shared" si="9"/>
-        <v>209.19588590782348</v>
+        <v>16.699031086210937</v>
       </c>
       <c r="E165" s="4">
         <f t="shared" si="10"/>
-        <v>301.80411409217652</v>
+        <v>494.30096891378906</v>
       </c>
       <c r="J165" s="14" t="str">
         <f t="shared" si="11"/>
-        <v>209,</v>
+        <v>17,</v>
       </c>
     </row>
     <row r="166" spans="2:10" x14ac:dyDescent="0.2">
@@ -8913,15 +8913,15 @@
       </c>
       <c r="D166" s="11">
         <f t="shared" si="9"/>
-        <v>224.04133644848901</v>
+        <v>41.013214503775259</v>
       </c>
       <c r="E166" s="4">
         <f t="shared" si="10"/>
-        <v>286.95866355151099</v>
+        <v>469.98678549622474</v>
       </c>
       <c r="J166" s="14" t="str">
         <f t="shared" si="11"/>
-        <v>224,</v>
+        <v>41,</v>
       </c>
     </row>
     <row r="167" spans="2:10" x14ac:dyDescent="0.2">
@@ -8934,15 +8934,15 @@
       </c>
       <c r="D167" s="11">
         <f t="shared" si="9"/>
-        <v>245.07874943127376</v>
+        <v>75.468721023656713</v>
       </c>
       <c r="E167" s="4">
         <f t="shared" si="10"/>
-        <v>265.92125056872624</v>
+        <v>435.53127897634329</v>
       </c>
       <c r="J167" s="14" t="str">
         <f t="shared" si="11"/>
-        <v>245,</v>
+        <v>75,</v>
       </c>
     </row>
     <row r="168" spans="2:10" x14ac:dyDescent="0.2">
@@ -8955,15 +8955,15 @@
       </c>
       <c r="D168" s="11">
         <f t="shared" si="9"/>
-        <v>271.85418187548362</v>
+        <v>119.32207352042343</v>
       </c>
       <c r="E168" s="4">
         <f t="shared" si="10"/>
-        <v>239.14581812451638</v>
+        <v>391.67792647957657</v>
       </c>
       <c r="J168" s="14" t="str">
         <f t="shared" si="11"/>
-        <v>272,</v>
+        <v>119,</v>
       </c>
     </row>
     <row r="169" spans="2:10" x14ac:dyDescent="0.2">
@@ -8976,15 +8976,15 @@
       </c>
       <c r="D169" s="11">
         <f t="shared" si="9"/>
-        <v>303.78987644835786</v>
+        <v>171.62700918304762</v>
       </c>
       <c r="E169" s="4">
         <f t="shared" si="10"/>
-        <v>207.21012355164214</v>
+        <v>339.37299081695238</v>
       </c>
       <c r="J169" s="14" t="str">
         <f t="shared" si="11"/>
-        <v>304,</v>
+        <v>172,</v>
       </c>
     </row>
     <row r="170" spans="2:10" x14ac:dyDescent="0.2">
@@ -8997,15 +8997,15 @@
       </c>
       <c r="D170" s="11">
         <f t="shared" si="9"/>
-        <v>340.19672824917456</v>
+        <v>231.25489786964164</v>
       </c>
       <c r="E170" s="4">
         <f t="shared" si="10"/>
-        <v>170.80327175082544</v>
+        <v>279.74510213035836</v>
       </c>
       <c r="J170" s="14" t="str">
         <f t="shared" si="11"/>
-        <v>340,</v>
+        <v>231,</v>
       </c>
     </row>
     <row r="171" spans="2:10" x14ac:dyDescent="0.2">
@@ -9018,15 +9018,15 @@
       </c>
       <c r="D171" s="11">
         <f t="shared" si="9"/>
-        <v>380.28915423890999</v>
+        <v>296.9190955643686</v>
       </c>
       <c r="E171" s="4">
         <f t="shared" si="10"/>
-        <v>130.71084576109001</v>
+        <v>214.0809044356314</v>
       </c>
       <c r="J171" s="14" t="str">
         <f t="shared" si="11"/>
-        <v>380,</v>
+        <v>297,</v>
       </c>
     </row>
     <row r="172" spans="2:10" x14ac:dyDescent="0.2">
@@ -9039,15 +9039,15 @@
       </c>
       <c r="D172" s="11">
         <f t="shared" si="9"/>
-        <v>423.20204446455136</v>
+        <v>367.20270744033888</v>
       </c>
       <c r="E172" s="4">
         <f t="shared" si="10"/>
-        <v>87.797955535448637</v>
+        <v>143.79729255966112</v>
       </c>
       <c r="J172" s="14" t="str">
         <f t="shared" si="11"/>
-        <v>423,</v>
+        <v>367,</v>
       </c>
     </row>
     <row r="173" spans="2:10" x14ac:dyDescent="0.2">
@@ -9060,15 +9060,15 @@
       </c>
       <c r="D173" s="11">
         <f t="shared" si="9"/>
-        <v>468.00942930639309</v>
+        <v>440.58916146015019</v>
       </c>
       <c r="E173" s="4">
         <f t="shared" si="10"/>
-        <v>42.990570693606912</v>
+        <v>70.410838539849806</v>
       </c>
       <c r="J173" s="14" t="str">
         <f t="shared" si="11"/>
-        <v>468,</v>
+        <v>441,</v>
       </c>
     </row>
     <row r="174" spans="2:10" x14ac:dyDescent="0.2">
@@ -9081,15 +9081,15 @@
       </c>
       <c r="D174" s="11">
         <f t="shared" si="9"/>
-        <v>513.74445994852499</v>
+        <v>515.49493280030856</v>
       </c>
       <c r="E174" s="4">
         <f t="shared" si="10"/>
-        <v>2.744459948524991</v>
+        <v>4.4949328003085611</v>
       </c>
       <c r="J174" s="14" t="str">
         <f t="shared" si="11"/>
-        <v>514,</v>
+        <v>515,</v>
       </c>
     </row>
     <row r="175" spans="2:10" x14ac:dyDescent="0.2">
@@ -9102,15 +9102,15 @@
       </c>
       <c r="D175" s="11">
         <f t="shared" si="9"/>
-        <v>559.4202709361075</v>
+        <v>590.30371297548368</v>
       </c>
       <c r="E175" s="4">
         <f t="shared" si="10"/>
-        <v>48.420270936107499</v>
+        <v>79.303712975483677</v>
       </c>
       <c r="J175" s="14" t="str">
         <f t="shared" si="11"/>
-        <v>559,</v>
+        <v>590,</v>
       </c>
     </row>
     <row r="176" spans="2:10" x14ac:dyDescent="0.2">
@@ -9123,15 +9123,15 @@
       </c>
       <c r="D176" s="11">
         <f t="shared" si="9"/>
-        <v>604.05127464948987</v>
+        <v>663.40128636502993</v>
       </c>
       <c r="E176" s="4">
         <f t="shared" si="10"/>
-        <v>93.051274649489869</v>
+        <v>152.40128636502993</v>
       </c>
       <c r="J176" s="14" t="str">
         <f t="shared" si="11"/>
-        <v>604,</v>
+        <v>663,</v>
       </c>
     </row>
     <row r="177" spans="2:10" x14ac:dyDescent="0.2">
@@ -9144,15 +9144,15 @@
       </c>
       <c r="D177" s="11">
         <f t="shared" si="9"/>
-        <v>646.67442820532642</v>
+        <v>733.2103615798776</v>
       </c>
       <c r="E177" s="4">
         <f t="shared" si="10"/>
-        <v>135.67442820532642</v>
+        <v>222.2103615798776</v>
       </c>
       <c r="J177" s="14" t="str">
         <f t="shared" si="11"/>
-        <v>647,</v>
+        <v>733,</v>
       </c>
     </row>
     <row r="178" spans="2:10" x14ac:dyDescent="0.2">
@@ -9165,15 +9165,15 @@
       </c>
       <c r="D178" s="11">
         <f t="shared" si="9"/>
-        <v>686.37001388986596</v>
+        <v>798.22460608244069</v>
       </c>
       <c r="E178" s="4">
         <f t="shared" si="10"/>
-        <v>175.37001388986596</v>
+        <v>287.22460608244069</v>
       </c>
       <c r="J178" s="14" t="str">
         <f t="shared" si="11"/>
-        <v>686,</v>
+        <v>798,</v>
       </c>
     </row>
     <row r="179" spans="2:10" x14ac:dyDescent="0.2">
@@ -9186,15 +9186,15 @@
       </c>
       <c r="D179" s="11">
         <f t="shared" si="9"/>
-        <v>722.28148472650093</v>
+        <v>857.04114966423708</v>
       </c>
       <c r="E179" s="4">
         <f t="shared" si="10"/>
-        <v>211.28148472650093</v>
+        <v>346.04114966423708</v>
       </c>
       <c r="J179" s="14" t="str">
         <f t="shared" si="11"/>
-        <v>722,</v>
+        <v>857,</v>
       </c>
     </row>
     <row r="180" spans="2:10" x14ac:dyDescent="0.2">
@@ -9207,15 +9207,15 @@
       </c>
       <c r="D180" s="11">
         <f t="shared" si="9"/>
-        <v>753.63394695210309</v>
+        <v>908.39085542475868</v>
       </c>
       <c r="E180" s="4">
         <f t="shared" si="10"/>
-        <v>242.63394695210309</v>
+        <v>397.39085542475868</v>
       </c>
       <c r="J180" s="14" t="str">
         <f t="shared" si="11"/>
-        <v>754,</v>
+        <v>908,</v>
       </c>
     </row>
     <row r="181" spans="2:10" x14ac:dyDescent="0.2">
@@ -9228,15 +9228,15 @@
       </c>
       <c r="D181" s="11">
         <f t="shared" si="9"/>
-        <v>779.75088058931374</v>
+        <v>951.16570506775429</v>
       </c>
       <c r="E181" s="4">
         <f t="shared" si="10"/>
-        <v>268.75088058931374</v>
+        <v>440.16570506775429</v>
       </c>
       <c r="J181" s="14" t="str">
         <f t="shared" si="11"/>
-        <v>780,</v>
+        <v>951,</v>
       </c>
     </row>
     <row r="182" spans="2:10" x14ac:dyDescent="0.2">
@@ -9249,15 +9249,15 @@
       </c>
       <c r="D182" s="11">
         <f t="shared" si="9"/>
-        <v>800.06873732011445</v>
+        <v>984.44270759800793</v>
       </c>
       <c r="E182" s="4">
         <f t="shared" si="10"/>
-        <v>289.06873732011445</v>
+        <v>473.44270759800793</v>
       </c>
       <c r="J182" s="14" t="str">
         <f t="shared" si="11"/>
-        <v>800,</v>
+        <v>984,</v>
       </c>
     </row>
     <row r="183" spans="2:10" x14ac:dyDescent="0.2">
@@ -9270,15 +9270,15 @@
       </c>
       <c r="D183" s="11">
         <f t="shared" si="9"/>
-        <v>814.14910066937841</v>
+        <v>1007.5038155193986</v>
       </c>
       <c r="E183" s="4">
         <f t="shared" si="10"/>
-        <v>303.14910066937841</v>
+        <v>496.50381551939859</v>
       </c>
       <c r="J183" s="14" t="str">
         <f t="shared" si="11"/>
-        <v>814,</v>
+        <v>1008,</v>
       </c>
     </row>
     <row r="184" spans="2:10" x14ac:dyDescent="0.2">
@@ -9291,15 +9291,15 @@
       </c>
       <c r="D184" s="11">
         <f t="shared" si="9"/>
-        <v>821.68814610729021</v>
+        <v>1019.8514187846965</v>
       </c>
       <c r="E184" s="4">
         <f t="shared" si="10"/>
-        <v>310.68814610729021</v>
+        <v>508.85141878469653</v>
       </c>
       <c r="J184" s="14" t="str">
         <f t="shared" si="11"/>
-        <v>822,</v>
+        <v>1020,</v>
       </c>
     </row>
     <row r="185" spans="2:10" x14ac:dyDescent="0.2">
@@ -9312,15 +9312,15 @@
       </c>
       <c r="D185" s="11">
         <f t="shared" si="9"/>
-        <v>822.5231969415928</v>
+        <v>1021.219082170365</v>
       </c>
       <c r="E185" s="4">
         <f t="shared" si="10"/>
-        <v>311.5231969415928</v>
+        <v>510.21908217036503</v>
       </c>
       <c r="J185" s="14" t="str">
         <f t="shared" si="11"/>
-        <v>823,</v>
+        <v>1021,</v>
       </c>
     </row>
     <row r="186" spans="2:10" x14ac:dyDescent="0.2">
@@ -9333,15 +9333,15 @@
       </c>
       <c r="D186" s="11">
         <f t="shared" si="9"/>
-        <v>816.63623453733965</v>
+        <v>1011.5772943864761</v>
       </c>
       <c r="E186" s="4">
         <f t="shared" si="10"/>
-        <v>305.63623453733965</v>
+        <v>500.57729438647607</v>
       </c>
       <c r="J186" s="14" t="str">
         <f t="shared" si="11"/>
-        <v>817,</v>
+        <v>1012,</v>
       </c>
     </row>
     <row r="187" spans="2:10" x14ac:dyDescent="0.2">
@@ -9354,15 +9354,15 @@
       </c>
       <c r="D187" s="11">
         <f t="shared" si="9"/>
-        <v>804.15428712101561</v>
+        <v>991.13410486807356</v>
       </c>
       <c r="E187" s="4">
         <f t="shared" si="10"/>
-        <v>293.15428712101561</v>
+        <v>480.13410486807356</v>
       </c>
       <c r="J187" s="14" t="str">
         <f t="shared" si="11"/>
-        <v>804,</v>
+        <v>991,</v>
       </c>
     </row>
     <row r="188" spans="2:10" x14ac:dyDescent="0.2">
@@ -9375,15 +9375,15 @@
       </c>
       <c r="D188" s="11">
         <f t="shared" si="9"/>
-        <v>785.34668877945273</v>
+        <v>960.33063450737291</v>
       </c>
       <c r="E188" s="4">
         <f t="shared" si="10"/>
-        <v>274.34668877945273</v>
+        <v>449.33063450737291</v>
       </c>
       <c r="J188" s="14" t="str">
         <f t="shared" si="11"/>
-        <v>785,</v>
+        <v>960,</v>
       </c>
     </row>
     <row r="189" spans="2:10" x14ac:dyDescent="0.2">
@@ -9396,15 +9396,15 @@
       </c>
       <c r="D189" s="11">
         <f t="shared" si="9"/>
-        <v>760.61926779856663</v>
+        <v>919.83155719572926</v>
       </c>
       <c r="E189" s="4">
         <f t="shared" si="10"/>
-        <v>249.61926779856663</v>
+        <v>408.83155719572926</v>
       </c>
       <c r="J189" s="14" t="str">
         <f t="shared" si="11"/>
-        <v>761,</v>
+        <v>920,</v>
       </c>
     </row>
     <row r="190" spans="2:10" x14ac:dyDescent="0.2">
@@ -9417,15 +9417,15 @@
       </c>
       <c r="D190" s="11">
         <f t="shared" si="9"/>
-        <v>730.50558974528951</v>
+        <v>870.5107575635991</v>
       </c>
       <c r="E190" s="4">
         <f t="shared" si="10"/>
-        <v>219.50558974528951</v>
+        <v>359.5107575635991</v>
       </c>
       <c r="J190" s="14" t="str">
         <f t="shared" si="11"/>
-        <v>731,</v>
+        <v>871,</v>
       </c>
     </row>
     <row r="191" spans="2:10" x14ac:dyDescent="0.2">
@@ -9438,15 +9438,15 @@
       </c>
       <c r="D191" s="11">
         <f t="shared" si="9"/>
-        <v>695.65544424852476</v>
+        <v>813.43247439421839</v>
       </c>
       <c r="E191" s="4">
         <f t="shared" si="10"/>
-        <v>184.65544424852476</v>
+        <v>302.43247439421839</v>
       </c>
       <c r="J191" s="14" t="str">
         <f t="shared" si="11"/>
-        <v>696,</v>
+        <v>813,</v>
       </c>
     </row>
     <row r="192" spans="2:10" x14ac:dyDescent="0.2">
@@ -9459,15 +9459,15 @@
       </c>
       <c r="D192" s="11">
         <f t="shared" si="9"/>
-        <v>656.82082391009226</v>
+        <v>749.82833659633707</v>
       </c>
       <c r="E192" s="4">
         <f t="shared" si="10"/>
-        <v>145.82082391009226</v>
+        <v>238.82833659633707</v>
       </c>
       <c r="J192" s="14" t="str">
         <f t="shared" si="11"/>
-        <v>657,</v>
+        <v>750,</v>
       </c>
     </row>
     <row r="193" spans="2:10" x14ac:dyDescent="0.2">
@@ -9480,15 +9480,15 @@
       </c>
       <c r="D193" s="11">
         <f t="shared" si="9"/>
-        <v>614.83969789117123</v>
+        <v>681.07078725124506</v>
       </c>
       <c r="E193" s="4">
         <f t="shared" si="10"/>
-        <v>103.83969789117123</v>
+        <v>170.07078725124506</v>
       </c>
       <c r="J193" s="14" t="str">
         <f t="shared" si="11"/>
-        <v>615,</v>
+        <v>681,</v>
       </c>
     </row>
     <row r="194" spans="2:10" x14ac:dyDescent="0.2">
@@ -9501,15 +9501,15 @@
       </c>
       <c r="D194" s="11">
         <f t="shared" si="9"/>
-        <v>570.61793030602053</v>
+        <v>608.64346918710407</v>
       </c>
       <c r="E194" s="4">
         <f t="shared" si="10"/>
-        <v>59.617930306020526</v>
+        <v>97.643469187104074</v>
       </c>
       <c r="J194" s="14" t="str">
         <f t="shared" si="11"/>
-        <v>571,</v>
+        <v>609,</v>
       </c>
     </row>
     <row r="195" spans="2:10" x14ac:dyDescent="0.2">
@@ -9522,15 +9522,15 @@
       </c>
       <c r="D195" s="11">
         <f t="shared" ref="D195:D258" si="13">(SIN($C195 * (PI()/180)) * AMPLITUDE) + 511</f>
-        <v>525.10973358587285</v>
+        <v>534.10921109737512</v>
       </c>
       <c r="E195" s="4">
         <f t="shared" si="10"/>
-        <v>14.109733585872846</v>
+        <v>23.109211097375123</v>
       </c>
       <c r="J195" s="14" t="str">
         <f t="shared" si="11"/>
-        <v>525,</v>
+        <v>534,</v>
       </c>
     </row>
     <row r="196" spans="2:10" x14ac:dyDescent="0.2">
@@ -9543,15 +9543,15 @@
       </c>
       <c r="D196" s="11">
         <f t="shared" si="13"/>
-        <v>479.29707858818063</v>
+        <v>459.07630499538556</v>
       </c>
       <c r="E196" s="4">
         <f t="shared" ref="E196:E258" si="14">IF($D196 &lt; 511, 511 - $D196, $D196 - 511)</f>
-        <v>31.702921411819375</v>
+        <v>51.923695004614444</v>
       </c>
       <c r="J196" s="14" t="str">
         <f t="shared" ref="J196:J258" si="15">CONCATENATE(ROUND($D196, 0), ",")</f>
-        <v>479,</v>
+        <v>459,</v>
       </c>
     </row>
     <row r="197" spans="2:10" x14ac:dyDescent="0.2">
@@ -9564,15 +9564,15 @@
       </c>
       <c r="D197" s="11">
         <f t="shared" si="13"/>
-        <v>434.16850573757512</v>
+        <v>385.163802666349</v>
       </c>
       <c r="E197" s="4">
         <f t="shared" si="14"/>
-        <v>76.831494262424883</v>
+        <v>125.836197333651</v>
       </c>
       <c r="J197" s="14" t="str">
         <f t="shared" si="15"/>
-        <v>434,</v>
+        <v>385,</v>
       </c>
     </row>
     <row r="198" spans="2:10" x14ac:dyDescent="0.2">
@@ -9585,15 +9585,15 @@
       </c>
       <c r="D198" s="11">
         <f t="shared" si="13"/>
-        <v>390.69779440945047</v>
+        <v>313.96657994624741</v>
       </c>
       <c r="E198" s="4">
         <f t="shared" si="14"/>
-        <v>120.30220559054953</v>
+        <v>197.03342005375259</v>
       </c>
       <c r="J198" s="14" t="str">
         <f t="shared" si="15"/>
-        <v>391,</v>
+        <v>314,</v>
       </c>
     </row>
     <row r="199" spans="2:10" x14ac:dyDescent="0.2">
@@ -9606,15 +9606,15 @@
       </c>
       <c r="D199" s="11">
         <f t="shared" si="13"/>
-        <v>349.82295082583619</v>
+        <v>247.02092266667404</v>
       </c>
       <c r="E199" s="4">
         <f t="shared" si="14"/>
-        <v>161.17704917416381</v>
+        <v>263.97907733332596</v>
       </c>
       <c r="J199" s="14" t="str">
         <f t="shared" si="15"/>
-        <v>350,</v>
+        <v>247,</v>
       </c>
     </row>
     <row r="200" spans="2:10" x14ac:dyDescent="0.2">
@@ -9627,15 +9627,15 @@
       </c>
       <c r="D200" s="11">
         <f t="shared" si="13"/>
-        <v>312.42596786042554</v>
+        <v>185.77137684832513</v>
       </c>
       <c r="E200" s="4">
         <f t="shared" si="14"/>
-        <v>198.57403213957446</v>
+        <v>325.22862315167487</v>
       </c>
       <c r="J200" s="14" t="str">
         <f t="shared" si="15"/>
-        <v>312,</v>
+        <v>186,</v>
       </c>
     </row>
     <row r="201" spans="2:10" x14ac:dyDescent="0.2">
@@ -9648,15 +9648,15 @@
       </c>
       <c r="D201" s="11">
         <f t="shared" si="13"/>
-        <v>279.31379349347628</v>
+        <v>131.53957844604616</v>
       </c>
       <c r="E201" s="4">
         <f t="shared" si="14"/>
-        <v>231.68620650652372</v>
+        <v>379.46042155395384</v>
       </c>
       <c r="J201" s="14" t="str">
         <f t="shared" si="15"/>
-        <v>279,</v>
+        <v>132,</v>
       </c>
     </row>
     <row r="202" spans="2:10" x14ac:dyDescent="0.2">
@@ -9669,15 +9669,15 @@
       </c>
       <c r="D202" s="11">
         <f t="shared" si="13"/>
-        <v>251.20091857715312</v>
+        <v>85.495735233734763</v>
       </c>
       <c r="E202" s="4">
         <f t="shared" si="14"/>
-        <v>259.79908142284688</v>
+        <v>425.50426476626524</v>
       </c>
       <c r="J202" s="14" t="str">
         <f t="shared" si="15"/>
-        <v>251,</v>
+        <v>85,</v>
       </c>
     </row>
     <row r="203" spans="2:10" x14ac:dyDescent="0.2">
@@ -9690,15 +9690,15 @@
       </c>
       <c r="D203" s="11">
         <f t="shared" si="13"/>
-        <v>228.69395963060146</v>
+        <v>48.633376189863327</v>
       </c>
       <c r="E203" s="4">
         <f t="shared" si="14"/>
-        <v>282.30604036939854</v>
+        <v>462.36662381013667</v>
       </c>
       <c r="J203" s="14" t="str">
         <f t="shared" si="15"/>
-        <v>229,</v>
+        <v>49,</v>
       </c>
     </row>
     <row r="204" spans="2:10" x14ac:dyDescent="0.2">
@@ -9711,15 +9711,15 @@
       </c>
       <c r="D204" s="11">
         <f t="shared" si="13"/>
-        <v>212.27856933549464</v>
+        <v>21.747913238582612</v>
       </c>
       <c r="E204" s="4">
         <f t="shared" si="14"/>
-        <v>298.72143066450536</v>
+        <v>489.25208676141739</v>
       </c>
       <c r="J204" s="14" t="str">
         <f t="shared" si="15"/>
-        <v>212,</v>
+        <v>22,</v>
       </c>
     </row>
     <row r="205" spans="2:10" x14ac:dyDescent="0.2">
@@ -9732,15 +9732,15 @@
       </c>
       <c r="D205" s="11">
         <f t="shared" si="13"/>
-        <v>202.30895717595126</v>
+        <v>5.4194779388175789</v>
       </c>
       <c r="E205" s="4">
         <f t="shared" si="14"/>
-        <v>308.69104282404874</v>
+        <v>505.58052206118242</v>
       </c>
       <c r="J205" s="14" t="str">
         <f t="shared" si="15"/>
-        <v>202,</v>
+        <v>5,</v>
       </c>
     </row>
     <row r="206" spans="2:10" x14ac:dyDescent="0.2">
@@ -9753,15 +9753,15 @@
       </c>
       <c r="D206" s="11">
         <f t="shared" si="13"/>
-        <v>199.00024634529342</v>
+        <v>4.0346937481672285E-4</v>
       </c>
       <c r="E206" s="4">
         <f t="shared" si="14"/>
-        <v>311.99975365470658</v>
+        <v>510.99959653062518</v>
       </c>
       <c r="J206" s="14" t="str">
         <f t="shared" si="15"/>
-        <v>199,</v>
+        <v>0,</v>
       </c>
     </row>
     <row r="207" spans="2:10" x14ac:dyDescent="0.2">
@@ -9774,15 +9774,15 @@
       </c>
       <c r="D207" s="11">
         <f t="shared" si="13"/>
-        <v>202.42383184146809</v>
+        <v>5.6076220224044278</v>
       </c>
       <c r="E207" s="4">
         <f t="shared" si="14"/>
-        <v>308.57616815853191</v>
+        <v>505.39237797759557</v>
       </c>
       <c r="J207" s="14" t="str">
         <f t="shared" si="15"/>
-        <v>202,</v>
+        <v>6,</v>
       </c>
     </row>
     <row r="208" spans="2:10" x14ac:dyDescent="0.2">
@@ -9795,15 +9795,15 @@
       </c>
       <c r="D208" s="11">
         <f t="shared" si="13"/>
-        <v>212.50583991364522</v>
+        <v>22.120141653438168</v>
       </c>
       <c r="E208" s="4">
         <f t="shared" si="14"/>
-        <v>298.49416008635478</v>
+        <v>488.87985834656183</v>
       </c>
       <c r="J208" s="14" t="str">
         <f t="shared" si="15"/>
-        <v>213,</v>
+        <v>22,</v>
       </c>
     </row>
     <row r="209" spans="2:10" x14ac:dyDescent="0.2">
@@ -9816,15 +9816,15 @@
       </c>
       <c r="D209" s="11">
         <f t="shared" si="13"/>
-        <v>229.02872210187832</v>
+        <v>49.181657032243038</v>
       </c>
       <c r="E209" s="4">
         <f t="shared" si="14"/>
-        <v>281.97127789812168</v>
+        <v>461.81834296775696</v>
       </c>
       <c r="J209" s="14" t="str">
         <f t="shared" si="15"/>
-        <v>229,</v>
+        <v>49,</v>
       </c>
     </row>
     <row r="210" spans="2:10" x14ac:dyDescent="0.2">
@@ -9837,15 +9837,15 @@
       </c>
       <c r="D210" s="11">
         <f t="shared" si="13"/>
-        <v>251.63594947381495</v>
+        <v>86.208237759998156</v>
       </c>
       <c r="E210" s="4">
         <f t="shared" si="14"/>
-        <v>259.36405052618505</v>
+        <v>424.79176224000184</v>
       </c>
       <c r="J210" s="14" t="str">
         <f t="shared" si="15"/>
-        <v>252,</v>
+        <v>86,</v>
       </c>
     </row>
     <row r="211" spans="2:10" x14ac:dyDescent="0.2">
@@ -9858,15 +9858,15 @@
       </c>
       <c r="D211" s="11">
         <f t="shared" si="13"/>
-        <v>279.83970576673994</v>
+        <v>132.40092835514133</v>
       </c>
       <c r="E211" s="4">
         <f t="shared" si="14"/>
-        <v>231.16029423326006</v>
+        <v>378.59907164485867</v>
       </c>
       <c r="J211" s="14" t="str">
         <f t="shared" si="15"/>
-        <v>280,</v>
+        <v>132,</v>
       </c>
     </row>
     <row r="212" spans="2:10" x14ac:dyDescent="0.2">
@@ -9879,15 +9879,15 @@
       </c>
       <c r="D212" s="11">
         <f t="shared" si="13"/>
-        <v>313.03141343317265</v>
+        <v>186.76298802676672</v>
       </c>
       <c r="E212" s="4">
         <f t="shared" si="14"/>
-        <v>197.96858656682735</v>
+        <v>324.23701197323328</v>
       </c>
       <c r="J212" s="14" t="str">
         <f t="shared" si="15"/>
-        <v>313,</v>
+        <v>187,</v>
       </c>
     </row>
     <row r="213" spans="2:10" x14ac:dyDescent="0.2">
@@ -9900,15 +9900,15 @@
       </c>
       <c r="D213" s="11">
         <f t="shared" si="13"/>
-        <v>350.49486546017101</v>
+        <v>248.12139823765193</v>
       </c>
       <c r="E213" s="4">
         <f t="shared" si="14"/>
-        <v>160.50513453982899</v>
+        <v>262.87860176234807</v>
       </c>
       <c r="J213" s="14" t="str">
         <f t="shared" si="15"/>
-        <v>350,</v>
+        <v>248,</v>
       </c>
     </row>
     <row r="214" spans="2:10" x14ac:dyDescent="0.2">
@@ -9921,15 +9921,15 @@
       </c>
       <c r="D214" s="11">
         <f t="shared" si="13"/>
-        <v>391.42167960538393</v>
+        <v>315.1521739690744</v>
       </c>
       <c r="E214" s="4">
         <f t="shared" si="14"/>
-        <v>119.57832039461607</v>
+        <v>195.8478260309256</v>
       </c>
       <c r="J214" s="14" t="str">
         <f t="shared" si="15"/>
-        <v>391,</v>
+        <v>315,</v>
       </c>
     </row>
     <row r="215" spans="2:10" x14ac:dyDescent="0.2">
@@ -9942,15 +9942,15 @@
       </c>
       <c r="D215" s="11">
         <f t="shared" si="13"/>
-        <v>434.92874158006384</v>
+        <v>386.40893252375849</v>
       </c>
       <c r="E215" s="4">
         <f t="shared" si="14"/>
-        <v>76.071258419936157</v>
+        <v>124.59106747624151</v>
       </c>
       <c r="J215" s="14" t="str">
         <f t="shared" si="15"/>
-        <v>435,</v>
+        <v>386,</v>
       </c>
     </row>
     <row r="216" spans="2:10" x14ac:dyDescent="0.2">
@@ -9963,15 +9963,15 @@
       </c>
       <c r="D216" s="11">
         <f t="shared" si="13"/>
-        <v>480.07726079193401</v>
+        <v>460.35410341243039</v>
       </c>
       <c r="E216" s="4">
         <f t="shared" si="14"/>
-        <v>30.922739208065991</v>
+        <v>50.645896587569609</v>
       </c>
       <c r="J216" s="14" t="str">
         <f t="shared" si="15"/>
-        <v>480,</v>
+        <v>460,</v>
       </c>
     </row>
     <row r="217" spans="2:10" x14ac:dyDescent="0.2">
@@ -9984,15 +9984,15 @@
       </c>
       <c r="D217" s="11">
         <f t="shared" si="13"/>
-        <v>525.89302746521116</v>
+        <v>535.39210588052219</v>
       </c>
       <c r="E217" s="4">
         <f t="shared" si="14"/>
-        <v>14.893027465211162</v>
+        <v>24.392105880522195</v>
       </c>
       <c r="J217" s="14" t="str">
         <f t="shared" si="15"/>
-        <v>526,</v>
+        <v>535,</v>
       </c>
     </row>
     <row r="218" spans="2:10" x14ac:dyDescent="0.2">
@@ -10005,15 +10005,15 @@
       </c>
       <c r="D218" s="11">
         <f t="shared" si="13"/>
-        <v>571.3874340318697</v>
+        <v>609.90377817399178</v>
       </c>
       <c r="E218" s="4">
         <f t="shared" si="14"/>
-        <v>60.387434031869702</v>
+        <v>98.903778173991782</v>
       </c>
       <c r="J218" s="14" t="str">
         <f t="shared" si="15"/>
-        <v>571,</v>
+        <v>610,</v>
       </c>
     </row>
     <row r="219" spans="2:10" x14ac:dyDescent="0.2">
@@ -10026,15 +10026,15 @@
       </c>
       <c r="D219" s="11">
         <f t="shared" si="13"/>
-        <v>615.57880719687535</v>
+        <v>682.28131563334387</v>
       </c>
       <c r="E219" s="4">
         <f t="shared" si="14"/>
-        <v>104.57880719687535</v>
+        <v>171.28131563334387</v>
       </c>
       <c r="J219" s="14" t="str">
         <f t="shared" si="15"/>
-        <v>616,</v>
+        <v>682,</v>
       </c>
     </row>
     <row r="220" spans="2:10" x14ac:dyDescent="0.2">
@@ -10047,15 +10047,15 @@
       </c>
       <c r="D220" s="11">
         <f t="shared" si="13"/>
-        <v>657.51359037644477</v>
+        <v>750.96296372552331</v>
       </c>
       <c r="E220" s="4">
         <f t="shared" si="14"/>
-        <v>146.51359037644477</v>
+        <v>239.96296372552331</v>
       </c>
       <c r="J220" s="14" t="str">
         <f t="shared" si="15"/>
-        <v>658,</v>
+        <v>751,</v>
       </c>
     </row>
     <row r="221" spans="2:10" x14ac:dyDescent="0.2">
@@ -10068,15 +10068,15 @@
       </c>
       <c r="D221" s="11">
         <f t="shared" si="13"/>
-        <v>696.28691943700039</v>
+        <v>814.46671741124101</v>
       </c>
       <c r="E221" s="4">
         <f t="shared" si="14"/>
-        <v>185.28691943700039</v>
+        <v>303.46671741124101</v>
       </c>
       <c r="J221" s="14" t="str">
         <f t="shared" si="15"/>
-        <v>696,</v>
+        <v>814,</v>
       </c>
     </row>
     <row r="222" spans="2:10" x14ac:dyDescent="0.2">
@@ -10089,15 +10089,15 @@
       </c>
       <c r="D222" s="11">
         <f t="shared" si="13"/>
-        <v>731.06214775381147</v>
+        <v>871.42229968653089</v>
       </c>
       <c r="E222" s="4">
         <f t="shared" si="14"/>
-        <v>220.06214775381147</v>
+        <v>360.42229968653089</v>
       </c>
       <c r="J222" s="14" t="str">
         <f t="shared" si="15"/>
-        <v>731,</v>
+        <v>871,</v>
       </c>
     </row>
     <row r="223" spans="2:10" x14ac:dyDescent="0.2">
@@ -10110,15 +10110,15 @@
       </c>
       <c r="D223" s="11">
         <f t="shared" si="13"/>
-        <v>761.08889927971438</v>
+        <v>920.60072926901944</v>
       </c>
       <c r="E223" s="4">
         <f t="shared" si="14"/>
-        <v>250.08889927971438</v>
+        <v>409.60072926901944</v>
       </c>
       <c r="J223" s="14" t="str">
         <f t="shared" si="15"/>
-        <v>761,</v>
+        <v>921,</v>
       </c>
     </row>
     <row r="224" spans="2:10" x14ac:dyDescent="0.2">
@@ -10131,15 +10131,15 @@
       </c>
       <c r="D224" s="11">
         <f t="shared" si="13"/>
-        <v>785.71926007684215</v>
+        <v>960.94083942072552</v>
       </c>
       <c r="E224" s="4">
         <f t="shared" si="14"/>
-        <v>274.71926007684215</v>
+        <v>449.94083942072552</v>
       </c>
       <c r="J224" s="14" t="str">
         <f t="shared" si="15"/>
-        <v>786,</v>
+        <v>961,</v>
       </c>
     </row>
     <row r="225" spans="2:10" x14ac:dyDescent="0.2">
@@ -10152,15 +10152,15 @@
       </c>
       <c r="D225" s="11">
         <f t="shared" si="13"/>
-        <v>804.42175893221975</v>
+        <v>991.57217568706494</v>
       </c>
       <c r="E225" s="4">
         <f t="shared" si="14"/>
-        <v>293.42175893221975</v>
+        <v>480.57217568706494</v>
       </c>
       <c r="J225" s="14" t="str">
         <f t="shared" si="15"/>
-        <v>804,</v>
+        <v>992,</v>
       </c>
     </row>
     <row r="226" spans="2:10" x14ac:dyDescent="0.2">
@@ -10173,15 +10173,15 @@
       </c>
       <c r="D226" s="11">
         <f t="shared" si="13"/>
-        <v>816.79283538506979</v>
+        <v>1011.8337784672137</v>
       </c>
       <c r="E226" s="4">
         <f t="shared" si="14"/>
-        <v>305.79283538506979</v>
+        <v>500.83377846721373</v>
       </c>
       <c r="J226" s="14" t="str">
         <f t="shared" si="15"/>
-        <v>817,</v>
+        <v>1012,</v>
       </c>
     </row>
     <row r="227" spans="2:10" x14ac:dyDescent="0.2">
@@ -10194,15 +10194,15 @@
       </c>
       <c r="D227" s="11">
         <f t="shared" si="13"/>
-        <v>822.56554771000151</v>
+        <v>1021.2884451275987</v>
       </c>
       <c r="E227" s="4">
         <f t="shared" si="14"/>
-        <v>311.56554771000151</v>
+        <v>510.28844512759872</v>
       </c>
       <c r="J227" s="14" t="str">
         <f t="shared" si="15"/>
-        <v>823,</v>
+        <v>1021,</v>
       </c>
     </row>
     <row r="228" spans="2:10" x14ac:dyDescent="0.2">
@@ -10215,15 +10215,15 @@
       </c>
       <c r="D228" s="11">
         <f t="shared" si="13"/>
-        <v>821.61533295616084</v>
+        <v>1019.7321639121736</v>
       </c>
       <c r="E228" s="4">
         <f t="shared" si="14"/>
-        <v>310.61533295616084</v>
+        <v>508.73216391217363</v>
       </c>
       <c r="J228" s="14" t="str">
         <f t="shared" si="15"/>
-        <v>822,</v>
+        <v>1020,</v>
       </c>
     </row>
     <row r="229" spans="2:10" x14ac:dyDescent="0.2">
@@ -10236,15 +10236,15 @@
       </c>
       <c r="D229" s="11">
         <f t="shared" si="13"/>
-        <v>813.96269475286795</v>
+        <v>1007.1985160856266</v>
       </c>
       <c r="E229" s="4">
         <f t="shared" si="14"/>
-        <v>302.96269475286795</v>
+        <v>496.19851608562658</v>
       </c>
       <c r="J229" s="14" t="str">
         <f t="shared" si="15"/>
-        <v>814,</v>
+        <v>1007,</v>
       </c>
     </row>
     <row r="230" spans="2:10" x14ac:dyDescent="0.2">
@@ -10257,15 +10257,15 @@
       </c>
       <c r="D230" s="11">
         <f t="shared" si="13"/>
-        <v>799.7727608845621</v>
+        <v>983.95795132054889</v>
       </c>
       <c r="E230" s="4">
         <f t="shared" si="14"/>
-        <v>288.7727608845621</v>
+        <v>472.95795132054889</v>
       </c>
       <c r="J230" s="14" t="str">
         <f t="shared" si="15"/>
-        <v>800,</v>
+        <v>984,</v>
       </c>
     </row>
     <row r="231" spans="2:10" x14ac:dyDescent="0.2">
@@ -10278,15 +10278,15 @@
       </c>
       <c r="D231" s="11">
         <f t="shared" si="13"/>
-        <v>779.35172018165304</v>
+        <v>950.51195196418166</v>
       </c>
       <c r="E231" s="4">
         <f t="shared" si="14"/>
-        <v>268.35172018165304</v>
+        <v>439.51195196418166</v>
       </c>
       <c r="J231" s="14" t="str">
         <f t="shared" si="15"/>
-        <v>779,</v>
+        <v>951,</v>
       </c>
     </row>
     <row r="232" spans="2:10" x14ac:dyDescent="0.2">
@@ -10299,15 +10299,15 @@
       </c>
       <c r="D232" s="11">
         <f t="shared" si="13"/>
-        <v>753.14021561165532</v>
+        <v>907.58221210755096</v>
       </c>
       <c r="E232" s="4">
         <f t="shared" si="14"/>
-        <v>242.14021561165532</v>
+        <v>396.58221210755096</v>
       </c>
       <c r="J232" s="14" t="str">
         <f t="shared" si="15"/>
-        <v>753,</v>
+        <v>908,</v>
       </c>
     </row>
     <row r="233" spans="2:10" x14ac:dyDescent="0.2">
@@ -10320,15 +10320,15 @@
       </c>
       <c r="D233" s="11">
         <f t="shared" si="13"/>
-        <v>721.70383613375839</v>
+        <v>856.09506494984134</v>
       </c>
       <c r="E233" s="4">
         <f t="shared" si="14"/>
-        <v>210.70383613375839</v>
+        <v>345.09506494984134</v>
       </c>
       <c r="J233" s="14" t="str">
         <f t="shared" si="15"/>
-        <v>722,</v>
+        <v>856,</v>
       </c>
     </row>
     <row r="234" spans="2:10" x14ac:dyDescent="0.2">
@@ -10341,15 +10341,15 @@
       </c>
       <c r="D234" s="11">
         <f t="shared" si="13"/>
-        <v>685.7209124825531</v>
+        <v>797.16149448264309</v>
       </c>
       <c r="E234" s="4">
         <f t="shared" si="14"/>
-        <v>174.7209124825531</v>
+        <v>286.16149448264309</v>
       </c>
       <c r="J234" s="14" t="str">
         <f t="shared" si="15"/>
-        <v>686,</v>
+        <v>797,</v>
       </c>
     </row>
     <row r="235" spans="2:10" x14ac:dyDescent="0.2">
@@ -10362,15 +10362,15 @@
       </c>
       <c r="D235" s="11">
         <f t="shared" si="13"/>
-        <v>645.96788022213127</v>
+        <v>732.0531627997085</v>
       </c>
       <c r="E235" s="4">
         <f t="shared" si="14"/>
-        <v>134.96788022213127</v>
+        <v>221.0531627997085</v>
       </c>
       <c r="J235" s="14" t="str">
         <f t="shared" si="15"/>
-        <v>646,</v>
+        <v>732,</v>
       </c>
     </row>
     <row r="236" spans="2:10" x14ac:dyDescent="0.2">
@@ -10383,15 +10383,15 @@
       </c>
       <c r="D236" s="11">
         <f t="shared" si="13"/>
-        <v>603.30252590498719</v>
+        <v>662.17497031233484</v>
       </c>
       <c r="E236" s="4">
         <f t="shared" si="14"/>
-        <v>92.302525904987192</v>
+        <v>151.17497031233484</v>
       </c>
       <c r="J236" s="14" t="str">
         <f t="shared" si="15"/>
-        <v>603,</v>
+        <v>662,</v>
       </c>
     </row>
     <row r="237" spans="2:10" x14ac:dyDescent="0.2">
@@ -10404,15 +10404,15 @@
       </c>
       <c r="D237" s="11">
         <f t="shared" si="13"/>
-        <v>558.64547784825584</v>
+        <v>589.03474096300874</v>
       </c>
       <c r="E237" s="4">
         <f t="shared" si="14"/>
-        <v>47.645477848255837</v>
+        <v>78.034740963008744</v>
       </c>
       <c r="J237" s="14" t="str">
         <f t="shared" si="15"/>
-        <v>559,</v>
+        <v>589,</v>
       </c>
     </row>
     <row r="238" spans="2:10" x14ac:dyDescent="0.2">
@@ -10425,15 +10425,15 @@
       </c>
       <c r="D238" s="11">
         <f t="shared" si="13"/>
-        <v>512.96034091725244</v>
+        <v>514.2106865663975</v>
       </c>
       <c r="E238" s="4">
         <f t="shared" si="14"/>
-        <v>1.960340917252438</v>
+        <v>3.2106865663974986</v>
       </c>
       <c r="J238" s="14" t="str">
         <f t="shared" si="15"/>
-        <v>513,</v>
+        <v>514,</v>
       </c>
     </row>
     <row r="239" spans="2:10" x14ac:dyDescent="0.2">
@@ -10446,15 +10446,15 @@
       </c>
       <c r="D239" s="11">
         <f t="shared" si="13"/>
-        <v>467.23290396581012</v>
+        <v>439.31735232861854</v>
       </c>
       <c r="E239" s="4">
         <f t="shared" si="14"/>
-        <v>43.767096034189876</v>
+        <v>71.68264767138146</v>
       </c>
       <c r="J239" s="14" t="str">
         <f t="shared" si="15"/>
-        <v>467,</v>
+        <v>439,</v>
       </c>
     </row>
     <row r="240" spans="2:10" x14ac:dyDescent="0.2">
@@ -10467,15 +10467,15 @@
       </c>
       <c r="D240" s="11">
         <f t="shared" si="13"/>
-        <v>422.44986859294465</v>
+        <v>365.97077836857284</v>
       </c>
       <c r="E240" s="4">
         <f t="shared" si="14"/>
-        <v>88.550131407055346</v>
+        <v>145.02922163142716</v>
       </c>
       <c r="J240" s="14" t="str">
         <f t="shared" si="15"/>
-        <v>422,</v>
+        <v>366,</v>
       </c>
     </row>
     <row r="241" spans="2:10" x14ac:dyDescent="0.2">
@@ -10488,15 +10488,15 @@
       </c>
       <c r="D241" s="11">
         <f t="shared" si="13"/>
-        <v>379.5775582044073</v>
+        <v>295.75362898221829</v>
       </c>
       <c r="E241" s="4">
         <f t="shared" si="14"/>
-        <v>131.4224417955927</v>
+        <v>215.24637101778171</v>
       </c>
       <c r="J241" s="14" t="str">
         <f t="shared" si="15"/>
-        <v>380,</v>
+        <v>296,</v>
       </c>
     </row>
     <row r="242" spans="2:10" x14ac:dyDescent="0.2">
@@ -10509,15 +10509,15 @@
       </c>
       <c r="D242" s="11">
         <f t="shared" si="13"/>
-        <v>339.54106679264703</v>
+        <v>230.18104208667506</v>
       </c>
       <c r="E242" s="4">
         <f t="shared" si="14"/>
-        <v>171.45893320735297</v>
+        <v>280.81895791332494</v>
       </c>
       <c r="J242" s="14" t="str">
         <f t="shared" si="15"/>
-        <v>340,</v>
+        <v>230,</v>
       </c>
     </row>
     <row r="243" spans="2:10" x14ac:dyDescent="0.2">
@@ -10530,15 +10530,15 @@
       </c>
       <c r="D243" s="11">
         <f t="shared" si="13"/>
-        <v>303.20429736051199</v>
+        <v>170.66793574109488</v>
       </c>
       <c r="E243" s="4">
         <f t="shared" si="14"/>
-        <v>207.79570263948801</v>
+        <v>340.33206425890512</v>
       </c>
       <c r="J243" s="14" t="str">
         <f t="shared" si="15"/>
-        <v>303,</v>
+        <v>171,</v>
       </c>
     </row>
     <row r="244" spans="2:10" x14ac:dyDescent="0.2">
@@ -10551,15 +10551,15 @@
       </c>
       <c r="D244" s="11">
         <f t="shared" si="13"/>
-        <v>271.35132071739361</v>
+        <v>118.49847720060302</v>
       </c>
       <c r="E244" s="4">
         <f t="shared" si="14"/>
-        <v>239.64867928260639</v>
+        <v>392.50152279939698</v>
       </c>
       <c r="J244" s="14" t="str">
         <f t="shared" si="15"/>
-        <v>271,</v>
+        <v>118,</v>
       </c>
     </row>
     <row r="245" spans="2:10" x14ac:dyDescent="0.2">
@@ -10572,15 +10572,15 @@
       </c>
       <c r="D245" s="11">
         <f t="shared" si="13"/>
-        <v>244.66945688563374</v>
+        <v>74.79837329666293</v>
       </c>
       <c r="E245" s="4">
         <f t="shared" si="14"/>
-        <v>266.33054311436626</v>
+        <v>436.20162670333707</v>
       </c>
       <c r="J245" s="14" t="str">
         <f t="shared" si="15"/>
-        <v>245,</v>
+        <v>75,</v>
       </c>
     </row>
     <row r="246" spans="2:10" x14ac:dyDescent="0.2">
@@ -10593,15 +10593,15 @@
       </c>
       <c r="D246" s="11">
         <f t="shared" si="13"/>
-        <v>223.73444418477732</v>
+        <v>40.510580059042297</v>
       </c>
       <c r="E246" s="4">
         <f t="shared" si="14"/>
-        <v>287.26555581522268</v>
+        <v>470.4894199409577</v>
       </c>
       <c r="J246" s="14" t="str">
         <f t="shared" si="15"/>
-        <v>224,</v>
+        <v>41,</v>
       </c>
     </row>
     <row r="247" spans="2:10" x14ac:dyDescent="0.2">
@@ -10614,15 +10614,15 @@
       </c>
       <c r="D247" s="11">
         <f t="shared" si="13"/>
-        <v>208.99801601351197</v>
+        <v>16.374955714437874</v>
       </c>
       <c r="E247" s="4">
         <f t="shared" si="14"/>
-        <v>302.00198398648803</v>
+        <v>494.62504428556213</v>
       </c>
       <c r="J247" s="14" t="str">
         <f t="shared" si="15"/>
-        <v>209,</v>
+        <v>16,</v>
       </c>
     </row>
     <row r="248" spans="2:10" x14ac:dyDescent="0.2">
@@ -10635,15 +10635,15 @@
       </c>
       <c r="D248" s="11">
         <f t="shared" si="13"/>
-        <v>200.77815339613636</v>
+        <v>2.9122961071335567</v>
       </c>
       <c r="E248" s="4">
         <f t="shared" si="14"/>
-        <v>310.22184660386364</v>
+        <v>508.08770389286644</v>
       </c>
       <c r="J248" s="14" t="str">
         <f t="shared" si="15"/>
-        <v>201,</v>
+        <v>3,</v>
       </c>
     </row>
     <row r="249" spans="2:10" x14ac:dyDescent="0.2">
@@ -10656,15 +10656,15 @@
       </c>
       <c r="D249" s="11">
         <f t="shared" si="13"/>
-        <v>199.25222362303384</v>
+        <v>0.41309702362275402</v>
       </c>
       <c r="E249" s="4">
         <f t="shared" si="14"/>
-        <v>311.74777637696616</v>
+        <v>510.58690297637725</v>
       </c>
       <c r="J249" s="14" t="str">
         <f t="shared" si="15"/>
-        <v>199,</v>
+        <v>0,</v>
       </c>
     </row>
     <row r="250" spans="2:10" x14ac:dyDescent="0.2">
@@ -10677,15 +10677,15 @@
       </c>
       <c r="D250" s="11">
         <f t="shared" si="13"/>
-        <v>204.45315303881341</v>
+        <v>8.9312859065181556</v>
       </c>
       <c r="E250" s="4">
         <f t="shared" si="14"/>
-        <v>306.54684696118659</v>
+        <v>502.06871409348184</v>
       </c>
       <c r="J250" s="14" t="str">
         <f t="shared" si="15"/>
-        <v>204,</v>
+        <v>9,</v>
       </c>
     </row>
     <row r="251" spans="2:10" x14ac:dyDescent="0.2">
@@ -10698,15 +10698,15 @@
       </c>
       <c r="D251" s="11">
         <f t="shared" si="13"/>
-        <v>216.2687165612686</v>
+        <v>28.283058214129028</v>
       </c>
       <c r="E251" s="4">
         <f t="shared" si="14"/>
-        <v>294.7312834387314</v>
+        <v>482.71694178587097</v>
       </c>
       <c r="J251" s="14" t="str">
         <f t="shared" si="15"/>
-        <v>216,</v>
+        <v>28,</v>
       </c>
     </row>
     <row r="252" spans="2:10" x14ac:dyDescent="0.2">
@@ -10719,15 +10719,15 @@
       </c>
       <c r="D252" s="11">
         <f t="shared" si="13"/>
-        <v>234.4439592618462</v>
+        <v>58.050843534626324</v>
       </c>
       <c r="E252" s="4">
         <f t="shared" si="14"/>
-        <v>276.5560407381538</v>
+        <v>452.94915646537368</v>
       </c>
       <c r="J252" s="14" t="str">
         <f t="shared" si="15"/>
-        <v>234,</v>
+        <v>58,</v>
       </c>
     </row>
     <row r="253" spans="2:10" x14ac:dyDescent="0.2">
@@ -10740,15 +10740,15 @@
       </c>
       <c r="D253" s="11">
         <f t="shared" si="13"/>
-        <v>258.58669775501778</v>
+        <v>97.592315874404107</v>
       </c>
       <c r="E253" s="4">
         <f t="shared" si="14"/>
-        <v>252.41330224498222</v>
+        <v>413.40768412559589</v>
       </c>
       <c r="J253" s="14" t="str">
         <f t="shared" si="15"/>
-        <v>259,</v>
+        <v>98,</v>
       </c>
     </row>
     <row r="254" spans="2:10" x14ac:dyDescent="0.2">
@@ -10761,15 +10761,15 @@
       </c>
       <c r="D254" s="11">
         <f t="shared" si="13"/>
-        <v>288.17598268818489</v>
+        <v>146.05425369763617</v>
       </c>
       <c r="E254" s="4">
         <f t="shared" si="14"/>
-        <v>222.82401731181511</v>
+        <v>364.94574630236383</v>
       </c>
       <c r="J254" s="14" t="str">
         <f t="shared" si="15"/>
-        <v>288,</v>
+        <v>146,</v>
       </c>
     </row>
     <row r="255" spans="2:10" x14ac:dyDescent="0.2">
@@ -10782,15 +10782,15 @@
       </c>
       <c r="D255" s="11">
         <f t="shared" si="13"/>
-        <v>322.57333972944275</v>
+        <v>202.39095064661939</v>
       </c>
       <c r="E255" s="4">
         <f t="shared" si="14"/>
-        <v>188.42666027055725</v>
+        <v>308.60904935338061</v>
       </c>
       <c r="J255" s="14" t="str">
         <f t="shared" si="15"/>
-        <v>323,</v>
+        <v>202,</v>
       </c>
     </row>
     <row r="256" spans="2:10" x14ac:dyDescent="0.2">
@@ -10803,15 +10803,15 @@
       </c>
       <c r="D256" s="11">
         <f t="shared" si="13"/>
-        <v>361.03654649640487</v>
+        <v>265.3867796784067</v>
       </c>
       <c r="E256" s="4">
         <f t="shared" si="14"/>
-        <v>149.96345350359513</v>
+        <v>245.6132203215933</v>
       </c>
       <c r="J256" s="14" t="str">
         <f t="shared" si="15"/>
-        <v>361,</v>
+        <v>265,</v>
       </c>
     </row>
     <row r="257" spans="2:10" x14ac:dyDescent="0.2">
@@ -10824,15 +10824,15 @@
       </c>
       <c r="D257" s="11">
         <f t="shared" si="13"/>
-        <v>402.73564814903841</v>
+        <v>333.68242373127771</v>
       </c>
       <c r="E257" s="4">
         <f t="shared" si="14"/>
-        <v>108.26435185096159</v>
+        <v>177.31757626872229</v>
       </c>
       <c r="J257" s="14" t="str">
         <f t="shared" si="15"/>
-        <v>403,</v>
+        <v>334,</v>
       </c>
     </row>
     <row r="258" spans="2:10" x14ac:dyDescent="0.2">
@@ -10845,15 +10845,15 @@
       </c>
       <c r="D258" s="11">
         <f t="shared" si="13"/>
-        <v>446.77086606379942</v>
+        <v>405.80420691859456</v>
       </c>
       <c r="E258" s="4">
         <f t="shared" si="14"/>
-        <v>64.229133936200583</v>
+        <v>105.19579308140544</v>
       </c>
       <c r="J258" s="14" t="str">
         <f t="shared" si="15"/>
-        <v>447,</v>
+        <v>406,</v>
       </c>
     </row>
   </sheetData>

--- a/ADC_Sample_Generator.xlsx
+++ b/ADC_Sample_Generator.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/guy/development/avrsnd/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70862C3A-4529-0C44-A7A2-97F5D811CDE9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B67ADCAB-A327-C24E-B75B-E4A9656D0B18}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20" yWindow="480" windowWidth="37920" windowHeight="22460" activeTab="1" xr2:uid="{DD120292-E540-4843-A0F3-C6A293117715}"/>
   </bookViews>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Angle</t>
   </si>
@@ -87,9 +87,6 @@
   <si>
     <t>Rectified Value</t>
   </si>
-  <si>
-    <t>Samples</t>
-  </si>
 </sst>
 </file>
 
@@ -98,7 +95,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -122,15 +119,8 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="12"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -149,8 +139,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -173,11 +169,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -191,8 +198,13 @@
     <xf numFmtId="2" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5421,10 +5433,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BECAB2F2-7285-6D48-B646-145BC5600B2F}">
-  <dimension ref="B2:J258"/>
+  <dimension ref="B2:Z258"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="J34" sqref="J34"/>
+      <selection activeCell="O26" sqref="O26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5436,10 +5448,11 @@
     <col min="5" max="5" width="13.6640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="3.33203125" customWidth="1"/>
     <col min="7" max="7" width="18.83203125" customWidth="1"/>
-    <col min="10" max="10" width="14.5" customWidth="1"/>
+    <col min="9" max="10" width="4.83203125" customWidth="1"/>
+    <col min="11" max="26" width="6.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B2" s="5" t="s">
         <v>5</v>
       </c>
@@ -5460,11 +5473,57 @@
         <v>19230.76923076923</v>
       </c>
       <c r="I2" s="1"/>
-      <c r="J2" s="13" t="s">
+      <c r="J2" s="14"/>
+      <c r="K2" s="13">
+        <v>0</v>
+      </c>
+      <c r="L2" s="13">
+        <v>1</v>
+      </c>
+      <c r="M2" s="13">
+        <v>2</v>
+      </c>
+      <c r="N2" s="13">
+        <v>3</v>
+      </c>
+      <c r="O2" s="13">
+        <v>4</v>
+      </c>
+      <c r="P2" s="13">
+        <v>5</v>
+      </c>
+      <c r="Q2" s="13">
+        <v>6</v>
+      </c>
+      <c r="R2" s="13">
+        <v>7</v>
+      </c>
+      <c r="S2" s="13">
+        <v>8</v>
+      </c>
+      <c r="T2" s="13">
+        <v>9</v>
+      </c>
+      <c r="U2" s="13">
+        <v>10</v>
+      </c>
+      <c r="V2" s="13">
+        <v>11</v>
+      </c>
+      <c r="W2" s="13">
+        <v>12</v>
+      </c>
+      <c r="X2" s="13">
         <v>13</v>
       </c>
-    </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="Y2" s="13">
+        <v>14</v>
+      </c>
+      <c r="Z2" s="13">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B3" s="2">
         <v>0</v>
       </c>
@@ -5488,12 +5547,75 @@
         <v>510.99959653062518</v>
       </c>
       <c r="I3" s="1"/>
-      <c r="J3" s="14" t="str">
-        <f>CONCATENATE(ROUND($D3, 0), ",")</f>
+      <c r="J3" s="13">
+        <v>0</v>
+      </c>
+      <c r="K3" s="15" t="str">
+        <f>_xlfn.CONCAT(ROUND(VLOOKUP($B$3 + (K$2 + ($J3 * 16)), $B$3:$E$258, 3), 0), ",")</f>
         <v>511,</v>
       </c>
-    </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="L3" s="15" t="str">
+        <f>_xlfn.CONCAT(ROUND(VLOOKUP($B$3 + (L$2 + ($J3 * 16)), $B$3:$E$258, 3), 0), ",")</f>
+        <v>586,</v>
+      </c>
+      <c r="M3" s="15" t="str">
+        <f>_xlfn.CONCAT(ROUND(VLOOKUP($B$3 + (M$2 + ($J3 * 16)), $B$3:$E$258, 3), 0), ",")</f>
+        <v>659,</v>
+      </c>
+      <c r="N3" s="15" t="str">
+        <f>_xlfn.CONCAT(ROUND(VLOOKUP($B$3 + (N$2 + ($J3 * 16)), $B$3:$E$258, 3), 0), ",")</f>
+        <v>729,</v>
+      </c>
+      <c r="O3" s="15" t="str">
+        <f>_xlfn.CONCAT(ROUND(VLOOKUP($B$3 + (O$2 + ($J3 * 16)), $B$3:$E$258, 3), 0), ",")</f>
+        <v>794,</v>
+      </c>
+      <c r="P3" s="15" t="str">
+        <f>_xlfn.CONCAT(ROUND(VLOOKUP($B$3 + (P$2 + ($J3 * 16)), $B$3:$E$258, 3), 0), ",")</f>
+        <v>854,</v>
+      </c>
+      <c r="Q3" s="15" t="str">
+        <f>_xlfn.CONCAT(ROUND(VLOOKUP($B$3 + (Q$2 + ($J3 * 16)), $B$3:$E$258, 3), 0), ",")</f>
+        <v>906,</v>
+      </c>
+      <c r="R3" s="15" t="str">
+        <f>_xlfn.CONCAT(ROUND(VLOOKUP($B$3 + (R$2 + ($J3 * 16)), $B$3:$E$258, 3), 0), ",")</f>
+        <v>949,</v>
+      </c>
+      <c r="S3" s="15" t="str">
+        <f>_xlfn.CONCAT(ROUND(VLOOKUP($B$3 + (S$2 + ($J3 * 16)), $B$3:$E$258, 3), 0), ",")</f>
+        <v>983,</v>
+      </c>
+      <c r="T3" s="15" t="str">
+        <f>_xlfn.CONCAT(ROUND(VLOOKUP($B$3 + (T$2 + ($J3 * 16)), $B$3:$E$258, 3), 0), ",")</f>
+        <v>1006,</v>
+      </c>
+      <c r="U3" s="15" t="str">
+        <f>_xlfn.CONCAT(ROUND(VLOOKUP($B$3 + (U$2 + ($J3 * 16)), $B$3:$E$258, 3), 0), ",")</f>
+        <v>1019,</v>
+      </c>
+      <c r="V3" s="15" t="str">
+        <f>_xlfn.CONCAT(ROUND(VLOOKUP($B$3 + (V$2 + ($J3 * 16)), $B$3:$E$258, 3), 0), ",")</f>
+        <v>1021,</v>
+      </c>
+      <c r="W3" s="15" t="str">
+        <f>_xlfn.CONCAT(ROUND(VLOOKUP($B$3 + (W$2 + ($J3 * 16)), $B$3:$E$258, 3), 0), ",")</f>
+        <v>1012,</v>
+      </c>
+      <c r="X3" s="15" t="str">
+        <f>_xlfn.CONCAT(ROUND(VLOOKUP($B$3 + (X$2 + ($J3 * 16)), $B$3:$E$258, 3), 0), ",")</f>
+        <v>993,</v>
+      </c>
+      <c r="Y3" s="15" t="str">
+        <f>_xlfn.CONCAT(ROUND(VLOOKUP($B$3 + (Y$2 + ($J3 * 16)), $B$3:$E$258, 3), 0), ",")</f>
+        <v>962,</v>
+      </c>
+      <c r="Z3" s="15" t="str">
+        <f>_xlfn.CONCAT(ROUND(VLOOKUP($B$3 + (Z$2 + ($J3 * 16)), $B$3:$E$258, 3), 0), ",")</f>
+        <v>923,</v>
+      </c>
+    </row>
+    <row r="4" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B4" s="2">
         <v>1</v>
       </c>
@@ -5517,12 +5639,75 @@
         <v>361.27671474715197</v>
       </c>
       <c r="I4" s="1"/>
-      <c r="J4" s="14" t="str">
-        <f t="shared" ref="J4:J67" si="3">CONCATENATE(ROUND($D4, 0), ",")</f>
-        <v>586,</v>
-      </c>
-    </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="J4" s="13">
+        <v>1</v>
+      </c>
+      <c r="K4" s="15" t="str">
+        <f>_xlfn.CONCAT(ROUND(VLOOKUP($B$3 + (K$2 + ($J4 * 16)), $B$3:$E$258, 3), 0), ",")</f>
+        <v>874,</v>
+      </c>
+      <c r="L4" s="15" t="str">
+        <f>_xlfn.CONCAT(ROUND(VLOOKUP($B$3 + (L$2 + ($J4 * 16)), $B$3:$E$258, 3), 0), ",")</f>
+        <v>817,</v>
+      </c>
+      <c r="M4" s="15" t="str">
+        <f>_xlfn.CONCAT(ROUND(VLOOKUP($B$3 + (M$2 + ($J4 * 16)), $B$3:$E$258, 3), 0), ",")</f>
+        <v>754,</v>
+      </c>
+      <c r="N4" s="15" t="str">
+        <f>_xlfn.CONCAT(ROUND(VLOOKUP($B$3 + (N$2 + ($J4 * 16)), $B$3:$E$258, 3), 0), ",")</f>
+        <v>685,</v>
+      </c>
+      <c r="O4" s="15" t="str">
+        <f>_xlfn.CONCAT(ROUND(VLOOKUP($B$3 + (O$2 + ($J4 * 16)), $B$3:$E$258, 3), 0), ",")</f>
+        <v>613,</v>
+      </c>
+      <c r="P4" s="15" t="str">
+        <f>_xlfn.CONCAT(ROUND(VLOOKUP($B$3 + (P$2 + ($J4 * 16)), $B$3:$E$258, 3), 0), ",")</f>
+        <v>539,</v>
+      </c>
+      <c r="Q4" s="15" t="str">
+        <f>_xlfn.CONCAT(ROUND(VLOOKUP($B$3 + (Q$2 + ($J4 * 16)), $B$3:$E$258, 3), 0), ",")</f>
+        <v>464,</v>
+      </c>
+      <c r="R4" s="15" t="str">
+        <f>_xlfn.CONCAT(ROUND(VLOOKUP($B$3 + (R$2 + ($J4 * 16)), $B$3:$E$258, 3), 0), ",")</f>
+        <v>390,</v>
+      </c>
+      <c r="S4" s="15" t="str">
+        <f>_xlfn.CONCAT(ROUND(VLOOKUP($B$3 + (S$2 + ($J4 * 16)), $B$3:$E$258, 3), 0), ",")</f>
+        <v>318,</v>
+      </c>
+      <c r="T4" s="15" t="str">
+        <f>_xlfn.CONCAT(ROUND(VLOOKUP($B$3 + (T$2 + ($J4 * 16)), $B$3:$E$258, 3), 0), ",")</f>
+        <v>251,</v>
+      </c>
+      <c r="U4" s="15" t="str">
+        <f>_xlfn.CONCAT(ROUND(VLOOKUP($B$3 + (U$2 + ($J4 * 16)), $B$3:$E$258, 3), 0), ",")</f>
+        <v>189,</v>
+      </c>
+      <c r="V4" s="15" t="str">
+        <f>_xlfn.CONCAT(ROUND(VLOOKUP($B$3 + (V$2 + ($J4 * 16)), $B$3:$E$258, 3), 0), ",")</f>
+        <v>135,</v>
+      </c>
+      <c r="W4" s="15" t="str">
+        <f>_xlfn.CONCAT(ROUND(VLOOKUP($B$3 + (W$2 + ($J4 * 16)), $B$3:$E$258, 3), 0), ",")</f>
+        <v>88,</v>
+      </c>
+      <c r="X4" s="15" t="str">
+        <f>_xlfn.CONCAT(ROUND(VLOOKUP($B$3 + (X$2 + ($J4 * 16)), $B$3:$E$258, 3), 0), ",")</f>
+        <v>51,</v>
+      </c>
+      <c r="Y4" s="15" t="str">
+        <f>_xlfn.CONCAT(ROUND(VLOOKUP($B$3 + (Y$2 + ($J4 * 16)), $B$3:$E$258, 3), 0), ",")</f>
+        <v>23,</v>
+      </c>
+      <c r="Z4" s="15" t="str">
+        <f>_xlfn.CONCAT(ROUND(VLOOKUP($B$3 + (Z$2 + ($J4 * 16)), $B$3:$E$258, 3), 0), ",")</f>
+        <v>6,</v>
+      </c>
+    </row>
+    <row r="5" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B5" s="2">
         <v>2</v>
       </c>
@@ -5538,12 +5723,75 @@
         <f t="shared" si="2"/>
         <v>148.1050194381678</v>
       </c>
-      <c r="J5" s="14" t="str">
-        <f t="shared" si="3"/>
-        <v>659,</v>
-      </c>
-    </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="J5" s="13">
+        <v>2</v>
+      </c>
+      <c r="K5" s="15" t="str">
+        <f>_xlfn.CONCAT(ROUND(VLOOKUP($B$3 + (K$2 + ($J5 * 16)), $B$3:$E$258, 3), 0), ",")</f>
+        <v>0,</v>
+      </c>
+      <c r="L5" s="15" t="str">
+        <f>_xlfn.CONCAT(ROUND(VLOOKUP($B$3 + (L$2 + ($J5 * 16)), $B$3:$E$258, 3), 0), ",")</f>
+        <v>5,</v>
+      </c>
+      <c r="M5" s="15" t="str">
+        <f>_xlfn.CONCAT(ROUND(VLOOKUP($B$3 + (M$2 + ($J5 * 16)), $B$3:$E$258, 3), 0), ",")</f>
+        <v>21,</v>
+      </c>
+      <c r="N5" s="15" t="str">
+        <f>_xlfn.CONCAT(ROUND(VLOOKUP($B$3 + (N$2 + ($J5 * 16)), $B$3:$E$258, 3), 0), ",")</f>
+        <v>47,</v>
+      </c>
+      <c r="O5" s="15" t="str">
+        <f>_xlfn.CONCAT(ROUND(VLOOKUP($B$3 + (O$2 + ($J5 * 16)), $B$3:$E$258, 3), 0), ",")</f>
+        <v>84,</v>
+      </c>
+      <c r="P5" s="15" t="str">
+        <f>_xlfn.CONCAT(ROUND(VLOOKUP($B$3 + (P$2 + ($J5 * 16)), $B$3:$E$258, 3), 0), ",")</f>
+        <v>129,</v>
+      </c>
+      <c r="Q5" s="15" t="str">
+        <f>_xlfn.CONCAT(ROUND(VLOOKUP($B$3 + (Q$2 + ($J5 * 16)), $B$3:$E$258, 3), 0), ",")</f>
+        <v>183,</v>
+      </c>
+      <c r="R5" s="15" t="str">
+        <f>_xlfn.CONCAT(ROUND(VLOOKUP($B$3 + (R$2 + ($J5 * 16)), $B$3:$E$258, 3), 0), ",")</f>
+        <v>244,</v>
+      </c>
+      <c r="S5" s="15" t="str">
+        <f>_xlfn.CONCAT(ROUND(VLOOKUP($B$3 + (S$2 + ($J5 * 16)), $B$3:$E$258, 3), 0), ",")</f>
+        <v>311,</v>
+      </c>
+      <c r="T5" s="15" t="str">
+        <f>_xlfn.CONCAT(ROUND(VLOOKUP($B$3 + (T$2 + ($J5 * 16)), $B$3:$E$258, 3), 0), ",")</f>
+        <v>382,</v>
+      </c>
+      <c r="U5" s="15" t="str">
+        <f>_xlfn.CONCAT(ROUND(VLOOKUP($B$3 + (U$2 + ($J5 * 16)), $B$3:$E$258, 3), 0), ",")</f>
+        <v>456,</v>
+      </c>
+      <c r="V5" s="15" t="str">
+        <f>_xlfn.CONCAT(ROUND(VLOOKUP($B$3 + (V$2 + ($J5 * 16)), $B$3:$E$258, 3), 0), ",")</f>
+        <v>531,</v>
+      </c>
+      <c r="W5" s="15" t="str">
+        <f>_xlfn.CONCAT(ROUND(VLOOKUP($B$3 + (W$2 + ($J5 * 16)), $B$3:$E$258, 3), 0), ",")</f>
+        <v>605,</v>
+      </c>
+      <c r="X5" s="15" t="str">
+        <f>_xlfn.CONCAT(ROUND(VLOOKUP($B$3 + (X$2 + ($J5 * 16)), $B$3:$E$258, 3), 0), ",")</f>
+        <v>678,</v>
+      </c>
+      <c r="Y5" s="15" t="str">
+        <f>_xlfn.CONCAT(ROUND(VLOOKUP($B$3 + (Y$2 + ($J5 * 16)), $B$3:$E$258, 3), 0), ",")</f>
+        <v>747,</v>
+      </c>
+      <c r="Z5" s="15" t="str">
+        <f>_xlfn.CONCAT(ROUND(VLOOKUP($B$3 + (Z$2 + ($J5 * 16)), $B$3:$E$258, 3), 0), ",")</f>
+        <v>811,</v>
+      </c>
+    </row>
+    <row r="6" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B6" s="2">
         <v>3</v>
       </c>
@@ -5559,12 +5807,75 @@
         <f t="shared" si="2"/>
         <v>218.15407308337819</v>
       </c>
-      <c r="J6" s="14" t="str">
-        <f t="shared" si="3"/>
-        <v>729,</v>
-      </c>
-    </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="J6" s="13">
+        <v>3</v>
+      </c>
+      <c r="K6" s="15" t="str">
+        <f>_xlfn.CONCAT(ROUND(VLOOKUP($B$3 + (K$2 + ($J6 * 16)), $B$3:$E$258, 3), 0), ",")</f>
+        <v>868,</v>
+      </c>
+      <c r="L6" s="15" t="str">
+        <f>_xlfn.CONCAT(ROUND(VLOOKUP($B$3 + (L$2 + ($J6 * 16)), $B$3:$E$258, 3), 0), ",")</f>
+        <v>918,</v>
+      </c>
+      <c r="M6" s="15" t="str">
+        <f>_xlfn.CONCAT(ROUND(VLOOKUP($B$3 + (M$2 + ($J6 * 16)), $B$3:$E$258, 3), 0), ",")</f>
+        <v>959,</v>
+      </c>
+      <c r="N6" s="15" t="str">
+        <f>_xlfn.CONCAT(ROUND(VLOOKUP($B$3 + (N$2 + ($J6 * 16)), $B$3:$E$258, 3), 0), ",")</f>
+        <v>990,</v>
+      </c>
+      <c r="O6" s="15" t="str">
+        <f>_xlfn.CONCAT(ROUND(VLOOKUP($B$3 + (O$2 + ($J6 * 16)), $B$3:$E$258, 3), 0), ",")</f>
+        <v>1011,</v>
+      </c>
+      <c r="P6" s="15" t="str">
+        <f>_xlfn.CONCAT(ROUND(VLOOKUP($B$3 + (P$2 + ($J6 * 16)), $B$3:$E$258, 3), 0), ",")</f>
+        <v>1021,</v>
+      </c>
+      <c r="Q6" s="15" t="str">
+        <f>_xlfn.CONCAT(ROUND(VLOOKUP($B$3 + (Q$2 + ($J6 * 16)), $B$3:$E$258, 3), 0), ",")</f>
+        <v>1020,</v>
+      </c>
+      <c r="R6" s="15" t="str">
+        <f>_xlfn.CONCAT(ROUND(VLOOKUP($B$3 + (R$2 + ($J6 * 16)), $B$3:$E$258, 3), 0), ",")</f>
+        <v>1008,</v>
+      </c>
+      <c r="S6" s="15" t="str">
+        <f>_xlfn.CONCAT(ROUND(VLOOKUP($B$3 + (S$2 + ($J6 * 16)), $B$3:$E$258, 3), 0), ",")</f>
+        <v>986,</v>
+      </c>
+      <c r="T6" s="15" t="str">
+        <f>_xlfn.CONCAT(ROUND(VLOOKUP($B$3 + (T$2 + ($J6 * 16)), $B$3:$E$258, 3), 0), ",")</f>
+        <v>953,</v>
+      </c>
+      <c r="U6" s="15" t="str">
+        <f>_xlfn.CONCAT(ROUND(VLOOKUP($B$3 + (U$2 + ($J6 * 16)), $B$3:$E$258, 3), 0), ",")</f>
+        <v>910,</v>
+      </c>
+      <c r="V6" s="15" t="str">
+        <f>_xlfn.CONCAT(ROUND(VLOOKUP($B$3 + (V$2 + ($J6 * 16)), $B$3:$E$258, 3), 0), ",")</f>
+        <v>859,</v>
+      </c>
+      <c r="W6" s="15" t="str">
+        <f>_xlfn.CONCAT(ROUND(VLOOKUP($B$3 + (W$2 + ($J6 * 16)), $B$3:$E$258, 3), 0), ",")</f>
+        <v>801,</v>
+      </c>
+      <c r="X6" s="15" t="str">
+        <f>_xlfn.CONCAT(ROUND(VLOOKUP($B$3 + (X$2 + ($J6 * 16)), $B$3:$E$258, 3), 0), ",")</f>
+        <v>736,</v>
+      </c>
+      <c r="Y6" s="15" t="str">
+        <f>_xlfn.CONCAT(ROUND(VLOOKUP($B$3 + (Y$2 + ($J6 * 16)), $B$3:$E$258, 3), 0), ",")</f>
+        <v>666,</v>
+      </c>
+      <c r="Z6" s="15" t="str">
+        <f>_xlfn.CONCAT(ROUND(VLOOKUP($B$3 + (Z$2 + ($J6 * 16)), $B$3:$E$258, 3), 0), ",")</f>
+        <v>593,</v>
+      </c>
+    </row>
+    <row r="7" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B7" s="2">
         <v>4</v>
       </c>
@@ -5580,12 +5891,75 @@
         <f t="shared" si="2"/>
         <v>283.49582216280305</v>
       </c>
-      <c r="J7" s="14" t="str">
-        <f t="shared" si="3"/>
-        <v>794,</v>
-      </c>
-    </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="J7" s="13">
+        <v>4</v>
+      </c>
+      <c r="K7" s="15" t="str">
+        <f>_xlfn.CONCAT(ROUND(VLOOKUP($B$3 + (K$2 + ($J7 * 16)), $B$3:$E$258, 3), 0), ",")</f>
+        <v>519,</v>
+      </c>
+      <c r="L7" s="15" t="str">
+        <f>_xlfn.CONCAT(ROUND(VLOOKUP($B$3 + (L$2 + ($J7 * 16)), $B$3:$E$258, 3), 0), ",")</f>
+        <v>444,</v>
+      </c>
+      <c r="M7" s="15" t="str">
+        <f>_xlfn.CONCAT(ROUND(VLOOKUP($B$3 + (M$2 + ($J7 * 16)), $B$3:$E$258, 3), 0), ",")</f>
+        <v>370,</v>
+      </c>
+      <c r="N7" s="15" t="str">
+        <f>_xlfn.CONCAT(ROUND(VLOOKUP($B$3 + (N$2 + ($J7 * 16)), $B$3:$E$258, 3), 0), ",")</f>
+        <v>300,</v>
+      </c>
+      <c r="O7" s="15" t="str">
+        <f>_xlfn.CONCAT(ROUND(VLOOKUP($B$3 + (O$2 + ($J7 * 16)), $B$3:$E$258, 3), 0), ",")</f>
+        <v>234,</v>
+      </c>
+      <c r="P7" s="15" t="str">
+        <f>_xlfn.CONCAT(ROUND(VLOOKUP($B$3 + (P$2 + ($J7 * 16)), $B$3:$E$258, 3), 0), ",")</f>
+        <v>174,</v>
+      </c>
+      <c r="Q7" s="15" t="str">
+        <f>_xlfn.CONCAT(ROUND(VLOOKUP($B$3 + (Q$2 + ($J7 * 16)), $B$3:$E$258, 3), 0), ",")</f>
+        <v>121,</v>
+      </c>
+      <c r="R7" s="15" t="str">
+        <f>_xlfn.CONCAT(ROUND(VLOOKUP($B$3 + (R$2 + ($J7 * 16)), $B$3:$E$258, 3), 0), ",")</f>
+        <v>77,</v>
+      </c>
+      <c r="S7" s="15" t="str">
+        <f>_xlfn.CONCAT(ROUND(VLOOKUP($B$3 + (S$2 + ($J7 * 16)), $B$3:$E$258, 3), 0), ",")</f>
+        <v>42,</v>
+      </c>
+      <c r="T7" s="15" t="str">
+        <f>_xlfn.CONCAT(ROUND(VLOOKUP($B$3 + (T$2 + ($J7 * 16)), $B$3:$E$258, 3), 0), ",")</f>
+        <v>18,</v>
+      </c>
+      <c r="U7" s="15" t="str">
+        <f>_xlfn.CONCAT(ROUND(VLOOKUP($B$3 + (U$2 + ($J7 * 16)), $B$3:$E$258, 3), 0), ",")</f>
+        <v>3,</v>
+      </c>
+      <c r="V7" s="15" t="str">
+        <f>_xlfn.CONCAT(ROUND(VLOOKUP($B$3 + (V$2 + ($J7 * 16)), $B$3:$E$258, 3), 0), ",")</f>
+        <v>0,</v>
+      </c>
+      <c r="W7" s="15" t="str">
+        <f>_xlfn.CONCAT(ROUND(VLOOKUP($B$3 + (W$2 + ($J7 * 16)), $B$3:$E$258, 3), 0), ",")</f>
+        <v>8,</v>
+      </c>
+      <c r="X7" s="15" t="str">
+        <f>_xlfn.CONCAT(ROUND(VLOOKUP($B$3 + (X$2 + ($J7 * 16)), $B$3:$E$258, 3), 0), ",")</f>
+        <v>27,</v>
+      </c>
+      <c r="Y7" s="15" t="str">
+        <f>_xlfn.CONCAT(ROUND(VLOOKUP($B$3 + (Y$2 + ($J7 * 16)), $B$3:$E$258, 3), 0), ",")</f>
+        <v>56,</v>
+      </c>
+      <c r="Z7" s="15" t="str">
+        <f>_xlfn.CONCAT(ROUND(VLOOKUP($B$3 + (Z$2 + ($J7 * 16)), $B$3:$E$258, 3), 0), ",")</f>
+        <v>95,</v>
+      </c>
+    </row>
+    <row r="8" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B8" s="2">
         <v>5</v>
       </c>
@@ -5601,12 +5975,75 @@
         <f t="shared" si="2"/>
         <v>342.720329610264</v>
       </c>
-      <c r="J8" s="14" t="str">
-        <f t="shared" si="3"/>
-        <v>854,</v>
-      </c>
-    </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="J8" s="13">
+        <v>5</v>
+      </c>
+      <c r="K8" s="15" t="str">
+        <f>_xlfn.CONCAT(ROUND(VLOOKUP($B$3 + (K$2 + ($J8 * 16)), $B$3:$E$258, 3), 0), ",")</f>
+        <v>143,</v>
+      </c>
+      <c r="L8" s="15" t="str">
+        <f>_xlfn.CONCAT(ROUND(VLOOKUP($B$3 + (L$2 + ($J8 * 16)), $B$3:$E$258, 3), 0), ",")</f>
+        <v>199,</v>
+      </c>
+      <c r="M8" s="15" t="str">
+        <f>_xlfn.CONCAT(ROUND(VLOOKUP($B$3 + (M$2 + ($J8 * 16)), $B$3:$E$258, 3), 0), ",")</f>
+        <v>261,</v>
+      </c>
+      <c r="N8" s="15" t="str">
+        <f>_xlfn.CONCAT(ROUND(VLOOKUP($B$3 + (N$2 + ($J8 * 16)), $B$3:$E$258, 3), 0), ",")</f>
+        <v>329,</v>
+      </c>
+      <c r="O8" s="15" t="str">
+        <f>_xlfn.CONCAT(ROUND(VLOOKUP($B$3 + (O$2 + ($J8 * 16)), $B$3:$E$258, 3), 0), ",")</f>
+        <v>401,</v>
+      </c>
+      <c r="P8" s="15" t="str">
+        <f>_xlfn.CONCAT(ROUND(VLOOKUP($B$3 + (P$2 + ($J8 * 16)), $B$3:$E$258, 3), 0), ",")</f>
+        <v>476,</v>
+      </c>
+      <c r="Q8" s="15" t="str">
+        <f>_xlfn.CONCAT(ROUND(VLOOKUP($B$3 + (Q$2 + ($J8 * 16)), $B$3:$E$258, 3), 0), ",")</f>
+        <v>551,</v>
+      </c>
+      <c r="R8" s="15" t="str">
+        <f>_xlfn.CONCAT(ROUND(VLOOKUP($B$3 + (R$2 + ($J8 * 16)), $B$3:$E$258, 3), 0), ",")</f>
+        <v>625,</v>
+      </c>
+      <c r="S8" s="15" t="str">
+        <f>_xlfn.CONCAT(ROUND(VLOOKUP($B$3 + (S$2 + ($J8 * 16)), $B$3:$E$258, 3), 0), ",")</f>
+        <v>697,</v>
+      </c>
+      <c r="T8" s="15" t="str">
+        <f>_xlfn.CONCAT(ROUND(VLOOKUP($B$3 + (T$2 + ($J8 * 16)), $B$3:$E$258, 3), 0), ",")</f>
+        <v>764,</v>
+      </c>
+      <c r="U8" s="15" t="str">
+        <f>_xlfn.CONCAT(ROUND(VLOOKUP($B$3 + (U$2 + ($J8 * 16)), $B$3:$E$258, 3), 0), ",")</f>
+        <v>827,</v>
+      </c>
+      <c r="V8" s="15" t="str">
+        <f>_xlfn.CONCAT(ROUND(VLOOKUP($B$3 + (V$2 + ($J8 * 16)), $B$3:$E$258, 3), 0), ",")</f>
+        <v>882,</v>
+      </c>
+      <c r="W8" s="15" t="str">
+        <f>_xlfn.CONCAT(ROUND(VLOOKUP($B$3 + (W$2 + ($J8 * 16)), $B$3:$E$258, 3), 0), ",")</f>
+        <v>930,</v>
+      </c>
+      <c r="X8" s="15" t="str">
+        <f>_xlfn.CONCAT(ROUND(VLOOKUP($B$3 + (X$2 + ($J8 * 16)), $B$3:$E$258, 3), 0), ",")</f>
+        <v>968,</v>
+      </c>
+      <c r="Y8" s="15" t="str">
+        <f>_xlfn.CONCAT(ROUND(VLOOKUP($B$3 + (Y$2 + ($J8 * 16)), $B$3:$E$258, 3), 0), ",")</f>
+        <v>997,</v>
+      </c>
+      <c r="Z8" s="15" t="str">
+        <f>_xlfn.CONCAT(ROUND(VLOOKUP($B$3 + (Z$2 + ($J8 * 16)), $B$3:$E$258, 3), 0), ",")</f>
+        <v>1015,</v>
+      </c>
+    </row>
+    <row r="9" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B9" s="2">
         <v>6</v>
       </c>
@@ -5622,12 +6059,75 @@
         <f t="shared" si="2"/>
         <v>394.54965552588465</v>
       </c>
-      <c r="J9" s="14" t="str">
-        <f t="shared" si="3"/>
-        <v>906,</v>
-      </c>
-    </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="J9" s="13">
+        <v>6</v>
+      </c>
+      <c r="K9" s="15" t="str">
+        <f>_xlfn.CONCAT(ROUND(VLOOKUP($B$3 + (K$2 + ($J9 * 16)), $B$3:$E$258, 3), 0), ",")</f>
+        <v>1022,</v>
+      </c>
+      <c r="L9" s="15" t="str">
+        <f>_xlfn.CONCAT(ROUND(VLOOKUP($B$3 + (L$2 + ($J9 * 16)), $B$3:$E$258, 3), 0), ",")</f>
+        <v>1018,</v>
+      </c>
+      <c r="M9" s="15" t="str">
+        <f>_xlfn.CONCAT(ROUND(VLOOKUP($B$3 + (M$2 + ($J9 * 16)), $B$3:$E$258, 3), 0), ",")</f>
+        <v>1003,</v>
+      </c>
+      <c r="N9" s="15" t="str">
+        <f>_xlfn.CONCAT(ROUND(VLOOKUP($B$3 + (N$2 + ($J9 * 16)), $B$3:$E$258, 3), 0), ",")</f>
+        <v>978,</v>
+      </c>
+      <c r="O9" s="15" t="str">
+        <f>_xlfn.CONCAT(ROUND(VLOOKUP($B$3 + (O$2 + ($J9 * 16)), $B$3:$E$258, 3), 0), ",")</f>
+        <v>942,</v>
+      </c>
+      <c r="P9" s="15" t="str">
+        <f>_xlfn.CONCAT(ROUND(VLOOKUP($B$3 + (P$2 + ($J9 * 16)), $B$3:$E$258, 3), 0), ",")</f>
+        <v>898,</v>
+      </c>
+      <c r="Q9" s="15" t="str">
+        <f>_xlfn.CONCAT(ROUND(VLOOKUP($B$3 + (Q$2 + ($J9 * 16)), $B$3:$E$258, 3), 0), ",")</f>
+        <v>845,</v>
+      </c>
+      <c r="R9" s="15" t="str">
+        <f>_xlfn.CONCAT(ROUND(VLOOKUP($B$3 + (R$2 + ($J9 * 16)), $B$3:$E$258, 3), 0), ",")</f>
+        <v>784,</v>
+      </c>
+      <c r="S9" s="15" t="str">
+        <f>_xlfn.CONCAT(ROUND(VLOOKUP($B$3 + (S$2 + ($J9 * 16)), $B$3:$E$258, 3), 0), ",")</f>
+        <v>718,</v>
+      </c>
+      <c r="T9" s="15" t="str">
+        <f>_xlfn.CONCAT(ROUND(VLOOKUP($B$3 + (T$2 + ($J9 * 16)), $B$3:$E$258, 3), 0), ",")</f>
+        <v>647,</v>
+      </c>
+      <c r="U9" s="15" t="str">
+        <f>_xlfn.CONCAT(ROUND(VLOOKUP($B$3 + (U$2 + ($J9 * 16)), $B$3:$E$258, 3), 0), ",")</f>
+        <v>574,</v>
+      </c>
+      <c r="V9" s="15" t="str">
+        <f>_xlfn.CONCAT(ROUND(VLOOKUP($B$3 + (V$2 + ($J9 * 16)), $B$3:$E$258, 3), 0), ",")</f>
+        <v>499,</v>
+      </c>
+      <c r="W9" s="15" t="str">
+        <f>_xlfn.CONCAT(ROUND(VLOOKUP($B$3 + (W$2 + ($J9 * 16)), $B$3:$E$258, 3), 0), ",")</f>
+        <v>424,</v>
+      </c>
+      <c r="X9" s="15" t="str">
+        <f>_xlfn.CONCAT(ROUND(VLOOKUP($B$3 + (X$2 + ($J9 * 16)), $B$3:$E$258, 3), 0), ",")</f>
+        <v>351,</v>
+      </c>
+      <c r="Y9" s="15" t="str">
+        <f>_xlfn.CONCAT(ROUND(VLOOKUP($B$3 + (Y$2 + ($J9 * 16)), $B$3:$E$258, 3), 0), ",")</f>
+        <v>282,</v>
+      </c>
+      <c r="Z9" s="15" t="str">
+        <f>_xlfn.CONCAT(ROUND(VLOOKUP($B$3 + (Z$2 + ($J9 * 16)), $B$3:$E$258, 3), 0), ",")</f>
+        <v>217,</v>
+      </c>
+    </row>
+    <row r="10" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B10" s="2">
         <v>7</v>
       </c>
@@ -5643,12 +6143,75 @@
         <f t="shared" si="2"/>
         <v>437.86543242252219</v>
       </c>
-      <c r="J10" s="14" t="str">
-        <f t="shared" si="3"/>
-        <v>949,</v>
-      </c>
-    </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="J10" s="13">
+        <v>7</v>
+      </c>
+      <c r="K10" s="15" t="str">
+        <f>_xlfn.CONCAT(ROUND(VLOOKUP($B$3 + (K$2 + ($J10 * 16)), $B$3:$E$258, 3), 0), ",")</f>
+        <v>159,</v>
+      </c>
+      <c r="L10" s="15" t="str">
+        <f>_xlfn.CONCAT(ROUND(VLOOKUP($B$3 + (L$2 + ($J10 * 16)), $B$3:$E$258, 3), 0), ",")</f>
+        <v>109,</v>
+      </c>
+      <c r="M10" s="15" t="str">
+        <f>_xlfn.CONCAT(ROUND(VLOOKUP($B$3 + (M$2 + ($J10 * 16)), $B$3:$E$258, 3), 0), ",")</f>
+        <v>67,</v>
+      </c>
+      <c r="N10" s="15" t="str">
+        <f>_xlfn.CONCAT(ROUND(VLOOKUP($B$3 + (N$2 + ($J10 * 16)), $B$3:$E$258, 3), 0), ",")</f>
+        <v>35,</v>
+      </c>
+      <c r="O10" s="15" t="str">
+        <f>_xlfn.CONCAT(ROUND(VLOOKUP($B$3 + (O$2 + ($J10 * 16)), $B$3:$E$258, 3), 0), ",")</f>
+        <v>13,</v>
+      </c>
+      <c r="P10" s="15" t="str">
+        <f>_xlfn.CONCAT(ROUND(VLOOKUP($B$3 + (P$2 + ($J10 * 16)), $B$3:$E$258, 3), 0), ",")</f>
+        <v>2,</v>
+      </c>
+      <c r="Q10" s="15" t="str">
+        <f>_xlfn.CONCAT(ROUND(VLOOKUP($B$3 + (Q$2 + ($J10 * 16)), $B$3:$E$258, 3), 0), ",")</f>
+        <v>1,</v>
+      </c>
+      <c r="R10" s="15" t="str">
+        <f>_xlfn.CONCAT(ROUND(VLOOKUP($B$3 + (R$2 + ($J10 * 16)), $B$3:$E$258, 3), 0), ",")</f>
+        <v>12,</v>
+      </c>
+      <c r="S10" s="15" t="str">
+        <f>_xlfn.CONCAT(ROUND(VLOOKUP($B$3 + (S$2 + ($J10 * 16)), $B$3:$E$258, 3), 0), ",")</f>
+        <v>34,</v>
+      </c>
+      <c r="T10" s="15" t="str">
+        <f>_xlfn.CONCAT(ROUND(VLOOKUP($B$3 + (T$2 + ($J10 * 16)), $B$3:$E$258, 3), 0), ",")</f>
+        <v>65,</v>
+      </c>
+      <c r="U10" s="15" t="str">
+        <f>_xlfn.CONCAT(ROUND(VLOOKUP($B$3 + (U$2 + ($J10 * 16)), $B$3:$E$258, 3), 0), ",")</f>
+        <v>107,</v>
+      </c>
+      <c r="V10" s="15" t="str">
+        <f>_xlfn.CONCAT(ROUND(VLOOKUP($B$3 + (V$2 + ($J10 * 16)), $B$3:$E$258, 3), 0), ",")</f>
+        <v>157,</v>
+      </c>
+      <c r="W10" s="15" t="str">
+        <f>_xlfn.CONCAT(ROUND(VLOOKUP($B$3 + (W$2 + ($J10 * 16)), $B$3:$E$258, 3), 0), ",")</f>
+        <v>215,</v>
+      </c>
+      <c r="X10" s="15" t="str">
+        <f>_xlfn.CONCAT(ROUND(VLOOKUP($B$3 + (X$2 + ($J10 * 16)), $B$3:$E$258, 3), 0), ",")</f>
+        <v>279,</v>
+      </c>
+      <c r="Y10" s="15" t="str">
+        <f>_xlfn.CONCAT(ROUND(VLOOKUP($B$3 + (Y$2 + ($J10 * 16)), $B$3:$E$258, 3), 0), ",")</f>
+        <v>348,</v>
+      </c>
+      <c r="Z10" s="15" t="str">
+        <f>_xlfn.CONCAT(ROUND(VLOOKUP($B$3 + (Z$2 + ($J10 * 16)), $B$3:$E$258, 3), 0), ",")</f>
+        <v>421,</v>
+      </c>
+    </row>
+    <row r="11" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B11" s="2">
         <v>8</v>
       </c>
@@ -5664,12 +6227,75 @@
         <f t="shared" si="2"/>
         <v>471.73299723625064</v>
       </c>
-      <c r="J11" s="14" t="str">
-        <f t="shared" si="3"/>
-        <v>983,</v>
-      </c>
-    </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="J11" s="13">
+        <v>8</v>
+      </c>
+      <c r="K11" s="15" t="str">
+        <f>_xlfn.CONCAT(ROUND(VLOOKUP($B$3 + (K$2 + ($J11 * 16)), $B$3:$E$258, 3), 0), ",")</f>
+        <v>496,</v>
+      </c>
+      <c r="L11" s="15" t="str">
+        <f>_xlfn.CONCAT(ROUND(VLOOKUP($B$3 + (L$2 + ($J11 * 16)), $B$3:$E$258, 3), 0), ",")</f>
+        <v>571,</v>
+      </c>
+      <c r="M11" s="15" t="str">
+        <f>_xlfn.CONCAT(ROUND(VLOOKUP($B$3 + (M$2 + ($J11 * 16)), $B$3:$E$258, 3), 0), ",")</f>
+        <v>644,</v>
+      </c>
+      <c r="N11" s="15" t="str">
+        <f>_xlfn.CONCAT(ROUND(VLOOKUP($B$3 + (N$2 + ($J11 * 16)), $B$3:$E$258, 3), 0), ",")</f>
+        <v>715,</v>
+      </c>
+      <c r="O11" s="15" t="str">
+        <f>_xlfn.CONCAT(ROUND(VLOOKUP($B$3 + (O$2 + ($J11 * 16)), $B$3:$E$258, 3), 0), ",")</f>
+        <v>782,</v>
+      </c>
+      <c r="P11" s="15" t="str">
+        <f>_xlfn.CONCAT(ROUND(VLOOKUP($B$3 + (P$2 + ($J11 * 16)), $B$3:$E$258, 3), 0), ",")</f>
+        <v>842,</v>
+      </c>
+      <c r="Q11" s="15" t="str">
+        <f>_xlfn.CONCAT(ROUND(VLOOKUP($B$3 + (Q$2 + ($J11 * 16)), $B$3:$E$258, 3), 0), ",")</f>
+        <v>896,</v>
+      </c>
+      <c r="R11" s="15" t="str">
+        <f>_xlfn.CONCAT(ROUND(VLOOKUP($B$3 + (R$2 + ($J11 * 16)), $B$3:$E$258, 3), 0), ",")</f>
+        <v>941,</v>
+      </c>
+      <c r="S11" s="15" t="str">
+        <f>_xlfn.CONCAT(ROUND(VLOOKUP($B$3 + (S$2 + ($J11 * 16)), $B$3:$E$258, 3), 0), ",")</f>
+        <v>977,</v>
+      </c>
+      <c r="T11" s="15" t="str">
+        <f>_xlfn.CONCAT(ROUND(VLOOKUP($B$3 + (T$2 + ($J11 * 16)), $B$3:$E$258, 3), 0), ",")</f>
+        <v>1002,</v>
+      </c>
+      <c r="U11" s="15" t="str">
+        <f>_xlfn.CONCAT(ROUND(VLOOKUP($B$3 + (U$2 + ($J11 * 16)), $B$3:$E$258, 3), 0), ",")</f>
+        <v>1018,</v>
+      </c>
+      <c r="V11" s="15" t="str">
+        <f>_xlfn.CONCAT(ROUND(VLOOKUP($B$3 + (V$2 + ($J11 * 16)), $B$3:$E$258, 3), 0), ",")</f>
+        <v>1022,</v>
+      </c>
+      <c r="W11" s="15" t="str">
+        <f>_xlfn.CONCAT(ROUND(VLOOKUP($B$3 + (W$2 + ($J11 * 16)), $B$3:$E$258, 3), 0), ",")</f>
+        <v>1015,</v>
+      </c>
+      <c r="X11" s="15" t="str">
+        <f>_xlfn.CONCAT(ROUND(VLOOKUP($B$3 + (X$2 + ($J11 * 16)), $B$3:$E$258, 3), 0), ",")</f>
+        <v>998,</v>
+      </c>
+      <c r="Y11" s="15" t="str">
+        <f>_xlfn.CONCAT(ROUND(VLOOKUP($B$3 + (Y$2 + ($J11 * 16)), $B$3:$E$258, 3), 0), ",")</f>
+        <v>969,</v>
+      </c>
+      <c r="Z11" s="15" t="str">
+        <f>_xlfn.CONCAT(ROUND(VLOOKUP($B$3 + (Z$2 + ($J11 * 16)), $B$3:$E$258, 3), 0), ",")</f>
+        <v>931,</v>
+      </c>
+    </row>
+    <row r="12" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B12" s="2">
         <v>9</v>
       </c>
@@ -5685,12 +6311,75 @@
         <f t="shared" si="2"/>
         <v>495.42155938302801</v>
       </c>
-      <c r="J12" s="14" t="str">
-        <f t="shared" si="3"/>
-        <v>1006,</v>
-      </c>
-    </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="J12" s="13">
+        <v>9</v>
+      </c>
+      <c r="K12" s="15" t="str">
+        <f>_xlfn.CONCAT(ROUND(VLOOKUP($B$3 + (K$2 + ($J12 * 16)), $B$3:$E$258, 3), 0), ",")</f>
+        <v>884,</v>
+      </c>
+      <c r="L12" s="15" t="str">
+        <f>_xlfn.CONCAT(ROUND(VLOOKUP($B$3 + (L$2 + ($J12 * 16)), $B$3:$E$258, 3), 0), ",")</f>
+        <v>829,</v>
+      </c>
+      <c r="M12" s="15" t="str">
+        <f>_xlfn.CONCAT(ROUND(VLOOKUP($B$3 + (M$2 + ($J12 * 16)), $B$3:$E$258, 3), 0), ",")</f>
+        <v>767,</v>
+      </c>
+      <c r="N12" s="15" t="str">
+        <f>_xlfn.CONCAT(ROUND(VLOOKUP($B$3 + (N$2 + ($J12 * 16)), $B$3:$E$258, 3), 0), ",")</f>
+        <v>700,</v>
+      </c>
+      <c r="O12" s="15" t="str">
+        <f>_xlfn.CONCAT(ROUND(VLOOKUP($B$3 + (O$2 + ($J12 * 16)), $B$3:$E$258, 3), 0), ",")</f>
+        <v>628,</v>
+      </c>
+      <c r="P12" s="15" t="str">
+        <f>_xlfn.CONCAT(ROUND(VLOOKUP($B$3 + (P$2 + ($J12 * 16)), $B$3:$E$258, 3), 0), ",")</f>
+        <v>554,</v>
+      </c>
+      <c r="Q12" s="15" t="str">
+        <f>_xlfn.CONCAT(ROUND(VLOOKUP($B$3 + (Q$2 + ($J12 * 16)), $B$3:$E$258, 3), 0), ",")</f>
+        <v>479,</v>
+      </c>
+      <c r="R12" s="15" t="str">
+        <f>_xlfn.CONCAT(ROUND(VLOOKUP($B$3 + (R$2 + ($J12 * 16)), $B$3:$E$258, 3), 0), ",")</f>
+        <v>405,</v>
+      </c>
+      <c r="S12" s="15" t="str">
+        <f>_xlfn.CONCAT(ROUND(VLOOKUP($B$3 + (S$2 + ($J12 * 16)), $B$3:$E$258, 3), 0), ",")</f>
+        <v>332,</v>
+      </c>
+      <c r="T12" s="15" t="str">
+        <f>_xlfn.CONCAT(ROUND(VLOOKUP($B$3 + (T$2 + ($J12 * 16)), $B$3:$E$258, 3), 0), ",")</f>
+        <v>264,</v>
+      </c>
+      <c r="U12" s="15" t="str">
+        <f>_xlfn.CONCAT(ROUND(VLOOKUP($B$3 + (U$2 + ($J12 * 16)), $B$3:$E$258, 3), 0), ",")</f>
+        <v>201,</v>
+      </c>
+      <c r="V12" s="15" t="str">
+        <f>_xlfn.CONCAT(ROUND(VLOOKUP($B$3 + (V$2 + ($J12 * 16)), $B$3:$E$258, 3), 0), ",")</f>
+        <v>145,</v>
+      </c>
+      <c r="W12" s="15" t="str">
+        <f>_xlfn.CONCAT(ROUND(VLOOKUP($B$3 + (W$2 + ($J12 * 16)), $B$3:$E$258, 3), 0), ",")</f>
+        <v>97,</v>
+      </c>
+      <c r="X12" s="15" t="str">
+        <f>_xlfn.CONCAT(ROUND(VLOOKUP($B$3 + (X$2 + ($J12 * 16)), $B$3:$E$258, 3), 0), ",")</f>
+        <v>57,</v>
+      </c>
+      <c r="Y12" s="15" t="str">
+        <f>_xlfn.CONCAT(ROUND(VLOOKUP($B$3 + (Y$2 + ($J12 * 16)), $B$3:$E$258, 3), 0), ",")</f>
+        <v>28,</v>
+      </c>
+      <c r="Z12" s="15" t="str">
+        <f>_xlfn.CONCAT(ROUND(VLOOKUP($B$3 + (Z$2 + ($J12 * 16)), $B$3:$E$258, 3), 0), ",")</f>
+        <v>9,</v>
+      </c>
+    </row>
+    <row r="13" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B13" s="2">
         <v>10</v>
       </c>
@@ -5706,12 +6395,75 @@
         <f t="shared" si="2"/>
         <v>508.41996967744444</v>
       </c>
-      <c r="J13" s="14" t="str">
-        <f t="shared" si="3"/>
-        <v>1019,</v>
-      </c>
-    </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="J13" s="13">
+        <v>10</v>
+      </c>
+      <c r="K13" s="15" t="str">
+        <f>_xlfn.CONCAT(ROUND(VLOOKUP($B$3 + (K$2 + ($J13 * 16)), $B$3:$E$258, 3), 0), ",")</f>
+        <v>0,</v>
+      </c>
+      <c r="L13" s="15" t="str">
+        <f>_xlfn.CONCAT(ROUND(VLOOKUP($B$3 + (L$2 + ($J13 * 16)), $B$3:$E$258, 3), 0), ",")</f>
+        <v>3,</v>
+      </c>
+      <c r="M13" s="15" t="str">
+        <f>_xlfn.CONCAT(ROUND(VLOOKUP($B$3 + (M$2 + ($J13 * 16)), $B$3:$E$258, 3), 0), ",")</f>
+        <v>17,</v>
+      </c>
+      <c r="N13" s="15" t="str">
+        <f>_xlfn.CONCAT(ROUND(VLOOKUP($B$3 + (N$2 + ($J13 * 16)), $B$3:$E$258, 3), 0), ",")</f>
+        <v>41,</v>
+      </c>
+      <c r="O13" s="15" t="str">
+        <f>_xlfn.CONCAT(ROUND(VLOOKUP($B$3 + (O$2 + ($J13 * 16)), $B$3:$E$258, 3), 0), ",")</f>
+        <v>75,</v>
+      </c>
+      <c r="P13" s="15" t="str">
+        <f>_xlfn.CONCAT(ROUND(VLOOKUP($B$3 + (P$2 + ($J13 * 16)), $B$3:$E$258, 3), 0), ",")</f>
+        <v>119,</v>
+      </c>
+      <c r="Q13" s="15" t="str">
+        <f>_xlfn.CONCAT(ROUND(VLOOKUP($B$3 + (Q$2 + ($J13 * 16)), $B$3:$E$258, 3), 0), ",")</f>
+        <v>172,</v>
+      </c>
+      <c r="R13" s="15" t="str">
+        <f>_xlfn.CONCAT(ROUND(VLOOKUP($B$3 + (R$2 + ($J13 * 16)), $B$3:$E$258, 3), 0), ",")</f>
+        <v>231,</v>
+      </c>
+      <c r="S13" s="15" t="str">
+        <f>_xlfn.CONCAT(ROUND(VLOOKUP($B$3 + (S$2 + ($J13 * 16)), $B$3:$E$258, 3), 0), ",")</f>
+        <v>297,</v>
+      </c>
+      <c r="T13" s="15" t="str">
+        <f>_xlfn.CONCAT(ROUND(VLOOKUP($B$3 + (T$2 + ($J13 * 16)), $B$3:$E$258, 3), 0), ",")</f>
+        <v>367,</v>
+      </c>
+      <c r="U13" s="15" t="str">
+        <f>_xlfn.CONCAT(ROUND(VLOOKUP($B$3 + (U$2 + ($J13 * 16)), $B$3:$E$258, 3), 0), ",")</f>
+        <v>441,</v>
+      </c>
+      <c r="V13" s="15" t="str">
+        <f>_xlfn.CONCAT(ROUND(VLOOKUP($B$3 + (V$2 + ($J13 * 16)), $B$3:$E$258, 3), 0), ",")</f>
+        <v>515,</v>
+      </c>
+      <c r="W13" s="15" t="str">
+        <f>_xlfn.CONCAT(ROUND(VLOOKUP($B$3 + (W$2 + ($J13 * 16)), $B$3:$E$258, 3), 0), ",")</f>
+        <v>590,</v>
+      </c>
+      <c r="X13" s="15" t="str">
+        <f>_xlfn.CONCAT(ROUND(VLOOKUP($B$3 + (X$2 + ($J13 * 16)), $B$3:$E$258, 3), 0), ",")</f>
+        <v>663,</v>
+      </c>
+      <c r="Y13" s="15" t="str">
+        <f>_xlfn.CONCAT(ROUND(VLOOKUP($B$3 + (Y$2 + ($J13 * 16)), $B$3:$E$258, 3), 0), ",")</f>
+        <v>733,</v>
+      </c>
+      <c r="Z13" s="15" t="str">
+        <f>_xlfn.CONCAT(ROUND(VLOOKUP($B$3 + (Z$2 + ($J13 * 16)), $B$3:$E$258, 3), 0), ",")</f>
+        <v>798,</v>
+      </c>
+    </row>
+    <row r="14" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B14" s="2">
         <v>11</v>
       </c>
@@ -5727,12 +6479,75 @@
         <f t="shared" si="2"/>
         <v>510.44774985355673</v>
       </c>
-      <c r="J14" s="14" t="str">
-        <f t="shared" si="3"/>
+      <c r="J14" s="13">
+        <v>11</v>
+      </c>
+      <c r="K14" s="15" t="str">
+        <f>_xlfn.CONCAT(ROUND(VLOOKUP($B$3 + (K$2 + ($J14 * 16)), $B$3:$E$258, 3), 0), ",")</f>
+        <v>857,</v>
+      </c>
+      <c r="L14" s="15" t="str">
+        <f>_xlfn.CONCAT(ROUND(VLOOKUP($B$3 + (L$2 + ($J14 * 16)), $B$3:$E$258, 3), 0), ",")</f>
+        <v>908,</v>
+      </c>
+      <c r="M14" s="15" t="str">
+        <f>_xlfn.CONCAT(ROUND(VLOOKUP($B$3 + (M$2 + ($J14 * 16)), $B$3:$E$258, 3), 0), ",")</f>
+        <v>951,</v>
+      </c>
+      <c r="N14" s="15" t="str">
+        <f>_xlfn.CONCAT(ROUND(VLOOKUP($B$3 + (N$2 + ($J14 * 16)), $B$3:$E$258, 3), 0), ",")</f>
+        <v>984,</v>
+      </c>
+      <c r="O14" s="15" t="str">
+        <f>_xlfn.CONCAT(ROUND(VLOOKUP($B$3 + (O$2 + ($J14 * 16)), $B$3:$E$258, 3), 0), ",")</f>
+        <v>1008,</v>
+      </c>
+      <c r="P14" s="15" t="str">
+        <f>_xlfn.CONCAT(ROUND(VLOOKUP($B$3 + (P$2 + ($J14 * 16)), $B$3:$E$258, 3), 0), ",")</f>
+        <v>1020,</v>
+      </c>
+      <c r="Q14" s="15" t="str">
+        <f>_xlfn.CONCAT(ROUND(VLOOKUP($B$3 + (Q$2 + ($J14 * 16)), $B$3:$E$258, 3), 0), ",")</f>
         <v>1021,</v>
       </c>
-    </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="R14" s="15" t="str">
+        <f>_xlfn.CONCAT(ROUND(VLOOKUP($B$3 + (R$2 + ($J14 * 16)), $B$3:$E$258, 3), 0), ",")</f>
+        <v>1012,</v>
+      </c>
+      <c r="S14" s="15" t="str">
+        <f>_xlfn.CONCAT(ROUND(VLOOKUP($B$3 + (S$2 + ($J14 * 16)), $B$3:$E$258, 3), 0), ",")</f>
+        <v>991,</v>
+      </c>
+      <c r="T14" s="15" t="str">
+        <f>_xlfn.CONCAT(ROUND(VLOOKUP($B$3 + (T$2 + ($J14 * 16)), $B$3:$E$258, 3), 0), ",")</f>
+        <v>960,</v>
+      </c>
+      <c r="U14" s="15" t="str">
+        <f>_xlfn.CONCAT(ROUND(VLOOKUP($B$3 + (U$2 + ($J14 * 16)), $B$3:$E$258, 3), 0), ",")</f>
+        <v>920,</v>
+      </c>
+      <c r="V14" s="15" t="str">
+        <f>_xlfn.CONCAT(ROUND(VLOOKUP($B$3 + (V$2 + ($J14 * 16)), $B$3:$E$258, 3), 0), ",")</f>
+        <v>871,</v>
+      </c>
+      <c r="W14" s="15" t="str">
+        <f>_xlfn.CONCAT(ROUND(VLOOKUP($B$3 + (W$2 + ($J14 * 16)), $B$3:$E$258, 3), 0), ",")</f>
+        <v>813,</v>
+      </c>
+      <c r="X14" s="15" t="str">
+        <f>_xlfn.CONCAT(ROUND(VLOOKUP($B$3 + (X$2 + ($J14 * 16)), $B$3:$E$258, 3), 0), ",")</f>
+        <v>750,</v>
+      </c>
+      <c r="Y14" s="15" t="str">
+        <f>_xlfn.CONCAT(ROUND(VLOOKUP($B$3 + (Y$2 + ($J14 * 16)), $B$3:$E$258, 3), 0), ",")</f>
+        <v>681,</v>
+      </c>
+      <c r="Z14" s="15" t="str">
+        <f>_xlfn.CONCAT(ROUND(VLOOKUP($B$3 + (Z$2 + ($J14 * 16)), $B$3:$E$258, 3), 0), ",")</f>
+        <v>609,</v>
+      </c>
+    </row>
+    <row r="15" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B15" s="2">
         <v>12</v>
       </c>
@@ -5748,12 +6563,75 @@
         <f t="shared" si="2"/>
         <v>501.4611446940246</v>
       </c>
-      <c r="J15" s="14" t="str">
-        <f t="shared" si="3"/>
-        <v>1012,</v>
-      </c>
-    </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="J15" s="13">
+        <v>12</v>
+      </c>
+      <c r="K15" s="15" t="str">
+        <f>_xlfn.CONCAT(ROUND(VLOOKUP($B$3 + (K$2 + ($J15 * 16)), $B$3:$E$258, 3), 0), ",")</f>
+        <v>534,</v>
+      </c>
+      <c r="L15" s="15" t="str">
+        <f>_xlfn.CONCAT(ROUND(VLOOKUP($B$3 + (L$2 + ($J15 * 16)), $B$3:$E$258, 3), 0), ",")</f>
+        <v>459,</v>
+      </c>
+      <c r="M15" s="15" t="str">
+        <f>_xlfn.CONCAT(ROUND(VLOOKUP($B$3 + (M$2 + ($J15 * 16)), $B$3:$E$258, 3), 0), ",")</f>
+        <v>385,</v>
+      </c>
+      <c r="N15" s="15" t="str">
+        <f>_xlfn.CONCAT(ROUND(VLOOKUP($B$3 + (N$2 + ($J15 * 16)), $B$3:$E$258, 3), 0), ",")</f>
+        <v>314,</v>
+      </c>
+      <c r="O15" s="15" t="str">
+        <f>_xlfn.CONCAT(ROUND(VLOOKUP($B$3 + (O$2 + ($J15 * 16)), $B$3:$E$258, 3), 0), ",")</f>
+        <v>247,</v>
+      </c>
+      <c r="P15" s="15" t="str">
+        <f>_xlfn.CONCAT(ROUND(VLOOKUP($B$3 + (P$2 + ($J15 * 16)), $B$3:$E$258, 3), 0), ",")</f>
+        <v>186,</v>
+      </c>
+      <c r="Q15" s="15" t="str">
+        <f>_xlfn.CONCAT(ROUND(VLOOKUP($B$3 + (Q$2 + ($J15 * 16)), $B$3:$E$258, 3), 0), ",")</f>
+        <v>132,</v>
+      </c>
+      <c r="R15" s="15" t="str">
+        <f>_xlfn.CONCAT(ROUND(VLOOKUP($B$3 + (R$2 + ($J15 * 16)), $B$3:$E$258, 3), 0), ",")</f>
+        <v>85,</v>
+      </c>
+      <c r="S15" s="15" t="str">
+        <f>_xlfn.CONCAT(ROUND(VLOOKUP($B$3 + (S$2 + ($J15 * 16)), $B$3:$E$258, 3), 0), ",")</f>
+        <v>49,</v>
+      </c>
+      <c r="T15" s="15" t="str">
+        <f>_xlfn.CONCAT(ROUND(VLOOKUP($B$3 + (T$2 + ($J15 * 16)), $B$3:$E$258, 3), 0), ",")</f>
+        <v>22,</v>
+      </c>
+      <c r="U15" s="15" t="str">
+        <f>_xlfn.CONCAT(ROUND(VLOOKUP($B$3 + (U$2 + ($J15 * 16)), $B$3:$E$258, 3), 0), ",")</f>
+        <v>5,</v>
+      </c>
+      <c r="V15" s="15" t="str">
+        <f>_xlfn.CONCAT(ROUND(VLOOKUP($B$3 + (V$2 + ($J15 * 16)), $B$3:$E$258, 3), 0), ",")</f>
+        <v>0,</v>
+      </c>
+      <c r="W15" s="15" t="str">
+        <f>_xlfn.CONCAT(ROUND(VLOOKUP($B$3 + (W$2 + ($J15 * 16)), $B$3:$E$258, 3), 0), ",")</f>
+        <v>6,</v>
+      </c>
+      <c r="X15" s="15" t="str">
+        <f>_xlfn.CONCAT(ROUND(VLOOKUP($B$3 + (X$2 + ($J15 * 16)), $B$3:$E$258, 3), 0), ",")</f>
+        <v>22,</v>
+      </c>
+      <c r="Y15" s="15" t="str">
+        <f>_xlfn.CONCAT(ROUND(VLOOKUP($B$3 + (Y$2 + ($J15 * 16)), $B$3:$E$258, 3), 0), ",")</f>
+        <v>49,</v>
+      </c>
+      <c r="Z15" s="15" t="str">
+        <f>_xlfn.CONCAT(ROUND(VLOOKUP($B$3 + (Z$2 + ($J15 * 16)), $B$3:$E$258, 3), 0), ",")</f>
+        <v>86,</v>
+      </c>
+    </row>
+    <row r="16" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B16" s="2">
         <v>13</v>
       </c>
@@ -5769,12 +6647,75 @@
         <f t="shared" si="2"/>
         <v>481.65406617537235</v>
       </c>
-      <c r="J16" s="14" t="str">
-        <f t="shared" si="3"/>
-        <v>993,</v>
-      </c>
-    </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="J16" s="13">
+        <v>13</v>
+      </c>
+      <c r="K16" s="15" t="str">
+        <f>_xlfn.CONCAT(ROUND(VLOOKUP($B$3 + (K$2 + ($J16 * 16)), $B$3:$E$258, 3), 0), ",")</f>
+        <v>132,</v>
+      </c>
+      <c r="L16" s="15" t="str">
+        <f>_xlfn.CONCAT(ROUND(VLOOKUP($B$3 + (L$2 + ($J16 * 16)), $B$3:$E$258, 3), 0), ",")</f>
+        <v>187,</v>
+      </c>
+      <c r="M16" s="15" t="str">
+        <f>_xlfn.CONCAT(ROUND(VLOOKUP($B$3 + (M$2 + ($J16 * 16)), $B$3:$E$258, 3), 0), ",")</f>
+        <v>248,</v>
+      </c>
+      <c r="N16" s="15" t="str">
+        <f>_xlfn.CONCAT(ROUND(VLOOKUP($B$3 + (N$2 + ($J16 * 16)), $B$3:$E$258, 3), 0), ",")</f>
+        <v>315,</v>
+      </c>
+      <c r="O16" s="15" t="str">
+        <f>_xlfn.CONCAT(ROUND(VLOOKUP($B$3 + (O$2 + ($J16 * 16)), $B$3:$E$258, 3), 0), ",")</f>
+        <v>386,</v>
+      </c>
+      <c r="P16" s="15" t="str">
+        <f>_xlfn.CONCAT(ROUND(VLOOKUP($B$3 + (P$2 + ($J16 * 16)), $B$3:$E$258, 3), 0), ",")</f>
+        <v>460,</v>
+      </c>
+      <c r="Q16" s="15" t="str">
+        <f>_xlfn.CONCAT(ROUND(VLOOKUP($B$3 + (Q$2 + ($J16 * 16)), $B$3:$E$258, 3), 0), ",")</f>
+        <v>535,</v>
+      </c>
+      <c r="R16" s="15" t="str">
+        <f>_xlfn.CONCAT(ROUND(VLOOKUP($B$3 + (R$2 + ($J16 * 16)), $B$3:$E$258, 3), 0), ",")</f>
+        <v>610,</v>
+      </c>
+      <c r="S16" s="15" t="str">
+        <f>_xlfn.CONCAT(ROUND(VLOOKUP($B$3 + (S$2 + ($J16 * 16)), $B$3:$E$258, 3), 0), ",")</f>
+        <v>682,</v>
+      </c>
+      <c r="T16" s="15" t="str">
+        <f>_xlfn.CONCAT(ROUND(VLOOKUP($B$3 + (T$2 + ($J16 * 16)), $B$3:$E$258, 3), 0), ",")</f>
+        <v>751,</v>
+      </c>
+      <c r="U16" s="15" t="str">
+        <f>_xlfn.CONCAT(ROUND(VLOOKUP($B$3 + (U$2 + ($J16 * 16)), $B$3:$E$258, 3), 0), ",")</f>
+        <v>814,</v>
+      </c>
+      <c r="V16" s="15" t="str">
+        <f>_xlfn.CONCAT(ROUND(VLOOKUP($B$3 + (V$2 + ($J16 * 16)), $B$3:$E$258, 3), 0), ",")</f>
+        <v>871,</v>
+      </c>
+      <c r="W16" s="15" t="str">
+        <f>_xlfn.CONCAT(ROUND(VLOOKUP($B$3 + (W$2 + ($J16 * 16)), $B$3:$E$258, 3), 0), ",")</f>
+        <v>921,</v>
+      </c>
+      <c r="X16" s="15" t="str">
+        <f>_xlfn.CONCAT(ROUND(VLOOKUP($B$3 + (X$2 + ($J16 * 16)), $B$3:$E$258, 3), 0), ",")</f>
+        <v>961,</v>
+      </c>
+      <c r="Y16" s="15" t="str">
+        <f>_xlfn.CONCAT(ROUND(VLOOKUP($B$3 + (Y$2 + ($J16 * 16)), $B$3:$E$258, 3), 0), ",")</f>
+        <v>992,</v>
+      </c>
+      <c r="Z16" s="15" t="str">
+        <f>_xlfn.CONCAT(ROUND(VLOOKUP($B$3 + (Z$2 + ($J16 * 16)), $B$3:$E$258, 3), 0), ",")</f>
+        <v>1012,</v>
+      </c>
+    </row>
+    <row r="17" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B17" s="2">
         <v>14</v>
       </c>
@@ -5790,12 +6731,75 @@
         <f t="shared" si="2"/>
         <v>451.45390925671245</v>
       </c>
-      <c r="J17" s="14" t="str">
-        <f t="shared" si="3"/>
-        <v>962,</v>
-      </c>
-    </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="J17" s="13">
+        <v>14</v>
+      </c>
+      <c r="K17" s="15" t="str">
+        <f>_xlfn.CONCAT(ROUND(VLOOKUP($B$3 + (K$2 + ($J17 * 16)), $B$3:$E$258, 3), 0), ",")</f>
+        <v>1021,</v>
+      </c>
+      <c r="L17" s="15" t="str">
+        <f>_xlfn.CONCAT(ROUND(VLOOKUP($B$3 + (L$2 + ($J17 * 16)), $B$3:$E$258, 3), 0), ",")</f>
+        <v>1020,</v>
+      </c>
+      <c r="M17" s="15" t="str">
+        <f>_xlfn.CONCAT(ROUND(VLOOKUP($B$3 + (M$2 + ($J17 * 16)), $B$3:$E$258, 3), 0), ",")</f>
+        <v>1007,</v>
+      </c>
+      <c r="N17" s="15" t="str">
+        <f>_xlfn.CONCAT(ROUND(VLOOKUP($B$3 + (N$2 + ($J17 * 16)), $B$3:$E$258, 3), 0), ",")</f>
+        <v>984,</v>
+      </c>
+      <c r="O17" s="15" t="str">
+        <f>_xlfn.CONCAT(ROUND(VLOOKUP($B$3 + (O$2 + ($J17 * 16)), $B$3:$E$258, 3), 0), ",")</f>
+        <v>951,</v>
+      </c>
+      <c r="P17" s="15" t="str">
+        <f>_xlfn.CONCAT(ROUND(VLOOKUP($B$3 + (P$2 + ($J17 * 16)), $B$3:$E$258, 3), 0), ",")</f>
+        <v>908,</v>
+      </c>
+      <c r="Q17" s="15" t="str">
+        <f>_xlfn.CONCAT(ROUND(VLOOKUP($B$3 + (Q$2 + ($J17 * 16)), $B$3:$E$258, 3), 0), ",")</f>
+        <v>856,</v>
+      </c>
+      <c r="R17" s="15" t="str">
+        <f>_xlfn.CONCAT(ROUND(VLOOKUP($B$3 + (R$2 + ($J17 * 16)), $B$3:$E$258, 3), 0), ",")</f>
+        <v>797,</v>
+      </c>
+      <c r="S17" s="15" t="str">
+        <f>_xlfn.CONCAT(ROUND(VLOOKUP($B$3 + (S$2 + ($J17 * 16)), $B$3:$E$258, 3), 0), ",")</f>
+        <v>732,</v>
+      </c>
+      <c r="T17" s="15" t="str">
+        <f>_xlfn.CONCAT(ROUND(VLOOKUP($B$3 + (T$2 + ($J17 * 16)), $B$3:$E$258, 3), 0), ",")</f>
+        <v>662,</v>
+      </c>
+      <c r="U17" s="15" t="str">
+        <f>_xlfn.CONCAT(ROUND(VLOOKUP($B$3 + (U$2 + ($J17 * 16)), $B$3:$E$258, 3), 0), ",")</f>
+        <v>589,</v>
+      </c>
+      <c r="V17" s="15" t="str">
+        <f>_xlfn.CONCAT(ROUND(VLOOKUP($B$3 + (V$2 + ($J17 * 16)), $B$3:$E$258, 3), 0), ",")</f>
+        <v>514,</v>
+      </c>
+      <c r="W17" s="15" t="str">
+        <f>_xlfn.CONCAT(ROUND(VLOOKUP($B$3 + (W$2 + ($J17 * 16)), $B$3:$E$258, 3), 0), ",")</f>
+        <v>439,</v>
+      </c>
+      <c r="X17" s="15" t="str">
+        <f>_xlfn.CONCAT(ROUND(VLOOKUP($B$3 + (X$2 + ($J17 * 16)), $B$3:$E$258, 3), 0), ",")</f>
+        <v>366,</v>
+      </c>
+      <c r="Y17" s="15" t="str">
+        <f>_xlfn.CONCAT(ROUND(VLOOKUP($B$3 + (Y$2 + ($J17 * 16)), $B$3:$E$258, 3), 0), ",")</f>
+        <v>296,</v>
+      </c>
+      <c r="Z17" s="15" t="str">
+        <f>_xlfn.CONCAT(ROUND(VLOOKUP($B$3 + (Z$2 + ($J17 * 16)), $B$3:$E$258, 3), 0), ",")</f>
+        <v>230,</v>
+      </c>
+    </row>
+    <row r="18" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B18" s="2">
         <v>15</v>
       </c>
@@ -5811,12 +6815,75 @@
         <f t="shared" si="2"/>
         <v>411.51232959838319</v>
       </c>
-      <c r="J18" s="14" t="str">
-        <f t="shared" si="3"/>
-        <v>923,</v>
-      </c>
-    </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="J18" s="13">
+        <v>15</v>
+      </c>
+      <c r="K18" s="15" t="str">
+        <f>_xlfn.CONCAT(ROUND(VLOOKUP($B$3 + (K$2 + ($J18 * 16)), $B$3:$E$258, 3), 0), ",")</f>
+        <v>171,</v>
+      </c>
+      <c r="L18" s="15" t="str">
+        <f>_xlfn.CONCAT(ROUND(VLOOKUP($B$3 + (L$2 + ($J18 * 16)), $B$3:$E$258, 3), 0), ",")</f>
+        <v>118,</v>
+      </c>
+      <c r="M18" s="15" t="str">
+        <f>_xlfn.CONCAT(ROUND(VLOOKUP($B$3 + (M$2 + ($J18 * 16)), $B$3:$E$258, 3), 0), ",")</f>
+        <v>75,</v>
+      </c>
+      <c r="N18" s="15" t="str">
+        <f>_xlfn.CONCAT(ROUND(VLOOKUP($B$3 + (N$2 + ($J18 * 16)), $B$3:$E$258, 3), 0), ",")</f>
+        <v>41,</v>
+      </c>
+      <c r="O18" s="15" t="str">
+        <f>_xlfn.CONCAT(ROUND(VLOOKUP($B$3 + (O$2 + ($J18 * 16)), $B$3:$E$258, 3), 0), ",")</f>
+        <v>16,</v>
+      </c>
+      <c r="P18" s="15" t="str">
+        <f>_xlfn.CONCAT(ROUND(VLOOKUP($B$3 + (P$2 + ($J18 * 16)), $B$3:$E$258, 3), 0), ",")</f>
+        <v>3,</v>
+      </c>
+      <c r="Q18" s="15" t="str">
+        <f>_xlfn.CONCAT(ROUND(VLOOKUP($B$3 + (Q$2 + ($J18 * 16)), $B$3:$E$258, 3), 0), ",")</f>
+        <v>0,</v>
+      </c>
+      <c r="R18" s="15" t="str">
+        <f>_xlfn.CONCAT(ROUND(VLOOKUP($B$3 + (R$2 + ($J18 * 16)), $B$3:$E$258, 3), 0), ",")</f>
+        <v>9,</v>
+      </c>
+      <c r="S18" s="15" t="str">
+        <f>_xlfn.CONCAT(ROUND(VLOOKUP($B$3 + (S$2 + ($J18 * 16)), $B$3:$E$258, 3), 0), ",")</f>
+        <v>28,</v>
+      </c>
+      <c r="T18" s="15" t="str">
+        <f>_xlfn.CONCAT(ROUND(VLOOKUP($B$3 + (T$2 + ($J18 * 16)), $B$3:$E$258, 3), 0), ",")</f>
+        <v>58,</v>
+      </c>
+      <c r="U18" s="15" t="str">
+        <f>_xlfn.CONCAT(ROUND(VLOOKUP($B$3 + (U$2 + ($J18 * 16)), $B$3:$E$258, 3), 0), ",")</f>
+        <v>98,</v>
+      </c>
+      <c r="V18" s="15" t="str">
+        <f>_xlfn.CONCAT(ROUND(VLOOKUP($B$3 + (V$2 + ($J18 * 16)), $B$3:$E$258, 3), 0), ",")</f>
+        <v>146,</v>
+      </c>
+      <c r="W18" s="15" t="str">
+        <f>_xlfn.CONCAT(ROUND(VLOOKUP($B$3 + (W$2 + ($J18 * 16)), $B$3:$E$258, 3), 0), ",")</f>
+        <v>202,</v>
+      </c>
+      <c r="X18" s="15" t="str">
+        <f>_xlfn.CONCAT(ROUND(VLOOKUP($B$3 + (X$2 + ($J18 * 16)), $B$3:$E$258, 3), 0), ",")</f>
+        <v>265,</v>
+      </c>
+      <c r="Y18" s="15" t="str">
+        <f>_xlfn.CONCAT(ROUND(VLOOKUP($B$3 + (Y$2 + ($J18 * 16)), $B$3:$E$258, 3), 0), ",")</f>
+        <v>334,</v>
+      </c>
+      <c r="Z18" s="15" t="str">
+        <f>_xlfn.CONCAT(ROUND(VLOOKUP($B$3 + (Z$2 + ($J18 * 16)), $B$3:$E$258, 3), 0), ",")</f>
+        <v>406,</v>
+      </c>
+    </row>
+    <row r="19" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B19" s="2">
         <v>16</v>
       </c>
@@ -5832,12 +6899,8 @@
         <f t="shared" si="2"/>
         <v>362.69118220787061</v>
       </c>
-      <c r="J19" s="14" t="str">
-        <f t="shared" si="3"/>
-        <v>874,</v>
-      </c>
-    </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="20" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B20" s="2">
         <v>17</v>
       </c>
@@ -5853,12 +6916,8 @@
         <f t="shared" si="2"/>
         <v>306.04392442736412</v>
       </c>
-      <c r="J20" s="14" t="str">
-        <f t="shared" si="3"/>
-        <v>817,</v>
-      </c>
-    </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="21" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B21" s="2">
         <v>18</v>
       </c>
@@ -5874,12 +6933,8 @@
         <f t="shared" si="2"/>
         <v>242.79288454723462</v>
       </c>
-      <c r="J21" s="14" t="str">
-        <f t="shared" si="3"/>
-        <v>754,</v>
-      </c>
-    </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="22" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B22" s="2">
         <v>19</v>
       </c>
@@ -5895,12 +6950,8 @@
         <f t="shared" si="2"/>
         <v>174.30288654078777</v>
       </c>
-      <c r="J22" s="14" t="str">
-        <f t="shared" si="3"/>
-        <v>685,</v>
-      </c>
-    </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="23" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B23" s="2">
         <v>20</v>
       </c>
@@ -5916,12 +6967,8 @@
         <f t="shared" si="2"/>
         <v>102.05180004286183</v>
       </c>
-      <c r="J23" s="14" t="str">
-        <f t="shared" si="3"/>
-        <v>613,</v>
-      </c>
-    </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="24" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B24" s="2">
         <v>21</v>
       </c>
@@ -5937,12 +6984,8 @@
         <f t="shared" si="2"/>
         <v>27.598651041593257</v>
       </c>
-      <c r="J24" s="14" t="str">
-        <f t="shared" si="3"/>
-        <v>539,</v>
-      </c>
-    </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="25" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B25" s="2">
         <v>22</v>
       </c>
@@ -5958,12 +7001,8 @@
         <f t="shared" si="2"/>
         <v>47.450018612676956</v>
       </c>
-      <c r="J25" s="14" t="str">
-        <f t="shared" si="3"/>
-        <v>464,</v>
-      </c>
-    </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="26" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B26" s="2">
         <v>23</v>
       </c>
@@ -5979,12 +7018,8 @@
         <f t="shared" si="2"/>
         <v>121.47481699053657</v>
       </c>
-      <c r="J26" s="14" t="str">
-        <f t="shared" si="3"/>
-        <v>390,</v>
-      </c>
-    </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="27" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B27" s="2">
         <v>24</v>
       </c>
@@ -6000,12 +7035,8 @@
         <f t="shared" si="2"/>
         <v>192.87844514422648</v>
       </c>
-      <c r="J27" s="14" t="str">
-        <f t="shared" si="3"/>
-        <v>318,</v>
-      </c>
-    </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="28" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B28" s="2">
         <v>25</v>
       </c>
@@ -6021,12 +7052,8 @@
         <f t="shared" si="2"/>
         <v>260.12016344843994</v>
       </c>
-      <c r="J28" s="14" t="str">
-        <f t="shared" si="3"/>
-        <v>251,</v>
-      </c>
-    </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="29" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B29" s="2">
         <v>26</v>
       </c>
@@ -6042,12 +7069,8 @@
         <f t="shared" si="2"/>
         <v>321.749037510292</v>
       </c>
-      <c r="J29" s="14" t="str">
-        <f t="shared" si="3"/>
-        <v>189,</v>
-      </c>
-    </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="30" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B30" s="2">
         <v>27</v>
       </c>
@@ -6063,12 +7086,8 @@
         <f t="shared" si="2"/>
         <v>376.43524627187054</v>
       </c>
-      <c r="J30" s="14" t="str">
-        <f t="shared" si="3"/>
-        <v>135,</v>
-      </c>
-    </row>
-    <row r="31" spans="2:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="31" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B31" s="2">
         <v>28</v>
       </c>
@@ -6084,12 +7103,8 @@
         <f t="shared" si="2"/>
         <v>422.9987767425838</v>
       </c>
-      <c r="J31" s="14" t="str">
-        <f t="shared" si="3"/>
-        <v>88,</v>
-      </c>
-    </row>
-    <row r="32" spans="2:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="32" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B32" s="2">
         <v>29</v>
       </c>
@@ -6105,12 +7120,8 @@
         <f t="shared" si="2"/>
         <v>460.43488618952762</v>
       </c>
-      <c r="J32" s="14" t="str">
-        <f t="shared" si="3"/>
-        <v>51,</v>
-      </c>
-    </row>
-    <row r="33" spans="2:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B33" s="2">
         <v>30</v>
       </c>
@@ -6126,12 +7137,8 @@
         <f t="shared" si="2"/>
         <v>487.93578236553464</v>
       </c>
-      <c r="J33" s="14" t="str">
-        <f t="shared" si="3"/>
-        <v>23,</v>
-      </c>
-    </row>
-    <row r="34" spans="2:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="34" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B34" s="2">
         <v>31</v>
       </c>
@@ -6147,12 +7154,8 @@
         <f t="shared" si="2"/>
         <v>504.9080539613276</v>
       </c>
-      <c r="J34" s="14" t="str">
-        <f t="shared" si="3"/>
-        <v>6,</v>
-      </c>
-    </row>
-    <row r="35" spans="2:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="35" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B35" s="2">
         <v>32</v>
       </c>
@@ -6168,12 +7171,8 @@
         <f t="shared" si="2"/>
         <v>510.98547516940528</v>
       </c>
-      <c r="J35" s="14" t="str">
-        <f t="shared" si="3"/>
-        <v>0,</v>
-      </c>
-    </row>
-    <row r="36" spans="2:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="36" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B36" s="2">
         <v>33</v>
       </c>
@@ -6189,12 +7188,8 @@
         <f t="shared" si="2"/>
         <v>506.0369080641878</v>
       </c>
-      <c r="J36" s="14" t="str">
-        <f t="shared" si="3"/>
-        <v>5,</v>
-      </c>
-    </row>
-    <row r="37" spans="2:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="37" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B37" s="2">
         <v>34</v>
       </c>
@@ -6210,12 +7205,8 @@
         <f t="shared" si="2"/>
         <v>490.16913228173337</v>
       </c>
-      <c r="J37" s="14" t="str">
-        <f t="shared" si="3"/>
-        <v>21,</v>
-      </c>
-    </row>
-    <row r="38" spans="2:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="38" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B38" s="2">
         <v>35</v>
       </c>
@@ -6231,12 +7222,8 @@
         <f t="shared" si="2"/>
         <v>463.72454094051068</v>
       </c>
-      <c r="J38" s="14" t="str">
-        <f t="shared" si="3"/>
-        <v>47,</v>
-      </c>
-    </row>
-    <row r="39" spans="2:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="39" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B39" s="2">
         <v>36</v>
       </c>
@@ -6252,12 +7239,8 @@
         <f t="shared" si="2"/>
         <v>427.27375252039207</v>
       </c>
-      <c r="J39" s="14" t="str">
-        <f t="shared" si="3"/>
-        <v>84,</v>
-      </c>
-    </row>
-    <row r="40" spans="2:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="40" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B40" s="2">
         <v>37</v>
       </c>
@@ -6273,12 +7256,8 @@
         <f t="shared" si="2"/>
         <v>381.60329811993284</v>
       </c>
-      <c r="J40" s="14" t="str">
-        <f t="shared" si="3"/>
-        <v>129,</v>
-      </c>
-    </row>
-    <row r="41" spans="2:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="41" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B41" s="2">
         <v>38</v>
       </c>
@@ -6294,12 +7273,8 @@
         <f t="shared" si="2"/>
         <v>327.69864977493864</v>
       </c>
-      <c r="J41" s="14" t="str">
-        <f t="shared" si="3"/>
-        <v>183,</v>
-      </c>
-    </row>
-    <row r="42" spans="2:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="42" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B42" s="2">
         <v>39</v>
       </c>
@@ -6315,12 +7290,8 @@
         <f t="shared" si="2"/>
         <v>266.72295605139703</v>
       </c>
-      <c r="J42" s="14" t="str">
-        <f t="shared" si="3"/>
-        <v>244,</v>
-      </c>
-    </row>
-    <row r="43" spans="2:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="43" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B43" s="2">
         <v>40</v>
       </c>
@@ -6336,12 +7307,8 @@
         <f t="shared" si="2"/>
         <v>199.99194375381006</v>
       </c>
-      <c r="J43" s="14" t="str">
-        <f t="shared" si="3"/>
-        <v>311,</v>
-      </c>
-    </row>
-    <row r="44" spans="2:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="44" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B44" s="2">
         <v>41</v>
       </c>
@@ -6357,12 +7324,8 @@
         <f t="shared" si="2"/>
         <v>128.94552731709007</v>
       </c>
-      <c r="J44" s="14" t="str">
-        <f t="shared" si="3"/>
-        <v>382,</v>
-      </c>
-    </row>
-    <row r="45" spans="2:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="45" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B45" s="2">
         <v>42</v>
       </c>
@@ -6378,12 +7341,8 @@
         <f t="shared" si="2"/>
         <v>55.116738491451656</v>
       </c>
-      <c r="J45" s="14" t="str">
-        <f t="shared" si="3"/>
-        <v>456,</v>
-      </c>
-    </row>
-    <row r="46" spans="2:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="46" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B46" s="2">
         <v>43</v>
       </c>
@@ -6399,12 +7358,8 @@
         <f t="shared" si="2"/>
         <v>19.90135324787957</v>
       </c>
-      <c r="J46" s="14" t="str">
-        <f t="shared" si="3"/>
-        <v>531,</v>
-      </c>
-    </row>
-    <row r="47" spans="2:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="47" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B47" s="2">
         <v>44</v>
       </c>
@@ -6420,12 +7375,8 @@
         <f t="shared" si="2"/>
         <v>94.490015778372936</v>
       </c>
-      <c r="J47" s="14" t="str">
-        <f t="shared" si="3"/>
-        <v>605,</v>
-      </c>
-    </row>
-    <row r="48" spans="2:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="48" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B48" s="2">
         <v>45</v>
       </c>
@@ -6441,12 +7392,8 @@
         <f t="shared" si="2"/>
         <v>167.03978315367578</v>
       </c>
-      <c r="J48" s="14" t="str">
-        <f t="shared" si="3"/>
-        <v>678,</v>
-      </c>
-    </row>
-    <row r="49" spans="2:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="49" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B49" s="2">
         <v>46</v>
       </c>
@@ -6462,12 +7409,8 @@
         <f t="shared" si="2"/>
         <v>235.98518448257187</v>
       </c>
-      <c r="J49" s="14" t="str">
-        <f t="shared" si="3"/>
-        <v>747,</v>
-      </c>
-    </row>
-    <row r="50" spans="2:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="50" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B50" s="2">
         <v>47</v>
       </c>
@@ -6483,12 +7426,8 @@
         <f t="shared" si="2"/>
         <v>299.83852348747916</v>
       </c>
-      <c r="J50" s="14" t="str">
-        <f t="shared" si="3"/>
-        <v>811,</v>
-      </c>
-    </row>
-    <row r="51" spans="2:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="51" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B51" s="2">
         <v>48</v>
       </c>
@@ -6504,12 +7443,8 @@
         <f t="shared" si="2"/>
         <v>357.22197985090315</v>
       </c>
-      <c r="J51" s="14" t="str">
-        <f t="shared" si="3"/>
-        <v>868,</v>
-      </c>
-    </row>
-    <row r="52" spans="2:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="52" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B52" s="2">
         <v>49</v>
       </c>
@@ -6525,12 +7460,8 @@
         <f t="shared" si="2"/>
         <v>406.89733967052098</v>
       </c>
-      <c r="J52" s="14" t="str">
-        <f t="shared" si="3"/>
-        <v>918,</v>
-      </c>
-    </row>
-    <row r="53" spans="2:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="53" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B53" s="2">
         <v>50</v>
       </c>
@@ -6546,12 +7477,8 @@
         <f t="shared" si="2"/>
         <v>447.79271350241447</v>
       </c>
-      <c r="J53" s="14" t="str">
-        <f t="shared" si="3"/>
-        <v>959,</v>
-      </c>
-    </row>
-    <row r="54" spans="2:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="54" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B54" s="2">
         <v>51</v>
       </c>
@@ -6567,12 +7494,8 @@
         <f t="shared" si="2"/>
         <v>479.02566547345293</v>
       </c>
-      <c r="J54" s="14" t="str">
-        <f t="shared" si="3"/>
-        <v>990,</v>
-      </c>
-    </row>
-    <row r="55" spans="2:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="55" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B55" s="2">
         <v>52</v>
       </c>
@@ -6588,12 +7511,8 @@
         <f t="shared" si="2"/>
         <v>499.92225438538912</v>
       </c>
-      <c r="J55" s="14" t="str">
-        <f t="shared" si="3"/>
-        <v>1011,</v>
-      </c>
-    </row>
-    <row r="56" spans="2:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="56" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B56" s="2">
         <v>53</v>
       </c>
@@ -6609,12 +7528,8 @@
         <f t="shared" si="2"/>
         <v>510.03157594382185</v>
       </c>
-      <c r="J56" s="14" t="str">
-        <f t="shared" si="3"/>
-        <v>1021,</v>
-      </c>
-    </row>
-    <row r="57" spans="2:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="57" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B57" s="2">
         <v>54</v>
       </c>
@@ -6630,12 +7545,8 @@
         <f t="shared" si="2"/>
         <v>509.13549232140508</v>
       </c>
-      <c r="J57" s="14" t="str">
-        <f t="shared" si="3"/>
-        <v>1020,</v>
-      </c>
-    </row>
-    <row r="58" spans="2:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="58" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B58" s="2">
         <v>55</v>
       </c>
@@ -6651,12 +7562,8 @@
         <f t="shared" si="2"/>
         <v>497.25333911186658</v>
       </c>
-      <c r="J58" s="14" t="str">
-        <f t="shared" si="3"/>
-        <v>1008,</v>
-      </c>
-    </row>
-    <row r="59" spans="2:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="59" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B59" s="2">
         <v>56</v>
       </c>
@@ -6672,12 +7579,8 @@
         <f t="shared" si="2"/>
         <v>474.64150810869432</v>
       </c>
-      <c r="J59" s="14" t="str">
-        <f t="shared" si="3"/>
-        <v>986,</v>
-      </c>
-    </row>
-    <row r="60" spans="2:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="60" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B60" s="2">
         <v>57</v>
       </c>
@@ -6693,12 +7596,8 @@
         <f t="shared" si="2"/>
         <v>441.78791491125207</v>
       </c>
-      <c r="J60" s="14" t="str">
-        <f t="shared" si="3"/>
-        <v>953,</v>
-      </c>
-    </row>
-    <row r="61" spans="2:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="61" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B61" s="2">
         <v>58</v>
       </c>
@@ -6714,12 +7613,8 @@
         <f t="shared" si="2"/>
         <v>399.4014707357037</v>
       </c>
-      <c r="J61" s="14" t="str">
-        <f t="shared" si="3"/>
-        <v>910,</v>
-      </c>
-    </row>
-    <row r="62" spans="2:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="62" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B62" s="2">
         <v>59</v>
       </c>
@@ -6735,12 +7630,8 @@
         <f t="shared" si="2"/>
         <v>348.39678560685854</v>
       </c>
-      <c r="J62" s="14" t="str">
-        <f t="shared" si="3"/>
-        <v>859,</v>
-      </c>
-    </row>
-    <row r="63" spans="2:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="63" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B63" s="2">
         <v>60</v>
       </c>
@@ -6756,12 +7647,8 @@
         <f t="shared" si="2"/>
         <v>289.87443300377186</v>
       </c>
-      <c r="J63" s="14" t="str">
-        <f t="shared" si="3"/>
-        <v>801,</v>
-      </c>
-    </row>
-    <row r="64" spans="2:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="64" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B64" s="2">
         <v>61</v>
       </c>
@@ -6777,12 +7664,8 @@
         <f t="shared" si="2"/>
         <v>225.09720180641079</v>
       </c>
-      <c r="J64" s="14" t="str">
-        <f t="shared" si="3"/>
-        <v>736,</v>
-      </c>
-    </row>
-    <row r="65" spans="2:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="65" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B65" s="2">
         <v>62</v>
       </c>
@@ -6798,12 +7681,8 @@
         <f t="shared" si="2"/>
         <v>155.46284797625663</v>
       </c>
-      <c r="J65" s="14" t="str">
-        <f t="shared" si="3"/>
-        <v>666,</v>
-      </c>
-    </row>
-    <row r="66" spans="2:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="66" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B66" s="2">
         <v>63</v>
       </c>
@@ -6819,4041 +7698,3269 @@
         <f t="shared" si="2"/>
         <v>82.473933932099158</v>
       </c>
-      <c r="J66" s="14" t="str">
-        <f t="shared" si="3"/>
-        <v>593,</v>
-      </c>
-    </row>
-    <row r="67" spans="2:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="67" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B67" s="2">
         <v>64</v>
       </c>
       <c r="C67" s="7">
-        <f t="shared" ref="C67:C130" si="4">$B67 * (360 / (SAMPLE_RATE / FREQ)) + PHASE_OFFSET</f>
+        <f t="shared" ref="C67:C130" si="3">$B67 * (360 / (SAMPLE_RATE / FREQ)) + PHASE_OFFSET</f>
         <v>539.13600000000008</v>
       </c>
       <c r="D67" s="11">
-        <f t="shared" ref="D67:D130" si="5">(SIN($C67 * (PI()/180)) * AMPLITUDE) + 511</f>
+        <f t="shared" ref="D67:D130" si="4">(SIN($C67 * (PI()/180)) * AMPLITUDE) + 511</f>
         <v>518.70540642361414</v>
       </c>
       <c r="E67" s="4">
         <f t="shared" si="2"/>
         <v>7.7054064236141357</v>
       </c>
-      <c r="J67" s="14" t="str">
-        <f t="shared" si="3"/>
-        <v>519,</v>
-      </c>
-    </row>
-    <row r="68" spans="2:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="68" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B68" s="2">
         <v>65</v>
       </c>
       <c r="C68" s="7">
+        <f t="shared" si="3"/>
+        <v>547.56000000000006</v>
+      </c>
+      <c r="D68" s="11">
         <f t="shared" si="4"/>
-        <v>547.56000000000006</v>
-      </c>
-      <c r="D68" s="11">
-        <f t="shared" si="5"/>
         <v>443.77061250384349</v>
       </c>
       <c r="E68" s="4">
-        <f t="shared" ref="E68:E131" si="6">IF($D68 &lt; 511, 511 - $D68, $D68 - 511)</f>
+        <f t="shared" ref="E68:E131" si="5">IF($D68 &lt; 511, 511 - $D68, $D68 - 511)</f>
         <v>67.229387496156505</v>
       </c>
-      <c r="J68" s="14" t="str">
-        <f t="shared" ref="J68:J131" si="7">CONCATENATE(ROUND($D68, 0), ",")</f>
-        <v>444,</v>
-      </c>
-    </row>
-    <row r="69" spans="2:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="69" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B69" s="2">
         <v>66</v>
       </c>
       <c r="C69" s="7">
+        <f t="shared" si="3"/>
+        <v>555.98400000000004</v>
+      </c>
+      <c r="D69" s="11">
         <f t="shared" si="4"/>
-        <v>555.98400000000004</v>
-      </c>
-      <c r="D69" s="11">
+        <v>370.28648690413888</v>
+      </c>
+      <c r="E69" s="4">
         <f t="shared" si="5"/>
-        <v>370.28648690413888</v>
-      </c>
-      <c r="E69" s="4">
-        <f t="shared" si="6"/>
         <v>140.71351309586112</v>
       </c>
-      <c r="J69" s="14" t="str">
-        <f t="shared" si="7"/>
-        <v>370,</v>
-      </c>
-    </row>
-    <row r="70" spans="2:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="70" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B70" s="2">
         <v>67</v>
       </c>
       <c r="C70" s="7">
+        <f t="shared" si="3"/>
+        <v>564.40800000000013</v>
+      </c>
+      <c r="D70" s="11">
         <f t="shared" si="4"/>
-        <v>564.40800000000013</v>
-      </c>
-      <c r="D70" s="11">
+        <v>299.83866199459169</v>
+      </c>
+      <c r="E70" s="4">
         <f t="shared" si="5"/>
-        <v>299.83866199459169</v>
-      </c>
-      <c r="E70" s="4">
-        <f t="shared" si="6"/>
         <v>211.16133800540831</v>
       </c>
-      <c r="J70" s="14" t="str">
-        <f t="shared" si="7"/>
-        <v>300,</v>
-      </c>
-    </row>
-    <row r="71" spans="2:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="71" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B71" s="2">
         <v>68</v>
       </c>
       <c r="C71" s="7">
+        <f t="shared" si="3"/>
+        <v>572.83200000000011</v>
+      </c>
+      <c r="D71" s="11">
         <f t="shared" si="4"/>
-        <v>572.83200000000011</v>
-      </c>
-      <c r="D71" s="11">
+        <v>233.94725318336191</v>
+      </c>
+      <c r="E71" s="4">
         <f t="shared" si="5"/>
-        <v>233.94725318336191</v>
-      </c>
-      <c r="E71" s="4">
-        <f t="shared" si="6"/>
         <v>277.05274681663809</v>
       </c>
-      <c r="J71" s="14" t="str">
-        <f t="shared" si="7"/>
-        <v>234,</v>
-      </c>
-    </row>
-    <row r="72" spans="2:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="72" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B72" s="2">
         <v>69</v>
       </c>
       <c r="C72" s="7">
+        <f t="shared" si="3"/>
+        <v>581.25600000000009</v>
+      </c>
+      <c r="D72" s="11">
         <f t="shared" si="4"/>
-        <v>581.25600000000009</v>
-      </c>
-      <c r="D72" s="11">
+        <v>174.03405803378945</v>
+      </c>
+      <c r="E72" s="4">
         <f t="shared" si="5"/>
-        <v>174.03405803378945</v>
-      </c>
-      <c r="E72" s="4">
-        <f t="shared" si="6"/>
         <v>336.96594196621055</v>
       </c>
-      <c r="J72" s="14" t="str">
-        <f t="shared" si="7"/>
-        <v>174,</v>
-      </c>
-    </row>
-    <row r="73" spans="2:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="73" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B73" s="2">
         <v>70</v>
       </c>
       <c r="C73" s="7">
+        <f t="shared" si="3"/>
+        <v>589.68000000000006</v>
+      </c>
+      <c r="D73" s="11">
         <f t="shared" si="4"/>
-        <v>589.68000000000006</v>
-      </c>
-      <c r="D73" s="11">
+        <v>121.3918768731499</v>
+      </c>
+      <c r="E73" s="4">
         <f t="shared" si="5"/>
-        <v>121.3918768731499</v>
-      </c>
-      <c r="E73" s="4">
-        <f t="shared" si="6"/>
         <v>389.6081231268501</v>
       </c>
-      <c r="J73" s="14" t="str">
-        <f t="shared" si="7"/>
-        <v>121,</v>
-      </c>
-    </row>
-    <row r="74" spans="2:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="74" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B74" s="2">
         <v>71</v>
       </c>
       <c r="C74" s="7">
+        <f t="shared" si="3"/>
+        <v>598.10400000000004</v>
+      </c>
+      <c r="D74" s="11">
         <f t="shared" si="4"/>
-        <v>598.10400000000004</v>
-      </c>
-      <c r="D74" s="11">
+        <v>77.156616889549753</v>
+      </c>
+      <c r="E74" s="4">
         <f t="shared" si="5"/>
-        <v>77.156616889549753</v>
-      </c>
-      <c r="E74" s="4">
-        <f t="shared" si="6"/>
         <v>433.84338311045025</v>
       </c>
-      <c r="J74" s="14" t="str">
-        <f t="shared" si="7"/>
-        <v>77,</v>
-      </c>
-    </row>
-    <row r="75" spans="2:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="75" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B75" s="2">
         <v>72</v>
       </c>
       <c r="C75" s="7">
+        <f t="shared" si="3"/>
+        <v>606.52800000000013</v>
+      </c>
+      <c r="D75" s="11">
         <f t="shared" si="4"/>
-        <v>606.52800000000013</v>
-      </c>
-      <c r="D75" s="11">
+        <v>42.282781651712469</v>
+      </c>
+      <c r="E75" s="4">
         <f t="shared" si="5"/>
-        <v>42.282781651712469</v>
-      </c>
-      <c r="E75" s="4">
-        <f t="shared" si="6"/>
         <v>468.71721834828753</v>
       </c>
-      <c r="J75" s="14" t="str">
-        <f t="shared" si="7"/>
-        <v>42,</v>
-      </c>
-    </row>
-    <row r="76" spans="2:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="76" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B76" s="2">
         <v>73</v>
       </c>
       <c r="C76" s="7">
+        <f t="shared" si="3"/>
+        <v>614.95200000000011</v>
+      </c>
+      <c r="D76" s="11">
         <f t="shared" si="4"/>
-        <v>614.95200000000011</v>
-      </c>
-      <c r="D76" s="11">
+        <v>17.522874936080598</v>
+      </c>
+      <c r="E76" s="4">
         <f t="shared" si="5"/>
-        <v>17.522874936080598</v>
-      </c>
-      <c r="E76" s="4">
-        <f t="shared" si="6"/>
         <v>493.4771250639194</v>
       </c>
-      <c r="J76" s="14" t="str">
-        <f t="shared" si="7"/>
-        <v>18,</v>
-      </c>
-    </row>
-    <row r="77" spans="2:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="77" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B77" s="2">
         <v>74</v>
       </c>
       <c r="C77" s="7">
+        <f t="shared" si="3"/>
+        <v>623.37600000000009</v>
+      </c>
+      <c r="D77" s="11">
         <f t="shared" si="4"/>
-        <v>623.37600000000009</v>
-      </c>
-      <c r="D77" s="11">
+        <v>3.4111632831939005</v>
+      </c>
+      <c r="E77" s="4">
         <f t="shared" si="5"/>
-        <v>3.4111632831939005</v>
-      </c>
-      <c r="E77" s="4">
-        <f t="shared" si="6"/>
         <v>507.5888367168061</v>
       </c>
-      <c r="J77" s="14" t="str">
-        <f t="shared" si="7"/>
-        <v>3,</v>
-      </c>
-    </row>
-    <row r="78" spans="2:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="78" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B78" s="2">
         <v>75</v>
       </c>
       <c r="C78" s="7">
+        <f t="shared" si="3"/>
+        <v>631.80000000000007</v>
+      </c>
+      <c r="D78" s="11">
         <f t="shared" si="4"/>
-        <v>631.80000000000007</v>
-      </c>
-      <c r="D78" s="11">
+        <v>0.25214765311119436</v>
+      </c>
+      <c r="E78" s="4">
         <f t="shared" si="5"/>
-        <v>0.25214765311119436</v>
-      </c>
-      <c r="E78" s="4">
-        <f t="shared" si="6"/>
         <v>510.74785234688881</v>
       </c>
-      <c r="J78" s="14" t="str">
-        <f t="shared" si="7"/>
-        <v>0,</v>
-      </c>
-    </row>
-    <row r="79" spans="2:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="79" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B79" s="2">
         <v>76</v>
       </c>
       <c r="C79" s="7">
+        <f t="shared" si="3"/>
+        <v>640.22400000000005</v>
+      </c>
+      <c r="D79" s="11">
         <f t="shared" si="4"/>
-        <v>640.22400000000005</v>
-      </c>
-      <c r="D79" s="11">
+        <v>8.1139929372264419</v>
+      </c>
+      <c r="E79" s="4">
         <f t="shared" si="5"/>
-        <v>8.1139929372264419</v>
-      </c>
-      <c r="E79" s="4">
-        <f t="shared" si="6"/>
         <v>502.88600706277356</v>
       </c>
-      <c r="J79" s="14" t="str">
-        <f t="shared" si="7"/>
-        <v>8,</v>
-      </c>
-    </row>
-    <row r="80" spans="2:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="80" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B80" s="2">
         <v>77</v>
       </c>
       <c r="C80" s="7">
+        <f t="shared" si="3"/>
+        <v>648.64800000000014</v>
+      </c>
+      <c r="D80" s="11">
         <f t="shared" si="4"/>
-        <v>648.64800000000014</v>
-      </c>
-      <c r="D80" s="11">
+        <v>26.827057103748814</v>
+      </c>
+      <c r="E80" s="4">
         <f t="shared" si="5"/>
-        <v>26.827057103748814</v>
-      </c>
-      <c r="E80" s="4">
-        <f t="shared" si="6"/>
         <v>484.17294289625119</v>
       </c>
-      <c r="J80" s="14" t="str">
-        <f t="shared" si="7"/>
-        <v>27,</v>
-      </c>
-    </row>
-    <row r="81" spans="2:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="81" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B81" s="2">
         <v>78</v>
       </c>
       <c r="C81" s="7">
+        <f t="shared" si="3"/>
+        <v>657.07200000000012</v>
+      </c>
+      <c r="D81" s="11">
         <f t="shared" si="4"/>
-        <v>657.07200000000012</v>
-      </c>
-      <c r="D81" s="11">
+        <v>55.987551714782171</v>
+      </c>
+      <c r="E81" s="4">
         <f t="shared" si="5"/>
-        <v>55.987551714782171</v>
-      </c>
-      <c r="E81" s="4">
-        <f t="shared" si="6"/>
         <v>455.01244828521783</v>
       </c>
-      <c r="J81" s="14" t="str">
-        <f t="shared" si="7"/>
-        <v>56,</v>
-      </c>
-    </row>
-    <row r="82" spans="2:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="82" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B82" s="2">
         <v>79</v>
       </c>
       <c r="C82" s="7">
+        <f t="shared" si="3"/>
+        <v>665.49600000000009</v>
+      </c>
+      <c r="D82" s="11">
         <f t="shared" si="4"/>
-        <v>665.49600000000009</v>
-      </c>
-      <c r="D82" s="11">
+        <v>94.966254828773799</v>
+      </c>
+      <c r="E82" s="4">
         <f t="shared" si="5"/>
-        <v>94.966254828773799</v>
-      </c>
-      <c r="E82" s="4">
-        <f t="shared" si="6"/>
         <v>416.0337451712262</v>
       </c>
-      <c r="J82" s="14" t="str">
-        <f t="shared" si="7"/>
-        <v>95,</v>
-      </c>
-    </row>
-    <row r="83" spans="2:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="83" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B83" s="2">
         <v>80</v>
       </c>
       <c r="C83" s="7">
+        <f t="shared" si="3"/>
+        <v>673.92000000000007</v>
+      </c>
+      <c r="D83" s="11">
         <f t="shared" si="4"/>
-        <v>673.92000000000007</v>
-      </c>
-      <c r="D83" s="11">
+        <v>142.92208828228013</v>
+      </c>
+      <c r="E83" s="4">
         <f t="shared" si="5"/>
-        <v>142.92208828228013</v>
-      </c>
-      <c r="E83" s="4">
-        <f t="shared" si="6"/>
         <v>368.07791171771987</v>
       </c>
-      <c r="J83" s="14" t="str">
-        <f t="shared" si="7"/>
-        <v>143,</v>
-      </c>
-    </row>
-    <row r="84" spans="2:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="84" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B84" s="2">
         <v>81</v>
       </c>
       <c r="C84" s="7">
+        <f t="shared" si="3"/>
+        <v>682.34400000000005</v>
+      </c>
+      <c r="D84" s="11">
         <f t="shared" si="4"/>
-        <v>682.34400000000005</v>
-      </c>
-      <c r="D84" s="11">
+        <v>198.82026638195447</v>
+      </c>
+      <c r="E84" s="4">
         <f t="shared" si="5"/>
-        <v>198.82026638195447</v>
-      </c>
-      <c r="E84" s="4">
-        <f t="shared" si="6"/>
         <v>312.17973361804553</v>
       </c>
-      <c r="J84" s="14" t="str">
-        <f t="shared" si="7"/>
-        <v>199,</v>
-      </c>
-    </row>
-    <row r="85" spans="2:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="85" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B85" s="2">
         <v>82</v>
       </c>
       <c r="C85" s="7">
+        <f t="shared" si="3"/>
+        <v>690.76800000000014</v>
+      </c>
+      <c r="D85" s="11">
         <f t="shared" si="4"/>
-        <v>690.76800000000014</v>
-      </c>
-      <c r="D85" s="11">
+        <v>261.45462439629239</v>
+      </c>
+      <c r="E85" s="4">
         <f t="shared" si="5"/>
-        <v>261.45462439629239</v>
-      </c>
-      <c r="E85" s="4">
-        <f t="shared" si="6"/>
         <v>249.54537560370761</v>
       </c>
-      <c r="J85" s="14" t="str">
-        <f t="shared" si="7"/>
-        <v>261,</v>
-      </c>
-    </row>
-    <row r="86" spans="2:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="86" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B86" s="2">
         <v>83</v>
       </c>
       <c r="C86" s="7">
+        <f t="shared" si="3"/>
+        <v>699.19200000000012</v>
+      </c>
+      <c r="D86" s="11">
         <f t="shared" si="4"/>
-        <v>699.19200000000012</v>
-      </c>
-      <c r="D86" s="11">
+        <v>329.47364504537609</v>
+      </c>
+      <c r="E86" s="4">
         <f t="shared" si="5"/>
-        <v>329.47364504537609</v>
-      </c>
-      <c r="E86" s="4">
-        <f t="shared" si="6"/>
         <v>181.52635495462391</v>
       </c>
-      <c r="J86" s="14" t="str">
-        <f t="shared" si="7"/>
-        <v>329,</v>
-      </c>
-    </row>
-    <row r="87" spans="2:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="87" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B87" s="2">
         <v>84</v>
       </c>
       <c r="C87" s="7">
+        <f t="shared" si="3"/>
+        <v>707.6160000000001</v>
+      </c>
+      <c r="D87" s="11">
         <f t="shared" si="4"/>
-        <v>707.6160000000001</v>
-      </c>
-      <c r="D87" s="11">
+        <v>401.40962139192192</v>
+      </c>
+      <c r="E87" s="4">
         <f t="shared" si="5"/>
-        <v>401.40962139192192</v>
-      </c>
-      <c r="E87" s="4">
-        <f t="shared" si="6"/>
         <v>109.59037860807808</v>
       </c>
-      <c r="J87" s="14" t="str">
-        <f t="shared" si="7"/>
-        <v>401,</v>
-      </c>
-    </row>
-    <row r="88" spans="2:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="88" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B88" s="2">
         <v>85</v>
       </c>
       <c r="C88" s="7">
+        <f t="shared" si="3"/>
+        <v>716.04000000000008</v>
+      </c>
+      <c r="D88" s="11">
         <f t="shared" si="4"/>
-        <v>716.04000000000008</v>
-      </c>
-      <c r="D88" s="11">
+        <v>475.71032685993879</v>
+      </c>
+      <c r="E88" s="4">
         <f t="shared" si="5"/>
-        <v>475.71032685993879</v>
-      </c>
-      <c r="E88" s="4">
-        <f t="shared" si="6"/>
         <v>35.289673140061211</v>
       </c>
-      <c r="J88" s="14" t="str">
-        <f t="shared" si="7"/>
-        <v>476,</v>
-      </c>
-    </row>
-    <row r="89" spans="2:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="89" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B89" s="2">
         <v>86</v>
       </c>
       <c r="C89" s="7">
+        <f t="shared" si="3"/>
+        <v>724.46400000000006</v>
+      </c>
+      <c r="D89" s="11">
         <f t="shared" si="4"/>
-        <v>724.46400000000006</v>
-      </c>
-      <c r="D89" s="11">
+        <v>550.77250900886088</v>
+      </c>
+      <c r="E89" s="4">
         <f t="shared" si="5"/>
-        <v>550.77250900886088</v>
-      </c>
-      <c r="E89" s="4">
-        <f t="shared" si="6"/>
         <v>39.772509008860879</v>
       </c>
-      <c r="J89" s="14" t="str">
-        <f t="shared" si="7"/>
-        <v>551,</v>
-      </c>
-    </row>
-    <row r="90" spans="2:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="90" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B90" s="2">
         <v>87</v>
       </c>
       <c r="C90" s="7">
+        <f t="shared" si="3"/>
+        <v>732.88800000000015</v>
+      </c>
+      <c r="D90" s="11">
         <f t="shared" si="4"/>
-        <v>732.88800000000015</v>
-      </c>
-      <c r="D90" s="11">
+        <v>624.97648433815402</v>
+      </c>
+      <c r="E90" s="4">
         <f t="shared" si="5"/>
-        <v>624.97648433815402</v>
-      </c>
-      <c r="E90" s="4">
-        <f t="shared" si="6"/>
         <v>113.97648433815402</v>
       </c>
-      <c r="J90" s="14" t="str">
-        <f t="shared" si="7"/>
-        <v>625,</v>
-      </c>
-    </row>
-    <row r="91" spans="2:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="91" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B91" s="2">
         <v>88</v>
       </c>
       <c r="C91" s="7">
+        <f t="shared" si="3"/>
+        <v>741.31200000000013</v>
+      </c>
+      <c r="D91" s="11">
         <f t="shared" si="4"/>
-        <v>741.31200000000013</v>
-      </c>
-      <c r="D91" s="11">
+        <v>696.72108763952963</v>
+      </c>
+      <c r="E91" s="4">
         <f t="shared" si="5"/>
-        <v>696.72108763952963</v>
-      </c>
-      <c r="E91" s="4">
-        <f t="shared" si="6"/>
         <v>185.72108763952963</v>
       </c>
-      <c r="J91" s="14" t="str">
-        <f t="shared" si="7"/>
-        <v>697,</v>
-      </c>
-    </row>
-    <row r="92" spans="2:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="92" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B92" s="2">
         <v>89</v>
       </c>
       <c r="C92" s="7">
+        <f t="shared" si="3"/>
+        <v>749.7360000000001</v>
+      </c>
+      <c r="D92" s="11">
         <f t="shared" si="4"/>
-        <v>749.7360000000001</v>
-      </c>
-      <c r="D92" s="11">
+        <v>764.45822176349543</v>
+      </c>
+      <c r="E92" s="4">
         <f t="shared" si="5"/>
-        <v>764.45822176349543</v>
-      </c>
-      <c r="E92" s="4">
-        <f t="shared" si="6"/>
         <v>253.45822176349543</v>
       </c>
-      <c r="J92" s="14" t="str">
-        <f t="shared" si="7"/>
-        <v>764,</v>
-      </c>
-    </row>
-    <row r="93" spans="2:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="93" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B93" s="2">
         <v>90</v>
       </c>
       <c r="C93" s="7">
+        <f t="shared" si="3"/>
+        <v>758.16000000000008</v>
+      </c>
+      <c r="D93" s="11">
         <f t="shared" si="4"/>
-        <v>758.16000000000008</v>
-      </c>
-      <c r="D93" s="11">
+        <v>826.72626228916113</v>
+      </c>
+      <c r="E93" s="4">
         <f t="shared" si="5"/>
-        <v>826.72626228916113</v>
-      </c>
-      <c r="E93" s="4">
-        <f t="shared" si="6"/>
         <v>315.72626228916113</v>
       </c>
-      <c r="J93" s="14" t="str">
-        <f t="shared" si="7"/>
-        <v>827,</v>
-      </c>
-    </row>
-    <row r="94" spans="2:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="94" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B94" s="2">
         <v>91</v>
       </c>
       <c r="C94" s="7">
+        <f t="shared" si="3"/>
+        <v>766.58400000000006</v>
+      </c>
+      <c r="D94" s="11">
         <f t="shared" si="4"/>
-        <v>766.58400000000006</v>
-      </c>
-      <c r="D94" s="11">
+        <v>882.18159629504532</v>
+      </c>
+      <c r="E94" s="4">
         <f t="shared" si="5"/>
-        <v>882.18159629504532</v>
-      </c>
-      <c r="E94" s="4">
-        <f t="shared" si="6"/>
         <v>371.18159629504532</v>
       </c>
-      <c r="J94" s="14" t="str">
-        <f t="shared" si="7"/>
-        <v>882,</v>
-      </c>
-    </row>
-    <row r="95" spans="2:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="95" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B95" s="2">
         <v>92</v>
       </c>
       <c r="C95" s="7">
+        <f t="shared" si="3"/>
+        <v>775.00800000000015</v>
+      </c>
+      <c r="D95" s="11">
         <f t="shared" si="4"/>
-        <v>775.00800000000015</v>
-      </c>
-      <c r="D95" s="11">
+        <v>929.62761469073018</v>
+      </c>
+      <c r="E95" s="4">
         <f t="shared" si="5"/>
-        <v>929.62761469073018</v>
-      </c>
-      <c r="E95" s="4">
-        <f t="shared" si="6"/>
         <v>418.62761469073018</v>
       </c>
-      <c r="J95" s="14" t="str">
-        <f t="shared" si="7"/>
-        <v>930,</v>
-      </c>
-    </row>
-    <row r="96" spans="2:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="96" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B96" s="2">
         <v>93</v>
       </c>
       <c r="C96" s="7">
+        <f t="shared" si="3"/>
+        <v>783.43200000000013</v>
+      </c>
+      <c r="D96" s="11">
         <f t="shared" si="4"/>
-        <v>783.43200000000013</v>
-      </c>
-      <c r="D96" s="11">
+        <v>968.04053251604671</v>
+      </c>
+      <c r="E96" s="4">
         <f t="shared" si="5"/>
-        <v>968.04053251604671</v>
-      </c>
-      <c r="E96" s="4">
-        <f t="shared" si="6"/>
         <v>457.04053251604671</v>
       </c>
-      <c r="J96" s="14" t="str">
-        <f t="shared" si="7"/>
-        <v>968,</v>
-      </c>
-    </row>
-    <row r="97" spans="2:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="97" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B97" s="2">
         <v>94</v>
       </c>
       <c r="C97" s="7">
+        <f t="shared" si="3"/>
+        <v>791.85600000000011</v>
+      </c>
+      <c r="D97" s="11">
         <f t="shared" si="4"/>
-        <v>791.85600000000011</v>
-      </c>
-      <c r="D97" s="11">
+        <v>996.59148006020496</v>
+      </c>
+      <c r="E97" s="4">
         <f t="shared" si="5"/>
-        <v>996.59148006020496</v>
-      </c>
-      <c r="E97" s="4">
-        <f t="shared" si="6"/>
         <v>485.59148006020496</v>
       </c>
-      <c r="J97" s="14" t="str">
-        <f t="shared" si="7"/>
-        <v>997,</v>
-      </c>
-    </row>
-    <row r="98" spans="2:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="98" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B98" s="2">
         <v>95</v>
       </c>
       <c r="C98" s="7">
+        <f t="shared" si="3"/>
+        <v>800.28000000000009</v>
+      </c>
+      <c r="D98" s="11">
         <f t="shared" si="4"/>
-        <v>800.28000000000009</v>
-      </c>
-      <c r="D98" s="11">
+        <v>1014.6643881211381</v>
+      </c>
+      <c r="E98" s="4">
         <f t="shared" si="5"/>
-        <v>1014.6643881211381</v>
-      </c>
-      <c r="E98" s="4">
-        <f t="shared" si="6"/>
         <v>503.66438812113813</v>
       </c>
-      <c r="J98" s="14" t="str">
-        <f t="shared" si="7"/>
-        <v>1015,</v>
-      </c>
-    </row>
-    <row r="99" spans="2:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="99" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B99" s="2">
         <v>96</v>
       </c>
       <c r="C99" s="7">
+        <f t="shared" si="3"/>
+        <v>808.70400000000018</v>
+      </c>
+      <c r="D99" s="11">
         <f t="shared" si="4"/>
-        <v>808.70400000000018</v>
-      </c>
-      <c r="D99" s="11">
+        <v>1021.8692814789028</v>
+      </c>
+      <c r="E99" s="4">
         <f t="shared" si="5"/>
-        <v>1021.8692814789028</v>
-      </c>
-      <c r="E99" s="4">
-        <f t="shared" si="6"/>
         <v>510.86928147890285</v>
       </c>
-      <c r="J99" s="14" t="str">
-        <f t="shared" si="7"/>
-        <v>1022,</v>
-      </c>
-    </row>
-    <row r="100" spans="2:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="100" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B100" s="2">
         <v>97</v>
       </c>
       <c r="C100" s="7">
+        <f t="shared" si="3"/>
+        <v>817.12800000000016</v>
+      </c>
+      <c r="D100" s="11">
         <f t="shared" si="4"/>
-        <v>817.12800000000016</v>
-      </c>
-      <c r="D100" s="11">
+        <v>1018.0506937380308</v>
+      </c>
+      <c r="E100" s="4">
         <f t="shared" si="5"/>
-        <v>1018.0506937380308</v>
-      </c>
-      <c r="E100" s="4">
-        <f t="shared" si="6"/>
         <v>507.05069373803076</v>
       </c>
-      <c r="J100" s="14" t="str">
-        <f t="shared" si="7"/>
-        <v>1018,</v>
-      </c>
-    </row>
-    <row r="101" spans="2:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="101" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B101" s="2">
         <v>98</v>
       </c>
       <c r="C101" s="7">
+        <f t="shared" si="3"/>
+        <v>825.55200000000013</v>
+      </c>
+      <c r="D101" s="11">
         <f t="shared" si="4"/>
-        <v>825.55200000000013</v>
-      </c>
-      <c r="D101" s="11">
+        <v>1003.2910219642898</v>
+      </c>
+      <c r="E101" s="4">
         <f t="shared" si="5"/>
-        <v>1003.2910219642898</v>
-      </c>
-      <c r="E101" s="4">
-        <f t="shared" si="6"/>
         <v>492.29102196428983</v>
       </c>
-      <c r="J101" s="14" t="str">
-        <f t="shared" si="7"/>
-        <v>1003,</v>
-      </c>
-    </row>
-    <row r="102" spans="2:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="102" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B102" s="2">
         <v>99</v>
       </c>
       <c r="C102" s="7">
+        <f t="shared" si="3"/>
+        <v>833.97600000000011</v>
+      </c>
+      <c r="D102" s="11">
         <f t="shared" si="4"/>
-        <v>833.97600000000011</v>
-      </c>
-      <c r="D102" s="11">
+        <v>977.90874872987388</v>
+      </c>
+      <c r="E102" s="4">
         <f t="shared" si="5"/>
-        <v>977.90874872987388</v>
-      </c>
-      <c r="E102" s="4">
-        <f t="shared" si="6"/>
         <v>466.90874872987388</v>
       </c>
-      <c r="J102" s="14" t="str">
-        <f t="shared" si="7"/>
-        <v>978,</v>
-      </c>
-    </row>
-    <row r="103" spans="2:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="103" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B103" s="2">
         <v>100</v>
       </c>
       <c r="C103" s="7">
+        <f t="shared" si="3"/>
+        <v>842.40000000000009</v>
+      </c>
+      <c r="D103" s="11">
         <f t="shared" si="4"/>
-        <v>842.40000000000009</v>
-      </c>
-      <c r="D103" s="11">
+        <v>942.45156993152932</v>
+      </c>
+      <c r="E103" s="4">
         <f t="shared" si="5"/>
-        <v>942.45156993152932</v>
-      </c>
-      <c r="E103" s="4">
-        <f t="shared" si="6"/>
         <v>431.45156993152932</v>
       </c>
-      <c r="J103" s="14" t="str">
-        <f t="shared" si="7"/>
-        <v>942,</v>
-      </c>
-    </row>
-    <row r="104" spans="2:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="104" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B104" s="2">
         <v>101</v>
       </c>
       <c r="C104" s="7">
+        <f t="shared" si="3"/>
+        <v>850.82400000000018</v>
+      </c>
+      <c r="D104" s="11">
         <f t="shared" si="4"/>
-        <v>850.82400000000018</v>
-      </c>
-      <c r="D104" s="11">
+        <v>897.6845766688084</v>
+      </c>
+      <c r="E104" s="4">
         <f t="shared" si="5"/>
-        <v>897.6845766688084</v>
-      </c>
-      <c r="E104" s="4">
-        <f t="shared" si="6"/>
         <v>386.6845766688084</v>
       </c>
-      <c r="J104" s="14" t="str">
-        <f t="shared" si="7"/>
-        <v>898,</v>
-      </c>
-    </row>
-    <row r="105" spans="2:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="105" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B105" s="2">
         <v>102</v>
       </c>
       <c r="C105" s="7">
+        <f t="shared" si="3"/>
+        <v>859.24800000000016</v>
+      </c>
+      <c r="D105" s="11">
         <f t="shared" si="4"/>
-        <v>859.24800000000016</v>
-      </c>
-      <c r="D105" s="11">
+        <v>844.57374619257826</v>
+      </c>
+      <c r="E105" s="4">
         <f t="shared" si="5"/>
-        <v>844.57374619257826</v>
-      </c>
-      <c r="E105" s="4">
-        <f t="shared" si="6"/>
         <v>333.57374619257826</v>
       </c>
-      <c r="J105" s="14" t="str">
-        <f t="shared" si="7"/>
-        <v>845,</v>
-      </c>
-    </row>
-    <row r="106" spans="2:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="106" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B106" s="2">
         <v>103</v>
       </c>
       <c r="C106" s="7">
+        <f t="shared" si="3"/>
+        <v>867.67200000000014</v>
+      </c>
+      <c r="D106" s="11">
         <f t="shared" si="4"/>
-        <v>867.67200000000014</v>
-      </c>
-      <c r="D106" s="11">
+        <v>784.26509815426891</v>
+      </c>
+      <c r="E106" s="4">
         <f t="shared" si="5"/>
-        <v>784.26509815426891</v>
-      </c>
-      <c r="E106" s="4">
-        <f t="shared" si="6"/>
         <v>273.26509815426891</v>
       </c>
-      <c r="J106" s="14" t="str">
-        <f t="shared" si="7"/>
-        <v>784,</v>
-      </c>
-    </row>
-    <row r="107" spans="2:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="107" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B107" s="2">
         <v>104</v>
       </c>
       <c r="C107" s="7">
+        <f t="shared" si="3"/>
+        <v>876.09600000000012</v>
+      </c>
+      <c r="D107" s="11">
         <f t="shared" si="4"/>
-        <v>876.09600000000012</v>
-      </c>
-      <c r="D107" s="11">
+        <v>718.05996592004146</v>
+      </c>
+      <c r="E107" s="4">
         <f t="shared" si="5"/>
-        <v>718.05996592004146</v>
-      </c>
-      <c r="E107" s="4">
-        <f t="shared" si="6"/>
         <v>207.05996592004146</v>
       </c>
-      <c r="J107" s="14" t="str">
-        <f t="shared" si="7"/>
-        <v>718,</v>
-      </c>
-    </row>
-    <row r="108" spans="2:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="108" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B108" s="2">
         <v>105</v>
       </c>
       <c r="C108" s="7">
+        <f t="shared" si="3"/>
+        <v>884.5200000000001</v>
+      </c>
+      <c r="D108" s="11">
         <f t="shared" si="4"/>
-        <v>884.5200000000001</v>
-      </c>
-      <c r="D108" s="11">
+        <v>647.38691654271088</v>
+      </c>
+      <c r="E108" s="4">
         <f t="shared" si="5"/>
-        <v>647.38691654271088</v>
-      </c>
-      <c r="E108" s="4">
-        <f t="shared" si="6"/>
         <v>136.38691654271088</v>
       </c>
-      <c r="J108" s="14" t="str">
-        <f t="shared" si="7"/>
-        <v>647,</v>
-      </c>
-    </row>
-    <row r="109" spans="2:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="109" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B109" s="2">
         <v>106</v>
       </c>
       <c r="C109" s="7">
+        <f t="shared" si="3"/>
+        <v>892.94400000000019</v>
+      </c>
+      <c r="D109" s="11">
         <f t="shared" si="4"/>
-        <v>892.94400000000019</v>
-      </c>
-      <c r="D109" s="11">
+        <v>573.77092529919958</v>
+      </c>
+      <c r="E109" s="4">
         <f t="shared" si="5"/>
-        <v>573.77092529919958</v>
-      </c>
-      <c r="E109" s="4">
-        <f t="shared" si="6"/>
         <v>62.770925299199575</v>
       </c>
-      <c r="J109" s="14" t="str">
-        <f t="shared" si="7"/>
-        <v>574,</v>
-      </c>
-    </row>
-    <row r="110" spans="2:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="110" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B110" s="2">
         <v>107</v>
       </c>
       <c r="C110" s="7">
+        <f t="shared" si="3"/>
+        <v>901.36800000000017</v>
+      </c>
+      <c r="D110" s="11">
         <f t="shared" si="4"/>
-        <v>901.36800000000017</v>
-      </c>
-      <c r="D110" s="11">
+        <v>498.80046994193975</v>
+      </c>
+      <c r="E110" s="4">
         <f t="shared" si="5"/>
-        <v>498.80046994193975</v>
-      </c>
-      <c r="E110" s="4">
-        <f t="shared" si="6"/>
         <v>12.199530058060247</v>
       </c>
-      <c r="J110" s="14" t="str">
-        <f t="shared" si="7"/>
-        <v>499,</v>
-      </c>
-    </row>
-    <row r="111" spans="2:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="111" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B111" s="2">
         <v>108</v>
       </c>
       <c r="C111" s="7">
+        <f t="shared" si="3"/>
+        <v>909.79200000000014</v>
+      </c>
+      <c r="D111" s="11">
         <f t="shared" si="4"/>
-        <v>909.79200000000014</v>
-      </c>
-      <c r="D111" s="11">
+        <v>424.09325470085685</v>
+      </c>
+      <c r="E111" s="4">
         <f t="shared" si="5"/>
-        <v>424.09325470085685</v>
-      </c>
-      <c r="E111" s="4">
-        <f t="shared" si="6"/>
         <v>86.906745299143154</v>
       </c>
-      <c r="J111" s="14" t="str">
-        <f t="shared" si="7"/>
-        <v>424,</v>
-      </c>
-    </row>
-    <row r="112" spans="2:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="112" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B112" s="2">
         <v>109</v>
       </c>
       <c r="C112" s="7">
+        <f t="shared" si="3"/>
+        <v>918.21600000000012</v>
+      </c>
+      <c r="D112" s="11">
         <f t="shared" si="4"/>
-        <v>918.21600000000012</v>
-      </c>
-      <c r="D112" s="11">
+        <v>351.2613036396358</v>
+      </c>
+      <c r="E112" s="4">
         <f t="shared" si="5"/>
-        <v>351.2613036396358</v>
-      </c>
-      <c r="E112" s="4">
-        <f t="shared" si="6"/>
         <v>159.7386963603642</v>
       </c>
-      <c r="J112" s="14" t="str">
-        <f t="shared" si="7"/>
-        <v>351,</v>
-      </c>
-    </row>
-    <row r="113" spans="2:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="113" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B113" s="2">
         <v>110</v>
       </c>
       <c r="C113" s="7">
+        <f t="shared" si="3"/>
+        <v>926.6400000000001</v>
+      </c>
+      <c r="D113" s="11">
         <f t="shared" si="4"/>
-        <v>926.6400000000001</v>
-      </c>
-      <c r="D113" s="11">
+        <v>281.8761765779924</v>
+      </c>
+      <c r="E113" s="4">
         <f t="shared" si="5"/>
-        <v>281.8761765779924</v>
-      </c>
-      <c r="E113" s="4">
-        <f t="shared" si="6"/>
         <v>229.1238234220076</v>
       </c>
-      <c r="J113" s="14" t="str">
-        <f t="shared" si="7"/>
-        <v>282,</v>
-      </c>
-    </row>
-    <row r="114" spans="2:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="114" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B114" s="2">
         <v>111</v>
       </c>
       <c r="C114" s="7">
+        <f t="shared" si="3"/>
+        <v>935.06400000000019</v>
+      </c>
+      <c r="D114" s="11">
         <f t="shared" si="4"/>
-        <v>935.06400000000019</v>
-      </c>
-      <c r="D114" s="11">
+        <v>217.43505814694879</v>
+      </c>
+      <c r="E114" s="4">
         <f t="shared" si="5"/>
-        <v>217.43505814694879</v>
-      </c>
-      <c r="E114" s="4">
-        <f t="shared" si="6"/>
         <v>293.56494185305121</v>
       </c>
-      <c r="J114" s="14" t="str">
-        <f t="shared" si="7"/>
-        <v>217,</v>
-      </c>
-    </row>
-    <row r="115" spans="2:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="115" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B115" s="2">
         <v>112</v>
       </c>
       <c r="C115" s="7">
+        <f t="shared" si="3"/>
+        <v>943.48800000000017</v>
+      </c>
+      <c r="D115" s="11">
         <f t="shared" si="4"/>
-        <v>943.48800000000017</v>
-      </c>
-      <c r="D115" s="11">
+        <v>159.32845170373145</v>
+      </c>
+      <c r="E115" s="4">
         <f t="shared" si="5"/>
-        <v>159.32845170373145</v>
-      </c>
-      <c r="E115" s="4">
-        <f t="shared" si="6"/>
         <v>351.67154829626855</v>
       </c>
-      <c r="J115" s="14" t="str">
-        <f t="shared" si="7"/>
-        <v>159,</v>
-      </c>
-    </row>
-    <row r="116" spans="2:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="116" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B116" s="2">
         <v>113</v>
       </c>
       <c r="C116" s="7">
+        <f t="shared" si="3"/>
+        <v>951.91200000000015</v>
+      </c>
+      <c r="D116" s="11">
         <f t="shared" si="4"/>
-        <v>951.91200000000015</v>
-      </c>
-      <c r="D116" s="11">
+        <v>108.81017520344932</v>
+      </c>
+      <c r="E116" s="4">
         <f t="shared" si="5"/>
-        <v>108.81017520344932</v>
-      </c>
-      <c r="E116" s="4">
-        <f t="shared" si="6"/>
         <v>402.18982479655068</v>
       </c>
-      <c r="J116" s="14" t="str">
-        <f t="shared" si="7"/>
-        <v>109,</v>
-      </c>
-    </row>
-    <row r="117" spans="2:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="117" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B117" s="2">
         <v>114</v>
       </c>
       <c r="C117" s="7">
+        <f t="shared" si="3"/>
+        <v>960.33600000000013</v>
+      </c>
+      <c r="D117" s="11">
         <f t="shared" si="4"/>
-        <v>960.33600000000013</v>
-      </c>
-      <c r="D117" s="11">
+        <v>66.970306453334274</v>
+      </c>
+      <c r="E117" s="4">
         <f t="shared" si="5"/>
-        <v>66.970306453334274</v>
-      </c>
-      <c r="E117" s="4">
-        <f t="shared" si="6"/>
         <v>444.02969354666573</v>
       </c>
-      <c r="J117" s="14" t="str">
-        <f t="shared" si="7"/>
-        <v>67,</v>
-      </c>
-    </row>
-    <row r="118" spans="2:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="118" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B118" s="2">
         <v>115</v>
       </c>
       <c r="C118" s="7">
+        <f t="shared" si="3"/>
+        <v>968.7600000000001</v>
+      </c>
+      <c r="D118" s="11">
         <f t="shared" si="4"/>
-        <v>968.7600000000001</v>
-      </c>
-      <c r="D118" s="11">
+        <v>34.711661533853714</v>
+      </c>
+      <c r="E118" s="4">
         <f t="shared" si="5"/>
-        <v>34.711661533853714</v>
-      </c>
-      <c r="E118" s="4">
-        <f t="shared" si="6"/>
         <v>476.28833846614629</v>
       </c>
-      <c r="J118" s="14" t="str">
-        <f t="shared" si="7"/>
-        <v>35,</v>
-      </c>
-    </row>
-    <row r="119" spans="2:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="119" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B119" s="2">
         <v>116</v>
       </c>
       <c r="C119" s="7">
+        <f t="shared" si="3"/>
+        <v>977.1840000000002</v>
+      </c>
+      <c r="D119" s="11">
         <f t="shared" si="4"/>
-        <v>977.1840000000002</v>
-      </c>
-      <c r="D119" s="11">
+        <v>12.730313932747606</v>
+      </c>
+      <c r="E119" s="4">
         <f t="shared" si="5"/>
-        <v>12.730313932747606</v>
-      </c>
-      <c r="E119" s="4">
-        <f t="shared" si="6"/>
         <v>498.26968606725239</v>
       </c>
-      <c r="J119" s="14" t="str">
-        <f t="shared" si="7"/>
-        <v>13,</v>
-      </c>
-    </row>
-    <row r="120" spans="2:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="120" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B120" s="2">
         <v>117</v>
       </c>
       <c r="C120" s="7">
+        <f t="shared" si="3"/>
+        <v>985.60800000000017</v>
+      </c>
+      <c r="D120" s="11">
         <f t="shared" si="4"/>
-        <v>985.60800000000017</v>
-      </c>
-      <c r="D120" s="11">
+        <v>1.5005747479576144</v>
+      </c>
+      <c r="E120" s="4">
         <f t="shared" si="5"/>
-        <v>1.5005747479576144</v>
-      </c>
-      <c r="E120" s="4">
-        <f t="shared" si="6"/>
         <v>509.49942525204239</v>
       </c>
-      <c r="J120" s="14" t="str">
-        <f t="shared" si="7"/>
-        <v>2,</v>
-      </c>
-    </row>
-    <row r="121" spans="2:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="121" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B121" s="2">
         <v>118</v>
       </c>
       <c r="C121" s="7">
+        <f t="shared" si="3"/>
+        <v>994.03200000000015</v>
+      </c>
+      <c r="D121" s="11">
         <f t="shared" si="4"/>
-        <v>994.03200000000015</v>
-      </c>
-      <c r="D121" s="11">
+        <v>1.2647580549905797</v>
+      </c>
+      <c r="E121" s="4">
         <f t="shared" si="5"/>
-        <v>1.2647580549905797</v>
-      </c>
-      <c r="E121" s="4">
-        <f t="shared" si="6"/>
         <v>509.73524194500942</v>
       </c>
-      <c r="J121" s="14" t="str">
-        <f t="shared" si="7"/>
-        <v>1,</v>
-      </c>
-    </row>
-    <row r="122" spans="2:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="122" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B122" s="2">
         <v>119</v>
       </c>
       <c r="C122" s="7">
+        <f t="shared" si="3"/>
+        <v>1002.4560000000001</v>
+      </c>
+      <c r="D122" s="11">
         <f t="shared" si="4"/>
-        <v>1002.4560000000001</v>
-      </c>
-      <c r="D122" s="11">
+        <v>12.027952280478587</v>
+      </c>
+      <c r="E122" s="4">
         <f t="shared" si="5"/>
-        <v>12.027952280478587</v>
-      </c>
-      <c r="E122" s="4">
-        <f t="shared" si="6"/>
         <v>498.97204771952141</v>
       </c>
-      <c r="J122" s="14" t="str">
-        <f t="shared" si="7"/>
-        <v>12,</v>
-      </c>
-    </row>
-    <row r="123" spans="2:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="123" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B123" s="2">
         <v>120</v>
       </c>
       <c r="C123" s="7">
+        <f t="shared" si="3"/>
+        <v>1010.8800000000001</v>
+      </c>
+      <c r="D123" s="11">
         <f t="shared" si="4"/>
-        <v>1010.8800000000001</v>
-      </c>
-      <c r="D123" s="11">
+        <v>33.557910404671816</v>
+      </c>
+      <c r="E123" s="4">
         <f t="shared" si="5"/>
-        <v>33.557910404671816</v>
-      </c>
-      <c r="E123" s="4">
-        <f t="shared" si="6"/>
         <v>477.44208959532818</v>
       </c>
-      <c r="J123" s="14" t="str">
-        <f t="shared" si="7"/>
-        <v>34,</v>
-      </c>
-    </row>
-    <row r="124" spans="2:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="124" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B124" s="2">
         <v>121</v>
       </c>
       <c r="C124" s="7">
+        <f t="shared" si="3"/>
+        <v>1019.3040000000002</v>
+      </c>
+      <c r="D124" s="11">
         <f t="shared" si="4"/>
-        <v>1019.3040000000002</v>
-      </c>
-      <c r="D124" s="11">
+        <v>65.390061362052336</v>
+      </c>
+      <c r="E124" s="4">
         <f t="shared" si="5"/>
-        <v>65.390061362052336</v>
-      </c>
-      <c r="E124" s="4">
-        <f t="shared" si="6"/>
         <v>445.60993863794766</v>
       </c>
-      <c r="J124" s="14" t="str">
-        <f t="shared" si="7"/>
-        <v>65,</v>
-      </c>
-    </row>
-    <row r="125" spans="2:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="125" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B125" s="2">
         <v>122</v>
       </c>
       <c r="C125" s="7">
+        <f t="shared" si="3"/>
+        <v>1027.7280000000001</v>
+      </c>
+      <c r="D125" s="11">
         <f t="shared" si="4"/>
-        <v>1027.7280000000001</v>
-      </c>
-      <c r="D125" s="11">
+        <v>106.83753450463041</v>
+      </c>
+      <c r="E125" s="4">
         <f t="shared" si="5"/>
-        <v>106.83753450463041</v>
-      </c>
-      <c r="E125" s="4">
-        <f t="shared" si="6"/>
         <v>404.16246549536959</v>
       </c>
-      <c r="J125" s="14" t="str">
-        <f t="shared" si="7"/>
-        <v>107,</v>
-      </c>
-    </row>
-    <row r="126" spans="2:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="126" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B126" s="2">
         <v>123</v>
       </c>
       <c r="C126" s="7">
+        <f t="shared" si="3"/>
+        <v>1036.152</v>
+      </c>
+      <c r="D126" s="11">
         <f t="shared" si="4"/>
-        <v>1036.152</v>
-      </c>
-      <c r="D126" s="11">
+        <v>157.00598082114675</v>
+      </c>
+      <c r="E126" s="4">
         <f t="shared" si="5"/>
-        <v>157.00598082114675</v>
-      </c>
-      <c r="E126" s="4">
-        <f t="shared" si="6"/>
         <v>353.99401917885325</v>
       </c>
-      <c r="J126" s="14" t="str">
-        <f t="shared" si="7"/>
-        <v>157,</v>
-      </c>
-    </row>
-    <row r="127" spans="2:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="127" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B127" s="2">
         <v>124</v>
       </c>
       <c r="C127" s="7">
+        <f t="shared" si="3"/>
+        <v>1044.5760000000002</v>
+      </c>
+      <c r="D127" s="11">
         <f t="shared" si="4"/>
-        <v>1044.5760000000002</v>
-      </c>
-      <c r="D127" s="11">
+        <v>214.81287110155432</v>
+      </c>
+      <c r="E127" s="4">
         <f t="shared" si="5"/>
-        <v>214.81287110155432</v>
-      </c>
-      <c r="E127" s="4">
-        <f t="shared" si="6"/>
         <v>296.18712889844568</v>
       </c>
-      <c r="J127" s="14" t="str">
-        <f t="shared" si="7"/>
-        <v>215,</v>
-      </c>
-    </row>
-    <row r="128" spans="2:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="128" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B128" s="2">
         <v>125</v>
       </c>
       <c r="C128" s="7">
+        <f t="shared" si="3"/>
+        <v>1053.0000000000002</v>
+      </c>
+      <c r="D128" s="11">
         <f t="shared" si="4"/>
-        <v>1053.0000000000002</v>
-      </c>
-      <c r="D128" s="11">
+        <v>279.01085463309329</v>
+      </c>
+      <c r="E128" s="4">
         <f t="shared" si="5"/>
-        <v>279.01085463309329</v>
-      </c>
-      <c r="E128" s="4">
-        <f t="shared" si="6"/>
         <v>231.98914536690671</v>
       </c>
-      <c r="J128" s="14" t="str">
-        <f t="shared" si="7"/>
-        <v>279,</v>
-      </c>
-    </row>
-    <row r="129" spans="2:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="129" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B129" s="2">
         <v>126</v>
       </c>
       <c r="C129" s="7">
+        <f t="shared" si="3"/>
+        <v>1061.4240000000002</v>
+      </c>
+      <c r="D129" s="11">
         <f t="shared" si="4"/>
-        <v>1061.4240000000002</v>
-      </c>
-      <c r="D129" s="11">
+        <v>348.21467439662842</v>
+      </c>
+      <c r="E129" s="4">
         <f t="shared" si="5"/>
-        <v>348.21467439662842</v>
-      </c>
-      <c r="E129" s="4">
-        <f t="shared" si="6"/>
         <v>162.78532560337158</v>
       </c>
-      <c r="J129" s="14" t="str">
-        <f t="shared" si="7"/>
-        <v>348,</v>
-      </c>
-    </row>
-    <row r="130" spans="2:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="130" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B130" s="2">
         <v>127</v>
       </c>
       <c r="C130" s="7">
+        <f t="shared" si="3"/>
+        <v>1069.8480000000002</v>
+      </c>
+      <c r="D130" s="11">
         <f t="shared" si="4"/>
-        <v>1069.8480000000002</v>
-      </c>
-      <c r="D130" s="11">
+        <v>420.9310579900544</v>
+      </c>
+      <c r="E130" s="4">
         <f t="shared" si="5"/>
-        <v>420.9310579900544</v>
-      </c>
-      <c r="E130" s="4">
-        <f t="shared" si="6"/>
         <v>90.068942009945602</v>
       </c>
-      <c r="J130" s="14" t="str">
-        <f t="shared" si="7"/>
-        <v>421,</v>
-      </c>
-    </row>
-    <row r="131" spans="2:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="131" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B131" s="2">
         <v>128</v>
       </c>
       <c r="C131" s="7">
-        <f t="shared" ref="C131:C194" si="8">$B131 * (360 / (SAMPLE_RATE / FREQ)) + PHASE_OFFSET</f>
+        <f t="shared" ref="C131:C194" si="6">$B131 * (360 / (SAMPLE_RATE / FREQ)) + PHASE_OFFSET</f>
         <v>1078.2720000000002</v>
       </c>
       <c r="D131" s="11">
-        <f t="shared" ref="D131:D194" si="9">(SIN($C131 * (PI()/180)) * AMPLITUDE) + 511</f>
+        <f t="shared" ref="D131:D194" si="7">(SIN($C131 * (PI()/180)) * AMPLITUDE) + 511</f>
         <v>495.59093929574385</v>
       </c>
       <c r="E131" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>15.409060704256149</v>
       </c>
-      <c r="J131" s="14" t="str">
-        <f t="shared" si="7"/>
-        <v>496,</v>
-      </c>
-    </row>
-    <row r="132" spans="2:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="132" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B132" s="2">
         <v>129</v>
       </c>
       <c r="C132" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>1086.6960000000001</v>
       </c>
       <c r="D132" s="11">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>570.58331561645832</v>
       </c>
       <c r="E132" s="4">
-        <f t="shared" ref="E132:E195" si="10">IF($D132 &lt; 511, 511 - $D132, $D132 - 511)</f>
+        <f t="shared" ref="E132:E195" si="8">IF($D132 &lt; 511, 511 - $D132, $D132 - 511)</f>
         <v>59.583315616458322</v>
       </c>
-      <c r="J132" s="14" t="str">
-        <f t="shared" ref="J132:J195" si="11">CONCATENATE(ROUND($D132, 0), ",")</f>
-        <v>571,</v>
-      </c>
-    </row>
-    <row r="133" spans="2:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="133" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B133" s="2">
         <v>130</v>
       </c>
       <c r="C133" s="7">
+        <f t="shared" si="6"/>
+        <v>1095.1200000000001</v>
+      </c>
+      <c r="D133" s="11">
+        <f t="shared" si="7"/>
+        <v>644.29000971413757</v>
+      </c>
+      <c r="E133" s="4">
         <f t="shared" si="8"/>
-        <v>1095.1200000000001</v>
-      </c>
-      <c r="D133" s="11">
-        <f t="shared" si="9"/>
-        <v>644.29000971413757</v>
-      </c>
-      <c r="E133" s="4">
-        <f t="shared" si="10"/>
         <v>133.29000971413757</v>
       </c>
-      <c r="J133" s="14" t="str">
-        <f t="shared" si="11"/>
-        <v>644,</v>
-      </c>
-    </row>
-    <row r="134" spans="2:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="134" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B134" s="2">
         <v>131</v>
       </c>
       <c r="C134" s="7">
+        <f t="shared" si="6"/>
+        <v>1103.5440000000001</v>
+      </c>
+      <c r="D134" s="11">
+        <f t="shared" si="7"/>
+        <v>715.12058666015241</v>
+      </c>
+      <c r="E134" s="4">
         <f t="shared" si="8"/>
-        <v>1103.5440000000001</v>
-      </c>
-      <c r="D134" s="11">
-        <f t="shared" si="9"/>
-        <v>715.12058666015241</v>
-      </c>
-      <c r="E134" s="4">
-        <f t="shared" si="10"/>
         <v>204.12058666015241</v>
       </c>
-      <c r="J134" s="14" t="str">
-        <f t="shared" si="11"/>
-        <v>715,</v>
-      </c>
-    </row>
-    <row r="135" spans="2:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="135" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B135" s="2">
         <v>132</v>
       </c>
       <c r="C135" s="7">
+        <f t="shared" si="6"/>
+        <v>1111.9680000000001</v>
+      </c>
+      <c r="D135" s="11">
+        <f t="shared" si="7"/>
+        <v>781.54667206504746</v>
+      </c>
+      <c r="E135" s="4">
         <f t="shared" si="8"/>
-        <v>1111.9680000000001</v>
-      </c>
-      <c r="D135" s="11">
-        <f t="shared" si="9"/>
-        <v>781.54667206504746</v>
-      </c>
-      <c r="E135" s="4">
-        <f t="shared" si="10"/>
         <v>270.54667206504746</v>
       </c>
-      <c r="J135" s="14" t="str">
-        <f t="shared" si="11"/>
-        <v>782,</v>
-      </c>
-    </row>
-    <row r="136" spans="2:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="136" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B136" s="2">
         <v>133</v>
       </c>
       <c r="C136" s="7">
+        <f t="shared" si="6"/>
+        <v>1120.3920000000003</v>
+      </c>
+      <c r="D136" s="11">
+        <f t="shared" si="7"/>
+        <v>842.13493117282439</v>
+      </c>
+      <c r="E136" s="4">
         <f t="shared" si="8"/>
-        <v>1120.3920000000003</v>
-      </c>
-      <c r="D136" s="11">
-        <f t="shared" si="9"/>
-        <v>842.13493117282439</v>
-      </c>
-      <c r="E136" s="4">
-        <f t="shared" si="10"/>
         <v>331.13493117282439</v>
       </c>
-      <c r="J136" s="14" t="str">
-        <f t="shared" si="11"/>
-        <v>842,</v>
-      </c>
-    </row>
-    <row r="137" spans="2:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="137" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B137" s="2">
         <v>134</v>
       </c>
       <c r="C137" s="7">
+        <f t="shared" si="6"/>
+        <v>1128.8160000000003</v>
+      </c>
+      <c r="D137" s="11">
+        <f t="shared" si="7"/>
+        <v>895.57799720045546</v>
+      </c>
+      <c r="E137" s="4">
         <f t="shared" si="8"/>
-        <v>1128.8160000000003</v>
-      </c>
-      <c r="D137" s="11">
-        <f t="shared" si="9"/>
-        <v>895.57799720045546</v>
-      </c>
-      <c r="E137" s="4">
-        <f t="shared" si="10"/>
         <v>384.57799720045546</v>
       </c>
-      <c r="J137" s="14" t="str">
-        <f t="shared" si="11"/>
-        <v>896,</v>
-      </c>
-    </row>
-    <row r="138" spans="2:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="138" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B138" s="2">
         <v>135</v>
       </c>
       <c r="C138" s="7">
+        <f t="shared" si="6"/>
+        <v>1137.2400000000002</v>
+      </c>
+      <c r="D138" s="11">
+        <f t="shared" si="7"/>
+        <v>940.72268155436564</v>
+      </c>
+      <c r="E138" s="4">
         <f t="shared" si="8"/>
-        <v>1137.2400000000002</v>
-      </c>
-      <c r="D138" s="11">
-        <f t="shared" si="9"/>
-        <v>940.72268155436564</v>
-      </c>
-      <c r="E138" s="4">
-        <f t="shared" si="10"/>
         <v>429.72268155436564</v>
       </c>
-      <c r="J138" s="14" t="str">
-        <f t="shared" si="11"/>
-        <v>941,</v>
-      </c>
-    </row>
-    <row r="139" spans="2:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="139" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B139" s="2">
         <v>136</v>
       </c>
       <c r="C139" s="7">
+        <f t="shared" si="6"/>
+        <v>1145.6640000000002</v>
+      </c>
+      <c r="D139" s="11">
+        <f t="shared" si="7"/>
+        <v>976.59485720691714</v>
+      </c>
+      <c r="E139" s="4">
         <f t="shared" si="8"/>
-        <v>1145.6640000000002</v>
-      </c>
-      <c r="D139" s="11">
-        <f t="shared" si="9"/>
-        <v>976.59485720691714</v>
-      </c>
-      <c r="E139" s="4">
-        <f t="shared" si="10"/>
         <v>465.59485720691714</v>
       </c>
-      <c r="J139" s="14" t="str">
-        <f t="shared" si="11"/>
-        <v>977,</v>
-      </c>
-    </row>
-    <row r="140" spans="2:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="140" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B140" s="2">
         <v>137</v>
       </c>
       <c r="C140" s="7">
+        <f t="shared" si="6"/>
+        <v>1154.0880000000002</v>
+      </c>
+      <c r="D140" s="11">
+        <f t="shared" si="7"/>
+        <v>1002.4204783021364</v>
+      </c>
+      <c r="E140" s="4">
         <f t="shared" si="8"/>
-        <v>1154.0880000000002</v>
-      </c>
-      <c r="D140" s="11">
-        <f t="shared" si="9"/>
-        <v>1002.4204783021364</v>
-      </c>
-      <c r="E140" s="4">
-        <f t="shared" si="10"/>
         <v>491.42047830213642</v>
       </c>
-      <c r="J140" s="14" t="str">
-        <f t="shared" si="11"/>
-        <v>1002,</v>
-      </c>
-    </row>
-    <row r="141" spans="2:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="141" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B141" s="2">
         <v>138</v>
       </c>
       <c r="C141" s="7">
+        <f t="shared" si="6"/>
+        <v>1162.5120000000002</v>
+      </c>
+      <c r="D141" s="11">
+        <f t="shared" si="7"/>
+        <v>1017.6422824319583</v>
+      </c>
+      <c r="E141" s="4">
         <f t="shared" si="8"/>
-        <v>1162.5120000000002</v>
-      </c>
-      <c r="D141" s="11">
-        <f t="shared" si="9"/>
-        <v>1017.6422824319583</v>
-      </c>
-      <c r="E141" s="4">
-        <f t="shared" si="10"/>
         <v>506.64228243195828</v>
       </c>
-      <c r="J141" s="14" t="str">
-        <f t="shared" si="11"/>
-        <v>1018,</v>
-      </c>
-    </row>
-    <row r="142" spans="2:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="142" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B142" s="2">
         <v>139</v>
       </c>
       <c r="C142" s="7">
+        <f t="shared" si="6"/>
+        <v>1170.9360000000001</v>
+      </c>
+      <c r="D142" s="11">
+        <f t="shared" si="7"/>
+        <v>1021.9318151830992</v>
+      </c>
+      <c r="E142" s="4">
         <f t="shared" si="8"/>
-        <v>1170.9360000000001</v>
-      </c>
-      <c r="D142" s="11">
-        <f t="shared" si="9"/>
-        <v>1021.9318151830992</v>
-      </c>
-      <c r="E142" s="4">
-        <f t="shared" si="10"/>
         <v>510.93181518309916</v>
       </c>
-      <c r="J142" s="14" t="str">
-        <f t="shared" si="11"/>
-        <v>1022,</v>
-      </c>
-    </row>
-    <row r="143" spans="2:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="143" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B143" s="2">
         <v>140</v>
       </c>
       <c r="C143" s="7">
+        <f t="shared" si="6"/>
+        <v>1179.3600000000001</v>
+      </c>
+      <c r="D143" s="11">
+        <f t="shared" si="7"/>
+        <v>1015.1965174902205</v>
+      </c>
+      <c r="E143" s="4">
         <f t="shared" si="8"/>
-        <v>1179.3600000000001</v>
-      </c>
-      <c r="D143" s="11">
-        <f t="shared" si="9"/>
-        <v>1015.1965174902205</v>
-      </c>
-      <c r="E143" s="4">
-        <f t="shared" si="10"/>
         <v>504.19651749022046</v>
       </c>
-      <c r="J143" s="14" t="str">
-        <f t="shared" si="11"/>
-        <v>1015,</v>
-      </c>
-    </row>
-    <row r="144" spans="2:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="144" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B144" s="2">
         <v>141</v>
       </c>
       <c r="C144" s="7">
+        <f t="shared" si="6"/>
+        <v>1187.7840000000001</v>
+      </c>
+      <c r="D144" s="11">
+        <f t="shared" si="7"/>
+        <v>997.58172286524564</v>
+      </c>
+      <c r="E144" s="4">
         <f t="shared" si="8"/>
-        <v>1187.7840000000001</v>
-      </c>
-      <c r="D144" s="11">
-        <f t="shared" si="9"/>
-        <v>997.58172286524564</v>
-      </c>
-      <c r="E144" s="4">
-        <f t="shared" si="10"/>
         <v>486.58172286524564</v>
       </c>
-      <c r="J144" s="14" t="str">
-        <f t="shared" si="11"/>
-        <v>998,</v>
-      </c>
-    </row>
-    <row r="145" spans="2:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="145" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B145" s="2">
         <v>142</v>
       </c>
       <c r="C145" s="7">
+        <f t="shared" si="6"/>
+        <v>1196.2080000000001</v>
+      </c>
+      <c r="D145" s="11">
+        <f t="shared" si="7"/>
+        <v>969.46752140684407</v>
+      </c>
+      <c r="E145" s="4">
         <f t="shared" si="8"/>
-        <v>1196.2080000000001</v>
-      </c>
-      <c r="D145" s="11">
-        <f t="shared" si="9"/>
-        <v>969.46752140684407</v>
-      </c>
-      <c r="E145" s="4">
-        <f t="shared" si="10"/>
         <v>458.46752140684407</v>
       </c>
-      <c r="J145" s="14" t="str">
-        <f t="shared" si="11"/>
-        <v>969,</v>
-      </c>
-    </row>
-    <row r="146" spans="2:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="146" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B146" s="2">
         <v>143</v>
       </c>
       <c r="C146" s="7">
+        <f t="shared" si="6"/>
+        <v>1204.6320000000003</v>
+      </c>
+      <c r="D146" s="11">
+        <f t="shared" si="7"/>
+        <v>931.46055825813869</v>
+      </c>
+      <c r="E146" s="4">
         <f t="shared" si="8"/>
-        <v>1204.6320000000003</v>
-      </c>
-      <c r="D146" s="11">
-        <f t="shared" si="9"/>
-        <v>931.46055825813869</v>
-      </c>
-      <c r="E146" s="4">
-        <f t="shared" si="10"/>
         <v>420.46055825813869</v>
       </c>
-      <c r="J146" s="14" t="str">
-        <f t="shared" si="11"/>
-        <v>931,</v>
-      </c>
-    </row>
-    <row r="147" spans="2:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="147" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B147" s="2">
         <v>144</v>
       </c>
       <c r="C147" s="7">
+        <f t="shared" si="6"/>
+        <v>1213.0560000000003</v>
+      </c>
+      <c r="D147" s="11">
+        <f t="shared" si="7"/>
+        <v>884.38094348461311</v>
+      </c>
+      <c r="E147" s="4">
         <f t="shared" si="8"/>
-        <v>1213.0560000000003</v>
-      </c>
-      <c r="D147" s="11">
-        <f t="shared" si="9"/>
-        <v>884.38094348461311</v>
-      </c>
-      <c r="E147" s="4">
-        <f t="shared" si="10"/>
         <v>373.38094348461311</v>
       </c>
-      <c r="J147" s="14" t="str">
-        <f t="shared" si="11"/>
-        <v>884,</v>
-      </c>
-    </row>
-    <row r="148" spans="2:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="148" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B148" s="2">
         <v>145</v>
       </c>
       <c r="C148" s="7">
+        <f t="shared" si="6"/>
+        <v>1221.4800000000002</v>
+      </c>
+      <c r="D148" s="11">
+        <f t="shared" si="7"/>
+        <v>829.24455582942323</v>
+      </c>
+      <c r="E148" s="4">
         <f t="shared" si="8"/>
-        <v>1221.4800000000002</v>
-      </c>
-      <c r="D148" s="11">
-        <f t="shared" si="9"/>
-        <v>829.24455582942323</v>
-      </c>
-      <c r="E148" s="4">
-        <f t="shared" si="10"/>
         <v>318.24455582942323</v>
       </c>
-      <c r="J148" s="14" t="str">
-        <f t="shared" si="11"/>
-        <v>829,</v>
-      </c>
-    </row>
-    <row r="149" spans="2:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="149" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B149" s="2">
         <v>146</v>
       </c>
       <c r="C149" s="7">
+        <f t="shared" si="6"/>
+        <v>1229.9040000000002</v>
+      </c>
+      <c r="D149" s="11">
+        <f t="shared" si="7"/>
+        <v>767.24112219375615</v>
+      </c>
+      <c r="E149" s="4">
         <f t="shared" si="8"/>
-        <v>1229.9040000000002</v>
-      </c>
-      <c r="D149" s="11">
-        <f t="shared" si="9"/>
-        <v>767.24112219375615</v>
-      </c>
-      <c r="E149" s="4">
-        <f t="shared" si="10"/>
         <v>256.24112219375615</v>
       </c>
-      <c r="J149" s="14" t="str">
-        <f t="shared" si="11"/>
-        <v>767,</v>
-      </c>
-    </row>
-    <row r="150" spans="2:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="150" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B150" s="2">
         <v>147</v>
       </c>
       <c r="C150" s="7">
+        <f t="shared" si="6"/>
+        <v>1238.3280000000002</v>
+      </c>
+      <c r="D150" s="11">
+        <f t="shared" si="7"/>
+        <v>699.70854584075983</v>
+      </c>
+      <c r="E150" s="4">
         <f t="shared" si="8"/>
-        <v>1238.3280000000002</v>
-      </c>
-      <c r="D150" s="11">
-        <f t="shared" si="9"/>
-        <v>699.70854584075983</v>
-      </c>
-      <c r="E150" s="4">
-        <f t="shared" si="10"/>
         <v>188.70854584075983</v>
       </c>
-      <c r="J150" s="14" t="str">
-        <f t="shared" si="11"/>
-        <v>700,</v>
-      </c>
-    </row>
-    <row r="151" spans="2:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="151" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B151" s="2">
         <v>148</v>
       </c>
       <c r="C151" s="7">
+        <f t="shared" si="6"/>
+        <v>1246.7520000000002</v>
+      </c>
+      <c r="D151" s="11">
+        <f t="shared" si="7"/>
+        <v>628.1040372662668</v>
+      </c>
+      <c r="E151" s="4">
         <f t="shared" si="8"/>
-        <v>1246.7520000000002</v>
-      </c>
-      <c r="D151" s="11">
-        <f t="shared" si="9"/>
-        <v>628.1040372662668</v>
-      </c>
-      <c r="E151" s="4">
-        <f t="shared" si="10"/>
         <v>117.1040372662668</v>
       </c>
-      <c r="J151" s="14" t="str">
-        <f t="shared" si="11"/>
-        <v>628,</v>
-      </c>
-    </row>
-    <row r="152" spans="2:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="152" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B152" s="2">
         <v>149</v>
       </c>
       <c r="C152" s="7">
+        <f t="shared" si="6"/>
+        <v>1255.1760000000002</v>
+      </c>
+      <c r="D152" s="11">
+        <f t="shared" si="7"/>
+        <v>553.97267067118048</v>
+      </c>
+      <c r="E152" s="4">
         <f t="shared" si="8"/>
-        <v>1255.1760000000002</v>
-      </c>
-      <c r="D152" s="11">
-        <f t="shared" si="9"/>
-        <v>553.97267067118048</v>
-      </c>
-      <c r="E152" s="4">
-        <f t="shared" si="10"/>
         <v>42.972670671180481</v>
       </c>
-      <c r="J152" s="14" t="str">
-        <f t="shared" si="11"/>
-        <v>554,</v>
-      </c>
-    </row>
-    <row r="153" spans="2:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="153" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B153" s="2">
         <v>150</v>
       </c>
       <c r="C153" s="7">
+        <f t="shared" si="6"/>
+        <v>1263.6000000000001</v>
+      </c>
+      <c r="D153" s="11">
+        <f t="shared" si="7"/>
+        <v>478.91404452051967</v>
+      </c>
+      <c r="E153" s="4">
         <f t="shared" si="8"/>
-        <v>1263.6000000000001</v>
-      </c>
-      <c r="D153" s="11">
-        <f t="shared" si="9"/>
-        <v>478.91404452051967</v>
-      </c>
-      <c r="E153" s="4">
-        <f t="shared" si="10"/>
         <v>32.085955479480333</v>
       </c>
-      <c r="J153" s="14" t="str">
-        <f t="shared" si="11"/>
-        <v>479,</v>
-      </c>
-    </row>
-    <row r="154" spans="2:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="154" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B154" s="2">
         <v>151</v>
       </c>
       <c r="C154" s="7">
+        <f t="shared" si="6"/>
+        <v>1272.0240000000001</v>
+      </c>
+      <c r="D154" s="11">
+        <f t="shared" si="7"/>
+        <v>404.54776558387778</v>
+      </c>
+      <c r="E154" s="4">
         <f t="shared" si="8"/>
-        <v>1272.0240000000001</v>
-      </c>
-      <c r="D154" s="11">
-        <f t="shared" si="9"/>
-        <v>404.54776558387778</v>
-      </c>
-      <c r="E154" s="4">
-        <f t="shared" si="10"/>
         <v>106.45223441612222</v>
       </c>
-      <c r="J154" s="14" t="str">
-        <f t="shared" si="11"/>
-        <v>405,</v>
-      </c>
-    </row>
-    <row r="155" spans="2:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="155" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B155" s="2">
         <v>152</v>
       </c>
       <c r="C155" s="7">
+        <f t="shared" si="6"/>
+        <v>1280.4480000000001</v>
+      </c>
+      <c r="D155" s="11">
+        <f t="shared" si="7"/>
+        <v>332.47850123890731</v>
+      </c>
+      <c r="E155" s="4">
         <f t="shared" si="8"/>
-        <v>1280.4480000000001</v>
-      </c>
-      <c r="D155" s="11">
-        <f t="shared" si="9"/>
-        <v>332.47850123890731</v>
-      </c>
-      <c r="E155" s="4">
-        <f t="shared" si="10"/>
         <v>178.52149876109269</v>
       </c>
-      <c r="J155" s="14" t="str">
-        <f t="shared" si="11"/>
-        <v>332,</v>
-      </c>
-    </row>
-    <row r="156" spans="2:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="156" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B156" s="2">
         <v>153</v>
       </c>
       <c r="C156" s="7">
+        <f t="shared" si="6"/>
+        <v>1288.8720000000003</v>
+      </c>
+      <c r="D156" s="11">
+        <f t="shared" si="7"/>
+        <v>264.26135413534678</v>
+      </c>
+      <c r="E156" s="4">
         <f t="shared" si="8"/>
-        <v>1288.8720000000003</v>
-      </c>
-      <c r="D156" s="11">
-        <f t="shared" si="9"/>
-        <v>264.26135413534678</v>
-      </c>
-      <c r="E156" s="4">
-        <f t="shared" si="10"/>
         <v>246.73864586465322</v>
       </c>
-      <c r="J156" s="14" t="str">
-        <f t="shared" si="11"/>
-        <v>264,</v>
-      </c>
-    </row>
-    <row r="157" spans="2:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="157" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B157" s="2">
         <v>154</v>
       </c>
       <c r="C157" s="7">
+        <f t="shared" si="6"/>
+        <v>1297.2960000000003</v>
+      </c>
+      <c r="D157" s="11">
+        <f t="shared" si="7"/>
+        <v>201.36830636130577</v>
+      </c>
+      <c r="E157" s="4">
         <f t="shared" si="8"/>
-        <v>1297.2960000000003</v>
-      </c>
-      <c r="D157" s="11">
-        <f t="shared" si="9"/>
-        <v>201.36830636130577</v>
-      </c>
-      <c r="E157" s="4">
-        <f t="shared" si="10"/>
         <v>309.63169363869423</v>
       </c>
-      <c r="J157" s="14" t="str">
-        <f t="shared" si="11"/>
-        <v>201,</v>
-      </c>
-    </row>
-    <row r="158" spans="2:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="158" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B158" s="2">
         <v>155</v>
       </c>
       <c r="C158" s="7">
+        <f t="shared" si="6"/>
+        <v>1305.7200000000003</v>
+      </c>
+      <c r="D158" s="11">
+        <f t="shared" si="7"/>
+        <v>145.15645717584329</v>
+      </c>
+      <c r="E158" s="4">
         <f t="shared" si="8"/>
-        <v>1305.7200000000003</v>
-      </c>
-      <c r="D158" s="11">
-        <f t="shared" si="9"/>
-        <v>145.15645717584329</v>
-      </c>
-      <c r="E158" s="4">
-        <f t="shared" si="10"/>
         <v>365.84354282415671</v>
       </c>
-      <c r="J158" s="14" t="str">
-        <f t="shared" si="11"/>
-        <v>145,</v>
-      </c>
-    </row>
-    <row r="159" spans="2:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="159" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B159" s="2">
         <v>156</v>
       </c>
       <c r="C159" s="7">
+        <f t="shared" si="6"/>
+        <v>1314.1440000000002</v>
+      </c>
+      <c r="D159" s="11">
+        <f t="shared" si="7"/>
+        <v>96.83873967061254</v>
+      </c>
+      <c r="E159" s="4">
         <f t="shared" si="8"/>
-        <v>1314.1440000000002</v>
-      </c>
-      <c r="D159" s="11">
-        <f t="shared" si="9"/>
-        <v>96.83873967061254</v>
-      </c>
-      <c r="E159" s="4">
-        <f t="shared" si="10"/>
         <v>414.16126032938746</v>
       </c>
-      <c r="J159" s="14" t="str">
-        <f t="shared" si="11"/>
-        <v>97,</v>
-      </c>
-    </row>
-    <row r="160" spans="2:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="160" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B160" s="2">
         <v>157</v>
       </c>
       <c r="C160" s="7">
+        <f t="shared" si="6"/>
+        <v>1322.5680000000002</v>
+      </c>
+      <c r="D160" s="11">
+        <f t="shared" si="7"/>
+        <v>57.457748233178677</v>
+      </c>
+      <c r="E160" s="4">
         <f t="shared" si="8"/>
-        <v>1322.5680000000002</v>
-      </c>
-      <c r="D160" s="11">
-        <f t="shared" si="9"/>
-        <v>57.457748233178677</v>
-      </c>
-      <c r="E160" s="4">
-        <f t="shared" si="10"/>
         <v>453.54225176682132</v>
       </c>
-      <c r="J160" s="14" t="str">
-        <f t="shared" si="11"/>
-        <v>57,</v>
-      </c>
-    </row>
-    <row r="161" spans="2:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="161" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B161" s="2">
         <v>158</v>
       </c>
       <c r="C161" s="7">
+        <f t="shared" si="6"/>
+        <v>1330.9920000000002</v>
+      </c>
+      <c r="D161" s="11">
+        <f t="shared" si="7"/>
+        <v>27.86324156012796</v>
+      </c>
+      <c r="E161" s="4">
         <f t="shared" si="8"/>
-        <v>1330.9920000000002</v>
-      </c>
-      <c r="D161" s="11">
-        <f t="shared" si="9"/>
-        <v>27.86324156012796</v>
-      </c>
-      <c r="E161" s="4">
-        <f t="shared" si="10"/>
         <v>483.13675843987204</v>
       </c>
-      <c r="J161" s="14" t="str">
-        <f t="shared" si="11"/>
-        <v>28,</v>
-      </c>
-    </row>
-    <row r="162" spans="2:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="162" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B162" s="2">
         <v>159</v>
       </c>
       <c r="C162" s="7">
+        <f t="shared" si="6"/>
+        <v>1339.4160000000002</v>
+      </c>
+      <c r="D162" s="11">
+        <f t="shared" si="7"/>
+        <v>8.6938066574934396</v>
+      </c>
+      <c r="E162" s="4">
         <f t="shared" si="8"/>
-        <v>1339.4160000000002</v>
-      </c>
-      <c r="D162" s="11">
-        <f t="shared" si="9"/>
-        <v>8.6938066574934396</v>
-      </c>
-      <c r="E162" s="4">
-        <f t="shared" si="10"/>
         <v>502.30619334250656</v>
       </c>
-      <c r="J162" s="14" t="str">
-        <f t="shared" si="11"/>
-        <v>9,</v>
-      </c>
-    </row>
-    <row r="163" spans="2:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="163" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B163" s="2">
         <v>160</v>
       </c>
       <c r="C163" s="7">
+        <f t="shared" si="6"/>
+        <v>1347.8400000000001</v>
+      </c>
+      <c r="D163" s="11">
+        <f t="shared" si="7"/>
+        <v>0.3630794806588824</v>
+      </c>
+      <c r="E163" s="4">
         <f t="shared" si="8"/>
-        <v>1347.8400000000001</v>
-      </c>
-      <c r="D163" s="11">
-        <f t="shared" si="9"/>
-        <v>0.3630794806588824</v>
-      </c>
-      <c r="E163" s="4">
-        <f t="shared" si="10"/>
         <v>510.63692051934112</v>
       </c>
-      <c r="J163" s="14" t="str">
-        <f t="shared" si="11"/>
-        <v>0,</v>
-      </c>
-    </row>
-    <row r="164" spans="2:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="164" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B164" s="2">
         <v>161</v>
       </c>
       <c r="C164" s="7">
+        <f t="shared" si="6"/>
+        <v>1356.2640000000001</v>
+      </c>
+      <c r="D164" s="11">
+        <f t="shared" si="7"/>
+        <v>3.0508195432634011</v>
+      </c>
+      <c r="E164" s="4">
         <f t="shared" si="8"/>
-        <v>1356.2640000000001</v>
-      </c>
-      <c r="D164" s="11">
-        <f t="shared" si="9"/>
-        <v>3.0508195432634011</v>
-      </c>
-      <c r="E164" s="4">
-        <f t="shared" si="10"/>
         <v>507.9491804567366</v>
       </c>
-      <c r="J164" s="14" t="str">
-        <f t="shared" si="11"/>
-        <v>3,</v>
-      </c>
-    </row>
-    <row r="165" spans="2:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="165" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B165" s="2">
         <v>162</v>
       </c>
       <c r="C165" s="7">
+        <f t="shared" si="6"/>
+        <v>1364.6880000000001</v>
+      </c>
+      <c r="D165" s="11">
+        <f t="shared" si="7"/>
+        <v>16.699031086210937</v>
+      </c>
+      <c r="E165" s="4">
         <f t="shared" si="8"/>
-        <v>1364.6880000000001</v>
-      </c>
-      <c r="D165" s="11">
-        <f t="shared" si="9"/>
-        <v>16.699031086210937</v>
-      </c>
-      <c r="E165" s="4">
-        <f t="shared" si="10"/>
         <v>494.30096891378906</v>
       </c>
-      <c r="J165" s="14" t="str">
-        <f t="shared" si="11"/>
-        <v>17,</v>
-      </c>
-    </row>
-    <row r="166" spans="2:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="166" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B166" s="2">
         <v>163</v>
       </c>
       <c r="C166" s="7">
+        <f t="shared" si="6"/>
+        <v>1373.1120000000003</v>
+      </c>
+      <c r="D166" s="11">
+        <f t="shared" si="7"/>
+        <v>41.013214503775259</v>
+      </c>
+      <c r="E166" s="4">
         <f t="shared" si="8"/>
-        <v>1373.1120000000003</v>
-      </c>
-      <c r="D166" s="11">
-        <f t="shared" si="9"/>
-        <v>41.013214503775259</v>
-      </c>
-      <c r="E166" s="4">
-        <f t="shared" si="10"/>
         <v>469.98678549622474</v>
       </c>
-      <c r="J166" s="14" t="str">
-        <f t="shared" si="11"/>
-        <v>41,</v>
-      </c>
-    </row>
-    <row r="167" spans="2:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="167" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B167" s="2">
         <v>164</v>
       </c>
       <c r="C167" s="7">
+        <f t="shared" si="6"/>
+        <v>1381.5360000000003</v>
+      </c>
+      <c r="D167" s="11">
+        <f t="shared" si="7"/>
+        <v>75.468721023656713</v>
+      </c>
+      <c r="E167" s="4">
         <f t="shared" si="8"/>
-        <v>1381.5360000000003</v>
-      </c>
-      <c r="D167" s="11">
-        <f t="shared" si="9"/>
-        <v>75.468721023656713</v>
-      </c>
-      <c r="E167" s="4">
-        <f t="shared" si="10"/>
         <v>435.53127897634329</v>
       </c>
-      <c r="J167" s="14" t="str">
-        <f t="shared" si="11"/>
-        <v>75,</v>
-      </c>
-    </row>
-    <row r="168" spans="2:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="168" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B168" s="2">
         <v>165</v>
       </c>
       <c r="C168" s="7">
+        <f t="shared" si="6"/>
+        <v>1389.9600000000003</v>
+      </c>
+      <c r="D168" s="11">
+        <f t="shared" si="7"/>
+        <v>119.32207352042343</v>
+      </c>
+      <c r="E168" s="4">
         <f t="shared" si="8"/>
-        <v>1389.9600000000003</v>
-      </c>
-      <c r="D168" s="11">
-        <f t="shared" si="9"/>
-        <v>119.32207352042343</v>
-      </c>
-      <c r="E168" s="4">
-        <f t="shared" si="10"/>
         <v>391.67792647957657</v>
       </c>
-      <c r="J168" s="14" t="str">
-        <f t="shared" si="11"/>
-        <v>119,</v>
-      </c>
-    </row>
-    <row r="169" spans="2:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="169" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B169" s="2">
         <v>166</v>
       </c>
       <c r="C169" s="7">
+        <f t="shared" si="6"/>
+        <v>1398.3840000000002</v>
+      </c>
+      <c r="D169" s="11">
+        <f t="shared" si="7"/>
+        <v>171.62700918304762</v>
+      </c>
+      <c r="E169" s="4">
         <f t="shared" si="8"/>
-        <v>1398.3840000000002</v>
-      </c>
-      <c r="D169" s="11">
-        <f t="shared" si="9"/>
-        <v>171.62700918304762</v>
-      </c>
-      <c r="E169" s="4">
-        <f t="shared" si="10"/>
         <v>339.37299081695238</v>
       </c>
-      <c r="J169" s="14" t="str">
-        <f t="shared" si="11"/>
-        <v>172,</v>
-      </c>
-    </row>
-    <row r="170" spans="2:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="170" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B170" s="2">
         <v>167</v>
       </c>
       <c r="C170" s="7">
+        <f t="shared" si="6"/>
+        <v>1406.8080000000002</v>
+      </c>
+      <c r="D170" s="11">
+        <f t="shared" si="7"/>
+        <v>231.25489786964164</v>
+      </c>
+      <c r="E170" s="4">
         <f t="shared" si="8"/>
-        <v>1406.8080000000002</v>
-      </c>
-      <c r="D170" s="11">
-        <f t="shared" si="9"/>
-        <v>231.25489786964164</v>
-      </c>
-      <c r="E170" s="4">
-        <f t="shared" si="10"/>
         <v>279.74510213035836</v>
       </c>
-      <c r="J170" s="14" t="str">
-        <f t="shared" si="11"/>
-        <v>231,</v>
-      </c>
-    </row>
-    <row r="171" spans="2:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="171" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B171" s="2">
         <v>168</v>
       </c>
       <c r="C171" s="7">
+        <f t="shared" si="6"/>
+        <v>1415.2320000000002</v>
+      </c>
+      <c r="D171" s="11">
+        <f t="shared" si="7"/>
+        <v>296.9190955643686</v>
+      </c>
+      <c r="E171" s="4">
         <f t="shared" si="8"/>
-        <v>1415.2320000000002</v>
-      </c>
-      <c r="D171" s="11">
-        <f t="shared" si="9"/>
-        <v>296.9190955643686</v>
-      </c>
-      <c r="E171" s="4">
-        <f t="shared" si="10"/>
         <v>214.0809044356314</v>
       </c>
-      <c r="J171" s="14" t="str">
-        <f t="shared" si="11"/>
-        <v>297,</v>
-      </c>
-    </row>
-    <row r="172" spans="2:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="172" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B172" s="2">
         <v>169</v>
       </c>
       <c r="C172" s="7">
+        <f t="shared" si="6"/>
+        <v>1423.6560000000002</v>
+      </c>
+      <c r="D172" s="11">
+        <f t="shared" si="7"/>
+        <v>367.20270744033888</v>
+      </c>
+      <c r="E172" s="4">
         <f t="shared" si="8"/>
-        <v>1423.6560000000002</v>
-      </c>
-      <c r="D172" s="11">
-        <f t="shared" si="9"/>
-        <v>367.20270744033888</v>
-      </c>
-      <c r="E172" s="4">
-        <f t="shared" si="10"/>
         <v>143.79729255966112</v>
       </c>
-      <c r="J172" s="14" t="str">
-        <f t="shared" si="11"/>
-        <v>367,</v>
-      </c>
-    </row>
-    <row r="173" spans="2:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="173" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B173" s="2">
         <v>170</v>
       </c>
       <c r="C173" s="7">
+        <f t="shared" si="6"/>
+        <v>1432.0800000000002</v>
+      </c>
+      <c r="D173" s="11">
+        <f t="shared" si="7"/>
+        <v>440.58916146015019</v>
+      </c>
+      <c r="E173" s="4">
         <f t="shared" si="8"/>
-        <v>1432.0800000000002</v>
-      </c>
-      <c r="D173" s="11">
-        <f t="shared" si="9"/>
-        <v>440.58916146015019</v>
-      </c>
-      <c r="E173" s="4">
-        <f t="shared" si="10"/>
         <v>70.410838539849806</v>
       </c>
-      <c r="J173" s="14" t="str">
-        <f t="shared" si="11"/>
-        <v>441,</v>
-      </c>
-    </row>
-    <row r="174" spans="2:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="174" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B174" s="2">
         <v>171</v>
       </c>
       <c r="C174" s="7">
+        <f t="shared" si="6"/>
+        <v>1440.5040000000001</v>
+      </c>
+      <c r="D174" s="11">
+        <f t="shared" si="7"/>
+        <v>515.49493280030856</v>
+      </c>
+      <c r="E174" s="4">
         <f t="shared" si="8"/>
-        <v>1440.5040000000001</v>
-      </c>
-      <c r="D174" s="11">
-        <f t="shared" si="9"/>
-        <v>515.49493280030856</v>
-      </c>
-      <c r="E174" s="4">
-        <f t="shared" si="10"/>
         <v>4.4949328003085611</v>
       </c>
-      <c r="J174" s="14" t="str">
-        <f t="shared" si="11"/>
-        <v>515,</v>
-      </c>
-    </row>
-    <row r="175" spans="2:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="175" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B175" s="2">
         <v>172</v>
       </c>
       <c r="C175" s="7">
+        <f t="shared" si="6"/>
+        <v>1448.9280000000001</v>
+      </c>
+      <c r="D175" s="11">
+        <f t="shared" si="7"/>
+        <v>590.30371297548368</v>
+      </c>
+      <c r="E175" s="4">
         <f t="shared" si="8"/>
-        <v>1448.9280000000001</v>
-      </c>
-      <c r="D175" s="11">
-        <f t="shared" si="9"/>
-        <v>590.30371297548368</v>
-      </c>
-      <c r="E175" s="4">
-        <f t="shared" si="10"/>
         <v>79.303712975483677</v>
       </c>
-      <c r="J175" s="14" t="str">
-        <f t="shared" si="11"/>
-        <v>590,</v>
-      </c>
-    </row>
-    <row r="176" spans="2:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="176" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B176" s="2">
         <v>173</v>
       </c>
       <c r="C176" s="7">
+        <f t="shared" si="6"/>
+        <v>1457.3520000000003</v>
+      </c>
+      <c r="D176" s="11">
+        <f t="shared" si="7"/>
+        <v>663.40128636502993</v>
+      </c>
+      <c r="E176" s="4">
         <f t="shared" si="8"/>
-        <v>1457.3520000000003</v>
-      </c>
-      <c r="D176" s="11">
-        <f t="shared" si="9"/>
-        <v>663.40128636502993</v>
-      </c>
-      <c r="E176" s="4">
-        <f t="shared" si="10"/>
         <v>152.40128636502993</v>
       </c>
-      <c r="J176" s="14" t="str">
-        <f t="shared" si="11"/>
-        <v>663,</v>
-      </c>
-    </row>
-    <row r="177" spans="2:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="177" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B177" s="2">
         <v>174</v>
       </c>
       <c r="C177" s="7">
+        <f t="shared" si="6"/>
+        <v>1465.7760000000003</v>
+      </c>
+      <c r="D177" s="11">
+        <f t="shared" si="7"/>
+        <v>733.2103615798776</v>
+      </c>
+      <c r="E177" s="4">
         <f t="shared" si="8"/>
-        <v>1465.7760000000003</v>
-      </c>
-      <c r="D177" s="11">
-        <f t="shared" si="9"/>
-        <v>733.2103615798776</v>
-      </c>
-      <c r="E177" s="4">
-        <f t="shared" si="10"/>
         <v>222.2103615798776</v>
       </c>
-      <c r="J177" s="14" t="str">
-        <f t="shared" si="11"/>
-        <v>733,</v>
-      </c>
-    </row>
-    <row r="178" spans="2:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="178" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B178" s="2">
         <v>175</v>
       </c>
       <c r="C178" s="7">
+        <f t="shared" si="6"/>
+        <v>1474.2000000000003</v>
+      </c>
+      <c r="D178" s="11">
+        <f t="shared" si="7"/>
+        <v>798.22460608244069</v>
+      </c>
+      <c r="E178" s="4">
         <f t="shared" si="8"/>
-        <v>1474.2000000000003</v>
-      </c>
-      <c r="D178" s="11">
-        <f t="shared" si="9"/>
-        <v>798.22460608244069</v>
-      </c>
-      <c r="E178" s="4">
-        <f t="shared" si="10"/>
         <v>287.22460608244069</v>
       </c>
-      <c r="J178" s="14" t="str">
-        <f t="shared" si="11"/>
-        <v>798,</v>
-      </c>
-    </row>
-    <row r="179" spans="2:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="179" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B179" s="2">
         <v>176</v>
       </c>
       <c r="C179" s="7">
+        <f t="shared" si="6"/>
+        <v>1482.6240000000003</v>
+      </c>
+      <c r="D179" s="11">
+        <f t="shared" si="7"/>
+        <v>857.04114966423708</v>
+      </c>
+      <c r="E179" s="4">
         <f t="shared" si="8"/>
-        <v>1482.6240000000003</v>
-      </c>
-      <c r="D179" s="11">
-        <f t="shared" si="9"/>
-        <v>857.04114966423708</v>
-      </c>
-      <c r="E179" s="4">
-        <f t="shared" si="10"/>
         <v>346.04114966423708</v>
       </c>
-      <c r="J179" s="14" t="str">
-        <f t="shared" si="11"/>
-        <v>857,</v>
-      </c>
-    </row>
-    <row r="180" spans="2:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="180" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B180" s="2">
         <v>177</v>
       </c>
       <c r="C180" s="7">
+        <f t="shared" si="6"/>
+        <v>1491.0480000000002</v>
+      </c>
+      <c r="D180" s="11">
+        <f t="shared" si="7"/>
+        <v>908.39085542475868</v>
+      </c>
+      <c r="E180" s="4">
         <f t="shared" si="8"/>
-        <v>1491.0480000000002</v>
-      </c>
-      <c r="D180" s="11">
-        <f t="shared" si="9"/>
-        <v>908.39085542475868</v>
-      </c>
-      <c r="E180" s="4">
-        <f t="shared" si="10"/>
         <v>397.39085542475868</v>
       </c>
-      <c r="J180" s="14" t="str">
-        <f t="shared" si="11"/>
-        <v>908,</v>
-      </c>
-    </row>
-    <row r="181" spans="2:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="181" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B181" s="2">
         <v>178</v>
       </c>
       <c r="C181" s="7">
+        <f t="shared" si="6"/>
+        <v>1499.4720000000002</v>
+      </c>
+      <c r="D181" s="11">
+        <f t="shared" si="7"/>
+        <v>951.16570506775429</v>
+      </c>
+      <c r="E181" s="4">
         <f t="shared" si="8"/>
-        <v>1499.4720000000002</v>
-      </c>
-      <c r="D181" s="11">
-        <f t="shared" si="9"/>
-        <v>951.16570506775429</v>
-      </c>
-      <c r="E181" s="4">
-        <f t="shared" si="10"/>
         <v>440.16570506775429</v>
       </c>
-      <c r="J181" s="14" t="str">
-        <f t="shared" si="11"/>
-        <v>951,</v>
-      </c>
-    </row>
-    <row r="182" spans="2:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="182" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B182" s="2">
         <v>179</v>
       </c>
       <c r="C182" s="7">
+        <f t="shared" si="6"/>
+        <v>1507.8960000000002</v>
+      </c>
+      <c r="D182" s="11">
+        <f t="shared" si="7"/>
+        <v>984.44270759800793</v>
+      </c>
+      <c r="E182" s="4">
         <f t="shared" si="8"/>
-        <v>1507.8960000000002</v>
-      </c>
-      <c r="D182" s="11">
-        <f t="shared" si="9"/>
-        <v>984.44270759800793</v>
-      </c>
-      <c r="E182" s="4">
-        <f t="shared" si="10"/>
         <v>473.44270759800793</v>
       </c>
-      <c r="J182" s="14" t="str">
-        <f t="shared" si="11"/>
-        <v>984,</v>
-      </c>
-    </row>
-    <row r="183" spans="2:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="183" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B183" s="2">
         <v>180</v>
       </c>
       <c r="C183" s="7">
+        <f t="shared" si="6"/>
+        <v>1516.3200000000002</v>
+      </c>
+      <c r="D183" s="11">
+        <f t="shared" si="7"/>
+        <v>1007.5038155193986</v>
+      </c>
+      <c r="E183" s="4">
         <f t="shared" si="8"/>
-        <v>1516.3200000000002</v>
-      </c>
-      <c r="D183" s="11">
-        <f t="shared" si="9"/>
-        <v>1007.5038155193986</v>
-      </c>
-      <c r="E183" s="4">
-        <f t="shared" si="10"/>
         <v>496.50381551939859</v>
       </c>
-      <c r="J183" s="14" t="str">
-        <f t="shared" si="11"/>
-        <v>1008,</v>
-      </c>
-    </row>
-    <row r="184" spans="2:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="184" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B184" s="2">
         <v>181</v>
       </c>
       <c r="C184" s="7">
+        <f t="shared" si="6"/>
+        <v>1524.7440000000001</v>
+      </c>
+      <c r="D184" s="11">
+        <f t="shared" si="7"/>
+        <v>1019.8514187846965</v>
+      </c>
+      <c r="E184" s="4">
         <f t="shared" si="8"/>
-        <v>1524.7440000000001</v>
-      </c>
-      <c r="D184" s="11">
-        <f t="shared" si="9"/>
-        <v>1019.8514187846965</v>
-      </c>
-      <c r="E184" s="4">
-        <f t="shared" si="10"/>
         <v>508.85141878469653</v>
       </c>
-      <c r="J184" s="14" t="str">
-        <f t="shared" si="11"/>
-        <v>1020,</v>
-      </c>
-    </row>
-    <row r="185" spans="2:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="185" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B185" s="2">
         <v>182</v>
       </c>
       <c r="C185" s="7">
+        <f t="shared" si="6"/>
+        <v>1533.1680000000001</v>
+      </c>
+      <c r="D185" s="11">
+        <f t="shared" si="7"/>
+        <v>1021.219082170365</v>
+      </c>
+      <c r="E185" s="4">
         <f t="shared" si="8"/>
-        <v>1533.1680000000001</v>
-      </c>
-      <c r="D185" s="11">
-        <f t="shared" si="9"/>
-        <v>1021.219082170365</v>
-      </c>
-      <c r="E185" s="4">
-        <f t="shared" si="10"/>
         <v>510.21908217036503</v>
       </c>
-      <c r="J185" s="14" t="str">
-        <f t="shared" si="11"/>
-        <v>1021,</v>
-      </c>
-    </row>
-    <row r="186" spans="2:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="186" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B186" s="2">
         <v>183</v>
       </c>
       <c r="C186" s="7">
+        <f t="shared" si="6"/>
+        <v>1541.5920000000003</v>
+      </c>
+      <c r="D186" s="11">
+        <f t="shared" si="7"/>
+        <v>1011.5772943864761</v>
+      </c>
+      <c r="E186" s="4">
         <f t="shared" si="8"/>
-        <v>1541.5920000000003</v>
-      </c>
-      <c r="D186" s="11">
-        <f t="shared" si="9"/>
-        <v>1011.5772943864761</v>
-      </c>
-      <c r="E186" s="4">
-        <f t="shared" si="10"/>
         <v>500.57729438647607</v>
       </c>
-      <c r="J186" s="14" t="str">
-        <f t="shared" si="11"/>
-        <v>1012,</v>
-      </c>
-    </row>
-    <row r="187" spans="2:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="187" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B187" s="2">
         <v>184</v>
       </c>
       <c r="C187" s="7">
+        <f t="shared" si="6"/>
+        <v>1550.0160000000003</v>
+      </c>
+      <c r="D187" s="11">
+        <f t="shared" si="7"/>
+        <v>991.13410486807356</v>
+      </c>
+      <c r="E187" s="4">
         <f t="shared" si="8"/>
-        <v>1550.0160000000003</v>
-      </c>
-      <c r="D187" s="11">
-        <f t="shared" si="9"/>
-        <v>991.13410486807356</v>
-      </c>
-      <c r="E187" s="4">
-        <f t="shared" si="10"/>
         <v>480.13410486807356</v>
       </c>
-      <c r="J187" s="14" t="str">
-        <f t="shared" si="11"/>
-        <v>991,</v>
-      </c>
-    </row>
-    <row r="188" spans="2:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="188" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B188" s="2">
         <v>185</v>
       </c>
       <c r="C188" s="7">
+        <f t="shared" si="6"/>
+        <v>1558.4400000000003</v>
+      </c>
+      <c r="D188" s="11">
+        <f t="shared" si="7"/>
+        <v>960.33063450737291</v>
+      </c>
+      <c r="E188" s="4">
         <f t="shared" si="8"/>
-        <v>1558.4400000000003</v>
-      </c>
-      <c r="D188" s="11">
-        <f t="shared" si="9"/>
-        <v>960.33063450737291</v>
-      </c>
-      <c r="E188" s="4">
-        <f t="shared" si="10"/>
         <v>449.33063450737291</v>
       </c>
-      <c r="J188" s="14" t="str">
-        <f t="shared" si="11"/>
-        <v>960,</v>
-      </c>
-    </row>
-    <row r="189" spans="2:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="189" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B189" s="2">
         <v>186</v>
       </c>
       <c r="C189" s="7">
+        <f t="shared" si="6"/>
+        <v>1566.8640000000003</v>
+      </c>
+      <c r="D189" s="11">
+        <f t="shared" si="7"/>
+        <v>919.83155719572926</v>
+      </c>
+      <c r="E189" s="4">
         <f t="shared" si="8"/>
-        <v>1566.8640000000003</v>
-      </c>
-      <c r="D189" s="11">
-        <f t="shared" si="9"/>
-        <v>919.83155719572926</v>
-      </c>
-      <c r="E189" s="4">
-        <f t="shared" si="10"/>
         <v>408.83155719572926</v>
       </c>
-      <c r="J189" s="14" t="str">
-        <f t="shared" si="11"/>
-        <v>920,</v>
-      </c>
-    </row>
-    <row r="190" spans="2:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="190" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B190" s="2">
         <v>187</v>
       </c>
       <c r="C190" s="7">
+        <f t="shared" si="6"/>
+        <v>1575.2880000000002</v>
+      </c>
+      <c r="D190" s="11">
+        <f t="shared" si="7"/>
+        <v>870.5107575635991</v>
+      </c>
+      <c r="E190" s="4">
         <f t="shared" si="8"/>
-        <v>1575.2880000000002</v>
-      </c>
-      <c r="D190" s="11">
-        <f t="shared" si="9"/>
-        <v>870.5107575635991</v>
-      </c>
-      <c r="E190" s="4">
-        <f t="shared" si="10"/>
         <v>359.5107575635991</v>
       </c>
-      <c r="J190" s="14" t="str">
-        <f t="shared" si="11"/>
-        <v>871,</v>
-      </c>
-    </row>
-    <row r="191" spans="2:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="191" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B191" s="2">
         <v>188</v>
       </c>
       <c r="C191" s="7">
+        <f t="shared" si="6"/>
+        <v>1583.7120000000002</v>
+      </c>
+      <c r="D191" s="11">
+        <f t="shared" si="7"/>
+        <v>813.43247439421839</v>
+      </c>
+      <c r="E191" s="4">
         <f t="shared" si="8"/>
-        <v>1583.7120000000002</v>
-      </c>
-      <c r="D191" s="11">
-        <f t="shared" si="9"/>
-        <v>813.43247439421839</v>
-      </c>
-      <c r="E191" s="4">
-        <f t="shared" si="10"/>
         <v>302.43247439421839</v>
       </c>
-      <c r="J191" s="14" t="str">
-        <f t="shared" si="11"/>
-        <v>813,</v>
-      </c>
-    </row>
-    <row r="192" spans="2:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="192" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B192" s="2">
         <v>189</v>
       </c>
       <c r="C192" s="7">
+        <f t="shared" si="6"/>
+        <v>1592.1360000000002</v>
+      </c>
+      <c r="D192" s="11">
+        <f t="shared" si="7"/>
+        <v>749.82833659633707</v>
+      </c>
+      <c r="E192" s="4">
         <f t="shared" si="8"/>
-        <v>1592.1360000000002</v>
-      </c>
-      <c r="D192" s="11">
-        <f t="shared" si="9"/>
-        <v>749.82833659633707</v>
-      </c>
-      <c r="E192" s="4">
-        <f t="shared" si="10"/>
         <v>238.82833659633707</v>
       </c>
-      <c r="J192" s="14" t="str">
-        <f t="shared" si="11"/>
-        <v>750,</v>
-      </c>
-    </row>
-    <row r="193" spans="2:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="193" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B193" s="2">
         <v>190</v>
       </c>
       <c r="C193" s="7">
+        <f t="shared" si="6"/>
+        <v>1600.5600000000002</v>
+      </c>
+      <c r="D193" s="11">
+        <f t="shared" si="7"/>
+        <v>681.07078725124506</v>
+      </c>
+      <c r="E193" s="4">
         <f t="shared" si="8"/>
-        <v>1600.5600000000002</v>
-      </c>
-      <c r="D193" s="11">
-        <f t="shared" si="9"/>
-        <v>681.07078725124506</v>
-      </c>
-      <c r="E193" s="4">
-        <f t="shared" si="10"/>
         <v>170.07078725124506</v>
       </c>
-      <c r="J193" s="14" t="str">
-        <f t="shared" si="11"/>
-        <v>681,</v>
-      </c>
-    </row>
-    <row r="194" spans="2:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="194" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B194" s="2">
         <v>191</v>
       </c>
       <c r="C194" s="7">
+        <f t="shared" si="6"/>
+        <v>1608.9840000000002</v>
+      </c>
+      <c r="D194" s="11">
+        <f t="shared" si="7"/>
+        <v>608.64346918710407</v>
+      </c>
+      <c r="E194" s="4">
         <f t="shared" si="8"/>
-        <v>1608.9840000000002</v>
-      </c>
-      <c r="D194" s="11">
-        <f t="shared" si="9"/>
-        <v>608.64346918710407</v>
-      </c>
-      <c r="E194" s="4">
-        <f t="shared" si="10"/>
         <v>97.643469187104074</v>
       </c>
-      <c r="J194" s="14" t="str">
-        <f t="shared" si="11"/>
-        <v>609,</v>
-      </c>
-    </row>
-    <row r="195" spans="2:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="195" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B195" s="2">
         <v>192</v>
       </c>
       <c r="C195" s="7">
-        <f t="shared" ref="C195:C258" si="12">$B195 * (360 / (SAMPLE_RATE / FREQ)) + PHASE_OFFSET</f>
+        <f t="shared" ref="C195:C258" si="9">$B195 * (360 / (SAMPLE_RATE / FREQ)) + PHASE_OFFSET</f>
         <v>1617.4080000000004</v>
       </c>
       <c r="D195" s="11">
-        <f t="shared" ref="D195:D258" si="13">(SIN($C195 * (PI()/180)) * AMPLITUDE) + 511</f>
+        <f t="shared" ref="D195:D258" si="10">(SIN($C195 * (PI()/180)) * AMPLITUDE) + 511</f>
         <v>534.10921109737512</v>
       </c>
       <c r="E195" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>23.109211097375123</v>
       </c>
-      <c r="J195" s="14" t="str">
-        <f t="shared" si="11"/>
-        <v>534,</v>
-      </c>
-    </row>
-    <row r="196" spans="2:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="196" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B196" s="2">
         <v>193</v>
       </c>
       <c r="C196" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>1625.8320000000003</v>
       </c>
       <c r="D196" s="11">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>459.07630499538556</v>
       </c>
       <c r="E196" s="4">
-        <f t="shared" ref="E196:E258" si="14">IF($D196 &lt; 511, 511 - $D196, $D196 - 511)</f>
+        <f t="shared" ref="E196:E258" si="11">IF($D196 &lt; 511, 511 - $D196, $D196 - 511)</f>
         <v>51.923695004614444</v>
       </c>
-      <c r="J196" s="14" t="str">
-        <f t="shared" ref="J196:J258" si="15">CONCATENATE(ROUND($D196, 0), ",")</f>
-        <v>459,</v>
-      </c>
-    </row>
-    <row r="197" spans="2:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="197" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B197" s="2">
         <v>194</v>
       </c>
       <c r="C197" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>1634.2560000000003</v>
       </c>
       <c r="D197" s="11">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>385.163802666349</v>
       </c>
       <c r="E197" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>125.836197333651</v>
       </c>
-      <c r="J197" s="14" t="str">
-        <f t="shared" si="15"/>
-        <v>385,</v>
-      </c>
-    </row>
-    <row r="198" spans="2:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="198" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B198" s="2">
         <v>195</v>
       </c>
       <c r="C198" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>1642.6800000000003</v>
       </c>
       <c r="D198" s="11">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>313.96657994624741</v>
       </c>
       <c r="E198" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>197.03342005375259</v>
       </c>
-      <c r="J198" s="14" t="str">
-        <f t="shared" si="15"/>
-        <v>314,</v>
-      </c>
-    </row>
-    <row r="199" spans="2:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="199" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B199" s="2">
         <v>196</v>
       </c>
       <c r="C199" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>1651.1040000000003</v>
       </c>
       <c r="D199" s="11">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>247.02092266667404</v>
       </c>
       <c r="E199" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>263.97907733332596</v>
       </c>
-      <c r="J199" s="14" t="str">
-        <f t="shared" si="15"/>
-        <v>247,</v>
-      </c>
-    </row>
-    <row r="200" spans="2:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="200" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B200" s="2">
         <v>197</v>
       </c>
       <c r="C200" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>1659.5280000000002</v>
       </c>
       <c r="D200" s="11">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>185.77137684832513</v>
       </c>
       <c r="E200" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>325.22862315167487</v>
       </c>
-      <c r="J200" s="14" t="str">
-        <f t="shared" si="15"/>
-        <v>186,</v>
-      </c>
-    </row>
-    <row r="201" spans="2:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="201" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B201" s="2">
         <v>198</v>
       </c>
       <c r="C201" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>1667.9520000000002</v>
       </c>
       <c r="D201" s="11">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>131.53957844604616</v>
       </c>
       <c r="E201" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>379.46042155395384</v>
       </c>
-      <c r="J201" s="14" t="str">
-        <f t="shared" si="15"/>
-        <v>132,</v>
-      </c>
-    </row>
-    <row r="202" spans="2:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="202" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B202" s="2">
         <v>199</v>
       </c>
       <c r="C202" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>1676.3760000000002</v>
       </c>
       <c r="D202" s="11">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>85.495735233734763</v>
       </c>
       <c r="E202" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>425.50426476626524</v>
       </c>
-      <c r="J202" s="14" t="str">
-        <f t="shared" si="15"/>
-        <v>85,</v>
-      </c>
-    </row>
-    <row r="203" spans="2:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="203" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B203" s="2">
         <v>200</v>
       </c>
       <c r="C203" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>1684.8000000000002</v>
       </c>
       <c r="D203" s="11">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>48.633376189863327</v>
       </c>
       <c r="E203" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>462.36662381013667</v>
       </c>
-      <c r="J203" s="14" t="str">
-        <f t="shared" si="15"/>
-        <v>49,</v>
-      </c>
-    </row>
-    <row r="204" spans="2:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="204" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B204" s="2">
         <v>201</v>
       </c>
       <c r="C204" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>1693.2240000000002</v>
       </c>
       <c r="D204" s="11">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>21.747913238582612</v>
       </c>
       <c r="E204" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>489.25208676141739</v>
       </c>
-      <c r="J204" s="14" t="str">
-        <f t="shared" si="15"/>
-        <v>22,</v>
-      </c>
-    </row>
-    <row r="205" spans="2:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="205" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B205" s="2">
         <v>202</v>
       </c>
       <c r="C205" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>1701.6480000000004</v>
       </c>
       <c r="D205" s="11">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>5.4194779388175789</v>
       </c>
       <c r="E205" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>505.58052206118242</v>
       </c>
-      <c r="J205" s="14" t="str">
-        <f t="shared" si="15"/>
-        <v>5,</v>
-      </c>
-    </row>
-    <row r="206" spans="2:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="206" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B206" s="2">
         <v>203</v>
       </c>
       <c r="C206" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>1710.0720000000003</v>
       </c>
       <c r="D206" s="11">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>4.0346937481672285E-4</v>
       </c>
       <c r="E206" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>510.99959653062518</v>
       </c>
-      <c r="J206" s="14" t="str">
-        <f t="shared" si="15"/>
-        <v>0,</v>
-      </c>
-    </row>
-    <row r="207" spans="2:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="207" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B207" s="2">
         <v>204</v>
       </c>
       <c r="C207" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>1718.4960000000003</v>
       </c>
       <c r="D207" s="11">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>5.6076220224044278</v>
       </c>
       <c r="E207" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>505.39237797759557</v>
       </c>
-      <c r="J207" s="14" t="str">
-        <f t="shared" si="15"/>
-        <v>6,</v>
-      </c>
-    </row>
-    <row r="208" spans="2:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="208" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B208" s="2">
         <v>205</v>
       </c>
       <c r="C208" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>1726.9200000000003</v>
       </c>
       <c r="D208" s="11">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>22.120141653438168</v>
       </c>
       <c r="E208" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>488.87985834656183</v>
       </c>
-      <c r="J208" s="14" t="str">
-        <f t="shared" si="15"/>
-        <v>22,</v>
-      </c>
-    </row>
-    <row r="209" spans="2:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="209" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B209" s="2">
         <v>206</v>
       </c>
       <c r="C209" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>1735.3440000000003</v>
       </c>
       <c r="D209" s="11">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>49.181657032243038</v>
       </c>
       <c r="E209" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>461.81834296775696</v>
       </c>
-      <c r="J209" s="14" t="str">
-        <f t="shared" si="15"/>
-        <v>49,</v>
-      </c>
-    </row>
-    <row r="210" spans="2:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="210" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B210" s="2">
         <v>207</v>
       </c>
       <c r="C210" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>1743.7680000000003</v>
       </c>
       <c r="D210" s="11">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>86.208237759998156</v>
       </c>
       <c r="E210" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>424.79176224000184</v>
       </c>
-      <c r="J210" s="14" t="str">
-        <f t="shared" si="15"/>
-        <v>86,</v>
-      </c>
-    </row>
-    <row r="211" spans="2:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="211" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B211" s="2">
         <v>208</v>
       </c>
       <c r="C211" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>1752.1920000000002</v>
       </c>
       <c r="D211" s="11">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>132.40092835514133</v>
       </c>
       <c r="E211" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>378.59907164485867</v>
       </c>
-      <c r="J211" s="14" t="str">
-        <f t="shared" si="15"/>
-        <v>132,</v>
-      </c>
-    </row>
-    <row r="212" spans="2:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="212" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B212" s="2">
         <v>209</v>
       </c>
       <c r="C212" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>1760.6160000000002</v>
       </c>
       <c r="D212" s="11">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>186.76298802676672</v>
       </c>
       <c r="E212" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>324.23701197323328</v>
       </c>
-      <c r="J212" s="14" t="str">
-        <f t="shared" si="15"/>
-        <v>187,</v>
-      </c>
-    </row>
-    <row r="213" spans="2:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="213" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B213" s="2">
         <v>210</v>
       </c>
       <c r="C213" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>1769.0400000000002</v>
       </c>
       <c r="D213" s="11">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>248.12139823765193</v>
       </c>
       <c r="E213" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>262.87860176234807</v>
       </c>
-      <c r="J213" s="14" t="str">
-        <f t="shared" si="15"/>
-        <v>248,</v>
-      </c>
-    </row>
-    <row r="214" spans="2:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="214" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B214" s="2">
         <v>211</v>
       </c>
       <c r="C214" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>1777.4640000000002</v>
       </c>
       <c r="D214" s="11">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>315.1521739690744</v>
       </c>
       <c r="E214" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>195.8478260309256</v>
       </c>
-      <c r="J214" s="14" t="str">
-        <f t="shared" si="15"/>
-        <v>315,</v>
-      </c>
-    </row>
-    <row r="215" spans="2:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="215" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B215" s="2">
         <v>212</v>
       </c>
       <c r="C215" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>1785.8880000000004</v>
       </c>
       <c r="D215" s="11">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>386.40893252375849</v>
       </c>
       <c r="E215" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>124.59106747624151</v>
       </c>
-      <c r="J215" s="14" t="str">
-        <f t="shared" si="15"/>
-        <v>386,</v>
-      </c>
-    </row>
-    <row r="216" spans="2:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="216" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B216" s="2">
         <v>213</v>
       </c>
       <c r="C216" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>1794.3120000000004</v>
       </c>
       <c r="D216" s="11">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>460.35410341243039</v>
       </c>
       <c r="E216" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>50.645896587569609</v>
       </c>
-      <c r="J216" s="14" t="str">
-        <f t="shared" si="15"/>
-        <v>460,</v>
-      </c>
-    </row>
-    <row r="217" spans="2:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="217" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B217" s="2">
         <v>214</v>
       </c>
       <c r="C217" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>1802.7360000000003</v>
       </c>
       <c r="D217" s="11">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>535.39210588052219</v>
       </c>
       <c r="E217" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>24.392105880522195</v>
       </c>
-      <c r="J217" s="14" t="str">
-        <f t="shared" si="15"/>
-        <v>535,</v>
-      </c>
-    </row>
-    <row r="218" spans="2:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="218" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B218" s="2">
         <v>215</v>
       </c>
       <c r="C218" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>1811.1600000000003</v>
       </c>
       <c r="D218" s="11">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>609.90377817399178</v>
       </c>
       <c r="E218" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>98.903778173991782</v>
       </c>
-      <c r="J218" s="14" t="str">
-        <f t="shared" si="15"/>
-        <v>610,</v>
-      </c>
-    </row>
-    <row r="219" spans="2:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="219" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B219" s="2">
         <v>216</v>
       </c>
       <c r="C219" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>1819.5840000000003</v>
       </c>
       <c r="D219" s="11">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>682.28131563334387</v>
       </c>
       <c r="E219" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>171.28131563334387</v>
       </c>
-      <c r="J219" s="14" t="str">
-        <f t="shared" si="15"/>
-        <v>682,</v>
-      </c>
-    </row>
-    <row r="220" spans="2:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="220" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B220" s="2">
         <v>217</v>
       </c>
       <c r="C220" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>1828.0080000000003</v>
       </c>
       <c r="D220" s="11">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>750.96296372552331</v>
       </c>
       <c r="E220" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>239.96296372552331</v>
       </c>
-      <c r="J220" s="14" t="str">
-        <f t="shared" si="15"/>
-        <v>751,</v>
-      </c>
-    </row>
-    <row r="221" spans="2:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="221" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B221" s="2">
         <v>218</v>
       </c>
       <c r="C221" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>1836.4320000000002</v>
       </c>
       <c r="D221" s="11">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>814.46671741124101</v>
       </c>
       <c r="E221" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>303.46671741124101</v>
       </c>
-      <c r="J221" s="14" t="str">
-        <f t="shared" si="15"/>
-        <v>814,</v>
-      </c>
-    </row>
-    <row r="222" spans="2:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="222" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B222" s="2">
         <v>219</v>
       </c>
       <c r="C222" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>1844.8560000000002</v>
       </c>
       <c r="D222" s="11">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>871.42229968653089</v>
       </c>
       <c r="E222" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>360.42229968653089</v>
       </c>
-      <c r="J222" s="14" t="str">
-        <f t="shared" si="15"/>
-        <v>871,</v>
-      </c>
-    </row>
-    <row r="223" spans="2:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="223" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B223" s="2">
         <v>220</v>
       </c>
       <c r="C223" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>1853.2800000000002</v>
       </c>
       <c r="D223" s="11">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>920.60072926901944</v>
       </c>
       <c r="E223" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>409.60072926901944</v>
       </c>
-      <c r="J223" s="14" t="str">
-        <f t="shared" si="15"/>
-        <v>921,</v>
-      </c>
-    </row>
-    <row r="224" spans="2:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="224" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B224" s="2">
         <v>221</v>
       </c>
       <c r="C224" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>1861.7040000000002</v>
       </c>
       <c r="D224" s="11">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>960.94083942072552</v>
       </c>
       <c r="E224" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>449.94083942072552</v>
       </c>
-      <c r="J224" s="14" t="str">
-        <f t="shared" si="15"/>
-        <v>961,</v>
-      </c>
-    </row>
-    <row r="225" spans="2:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="225" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B225" s="2">
         <v>222</v>
       </c>
       <c r="C225" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>1870.1280000000004</v>
       </c>
       <c r="D225" s="11">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>991.57217568706494</v>
       </c>
       <c r="E225" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>480.57217568706494</v>
       </c>
-      <c r="J225" s="14" t="str">
-        <f t="shared" si="15"/>
-        <v>992,</v>
-      </c>
-    </row>
-    <row r="226" spans="2:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="226" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B226" s="2">
         <v>223</v>
       </c>
       <c r="C226" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>1878.5520000000004</v>
       </c>
       <c r="D226" s="11">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>1011.8337784672137</v>
       </c>
       <c r="E226" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>500.83377846721373</v>
       </c>
-      <c r="J226" s="14" t="str">
-        <f t="shared" si="15"/>
-        <v>1012,</v>
-      </c>
-    </row>
-    <row r="227" spans="2:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="227" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B227" s="2">
         <v>224</v>
       </c>
       <c r="C227" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>1886.9760000000003</v>
       </c>
       <c r="D227" s="11">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>1021.2884451275987</v>
       </c>
       <c r="E227" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>510.28844512759872</v>
       </c>
-      <c r="J227" s="14" t="str">
-        <f t="shared" si="15"/>
-        <v>1021,</v>
-      </c>
-    </row>
-    <row r="228" spans="2:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="228" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B228" s="2">
         <v>225</v>
       </c>
       <c r="C228" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>1895.4000000000003</v>
       </c>
       <c r="D228" s="11">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>1019.7321639121736</v>
       </c>
       <c r="E228" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>508.73216391217363</v>
       </c>
-      <c r="J228" s="14" t="str">
-        <f t="shared" si="15"/>
-        <v>1020,</v>
-      </c>
-    </row>
-    <row r="229" spans="2:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="229" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B229" s="2">
         <v>226</v>
       </c>
       <c r="C229" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>1903.8240000000003</v>
       </c>
       <c r="D229" s="11">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>1007.1985160856266</v>
       </c>
       <c r="E229" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>496.19851608562658</v>
       </c>
-      <c r="J229" s="14" t="str">
-        <f t="shared" si="15"/>
-        <v>1007,</v>
-      </c>
-    </row>
-    <row r="230" spans="2:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="230" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B230" s="2">
         <v>227</v>
       </c>
       <c r="C230" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>1912.2480000000003</v>
       </c>
       <c r="D230" s="11">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>983.95795132054889</v>
       </c>
       <c r="E230" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>472.95795132054889</v>
       </c>
-      <c r="J230" s="14" t="str">
-        <f t="shared" si="15"/>
-        <v>984,</v>
-      </c>
-    </row>
-    <row r="231" spans="2:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="231" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B231" s="2">
         <v>228</v>
       </c>
       <c r="C231" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>1920.6720000000003</v>
       </c>
       <c r="D231" s="11">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>950.51195196418166</v>
       </c>
       <c r="E231" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>439.51195196418166</v>
       </c>
-      <c r="J231" s="14" t="str">
-        <f t="shared" si="15"/>
-        <v>951,</v>
-      </c>
-    </row>
-    <row r="232" spans="2:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="232" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B232" s="2">
         <v>229</v>
       </c>
       <c r="C232" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>1929.0960000000002</v>
       </c>
       <c r="D232" s="11">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>907.58221210755096</v>
       </c>
       <c r="E232" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>396.58221210755096</v>
       </c>
-      <c r="J232" s="14" t="str">
-        <f t="shared" si="15"/>
-        <v>908,</v>
-      </c>
-    </row>
-    <row r="233" spans="2:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="233" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B233" s="2">
         <v>230</v>
       </c>
       <c r="C233" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>1937.5200000000002</v>
       </c>
       <c r="D233" s="11">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>856.09506494984134</v>
       </c>
       <c r="E233" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>345.09506494984134</v>
       </c>
-      <c r="J233" s="14" t="str">
-        <f t="shared" si="15"/>
-        <v>856,</v>
-      </c>
-    </row>
-    <row r="234" spans="2:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="234" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B234" s="2">
         <v>231</v>
       </c>
       <c r="C234" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>1945.9440000000002</v>
       </c>
       <c r="D234" s="11">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>797.16149448264309</v>
       </c>
       <c r="E234" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>286.16149448264309</v>
       </c>
-      <c r="J234" s="14" t="str">
-        <f t="shared" si="15"/>
-        <v>797,</v>
-      </c>
-    </row>
-    <row r="235" spans="2:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="235" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B235" s="2">
         <v>232</v>
       </c>
       <c r="C235" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>1954.3680000000004</v>
       </c>
       <c r="D235" s="11">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>732.0531627997085</v>
       </c>
       <c r="E235" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>221.0531627997085</v>
       </c>
-      <c r="J235" s="14" t="str">
-        <f t="shared" si="15"/>
-        <v>732,</v>
-      </c>
-    </row>
-    <row r="236" spans="2:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="236" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B236" s="2">
         <v>233</v>
       </c>
       <c r="C236" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>1962.7920000000004</v>
       </c>
       <c r="D236" s="11">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>662.17497031233484</v>
       </c>
       <c r="E236" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>151.17497031233484</v>
       </c>
-      <c r="J236" s="14" t="str">
-        <f t="shared" si="15"/>
-        <v>662,</v>
-      </c>
-    </row>
-    <row r="237" spans="2:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="237" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B237" s="2">
         <v>234</v>
       </c>
       <c r="C237" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>1971.2160000000003</v>
       </c>
       <c r="D237" s="11">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>589.03474096300874</v>
       </c>
       <c r="E237" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>78.034740963008744</v>
       </c>
-      <c r="J237" s="14" t="str">
-        <f t="shared" si="15"/>
-        <v>589,</v>
-      </c>
-    </row>
-    <row r="238" spans="2:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="238" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B238" s="2">
         <v>235</v>
       </c>
       <c r="C238" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>1979.6400000000003</v>
       </c>
       <c r="D238" s="11">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>514.2106865663975</v>
       </c>
       <c r="E238" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>3.2106865663974986</v>
       </c>
-      <c r="J238" s="14" t="str">
-        <f t="shared" si="15"/>
-        <v>514,</v>
-      </c>
-    </row>
-    <row r="239" spans="2:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="239" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B239" s="2">
         <v>236</v>
       </c>
       <c r="C239" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>1988.0640000000003</v>
       </c>
       <c r="D239" s="11">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>439.31735232861854</v>
       </c>
       <c r="E239" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>71.68264767138146</v>
       </c>
-      <c r="J239" s="14" t="str">
-        <f t="shared" si="15"/>
-        <v>439,</v>
-      </c>
-    </row>
-    <row r="240" spans="2:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="240" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B240" s="2">
         <v>237</v>
       </c>
       <c r="C240" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>1996.4880000000003</v>
       </c>
       <c r="D240" s="11">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>365.97077836857284</v>
       </c>
       <c r="E240" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>145.02922163142716</v>
       </c>
-      <c r="J240" s="14" t="str">
-        <f t="shared" si="15"/>
-        <v>366,</v>
-      </c>
-    </row>
-    <row r="241" spans="2:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="241" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B241" s="2">
         <v>238</v>
       </c>
       <c r="C241" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>2004.9120000000003</v>
       </c>
       <c r="D241" s="11">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>295.75362898221829</v>
       </c>
       <c r="E241" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>215.24637101778171</v>
       </c>
-      <c r="J241" s="14" t="str">
-        <f t="shared" si="15"/>
-        <v>296,</v>
-      </c>
-    </row>
-    <row r="242" spans="2:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="242" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B242" s="2">
         <v>239</v>
       </c>
       <c r="C242" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>2013.3360000000002</v>
       </c>
       <c r="D242" s="11">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>230.18104208667506</v>
       </c>
       <c r="E242" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>280.81895791332494</v>
       </c>
-      <c r="J242" s="14" t="str">
-        <f t="shared" si="15"/>
-        <v>230,</v>
-      </c>
-    </row>
-    <row r="243" spans="2:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="243" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B243" s="2">
         <v>240</v>
       </c>
       <c r="C243" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>2021.7600000000002</v>
       </c>
       <c r="D243" s="11">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>170.66793574109488</v>
       </c>
       <c r="E243" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>340.33206425890512</v>
       </c>
-      <c r="J243" s="14" t="str">
-        <f t="shared" si="15"/>
-        <v>171,</v>
-      </c>
-    </row>
-    <row r="244" spans="2:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="244" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B244" s="2">
         <v>241</v>
       </c>
       <c r="C244" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>2030.1840000000002</v>
       </c>
       <c r="D244" s="11">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>118.49847720060302</v>
       </c>
       <c r="E244" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>392.50152279939698</v>
       </c>
-      <c r="J244" s="14" t="str">
-        <f t="shared" si="15"/>
-        <v>118,</v>
-      </c>
-    </row>
-    <row r="245" spans="2:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="245" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B245" s="2">
         <v>242</v>
       </c>
       <c r="C245" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>2038.6080000000004</v>
       </c>
       <c r="D245" s="11">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>74.79837329666293</v>
       </c>
       <c r="E245" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>436.20162670333707</v>
       </c>
-      <c r="J245" s="14" t="str">
-        <f t="shared" si="15"/>
-        <v>75,</v>
-      </c>
-    </row>
-    <row r="246" spans="2:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="246" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B246" s="2">
         <v>243</v>
       </c>
       <c r="C246" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>2047.0320000000004</v>
       </c>
       <c r="D246" s="11">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>40.510580059042297</v>
       </c>
       <c r="E246" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>470.4894199409577</v>
       </c>
-      <c r="J246" s="14" t="str">
-        <f t="shared" si="15"/>
-        <v>41,</v>
-      </c>
-    </row>
-    <row r="247" spans="2:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="247" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B247" s="2">
         <v>244</v>
       </c>
       <c r="C247" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>2055.4560000000001</v>
       </c>
       <c r="D247" s="11">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>16.374955714437874</v>
       </c>
       <c r="E247" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>494.62504428556213</v>
       </c>
-      <c r="J247" s="14" t="str">
-        <f t="shared" si="15"/>
-        <v>16,</v>
-      </c>
-    </row>
-    <row r="248" spans="2:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="248" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B248" s="2">
         <v>245</v>
       </c>
       <c r="C248" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>2063.88</v>
       </c>
       <c r="D248" s="11">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>2.9122961071335567</v>
       </c>
       <c r="E248" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>508.08770389286644</v>
       </c>
-      <c r="J248" s="14" t="str">
-        <f t="shared" si="15"/>
-        <v>3,</v>
-      </c>
-    </row>
-    <row r="249" spans="2:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="249" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B249" s="2">
         <v>246</v>
       </c>
       <c r="C249" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>2072.3040000000001</v>
       </c>
       <c r="D249" s="11">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>0.41309702362275402</v>
       </c>
       <c r="E249" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>510.58690297637725</v>
       </c>
-      <c r="J249" s="14" t="str">
-        <f t="shared" si="15"/>
-        <v>0,</v>
-      </c>
-    </row>
-    <row r="250" spans="2:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="250" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B250" s="2">
         <v>247</v>
       </c>
       <c r="C250" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>2080.7280000000005</v>
       </c>
       <c r="D250" s="11">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>8.9312859065181556</v>
       </c>
       <c r="E250" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>502.06871409348184</v>
       </c>
-      <c r="J250" s="14" t="str">
-        <f t="shared" si="15"/>
-        <v>9,</v>
-      </c>
-    </row>
-    <row r="251" spans="2:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="251" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B251" s="2">
         <v>248</v>
       </c>
       <c r="C251" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>2089.1520000000005</v>
       </c>
       <c r="D251" s="11">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>28.283058214129028</v>
       </c>
       <c r="E251" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>482.71694178587097</v>
       </c>
-      <c r="J251" s="14" t="str">
-        <f t="shared" si="15"/>
-        <v>28,</v>
-      </c>
-    </row>
-    <row r="252" spans="2:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="252" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B252" s="2">
         <v>249</v>
       </c>
       <c r="C252" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>2097.5760000000005</v>
       </c>
       <c r="D252" s="11">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>58.050843534626324</v>
       </c>
       <c r="E252" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>452.94915646537368</v>
       </c>
-      <c r="J252" s="14" t="str">
-        <f t="shared" si="15"/>
-        <v>58,</v>
-      </c>
-    </row>
-    <row r="253" spans="2:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="253" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B253" s="2">
         <v>250</v>
       </c>
       <c r="C253" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>2106.0000000000005</v>
       </c>
       <c r="D253" s="11">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>97.592315874404107</v>
       </c>
       <c r="E253" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>413.40768412559589</v>
       </c>
-      <c r="J253" s="14" t="str">
-        <f t="shared" si="15"/>
-        <v>98,</v>
-      </c>
-    </row>
-    <row r="254" spans="2:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="254" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B254" s="2">
         <v>251</v>
       </c>
       <c r="C254" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>2114.4240000000004</v>
       </c>
       <c r="D254" s="11">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>146.05425369763617</v>
       </c>
       <c r="E254" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>364.94574630236383</v>
       </c>
-      <c r="J254" s="14" t="str">
-        <f t="shared" si="15"/>
-        <v>146,</v>
-      </c>
-    </row>
-    <row r="255" spans="2:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="255" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B255" s="2">
         <v>252</v>
       </c>
       <c r="C255" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>2122.8480000000004</v>
       </c>
       <c r="D255" s="11">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>202.39095064661939</v>
       </c>
       <c r="E255" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>308.60904935338061</v>
       </c>
-      <c r="J255" s="14" t="str">
-        <f t="shared" si="15"/>
-        <v>202,</v>
-      </c>
-    </row>
-    <row r="256" spans="2:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="256" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B256" s="2">
         <v>253</v>
       </c>
       <c r="C256" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>2131.2720000000004</v>
       </c>
       <c r="D256" s="11">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>265.3867796784067</v>
       </c>
       <c r="E256" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>245.6132203215933</v>
       </c>
-      <c r="J256" s="14" t="str">
-        <f t="shared" si="15"/>
-        <v>265,</v>
-      </c>
-    </row>
-    <row r="257" spans="2:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="257" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B257" s="2">
         <v>254</v>
       </c>
       <c r="C257" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>2139.6960000000004</v>
       </c>
       <c r="D257" s="11">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>333.68242373127771</v>
       </c>
       <c r="E257" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>177.31757626872229</v>
       </c>
-      <c r="J257" s="14" t="str">
-        <f t="shared" si="15"/>
-        <v>334,</v>
-      </c>
-    </row>
-    <row r="258" spans="2:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="258" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B258" s="2">
         <v>255</v>
       </c>
       <c r="C258" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>2148.1200000000003</v>
       </c>
       <c r="D258" s="11">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>405.80420691859456</v>
       </c>
       <c r="E258" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>105.19579308140544</v>
-      </c>
-      <c r="J258" s="14" t="str">
-        <f t="shared" si="15"/>
-        <v>406,</v>
       </c>
     </row>
   </sheetData>

--- a/ADC_Sample_Generator.xlsx
+++ b/ADC_Sample_Generator.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/guy/development/avrsnd/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B67ADCAB-A327-C24E-B75B-E4A9656D0B18}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B737EC86-F35F-994E-B927-CBF7BE6F6730}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20" yWindow="480" windowWidth="37920" windowHeight="22460" activeTab="1" xr2:uid="{DD120292-E540-4843-A0F3-C6A293117715}"/>
+    <workbookView xWindow="20" yWindow="480" windowWidth="37920" windowHeight="22460" xr2:uid="{DD120292-E540-4843-A0F3-C6A293117715}"/>
   </bookViews>
   <sheets>
     <sheet name="Input Data" sheetId="3" r:id="rId1"/>
@@ -23,11 +23,11 @@
     <definedName name="CLOCK_FREQ">'Input Data'!$C$2</definedName>
     <definedName name="FREQ">'Input Data'!$C$4</definedName>
     <definedName name="P_ZERO">#REF!</definedName>
-    <definedName name="PEAK_VALUE">Samples!$H$3</definedName>
+    <definedName name="PEAK_VALUE">Samples!$H$4</definedName>
     <definedName name="PHASE_OFFSET">'Input Data'!$C$6</definedName>
     <definedName name="PRESCALER_DATA">Data!$B$3:$B$9</definedName>
     <definedName name="PRESCALER_VALUE">'Input Data'!$C$3</definedName>
-    <definedName name="SAMPLE_RATE">Samples!$H$2</definedName>
+    <definedName name="SAMPLE_RATE">Samples!$H$3</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Angle</t>
   </si>
@@ -87,6 +87,9 @@
   <si>
     <t>Rectified Value</t>
   </si>
+  <si>
+    <t>Copy highlighted cells to testsamples.h</t>
+  </si>
 </sst>
 </file>
 
@@ -95,7 +98,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -114,6 +117,14 @@
     <font>
       <b/>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -141,7 +152,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="-0.499984740745262"/>
+        <fgColor theme="7" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -184,7 +195,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -198,12 +209,15 @@
     <xf numFmtId="2" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -5355,11 +5369,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC1759F0-6E98-D642-8EEF-979164D85C63}">
   <dimension ref="B2:D7"/>
   <sheetViews>
-    <sheetView zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="2.83203125" customWidth="1"/>
     <col min="2" max="2" width="16.6640625" customWidth="1"/>
@@ -5367,7 +5381,7 @@
     <col min="4" max="4" width="13.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:4">
       <c r="B2" s="6" t="s">
         <v>7</v>
       </c>
@@ -5375,7 +5389,7 @@
         <v>16000000</v>
       </c>
     </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:4">
       <c r="B3" s="6" t="s">
         <v>8</v>
       </c>
@@ -5383,7 +5397,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:4">
       <c r="B4" s="6" t="s">
         <v>2</v>
       </c>
@@ -5392,7 +5406,7 @@
       </c>
       <c r="D4" s="1"/>
     </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:4">
       <c r="B5" s="6" t="s">
         <v>1</v>
       </c>
@@ -5401,7 +5415,7 @@
       </c>
       <c r="D5" s="1"/>
     </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:4">
       <c r="B6" s="6" t="s">
         <v>10</v>
       </c>
@@ -5410,7 +5424,7 @@
       </c>
       <c r="D6" s="1"/>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:4">
       <c r="D7" s="1"/>
     </row>
   </sheetData>
@@ -5435,11 +5449,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BECAB2F2-7285-6D48-B646-145BC5600B2F}">
   <dimension ref="B2:Z258"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="O26" sqref="O26"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="K29" sqref="K29:W29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="3.6640625" customWidth="1"/>
     <col min="2" max="2" width="11.83203125" bestFit="1" customWidth="1"/>
@@ -5452,7 +5466,7 @@
     <col min="11" max="26" width="6.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:26" ht="21">
       <c r="B2" s="5" t="s">
         <v>5</v>
       </c>
@@ -5465,65 +5479,27 @@
       <c r="E2" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="H2" s="10">
-        <f>CLOCK_FREQ / (PRESCALER_VALUE * 13)</f>
-        <v>19230.76923076923</v>
-      </c>
       <c r="I2" s="1"/>
-      <c r="J2" s="14"/>
-      <c r="K2" s="13">
-        <v>0</v>
-      </c>
-      <c r="L2" s="13">
-        <v>1</v>
-      </c>
-      <c r="M2" s="13">
-        <v>2</v>
-      </c>
-      <c r="N2" s="13">
-        <v>3</v>
-      </c>
-      <c r="O2" s="13">
-        <v>4</v>
-      </c>
-      <c r="P2" s="13">
-        <v>5</v>
-      </c>
-      <c r="Q2" s="13">
-        <v>6</v>
-      </c>
-      <c r="R2" s="13">
-        <v>7</v>
-      </c>
-      <c r="S2" s="13">
-        <v>8</v>
-      </c>
-      <c r="T2" s="13">
-        <v>9</v>
-      </c>
-      <c r="U2" s="13">
-        <v>10</v>
-      </c>
-      <c r="V2" s="13">
-        <v>11</v>
-      </c>
-      <c r="W2" s="13">
-        <v>12</v>
-      </c>
-      <c r="X2" s="13">
+      <c r="K2" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="Y2" s="13">
-        <v>14</v>
-      </c>
-      <c r="Z2" s="13">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="L2" s="16"/>
+      <c r="M2" s="16"/>
+      <c r="N2" s="16"/>
+      <c r="O2" s="16"/>
+      <c r="P2" s="16"/>
+      <c r="Q2" s="16"/>
+      <c r="R2" s="16"/>
+      <c r="S2" s="16"/>
+      <c r="T2" s="16"/>
+      <c r="U2" s="16"/>
+      <c r="V2" s="16"/>
+      <c r="W2" s="16"/>
+      <c r="X2" s="16"/>
+      <c r="Y2" s="16"/>
+      <c r="Z2" s="16"/>
+    </row>
+    <row r="3" spans="2:26">
       <c r="B3" s="2">
         <v>0</v>
       </c>
@@ -5540,82 +5516,15 @@
         <v>0</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="H3" s="12">
-        <f>MAX($E$13:$E$268)</f>
-        <v>510.99959653062518</v>
+        <v>4</v>
+      </c>
+      <c r="H3" s="10">
+        <f>CLOCK_FREQ / (PRESCALER_VALUE * 13)</f>
+        <v>19230.76923076923</v>
       </c>
       <c r="I3" s="1"/>
-      <c r="J3" s="13">
-        <v>0</v>
-      </c>
-      <c r="K3" s="15" t="str">
-        <f>_xlfn.CONCAT(ROUND(VLOOKUP($B$3 + (K$2 + ($J3 * 16)), $B$3:$E$258, 3), 0), ",")</f>
-        <v>511,</v>
-      </c>
-      <c r="L3" s="15" t="str">
-        <f>_xlfn.CONCAT(ROUND(VLOOKUP($B$3 + (L$2 + ($J3 * 16)), $B$3:$E$258, 3), 0), ",")</f>
-        <v>586,</v>
-      </c>
-      <c r="M3" s="15" t="str">
-        <f>_xlfn.CONCAT(ROUND(VLOOKUP($B$3 + (M$2 + ($J3 * 16)), $B$3:$E$258, 3), 0), ",")</f>
-        <v>659,</v>
-      </c>
-      <c r="N3" s="15" t="str">
-        <f>_xlfn.CONCAT(ROUND(VLOOKUP($B$3 + (N$2 + ($J3 * 16)), $B$3:$E$258, 3), 0), ",")</f>
-        <v>729,</v>
-      </c>
-      <c r="O3" s="15" t="str">
-        <f>_xlfn.CONCAT(ROUND(VLOOKUP($B$3 + (O$2 + ($J3 * 16)), $B$3:$E$258, 3), 0), ",")</f>
-        <v>794,</v>
-      </c>
-      <c r="P3" s="15" t="str">
-        <f>_xlfn.CONCAT(ROUND(VLOOKUP($B$3 + (P$2 + ($J3 * 16)), $B$3:$E$258, 3), 0), ",")</f>
-        <v>854,</v>
-      </c>
-      <c r="Q3" s="15" t="str">
-        <f>_xlfn.CONCAT(ROUND(VLOOKUP($B$3 + (Q$2 + ($J3 * 16)), $B$3:$E$258, 3), 0), ",")</f>
-        <v>906,</v>
-      </c>
-      <c r="R3" s="15" t="str">
-        <f>_xlfn.CONCAT(ROUND(VLOOKUP($B$3 + (R$2 + ($J3 * 16)), $B$3:$E$258, 3), 0), ",")</f>
-        <v>949,</v>
-      </c>
-      <c r="S3" s="15" t="str">
-        <f>_xlfn.CONCAT(ROUND(VLOOKUP($B$3 + (S$2 + ($J3 * 16)), $B$3:$E$258, 3), 0), ",")</f>
-        <v>983,</v>
-      </c>
-      <c r="T3" s="15" t="str">
-        <f>_xlfn.CONCAT(ROUND(VLOOKUP($B$3 + (T$2 + ($J3 * 16)), $B$3:$E$258, 3), 0), ",")</f>
-        <v>1006,</v>
-      </c>
-      <c r="U3" s="15" t="str">
-        <f>_xlfn.CONCAT(ROUND(VLOOKUP($B$3 + (U$2 + ($J3 * 16)), $B$3:$E$258, 3), 0), ",")</f>
-        <v>1019,</v>
-      </c>
-      <c r="V3" s="15" t="str">
-        <f>_xlfn.CONCAT(ROUND(VLOOKUP($B$3 + (V$2 + ($J3 * 16)), $B$3:$E$258, 3), 0), ",")</f>
-        <v>1021,</v>
-      </c>
-      <c r="W3" s="15" t="str">
-        <f>_xlfn.CONCAT(ROUND(VLOOKUP($B$3 + (W$2 + ($J3 * 16)), $B$3:$E$258, 3), 0), ",")</f>
-        <v>1012,</v>
-      </c>
-      <c r="X3" s="15" t="str">
-        <f>_xlfn.CONCAT(ROUND(VLOOKUP($B$3 + (X$2 + ($J3 * 16)), $B$3:$E$258, 3), 0), ",")</f>
-        <v>993,</v>
-      </c>
-      <c r="Y3" s="15" t="str">
-        <f>_xlfn.CONCAT(ROUND(VLOOKUP($B$3 + (Y$2 + ($J3 * 16)), $B$3:$E$258, 3), 0), ",")</f>
-        <v>962,</v>
-      </c>
-      <c r="Z3" s="15" t="str">
-        <f>_xlfn.CONCAT(ROUND(VLOOKUP($B$3 + (Z$2 + ($J3 * 16)), $B$3:$E$258, 3), 0), ",")</f>
-        <v>923,</v>
-      </c>
-    </row>
-    <row r="4" spans="2:26" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="2:26">
       <c r="B4" s="2">
         <v>1</v>
       </c>
@@ -5632,82 +5541,64 @@
         <v>74.860171992900405</v>
       </c>
       <c r="G4" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="H4" s="12">
+        <f>MAX($E$13:$E$268)</f>
+        <v>510.99959653062518</v>
+      </c>
+      <c r="I4" s="1"/>
+      <c r="J4" s="13"/>
+      <c r="K4" s="14">
+        <v>0</v>
+      </c>
+      <c r="L4" s="14">
+        <v>1</v>
+      </c>
+      <c r="M4" s="14">
+        <v>2</v>
+      </c>
+      <c r="N4" s="14">
+        <v>3</v>
+      </c>
+      <c r="O4" s="14">
+        <v>4</v>
+      </c>
+      <c r="P4" s="14">
+        <v>5</v>
+      </c>
+      <c r="Q4" s="14">
         <v>6</v>
       </c>
-      <c r="H4" s="12">
-        <f>PEAK_VALUE * 0.707</f>
-        <v>361.27671474715197</v>
-      </c>
-      <c r="I4" s="1"/>
-      <c r="J4" s="13">
-        <v>1</v>
-      </c>
-      <c r="K4" s="15" t="str">
-        <f>_xlfn.CONCAT(ROUND(VLOOKUP($B$3 + (K$2 + ($J4 * 16)), $B$3:$E$258, 3), 0), ",")</f>
-        <v>874,</v>
-      </c>
-      <c r="L4" s="15" t="str">
-        <f>_xlfn.CONCAT(ROUND(VLOOKUP($B$3 + (L$2 + ($J4 * 16)), $B$3:$E$258, 3), 0), ",")</f>
-        <v>817,</v>
-      </c>
-      <c r="M4" s="15" t="str">
-        <f>_xlfn.CONCAT(ROUND(VLOOKUP($B$3 + (M$2 + ($J4 * 16)), $B$3:$E$258, 3), 0), ",")</f>
-        <v>754,</v>
-      </c>
-      <c r="N4" s="15" t="str">
-        <f>_xlfn.CONCAT(ROUND(VLOOKUP($B$3 + (N$2 + ($J4 * 16)), $B$3:$E$258, 3), 0), ",")</f>
-        <v>685,</v>
-      </c>
-      <c r="O4" s="15" t="str">
-        <f>_xlfn.CONCAT(ROUND(VLOOKUP($B$3 + (O$2 + ($J4 * 16)), $B$3:$E$258, 3), 0), ",")</f>
-        <v>613,</v>
-      </c>
-      <c r="P4" s="15" t="str">
-        <f>_xlfn.CONCAT(ROUND(VLOOKUP($B$3 + (P$2 + ($J4 * 16)), $B$3:$E$258, 3), 0), ",")</f>
-        <v>539,</v>
-      </c>
-      <c r="Q4" s="15" t="str">
-        <f>_xlfn.CONCAT(ROUND(VLOOKUP($B$3 + (Q$2 + ($J4 * 16)), $B$3:$E$258, 3), 0), ",")</f>
-        <v>464,</v>
-      </c>
-      <c r="R4" s="15" t="str">
-        <f>_xlfn.CONCAT(ROUND(VLOOKUP($B$3 + (R$2 + ($J4 * 16)), $B$3:$E$258, 3), 0), ",")</f>
-        <v>390,</v>
-      </c>
-      <c r="S4" s="15" t="str">
-        <f>_xlfn.CONCAT(ROUND(VLOOKUP($B$3 + (S$2 + ($J4 * 16)), $B$3:$E$258, 3), 0), ",")</f>
-        <v>318,</v>
-      </c>
-      <c r="T4" s="15" t="str">
-        <f>_xlfn.CONCAT(ROUND(VLOOKUP($B$3 + (T$2 + ($J4 * 16)), $B$3:$E$258, 3), 0), ",")</f>
-        <v>251,</v>
-      </c>
-      <c r="U4" s="15" t="str">
-        <f>_xlfn.CONCAT(ROUND(VLOOKUP($B$3 + (U$2 + ($J4 * 16)), $B$3:$E$258, 3), 0), ",")</f>
-        <v>189,</v>
-      </c>
-      <c r="V4" s="15" t="str">
-        <f>_xlfn.CONCAT(ROUND(VLOOKUP($B$3 + (V$2 + ($J4 * 16)), $B$3:$E$258, 3), 0), ",")</f>
-        <v>135,</v>
-      </c>
-      <c r="W4" s="15" t="str">
-        <f>_xlfn.CONCAT(ROUND(VLOOKUP($B$3 + (W$2 + ($J4 * 16)), $B$3:$E$258, 3), 0), ",")</f>
-        <v>88,</v>
-      </c>
-      <c r="X4" s="15" t="str">
-        <f>_xlfn.CONCAT(ROUND(VLOOKUP($B$3 + (X$2 + ($J4 * 16)), $B$3:$E$258, 3), 0), ",")</f>
-        <v>51,</v>
-      </c>
-      <c r="Y4" s="15" t="str">
-        <f>_xlfn.CONCAT(ROUND(VLOOKUP($B$3 + (Y$2 + ($J4 * 16)), $B$3:$E$258, 3), 0), ",")</f>
-        <v>23,</v>
-      </c>
-      <c r="Z4" s="15" t="str">
-        <f>_xlfn.CONCAT(ROUND(VLOOKUP($B$3 + (Z$2 + ($J4 * 16)), $B$3:$E$258, 3), 0), ",")</f>
-        <v>6,</v>
-      </c>
-    </row>
-    <row r="5" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="R4" s="14">
+        <v>7</v>
+      </c>
+      <c r="S4" s="14">
+        <v>8</v>
+      </c>
+      <c r="T4" s="14">
+        <v>9</v>
+      </c>
+      <c r="U4" s="14">
+        <v>10</v>
+      </c>
+      <c r="V4" s="14">
+        <v>11</v>
+      </c>
+      <c r="W4" s="14">
+        <v>12</v>
+      </c>
+      <c r="X4" s="14">
+        <v>13</v>
+      </c>
+      <c r="Y4" s="14">
+        <v>14</v>
+      </c>
+      <c r="Z4" s="14">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="2:26">
       <c r="B5" s="2">
         <v>2</v>
       </c>
@@ -5723,75 +5614,82 @@
         <f t="shared" si="2"/>
         <v>148.1050194381678</v>
       </c>
-      <c r="J5" s="13">
-        <v>2</v>
+      <c r="G5" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="H5" s="12">
+        <f>PEAK_VALUE * 0.707</f>
+        <v>361.27671474715197</v>
+      </c>
+      <c r="J5" s="14">
+        <v>0</v>
       </c>
       <c r="K5" s="15" t="str">
-        <f>_xlfn.CONCAT(ROUND(VLOOKUP($B$3 + (K$2 + ($J5 * 16)), $B$3:$E$258, 3), 0), ",")</f>
-        <v>0,</v>
+        <f t="shared" ref="K5:Z19" si="3">_xlfn.CONCAT(ROUND(VLOOKUP($B$3 + (K$4 + ($J5 * 16)), $B$3:$E$258, 3), 0), ",")</f>
+        <v>511,</v>
       </c>
       <c r="L5" s="15" t="str">
-        <f>_xlfn.CONCAT(ROUND(VLOOKUP($B$3 + (L$2 + ($J5 * 16)), $B$3:$E$258, 3), 0), ",")</f>
-        <v>5,</v>
+        <f t="shared" si="3"/>
+        <v>586,</v>
       </c>
       <c r="M5" s="15" t="str">
-        <f>_xlfn.CONCAT(ROUND(VLOOKUP($B$3 + (M$2 + ($J5 * 16)), $B$3:$E$258, 3), 0), ",")</f>
-        <v>21,</v>
+        <f t="shared" si="3"/>
+        <v>659,</v>
       </c>
       <c r="N5" s="15" t="str">
-        <f>_xlfn.CONCAT(ROUND(VLOOKUP($B$3 + (N$2 + ($J5 * 16)), $B$3:$E$258, 3), 0), ",")</f>
-        <v>47,</v>
+        <f t="shared" si="3"/>
+        <v>729,</v>
       </c>
       <c r="O5" s="15" t="str">
-        <f>_xlfn.CONCAT(ROUND(VLOOKUP($B$3 + (O$2 + ($J5 * 16)), $B$3:$E$258, 3), 0), ",")</f>
-        <v>84,</v>
+        <f t="shared" si="3"/>
+        <v>794,</v>
       </c>
       <c r="P5" s="15" t="str">
-        <f>_xlfn.CONCAT(ROUND(VLOOKUP($B$3 + (P$2 + ($J5 * 16)), $B$3:$E$258, 3), 0), ",")</f>
-        <v>129,</v>
+        <f t="shared" si="3"/>
+        <v>854,</v>
       </c>
       <c r="Q5" s="15" t="str">
-        <f>_xlfn.CONCAT(ROUND(VLOOKUP($B$3 + (Q$2 + ($J5 * 16)), $B$3:$E$258, 3), 0), ",")</f>
-        <v>183,</v>
+        <f t="shared" si="3"/>
+        <v>906,</v>
       </c>
       <c r="R5" s="15" t="str">
-        <f>_xlfn.CONCAT(ROUND(VLOOKUP($B$3 + (R$2 + ($J5 * 16)), $B$3:$E$258, 3), 0), ",")</f>
-        <v>244,</v>
+        <f t="shared" si="3"/>
+        <v>949,</v>
       </c>
       <c r="S5" s="15" t="str">
-        <f>_xlfn.CONCAT(ROUND(VLOOKUP($B$3 + (S$2 + ($J5 * 16)), $B$3:$E$258, 3), 0), ",")</f>
-        <v>311,</v>
+        <f t="shared" si="3"/>
+        <v>983,</v>
       </c>
       <c r="T5" s="15" t="str">
-        <f>_xlfn.CONCAT(ROUND(VLOOKUP($B$3 + (T$2 + ($J5 * 16)), $B$3:$E$258, 3), 0), ",")</f>
-        <v>382,</v>
+        <f t="shared" si="3"/>
+        <v>1006,</v>
       </c>
       <c r="U5" s="15" t="str">
-        <f>_xlfn.CONCAT(ROUND(VLOOKUP($B$3 + (U$2 + ($J5 * 16)), $B$3:$E$258, 3), 0), ",")</f>
-        <v>456,</v>
+        <f t="shared" si="3"/>
+        <v>1019,</v>
       </c>
       <c r="V5" s="15" t="str">
-        <f>_xlfn.CONCAT(ROUND(VLOOKUP($B$3 + (V$2 + ($J5 * 16)), $B$3:$E$258, 3), 0), ",")</f>
-        <v>531,</v>
+        <f t="shared" si="3"/>
+        <v>1021,</v>
       </c>
       <c r="W5" s="15" t="str">
-        <f>_xlfn.CONCAT(ROUND(VLOOKUP($B$3 + (W$2 + ($J5 * 16)), $B$3:$E$258, 3), 0), ",")</f>
-        <v>605,</v>
+        <f t="shared" si="3"/>
+        <v>1012,</v>
       </c>
       <c r="X5" s="15" t="str">
-        <f>_xlfn.CONCAT(ROUND(VLOOKUP($B$3 + (X$2 + ($J5 * 16)), $B$3:$E$258, 3), 0), ",")</f>
-        <v>678,</v>
+        <f t="shared" si="3"/>
+        <v>993,</v>
       </c>
       <c r="Y5" s="15" t="str">
-        <f>_xlfn.CONCAT(ROUND(VLOOKUP($B$3 + (Y$2 + ($J5 * 16)), $B$3:$E$258, 3), 0), ",")</f>
-        <v>747,</v>
+        <f t="shared" si="3"/>
+        <v>962,</v>
       </c>
       <c r="Z5" s="15" t="str">
-        <f>_xlfn.CONCAT(ROUND(VLOOKUP($B$3 + (Z$2 + ($J5 * 16)), $B$3:$E$258, 3), 0), ",")</f>
-        <v>811,</v>
-      </c>
-    </row>
-    <row r="6" spans="2:26" x14ac:dyDescent="0.2">
+        <f t="shared" si="3"/>
+        <v>923,</v>
+      </c>
+    </row>
+    <row r="6" spans="2:26">
       <c r="B6" s="2">
         <v>3</v>
       </c>
@@ -5807,75 +5705,75 @@
         <f t="shared" si="2"/>
         <v>218.15407308337819</v>
       </c>
-      <c r="J6" s="13">
-        <v>3</v>
+      <c r="J6" s="14">
+        <v>1</v>
       </c>
       <c r="K6" s="15" t="str">
-        <f>_xlfn.CONCAT(ROUND(VLOOKUP($B$3 + (K$2 + ($J6 * 16)), $B$3:$E$258, 3), 0), ",")</f>
-        <v>868,</v>
+        <f t="shared" si="3"/>
+        <v>874,</v>
       </c>
       <c r="L6" s="15" t="str">
-        <f>_xlfn.CONCAT(ROUND(VLOOKUP($B$3 + (L$2 + ($J6 * 16)), $B$3:$E$258, 3), 0), ",")</f>
-        <v>918,</v>
+        <f t="shared" si="3"/>
+        <v>817,</v>
       </c>
       <c r="M6" s="15" t="str">
-        <f>_xlfn.CONCAT(ROUND(VLOOKUP($B$3 + (M$2 + ($J6 * 16)), $B$3:$E$258, 3), 0), ",")</f>
-        <v>959,</v>
+        <f t="shared" si="3"/>
+        <v>754,</v>
       </c>
       <c r="N6" s="15" t="str">
-        <f>_xlfn.CONCAT(ROUND(VLOOKUP($B$3 + (N$2 + ($J6 * 16)), $B$3:$E$258, 3), 0), ",")</f>
-        <v>990,</v>
+        <f t="shared" si="3"/>
+        <v>685,</v>
       </c>
       <c r="O6" s="15" t="str">
-        <f>_xlfn.CONCAT(ROUND(VLOOKUP($B$3 + (O$2 + ($J6 * 16)), $B$3:$E$258, 3), 0), ",")</f>
-        <v>1011,</v>
+        <f t="shared" si="3"/>
+        <v>613,</v>
       </c>
       <c r="P6" s="15" t="str">
-        <f>_xlfn.CONCAT(ROUND(VLOOKUP($B$3 + (P$2 + ($J6 * 16)), $B$3:$E$258, 3), 0), ",")</f>
-        <v>1021,</v>
+        <f t="shared" si="3"/>
+        <v>539,</v>
       </c>
       <c r="Q6" s="15" t="str">
-        <f>_xlfn.CONCAT(ROUND(VLOOKUP($B$3 + (Q$2 + ($J6 * 16)), $B$3:$E$258, 3), 0), ",")</f>
-        <v>1020,</v>
+        <f t="shared" si="3"/>
+        <v>464,</v>
       </c>
       <c r="R6" s="15" t="str">
-        <f>_xlfn.CONCAT(ROUND(VLOOKUP($B$3 + (R$2 + ($J6 * 16)), $B$3:$E$258, 3), 0), ",")</f>
-        <v>1008,</v>
+        <f t="shared" si="3"/>
+        <v>390,</v>
       </c>
       <c r="S6" s="15" t="str">
-        <f>_xlfn.CONCAT(ROUND(VLOOKUP($B$3 + (S$2 + ($J6 * 16)), $B$3:$E$258, 3), 0), ",")</f>
-        <v>986,</v>
+        <f t="shared" si="3"/>
+        <v>318,</v>
       </c>
       <c r="T6" s="15" t="str">
-        <f>_xlfn.CONCAT(ROUND(VLOOKUP($B$3 + (T$2 + ($J6 * 16)), $B$3:$E$258, 3), 0), ",")</f>
-        <v>953,</v>
+        <f t="shared" si="3"/>
+        <v>251,</v>
       </c>
       <c r="U6" s="15" t="str">
-        <f>_xlfn.CONCAT(ROUND(VLOOKUP($B$3 + (U$2 + ($J6 * 16)), $B$3:$E$258, 3), 0), ",")</f>
-        <v>910,</v>
+        <f t="shared" si="3"/>
+        <v>189,</v>
       </c>
       <c r="V6" s="15" t="str">
-        <f>_xlfn.CONCAT(ROUND(VLOOKUP($B$3 + (V$2 + ($J6 * 16)), $B$3:$E$258, 3), 0), ",")</f>
-        <v>859,</v>
+        <f t="shared" si="3"/>
+        <v>135,</v>
       </c>
       <c r="W6" s="15" t="str">
-        <f>_xlfn.CONCAT(ROUND(VLOOKUP($B$3 + (W$2 + ($J6 * 16)), $B$3:$E$258, 3), 0), ",")</f>
-        <v>801,</v>
+        <f t="shared" si="3"/>
+        <v>88,</v>
       </c>
       <c r="X6" s="15" t="str">
-        <f>_xlfn.CONCAT(ROUND(VLOOKUP($B$3 + (X$2 + ($J6 * 16)), $B$3:$E$258, 3), 0), ",")</f>
-        <v>736,</v>
+        <f t="shared" si="3"/>
+        <v>51,</v>
       </c>
       <c r="Y6" s="15" t="str">
-        <f>_xlfn.CONCAT(ROUND(VLOOKUP($B$3 + (Y$2 + ($J6 * 16)), $B$3:$E$258, 3), 0), ",")</f>
-        <v>666,</v>
+        <f t="shared" si="3"/>
+        <v>23,</v>
       </c>
       <c r="Z6" s="15" t="str">
-        <f>_xlfn.CONCAT(ROUND(VLOOKUP($B$3 + (Z$2 + ($J6 * 16)), $B$3:$E$258, 3), 0), ",")</f>
-        <v>593,</v>
-      </c>
-    </row>
-    <row r="7" spans="2:26" x14ac:dyDescent="0.2">
+        <f t="shared" si="3"/>
+        <v>6,</v>
+      </c>
+    </row>
+    <row r="7" spans="2:26">
       <c r="B7" s="2">
         <v>4</v>
       </c>
@@ -5891,75 +5789,75 @@
         <f t="shared" si="2"/>
         <v>283.49582216280305</v>
       </c>
-      <c r="J7" s="13">
-        <v>4</v>
+      <c r="J7" s="14">
+        <v>2</v>
       </c>
       <c r="K7" s="15" t="str">
-        <f>_xlfn.CONCAT(ROUND(VLOOKUP($B$3 + (K$2 + ($J7 * 16)), $B$3:$E$258, 3), 0), ",")</f>
-        <v>519,</v>
+        <f t="shared" si="3"/>
+        <v>0,</v>
       </c>
       <c r="L7" s="15" t="str">
-        <f>_xlfn.CONCAT(ROUND(VLOOKUP($B$3 + (L$2 + ($J7 * 16)), $B$3:$E$258, 3), 0), ",")</f>
-        <v>444,</v>
+        <f t="shared" si="3"/>
+        <v>5,</v>
       </c>
       <c r="M7" s="15" t="str">
-        <f>_xlfn.CONCAT(ROUND(VLOOKUP($B$3 + (M$2 + ($J7 * 16)), $B$3:$E$258, 3), 0), ",")</f>
-        <v>370,</v>
+        <f t="shared" si="3"/>
+        <v>21,</v>
       </c>
       <c r="N7" s="15" t="str">
-        <f>_xlfn.CONCAT(ROUND(VLOOKUP($B$3 + (N$2 + ($J7 * 16)), $B$3:$E$258, 3), 0), ",")</f>
-        <v>300,</v>
+        <f t="shared" si="3"/>
+        <v>47,</v>
       </c>
       <c r="O7" s="15" t="str">
-        <f>_xlfn.CONCAT(ROUND(VLOOKUP($B$3 + (O$2 + ($J7 * 16)), $B$3:$E$258, 3), 0), ",")</f>
-        <v>234,</v>
+        <f t="shared" si="3"/>
+        <v>84,</v>
       </c>
       <c r="P7" s="15" t="str">
-        <f>_xlfn.CONCAT(ROUND(VLOOKUP($B$3 + (P$2 + ($J7 * 16)), $B$3:$E$258, 3), 0), ",")</f>
-        <v>174,</v>
+        <f t="shared" si="3"/>
+        <v>129,</v>
       </c>
       <c r="Q7" s="15" t="str">
-        <f>_xlfn.CONCAT(ROUND(VLOOKUP($B$3 + (Q$2 + ($J7 * 16)), $B$3:$E$258, 3), 0), ",")</f>
-        <v>121,</v>
+        <f t="shared" si="3"/>
+        <v>183,</v>
       </c>
       <c r="R7" s="15" t="str">
-        <f>_xlfn.CONCAT(ROUND(VLOOKUP($B$3 + (R$2 + ($J7 * 16)), $B$3:$E$258, 3), 0), ",")</f>
-        <v>77,</v>
+        <f t="shared" si="3"/>
+        <v>244,</v>
       </c>
       <c r="S7" s="15" t="str">
-        <f>_xlfn.CONCAT(ROUND(VLOOKUP($B$3 + (S$2 + ($J7 * 16)), $B$3:$E$258, 3), 0), ",")</f>
-        <v>42,</v>
+        <f t="shared" si="3"/>
+        <v>311,</v>
       </c>
       <c r="T7" s="15" t="str">
-        <f>_xlfn.CONCAT(ROUND(VLOOKUP($B$3 + (T$2 + ($J7 * 16)), $B$3:$E$258, 3), 0), ",")</f>
-        <v>18,</v>
+        <f t="shared" si="3"/>
+        <v>382,</v>
       </c>
       <c r="U7" s="15" t="str">
-        <f>_xlfn.CONCAT(ROUND(VLOOKUP($B$3 + (U$2 + ($J7 * 16)), $B$3:$E$258, 3), 0), ",")</f>
-        <v>3,</v>
+        <f t="shared" si="3"/>
+        <v>456,</v>
       </c>
       <c r="V7" s="15" t="str">
-        <f>_xlfn.CONCAT(ROUND(VLOOKUP($B$3 + (V$2 + ($J7 * 16)), $B$3:$E$258, 3), 0), ",")</f>
-        <v>0,</v>
+        <f t="shared" si="3"/>
+        <v>531,</v>
       </c>
       <c r="W7" s="15" t="str">
-        <f>_xlfn.CONCAT(ROUND(VLOOKUP($B$3 + (W$2 + ($J7 * 16)), $B$3:$E$258, 3), 0), ",")</f>
-        <v>8,</v>
+        <f t="shared" si="3"/>
+        <v>605,</v>
       </c>
       <c r="X7" s="15" t="str">
-        <f>_xlfn.CONCAT(ROUND(VLOOKUP($B$3 + (X$2 + ($J7 * 16)), $B$3:$E$258, 3), 0), ",")</f>
-        <v>27,</v>
+        <f t="shared" si="3"/>
+        <v>678,</v>
       </c>
       <c r="Y7" s="15" t="str">
-        <f>_xlfn.CONCAT(ROUND(VLOOKUP($B$3 + (Y$2 + ($J7 * 16)), $B$3:$E$258, 3), 0), ",")</f>
-        <v>56,</v>
+        <f t="shared" si="3"/>
+        <v>747,</v>
       </c>
       <c r="Z7" s="15" t="str">
-        <f>_xlfn.CONCAT(ROUND(VLOOKUP($B$3 + (Z$2 + ($J7 * 16)), $B$3:$E$258, 3), 0), ",")</f>
-        <v>95,</v>
-      </c>
-    </row>
-    <row r="8" spans="2:26" x14ac:dyDescent="0.2">
+        <f t="shared" si="3"/>
+        <v>811,</v>
+      </c>
+    </row>
+    <row r="8" spans="2:26">
       <c r="B8" s="2">
         <v>5</v>
       </c>
@@ -5975,75 +5873,75 @@
         <f t="shared" si="2"/>
         <v>342.720329610264</v>
       </c>
-      <c r="J8" s="13">
-        <v>5</v>
+      <c r="J8" s="14">
+        <v>3</v>
       </c>
       <c r="K8" s="15" t="str">
-        <f>_xlfn.CONCAT(ROUND(VLOOKUP($B$3 + (K$2 + ($J8 * 16)), $B$3:$E$258, 3), 0), ",")</f>
-        <v>143,</v>
+        <f t="shared" si="3"/>
+        <v>868,</v>
       </c>
       <c r="L8" s="15" t="str">
-        <f>_xlfn.CONCAT(ROUND(VLOOKUP($B$3 + (L$2 + ($J8 * 16)), $B$3:$E$258, 3), 0), ",")</f>
-        <v>199,</v>
+        <f t="shared" si="3"/>
+        <v>918,</v>
       </c>
       <c r="M8" s="15" t="str">
-        <f>_xlfn.CONCAT(ROUND(VLOOKUP($B$3 + (M$2 + ($J8 * 16)), $B$3:$E$258, 3), 0), ",")</f>
-        <v>261,</v>
+        <f t="shared" si="3"/>
+        <v>959,</v>
       </c>
       <c r="N8" s="15" t="str">
-        <f>_xlfn.CONCAT(ROUND(VLOOKUP($B$3 + (N$2 + ($J8 * 16)), $B$3:$E$258, 3), 0), ",")</f>
-        <v>329,</v>
+        <f t="shared" si="3"/>
+        <v>990,</v>
       </c>
       <c r="O8" s="15" t="str">
-        <f>_xlfn.CONCAT(ROUND(VLOOKUP($B$3 + (O$2 + ($J8 * 16)), $B$3:$E$258, 3), 0), ",")</f>
-        <v>401,</v>
+        <f t="shared" si="3"/>
+        <v>1011,</v>
       </c>
       <c r="P8" s="15" t="str">
-        <f>_xlfn.CONCAT(ROUND(VLOOKUP($B$3 + (P$2 + ($J8 * 16)), $B$3:$E$258, 3), 0), ",")</f>
-        <v>476,</v>
+        <f t="shared" si="3"/>
+        <v>1021,</v>
       </c>
       <c r="Q8" s="15" t="str">
-        <f>_xlfn.CONCAT(ROUND(VLOOKUP($B$3 + (Q$2 + ($J8 * 16)), $B$3:$E$258, 3), 0), ",")</f>
-        <v>551,</v>
+        <f t="shared" si="3"/>
+        <v>1020,</v>
       </c>
       <c r="R8" s="15" t="str">
-        <f>_xlfn.CONCAT(ROUND(VLOOKUP($B$3 + (R$2 + ($J8 * 16)), $B$3:$E$258, 3), 0), ",")</f>
-        <v>625,</v>
+        <f t="shared" si="3"/>
+        <v>1008,</v>
       </c>
       <c r="S8" s="15" t="str">
-        <f>_xlfn.CONCAT(ROUND(VLOOKUP($B$3 + (S$2 + ($J8 * 16)), $B$3:$E$258, 3), 0), ",")</f>
-        <v>697,</v>
+        <f t="shared" si="3"/>
+        <v>986,</v>
       </c>
       <c r="T8" s="15" t="str">
-        <f>_xlfn.CONCAT(ROUND(VLOOKUP($B$3 + (T$2 + ($J8 * 16)), $B$3:$E$258, 3), 0), ",")</f>
-        <v>764,</v>
+        <f t="shared" si="3"/>
+        <v>953,</v>
       </c>
       <c r="U8" s="15" t="str">
-        <f>_xlfn.CONCAT(ROUND(VLOOKUP($B$3 + (U$2 + ($J8 * 16)), $B$3:$E$258, 3), 0), ",")</f>
-        <v>827,</v>
+        <f t="shared" si="3"/>
+        <v>910,</v>
       </c>
       <c r="V8" s="15" t="str">
-        <f>_xlfn.CONCAT(ROUND(VLOOKUP($B$3 + (V$2 + ($J8 * 16)), $B$3:$E$258, 3), 0), ",")</f>
-        <v>882,</v>
+        <f t="shared" si="3"/>
+        <v>859,</v>
       </c>
       <c r="W8" s="15" t="str">
-        <f>_xlfn.CONCAT(ROUND(VLOOKUP($B$3 + (W$2 + ($J8 * 16)), $B$3:$E$258, 3), 0), ",")</f>
-        <v>930,</v>
+        <f t="shared" si="3"/>
+        <v>801,</v>
       </c>
       <c r="X8" s="15" t="str">
-        <f>_xlfn.CONCAT(ROUND(VLOOKUP($B$3 + (X$2 + ($J8 * 16)), $B$3:$E$258, 3), 0), ",")</f>
-        <v>968,</v>
+        <f t="shared" si="3"/>
+        <v>736,</v>
       </c>
       <c r="Y8" s="15" t="str">
-        <f>_xlfn.CONCAT(ROUND(VLOOKUP($B$3 + (Y$2 + ($J8 * 16)), $B$3:$E$258, 3), 0), ",")</f>
-        <v>997,</v>
+        <f t="shared" si="3"/>
+        <v>666,</v>
       </c>
       <c r="Z8" s="15" t="str">
-        <f>_xlfn.CONCAT(ROUND(VLOOKUP($B$3 + (Z$2 + ($J8 * 16)), $B$3:$E$258, 3), 0), ",")</f>
-        <v>1015,</v>
-      </c>
-    </row>
-    <row r="9" spans="2:26" x14ac:dyDescent="0.2">
+        <f t="shared" si="3"/>
+        <v>593,</v>
+      </c>
+    </row>
+    <row r="9" spans="2:26">
       <c r="B9" s="2">
         <v>6</v>
       </c>
@@ -6059,75 +5957,75 @@
         <f t="shared" si="2"/>
         <v>394.54965552588465</v>
       </c>
-      <c r="J9" s="13">
-        <v>6</v>
+      <c r="J9" s="14">
+        <v>4</v>
       </c>
       <c r="K9" s="15" t="str">
-        <f>_xlfn.CONCAT(ROUND(VLOOKUP($B$3 + (K$2 + ($J9 * 16)), $B$3:$E$258, 3), 0), ",")</f>
-        <v>1022,</v>
+        <f t="shared" si="3"/>
+        <v>519,</v>
       </c>
       <c r="L9" s="15" t="str">
-        <f>_xlfn.CONCAT(ROUND(VLOOKUP($B$3 + (L$2 + ($J9 * 16)), $B$3:$E$258, 3), 0), ",")</f>
-        <v>1018,</v>
+        <f t="shared" si="3"/>
+        <v>444,</v>
       </c>
       <c r="M9" s="15" t="str">
-        <f>_xlfn.CONCAT(ROUND(VLOOKUP($B$3 + (M$2 + ($J9 * 16)), $B$3:$E$258, 3), 0), ",")</f>
-        <v>1003,</v>
+        <f t="shared" si="3"/>
+        <v>370,</v>
       </c>
       <c r="N9" s="15" t="str">
-        <f>_xlfn.CONCAT(ROUND(VLOOKUP($B$3 + (N$2 + ($J9 * 16)), $B$3:$E$258, 3), 0), ",")</f>
-        <v>978,</v>
+        <f t="shared" si="3"/>
+        <v>300,</v>
       </c>
       <c r="O9" s="15" t="str">
-        <f>_xlfn.CONCAT(ROUND(VLOOKUP($B$3 + (O$2 + ($J9 * 16)), $B$3:$E$258, 3), 0), ",")</f>
-        <v>942,</v>
+        <f t="shared" si="3"/>
+        <v>234,</v>
       </c>
       <c r="P9" s="15" t="str">
-        <f>_xlfn.CONCAT(ROUND(VLOOKUP($B$3 + (P$2 + ($J9 * 16)), $B$3:$E$258, 3), 0), ",")</f>
-        <v>898,</v>
+        <f t="shared" si="3"/>
+        <v>174,</v>
       </c>
       <c r="Q9" s="15" t="str">
-        <f>_xlfn.CONCAT(ROUND(VLOOKUP($B$3 + (Q$2 + ($J9 * 16)), $B$3:$E$258, 3), 0), ",")</f>
-        <v>845,</v>
+        <f t="shared" si="3"/>
+        <v>121,</v>
       </c>
       <c r="R9" s="15" t="str">
-        <f>_xlfn.CONCAT(ROUND(VLOOKUP($B$3 + (R$2 + ($J9 * 16)), $B$3:$E$258, 3), 0), ",")</f>
-        <v>784,</v>
+        <f t="shared" si="3"/>
+        <v>77,</v>
       </c>
       <c r="S9" s="15" t="str">
-        <f>_xlfn.CONCAT(ROUND(VLOOKUP($B$3 + (S$2 + ($J9 * 16)), $B$3:$E$258, 3), 0), ",")</f>
-        <v>718,</v>
+        <f t="shared" si="3"/>
+        <v>42,</v>
       </c>
       <c r="T9" s="15" t="str">
-        <f>_xlfn.CONCAT(ROUND(VLOOKUP($B$3 + (T$2 + ($J9 * 16)), $B$3:$E$258, 3), 0), ",")</f>
-        <v>647,</v>
+        <f t="shared" si="3"/>
+        <v>18,</v>
       </c>
       <c r="U9" s="15" t="str">
-        <f>_xlfn.CONCAT(ROUND(VLOOKUP($B$3 + (U$2 + ($J9 * 16)), $B$3:$E$258, 3), 0), ",")</f>
-        <v>574,</v>
+        <f t="shared" si="3"/>
+        <v>3,</v>
       </c>
       <c r="V9" s="15" t="str">
-        <f>_xlfn.CONCAT(ROUND(VLOOKUP($B$3 + (V$2 + ($J9 * 16)), $B$3:$E$258, 3), 0), ",")</f>
-        <v>499,</v>
+        <f t="shared" si="3"/>
+        <v>0,</v>
       </c>
       <c r="W9" s="15" t="str">
-        <f>_xlfn.CONCAT(ROUND(VLOOKUP($B$3 + (W$2 + ($J9 * 16)), $B$3:$E$258, 3), 0), ",")</f>
-        <v>424,</v>
+        <f t="shared" si="3"/>
+        <v>8,</v>
       </c>
       <c r="X9" s="15" t="str">
-        <f>_xlfn.CONCAT(ROUND(VLOOKUP($B$3 + (X$2 + ($J9 * 16)), $B$3:$E$258, 3), 0), ",")</f>
-        <v>351,</v>
+        <f t="shared" si="3"/>
+        <v>27,</v>
       </c>
       <c r="Y9" s="15" t="str">
-        <f>_xlfn.CONCAT(ROUND(VLOOKUP($B$3 + (Y$2 + ($J9 * 16)), $B$3:$E$258, 3), 0), ",")</f>
-        <v>282,</v>
+        <f t="shared" si="3"/>
+        <v>56,</v>
       </c>
       <c r="Z9" s="15" t="str">
-        <f>_xlfn.CONCAT(ROUND(VLOOKUP($B$3 + (Z$2 + ($J9 * 16)), $B$3:$E$258, 3), 0), ",")</f>
-        <v>217,</v>
-      </c>
-    </row>
-    <row r="10" spans="2:26" x14ac:dyDescent="0.2">
+        <f t="shared" si="3"/>
+        <v>95,</v>
+      </c>
+    </row>
+    <row r="10" spans="2:26">
       <c r="B10" s="2">
         <v>7</v>
       </c>
@@ -6143,75 +6041,75 @@
         <f t="shared" si="2"/>
         <v>437.86543242252219</v>
       </c>
-      <c r="J10" s="13">
-        <v>7</v>
+      <c r="J10" s="14">
+        <v>5</v>
       </c>
       <c r="K10" s="15" t="str">
-        <f>_xlfn.CONCAT(ROUND(VLOOKUP($B$3 + (K$2 + ($J10 * 16)), $B$3:$E$258, 3), 0), ",")</f>
-        <v>159,</v>
+        <f t="shared" si="3"/>
+        <v>143,</v>
       </c>
       <c r="L10" s="15" t="str">
-        <f>_xlfn.CONCAT(ROUND(VLOOKUP($B$3 + (L$2 + ($J10 * 16)), $B$3:$E$258, 3), 0), ",")</f>
-        <v>109,</v>
+        <f t="shared" si="3"/>
+        <v>199,</v>
       </c>
       <c r="M10" s="15" t="str">
-        <f>_xlfn.CONCAT(ROUND(VLOOKUP($B$3 + (M$2 + ($J10 * 16)), $B$3:$E$258, 3), 0), ",")</f>
-        <v>67,</v>
+        <f t="shared" si="3"/>
+        <v>261,</v>
       </c>
       <c r="N10" s="15" t="str">
-        <f>_xlfn.CONCAT(ROUND(VLOOKUP($B$3 + (N$2 + ($J10 * 16)), $B$3:$E$258, 3), 0), ",")</f>
-        <v>35,</v>
+        <f t="shared" si="3"/>
+        <v>329,</v>
       </c>
       <c r="O10" s="15" t="str">
-        <f>_xlfn.CONCAT(ROUND(VLOOKUP($B$3 + (O$2 + ($J10 * 16)), $B$3:$E$258, 3), 0), ",")</f>
-        <v>13,</v>
+        <f t="shared" si="3"/>
+        <v>401,</v>
       </c>
       <c r="P10" s="15" t="str">
-        <f>_xlfn.CONCAT(ROUND(VLOOKUP($B$3 + (P$2 + ($J10 * 16)), $B$3:$E$258, 3), 0), ",")</f>
-        <v>2,</v>
+        <f t="shared" si="3"/>
+        <v>476,</v>
       </c>
       <c r="Q10" s="15" t="str">
-        <f>_xlfn.CONCAT(ROUND(VLOOKUP($B$3 + (Q$2 + ($J10 * 16)), $B$3:$E$258, 3), 0), ",")</f>
-        <v>1,</v>
+        <f t="shared" si="3"/>
+        <v>551,</v>
       </c>
       <c r="R10" s="15" t="str">
-        <f>_xlfn.CONCAT(ROUND(VLOOKUP($B$3 + (R$2 + ($J10 * 16)), $B$3:$E$258, 3), 0), ",")</f>
-        <v>12,</v>
+        <f t="shared" si="3"/>
+        <v>625,</v>
       </c>
       <c r="S10" s="15" t="str">
-        <f>_xlfn.CONCAT(ROUND(VLOOKUP($B$3 + (S$2 + ($J10 * 16)), $B$3:$E$258, 3), 0), ",")</f>
-        <v>34,</v>
+        <f t="shared" si="3"/>
+        <v>697,</v>
       </c>
       <c r="T10" s="15" t="str">
-        <f>_xlfn.CONCAT(ROUND(VLOOKUP($B$3 + (T$2 + ($J10 * 16)), $B$3:$E$258, 3), 0), ",")</f>
-        <v>65,</v>
+        <f t="shared" si="3"/>
+        <v>764,</v>
       </c>
       <c r="U10" s="15" t="str">
-        <f>_xlfn.CONCAT(ROUND(VLOOKUP($B$3 + (U$2 + ($J10 * 16)), $B$3:$E$258, 3), 0), ",")</f>
-        <v>107,</v>
+        <f t="shared" si="3"/>
+        <v>827,</v>
       </c>
       <c r="V10" s="15" t="str">
-        <f>_xlfn.CONCAT(ROUND(VLOOKUP($B$3 + (V$2 + ($J10 * 16)), $B$3:$E$258, 3), 0), ",")</f>
-        <v>157,</v>
+        <f t="shared" si="3"/>
+        <v>882,</v>
       </c>
       <c r="W10" s="15" t="str">
-        <f>_xlfn.CONCAT(ROUND(VLOOKUP($B$3 + (W$2 + ($J10 * 16)), $B$3:$E$258, 3), 0), ",")</f>
-        <v>215,</v>
+        <f t="shared" si="3"/>
+        <v>930,</v>
       </c>
       <c r="X10" s="15" t="str">
-        <f>_xlfn.CONCAT(ROUND(VLOOKUP($B$3 + (X$2 + ($J10 * 16)), $B$3:$E$258, 3), 0), ",")</f>
-        <v>279,</v>
+        <f t="shared" si="3"/>
+        <v>968,</v>
       </c>
       <c r="Y10" s="15" t="str">
-        <f>_xlfn.CONCAT(ROUND(VLOOKUP($B$3 + (Y$2 + ($J10 * 16)), $B$3:$E$258, 3), 0), ",")</f>
-        <v>348,</v>
+        <f t="shared" si="3"/>
+        <v>997,</v>
       </c>
       <c r="Z10" s="15" t="str">
-        <f>_xlfn.CONCAT(ROUND(VLOOKUP($B$3 + (Z$2 + ($J10 * 16)), $B$3:$E$258, 3), 0), ",")</f>
-        <v>421,</v>
-      </c>
-    </row>
-    <row r="11" spans="2:26" x14ac:dyDescent="0.2">
+        <f t="shared" si="3"/>
+        <v>1015,</v>
+      </c>
+    </row>
+    <row r="11" spans="2:26">
       <c r="B11" s="2">
         <v>8</v>
       </c>
@@ -6227,75 +6125,75 @@
         <f t="shared" si="2"/>
         <v>471.73299723625064</v>
       </c>
-      <c r="J11" s="13">
-        <v>8</v>
+      <c r="J11" s="14">
+        <v>6</v>
       </c>
       <c r="K11" s="15" t="str">
-        <f>_xlfn.CONCAT(ROUND(VLOOKUP($B$3 + (K$2 + ($J11 * 16)), $B$3:$E$258, 3), 0), ",")</f>
-        <v>496,</v>
+        <f t="shared" si="3"/>
+        <v>1022,</v>
       </c>
       <c r="L11" s="15" t="str">
-        <f>_xlfn.CONCAT(ROUND(VLOOKUP($B$3 + (L$2 + ($J11 * 16)), $B$3:$E$258, 3), 0), ",")</f>
-        <v>571,</v>
+        <f t="shared" si="3"/>
+        <v>1018,</v>
       </c>
       <c r="M11" s="15" t="str">
-        <f>_xlfn.CONCAT(ROUND(VLOOKUP($B$3 + (M$2 + ($J11 * 16)), $B$3:$E$258, 3), 0), ",")</f>
-        <v>644,</v>
+        <f t="shared" si="3"/>
+        <v>1003,</v>
       </c>
       <c r="N11" s="15" t="str">
-        <f>_xlfn.CONCAT(ROUND(VLOOKUP($B$3 + (N$2 + ($J11 * 16)), $B$3:$E$258, 3), 0), ",")</f>
-        <v>715,</v>
+        <f t="shared" si="3"/>
+        <v>978,</v>
       </c>
       <c r="O11" s="15" t="str">
-        <f>_xlfn.CONCAT(ROUND(VLOOKUP($B$3 + (O$2 + ($J11 * 16)), $B$3:$E$258, 3), 0), ",")</f>
-        <v>782,</v>
+        <f t="shared" si="3"/>
+        <v>942,</v>
       </c>
       <c r="P11" s="15" t="str">
-        <f>_xlfn.CONCAT(ROUND(VLOOKUP($B$3 + (P$2 + ($J11 * 16)), $B$3:$E$258, 3), 0), ",")</f>
-        <v>842,</v>
+        <f t="shared" si="3"/>
+        <v>898,</v>
       </c>
       <c r="Q11" s="15" t="str">
-        <f>_xlfn.CONCAT(ROUND(VLOOKUP($B$3 + (Q$2 + ($J11 * 16)), $B$3:$E$258, 3), 0), ",")</f>
-        <v>896,</v>
+        <f t="shared" si="3"/>
+        <v>845,</v>
       </c>
       <c r="R11" s="15" t="str">
-        <f>_xlfn.CONCAT(ROUND(VLOOKUP($B$3 + (R$2 + ($J11 * 16)), $B$3:$E$258, 3), 0), ",")</f>
-        <v>941,</v>
+        <f t="shared" si="3"/>
+        <v>784,</v>
       </c>
       <c r="S11" s="15" t="str">
-        <f>_xlfn.CONCAT(ROUND(VLOOKUP($B$3 + (S$2 + ($J11 * 16)), $B$3:$E$258, 3), 0), ",")</f>
-        <v>977,</v>
+        <f t="shared" si="3"/>
+        <v>718,</v>
       </c>
       <c r="T11" s="15" t="str">
-        <f>_xlfn.CONCAT(ROUND(VLOOKUP($B$3 + (T$2 + ($J11 * 16)), $B$3:$E$258, 3), 0), ",")</f>
-        <v>1002,</v>
+        <f t="shared" si="3"/>
+        <v>647,</v>
       </c>
       <c r="U11" s="15" t="str">
-        <f>_xlfn.CONCAT(ROUND(VLOOKUP($B$3 + (U$2 + ($J11 * 16)), $B$3:$E$258, 3), 0), ",")</f>
-        <v>1018,</v>
+        <f t="shared" si="3"/>
+        <v>574,</v>
       </c>
       <c r="V11" s="15" t="str">
-        <f>_xlfn.CONCAT(ROUND(VLOOKUP($B$3 + (V$2 + ($J11 * 16)), $B$3:$E$258, 3), 0), ",")</f>
-        <v>1022,</v>
+        <f t="shared" si="3"/>
+        <v>499,</v>
       </c>
       <c r="W11" s="15" t="str">
-        <f>_xlfn.CONCAT(ROUND(VLOOKUP($B$3 + (W$2 + ($J11 * 16)), $B$3:$E$258, 3), 0), ",")</f>
-        <v>1015,</v>
+        <f t="shared" si="3"/>
+        <v>424,</v>
       </c>
       <c r="X11" s="15" t="str">
-        <f>_xlfn.CONCAT(ROUND(VLOOKUP($B$3 + (X$2 + ($J11 * 16)), $B$3:$E$258, 3), 0), ",")</f>
-        <v>998,</v>
+        <f t="shared" si="3"/>
+        <v>351,</v>
       </c>
       <c r="Y11" s="15" t="str">
-        <f>_xlfn.CONCAT(ROUND(VLOOKUP($B$3 + (Y$2 + ($J11 * 16)), $B$3:$E$258, 3), 0), ",")</f>
-        <v>969,</v>
+        <f t="shared" si="3"/>
+        <v>282,</v>
       </c>
       <c r="Z11" s="15" t="str">
-        <f>_xlfn.CONCAT(ROUND(VLOOKUP($B$3 + (Z$2 + ($J11 * 16)), $B$3:$E$258, 3), 0), ",")</f>
-        <v>931,</v>
-      </c>
-    </row>
-    <row r="12" spans="2:26" x14ac:dyDescent="0.2">
+        <f t="shared" si="3"/>
+        <v>217,</v>
+      </c>
+    </row>
+    <row r="12" spans="2:26">
       <c r="B12" s="2">
         <v>9</v>
       </c>
@@ -6311,75 +6209,75 @@
         <f t="shared" si="2"/>
         <v>495.42155938302801</v>
       </c>
-      <c r="J12" s="13">
-        <v>9</v>
+      <c r="J12" s="14">
+        <v>7</v>
       </c>
       <c r="K12" s="15" t="str">
-        <f>_xlfn.CONCAT(ROUND(VLOOKUP($B$3 + (K$2 + ($J12 * 16)), $B$3:$E$258, 3), 0), ",")</f>
-        <v>884,</v>
+        <f t="shared" si="3"/>
+        <v>159,</v>
       </c>
       <c r="L12" s="15" t="str">
-        <f>_xlfn.CONCAT(ROUND(VLOOKUP($B$3 + (L$2 + ($J12 * 16)), $B$3:$E$258, 3), 0), ",")</f>
-        <v>829,</v>
+        <f t="shared" si="3"/>
+        <v>109,</v>
       </c>
       <c r="M12" s="15" t="str">
-        <f>_xlfn.CONCAT(ROUND(VLOOKUP($B$3 + (M$2 + ($J12 * 16)), $B$3:$E$258, 3), 0), ",")</f>
-        <v>767,</v>
+        <f t="shared" si="3"/>
+        <v>67,</v>
       </c>
       <c r="N12" s="15" t="str">
-        <f>_xlfn.CONCAT(ROUND(VLOOKUP($B$3 + (N$2 + ($J12 * 16)), $B$3:$E$258, 3), 0), ",")</f>
-        <v>700,</v>
+        <f t="shared" si="3"/>
+        <v>35,</v>
       </c>
       <c r="O12" s="15" t="str">
-        <f>_xlfn.CONCAT(ROUND(VLOOKUP($B$3 + (O$2 + ($J12 * 16)), $B$3:$E$258, 3), 0), ",")</f>
-        <v>628,</v>
+        <f t="shared" si="3"/>
+        <v>13,</v>
       </c>
       <c r="P12" s="15" t="str">
-        <f>_xlfn.CONCAT(ROUND(VLOOKUP($B$3 + (P$2 + ($J12 * 16)), $B$3:$E$258, 3), 0), ",")</f>
-        <v>554,</v>
+        <f t="shared" si="3"/>
+        <v>2,</v>
       </c>
       <c r="Q12" s="15" t="str">
-        <f>_xlfn.CONCAT(ROUND(VLOOKUP($B$3 + (Q$2 + ($J12 * 16)), $B$3:$E$258, 3), 0), ",")</f>
-        <v>479,</v>
+        <f t="shared" si="3"/>
+        <v>1,</v>
       </c>
       <c r="R12" s="15" t="str">
-        <f>_xlfn.CONCAT(ROUND(VLOOKUP($B$3 + (R$2 + ($J12 * 16)), $B$3:$E$258, 3), 0), ",")</f>
-        <v>405,</v>
+        <f t="shared" si="3"/>
+        <v>12,</v>
       </c>
       <c r="S12" s="15" t="str">
-        <f>_xlfn.CONCAT(ROUND(VLOOKUP($B$3 + (S$2 + ($J12 * 16)), $B$3:$E$258, 3), 0), ",")</f>
-        <v>332,</v>
+        <f t="shared" si="3"/>
+        <v>34,</v>
       </c>
       <c r="T12" s="15" t="str">
-        <f>_xlfn.CONCAT(ROUND(VLOOKUP($B$3 + (T$2 + ($J12 * 16)), $B$3:$E$258, 3), 0), ",")</f>
-        <v>264,</v>
+        <f t="shared" si="3"/>
+        <v>65,</v>
       </c>
       <c r="U12" s="15" t="str">
-        <f>_xlfn.CONCAT(ROUND(VLOOKUP($B$3 + (U$2 + ($J12 * 16)), $B$3:$E$258, 3), 0), ",")</f>
-        <v>201,</v>
+        <f t="shared" si="3"/>
+        <v>107,</v>
       </c>
       <c r="V12" s="15" t="str">
-        <f>_xlfn.CONCAT(ROUND(VLOOKUP($B$3 + (V$2 + ($J12 * 16)), $B$3:$E$258, 3), 0), ",")</f>
-        <v>145,</v>
+        <f t="shared" si="3"/>
+        <v>157,</v>
       </c>
       <c r="W12" s="15" t="str">
-        <f>_xlfn.CONCAT(ROUND(VLOOKUP($B$3 + (W$2 + ($J12 * 16)), $B$3:$E$258, 3), 0), ",")</f>
-        <v>97,</v>
+        <f t="shared" si="3"/>
+        <v>215,</v>
       </c>
       <c r="X12" s="15" t="str">
-        <f>_xlfn.CONCAT(ROUND(VLOOKUP($B$3 + (X$2 + ($J12 * 16)), $B$3:$E$258, 3), 0), ",")</f>
-        <v>57,</v>
+        <f t="shared" si="3"/>
+        <v>279,</v>
       </c>
       <c r="Y12" s="15" t="str">
-        <f>_xlfn.CONCAT(ROUND(VLOOKUP($B$3 + (Y$2 + ($J12 * 16)), $B$3:$E$258, 3), 0), ",")</f>
-        <v>28,</v>
+        <f t="shared" si="3"/>
+        <v>348,</v>
       </c>
       <c r="Z12" s="15" t="str">
-        <f>_xlfn.CONCAT(ROUND(VLOOKUP($B$3 + (Z$2 + ($J12 * 16)), $B$3:$E$258, 3), 0), ",")</f>
-        <v>9,</v>
-      </c>
-    </row>
-    <row r="13" spans="2:26" x14ac:dyDescent="0.2">
+        <f t="shared" si="3"/>
+        <v>421,</v>
+      </c>
+    </row>
+    <row r="13" spans="2:26">
       <c r="B13" s="2">
         <v>10</v>
       </c>
@@ -6395,75 +6293,75 @@
         <f t="shared" si="2"/>
         <v>508.41996967744444</v>
       </c>
-      <c r="J13" s="13">
-        <v>10</v>
+      <c r="J13" s="14">
+        <v>8</v>
       </c>
       <c r="K13" s="15" t="str">
-        <f>_xlfn.CONCAT(ROUND(VLOOKUP($B$3 + (K$2 + ($J13 * 16)), $B$3:$E$258, 3), 0), ",")</f>
-        <v>0,</v>
+        <f t="shared" si="3"/>
+        <v>496,</v>
       </c>
       <c r="L13" s="15" t="str">
-        <f>_xlfn.CONCAT(ROUND(VLOOKUP($B$3 + (L$2 + ($J13 * 16)), $B$3:$E$258, 3), 0), ",")</f>
-        <v>3,</v>
+        <f t="shared" si="3"/>
+        <v>571,</v>
       </c>
       <c r="M13" s="15" t="str">
-        <f>_xlfn.CONCAT(ROUND(VLOOKUP($B$3 + (M$2 + ($J13 * 16)), $B$3:$E$258, 3), 0), ",")</f>
-        <v>17,</v>
+        <f t="shared" si="3"/>
+        <v>644,</v>
       </c>
       <c r="N13" s="15" t="str">
-        <f>_xlfn.CONCAT(ROUND(VLOOKUP($B$3 + (N$2 + ($J13 * 16)), $B$3:$E$258, 3), 0), ",")</f>
-        <v>41,</v>
+        <f t="shared" si="3"/>
+        <v>715,</v>
       </c>
       <c r="O13" s="15" t="str">
-        <f>_xlfn.CONCAT(ROUND(VLOOKUP($B$3 + (O$2 + ($J13 * 16)), $B$3:$E$258, 3), 0), ",")</f>
-        <v>75,</v>
+        <f t="shared" si="3"/>
+        <v>782,</v>
       </c>
       <c r="P13" s="15" t="str">
-        <f>_xlfn.CONCAT(ROUND(VLOOKUP($B$3 + (P$2 + ($J13 * 16)), $B$3:$E$258, 3), 0), ",")</f>
-        <v>119,</v>
+        <f t="shared" si="3"/>
+        <v>842,</v>
       </c>
       <c r="Q13" s="15" t="str">
-        <f>_xlfn.CONCAT(ROUND(VLOOKUP($B$3 + (Q$2 + ($J13 * 16)), $B$3:$E$258, 3), 0), ",")</f>
-        <v>172,</v>
+        <f t="shared" si="3"/>
+        <v>896,</v>
       </c>
       <c r="R13" s="15" t="str">
-        <f>_xlfn.CONCAT(ROUND(VLOOKUP($B$3 + (R$2 + ($J13 * 16)), $B$3:$E$258, 3), 0), ",")</f>
-        <v>231,</v>
+        <f t="shared" si="3"/>
+        <v>941,</v>
       </c>
       <c r="S13" s="15" t="str">
-        <f>_xlfn.CONCAT(ROUND(VLOOKUP($B$3 + (S$2 + ($J13 * 16)), $B$3:$E$258, 3), 0), ",")</f>
-        <v>297,</v>
+        <f t="shared" si="3"/>
+        <v>977,</v>
       </c>
       <c r="T13" s="15" t="str">
-        <f>_xlfn.CONCAT(ROUND(VLOOKUP($B$3 + (T$2 + ($J13 * 16)), $B$3:$E$258, 3), 0), ",")</f>
-        <v>367,</v>
+        <f t="shared" si="3"/>
+        <v>1002,</v>
       </c>
       <c r="U13" s="15" t="str">
-        <f>_xlfn.CONCAT(ROUND(VLOOKUP($B$3 + (U$2 + ($J13 * 16)), $B$3:$E$258, 3), 0), ",")</f>
-        <v>441,</v>
+        <f t="shared" si="3"/>
+        <v>1018,</v>
       </c>
       <c r="V13" s="15" t="str">
-        <f>_xlfn.CONCAT(ROUND(VLOOKUP($B$3 + (V$2 + ($J13 * 16)), $B$3:$E$258, 3), 0), ",")</f>
-        <v>515,</v>
+        <f t="shared" si="3"/>
+        <v>1022,</v>
       </c>
       <c r="W13" s="15" t="str">
-        <f>_xlfn.CONCAT(ROUND(VLOOKUP($B$3 + (W$2 + ($J13 * 16)), $B$3:$E$258, 3), 0), ",")</f>
-        <v>590,</v>
+        <f t="shared" si="3"/>
+        <v>1015,</v>
       </c>
       <c r="X13" s="15" t="str">
-        <f>_xlfn.CONCAT(ROUND(VLOOKUP($B$3 + (X$2 + ($J13 * 16)), $B$3:$E$258, 3), 0), ",")</f>
-        <v>663,</v>
+        <f t="shared" si="3"/>
+        <v>998,</v>
       </c>
       <c r="Y13" s="15" t="str">
-        <f>_xlfn.CONCAT(ROUND(VLOOKUP($B$3 + (Y$2 + ($J13 * 16)), $B$3:$E$258, 3), 0), ",")</f>
-        <v>733,</v>
+        <f t="shared" si="3"/>
+        <v>969,</v>
       </c>
       <c r="Z13" s="15" t="str">
-        <f>_xlfn.CONCAT(ROUND(VLOOKUP($B$3 + (Z$2 + ($J13 * 16)), $B$3:$E$258, 3), 0), ",")</f>
-        <v>798,</v>
-      </c>
-    </row>
-    <row r="14" spans="2:26" x14ac:dyDescent="0.2">
+        <f t="shared" si="3"/>
+        <v>931,</v>
+      </c>
+    </row>
+    <row r="14" spans="2:26">
       <c r="B14" s="2">
         <v>11</v>
       </c>
@@ -6479,75 +6377,75 @@
         <f t="shared" si="2"/>
         <v>510.44774985355673</v>
       </c>
-      <c r="J14" s="13">
-        <v>11</v>
+      <c r="J14" s="14">
+        <v>9</v>
       </c>
       <c r="K14" s="15" t="str">
-        <f>_xlfn.CONCAT(ROUND(VLOOKUP($B$3 + (K$2 + ($J14 * 16)), $B$3:$E$258, 3), 0), ",")</f>
-        <v>857,</v>
+        <f t="shared" si="3"/>
+        <v>884,</v>
       </c>
       <c r="L14" s="15" t="str">
-        <f>_xlfn.CONCAT(ROUND(VLOOKUP($B$3 + (L$2 + ($J14 * 16)), $B$3:$E$258, 3), 0), ",")</f>
-        <v>908,</v>
+        <f t="shared" si="3"/>
+        <v>829,</v>
       </c>
       <c r="M14" s="15" t="str">
-        <f>_xlfn.CONCAT(ROUND(VLOOKUP($B$3 + (M$2 + ($J14 * 16)), $B$3:$E$258, 3), 0), ",")</f>
-        <v>951,</v>
+        <f t="shared" si="3"/>
+        <v>767,</v>
       </c>
       <c r="N14" s="15" t="str">
-        <f>_xlfn.CONCAT(ROUND(VLOOKUP($B$3 + (N$2 + ($J14 * 16)), $B$3:$E$258, 3), 0), ",")</f>
-        <v>984,</v>
+        <f t="shared" si="3"/>
+        <v>700,</v>
       </c>
       <c r="O14" s="15" t="str">
-        <f>_xlfn.CONCAT(ROUND(VLOOKUP($B$3 + (O$2 + ($J14 * 16)), $B$3:$E$258, 3), 0), ",")</f>
-        <v>1008,</v>
+        <f t="shared" si="3"/>
+        <v>628,</v>
       </c>
       <c r="P14" s="15" t="str">
-        <f>_xlfn.CONCAT(ROUND(VLOOKUP($B$3 + (P$2 + ($J14 * 16)), $B$3:$E$258, 3), 0), ",")</f>
-        <v>1020,</v>
+        <f t="shared" si="3"/>
+        <v>554,</v>
       </c>
       <c r="Q14" s="15" t="str">
-        <f>_xlfn.CONCAT(ROUND(VLOOKUP($B$3 + (Q$2 + ($J14 * 16)), $B$3:$E$258, 3), 0), ",")</f>
-        <v>1021,</v>
+        <f t="shared" si="3"/>
+        <v>479,</v>
       </c>
       <c r="R14" s="15" t="str">
-        <f>_xlfn.CONCAT(ROUND(VLOOKUP($B$3 + (R$2 + ($J14 * 16)), $B$3:$E$258, 3), 0), ",")</f>
-        <v>1012,</v>
+        <f t="shared" si="3"/>
+        <v>405,</v>
       </c>
       <c r="S14" s="15" t="str">
-        <f>_xlfn.CONCAT(ROUND(VLOOKUP($B$3 + (S$2 + ($J14 * 16)), $B$3:$E$258, 3), 0), ",")</f>
-        <v>991,</v>
+        <f t="shared" si="3"/>
+        <v>332,</v>
       </c>
       <c r="T14" s="15" t="str">
-        <f>_xlfn.CONCAT(ROUND(VLOOKUP($B$3 + (T$2 + ($J14 * 16)), $B$3:$E$258, 3), 0), ",")</f>
-        <v>960,</v>
+        <f t="shared" si="3"/>
+        <v>264,</v>
       </c>
       <c r="U14" s="15" t="str">
-        <f>_xlfn.CONCAT(ROUND(VLOOKUP($B$3 + (U$2 + ($J14 * 16)), $B$3:$E$258, 3), 0), ",")</f>
-        <v>920,</v>
+        <f t="shared" si="3"/>
+        <v>201,</v>
       </c>
       <c r="V14" s="15" t="str">
-        <f>_xlfn.CONCAT(ROUND(VLOOKUP($B$3 + (V$2 + ($J14 * 16)), $B$3:$E$258, 3), 0), ",")</f>
-        <v>871,</v>
+        <f t="shared" si="3"/>
+        <v>145,</v>
       </c>
       <c r="W14" s="15" t="str">
-        <f>_xlfn.CONCAT(ROUND(VLOOKUP($B$3 + (W$2 + ($J14 * 16)), $B$3:$E$258, 3), 0), ",")</f>
-        <v>813,</v>
+        <f t="shared" si="3"/>
+        <v>97,</v>
       </c>
       <c r="X14" s="15" t="str">
-        <f>_xlfn.CONCAT(ROUND(VLOOKUP($B$3 + (X$2 + ($J14 * 16)), $B$3:$E$258, 3), 0), ",")</f>
-        <v>750,</v>
+        <f t="shared" si="3"/>
+        <v>57,</v>
       </c>
       <c r="Y14" s="15" t="str">
-        <f>_xlfn.CONCAT(ROUND(VLOOKUP($B$3 + (Y$2 + ($J14 * 16)), $B$3:$E$258, 3), 0), ",")</f>
-        <v>681,</v>
+        <f t="shared" si="3"/>
+        <v>28,</v>
       </c>
       <c r="Z14" s="15" t="str">
-        <f>_xlfn.CONCAT(ROUND(VLOOKUP($B$3 + (Z$2 + ($J14 * 16)), $B$3:$E$258, 3), 0), ",")</f>
-        <v>609,</v>
-      </c>
-    </row>
-    <row r="15" spans="2:26" x14ac:dyDescent="0.2">
+        <f t="shared" si="3"/>
+        <v>9,</v>
+      </c>
+    </row>
+    <row r="15" spans="2:26">
       <c r="B15" s="2">
         <v>12</v>
       </c>
@@ -6563,75 +6461,75 @@
         <f t="shared" si="2"/>
         <v>501.4611446940246</v>
       </c>
-      <c r="J15" s="13">
-        <v>12</v>
+      <c r="J15" s="14">
+        <v>10</v>
       </c>
       <c r="K15" s="15" t="str">
-        <f>_xlfn.CONCAT(ROUND(VLOOKUP($B$3 + (K$2 + ($J15 * 16)), $B$3:$E$258, 3), 0), ",")</f>
-        <v>534,</v>
+        <f t="shared" si="3"/>
+        <v>0,</v>
       </c>
       <c r="L15" s="15" t="str">
-        <f>_xlfn.CONCAT(ROUND(VLOOKUP($B$3 + (L$2 + ($J15 * 16)), $B$3:$E$258, 3), 0), ",")</f>
-        <v>459,</v>
+        <f t="shared" si="3"/>
+        <v>3,</v>
       </c>
       <c r="M15" s="15" t="str">
-        <f>_xlfn.CONCAT(ROUND(VLOOKUP($B$3 + (M$2 + ($J15 * 16)), $B$3:$E$258, 3), 0), ",")</f>
-        <v>385,</v>
+        <f t="shared" si="3"/>
+        <v>17,</v>
       </c>
       <c r="N15" s="15" t="str">
-        <f>_xlfn.CONCAT(ROUND(VLOOKUP($B$3 + (N$2 + ($J15 * 16)), $B$3:$E$258, 3), 0), ",")</f>
-        <v>314,</v>
+        <f t="shared" si="3"/>
+        <v>41,</v>
       </c>
       <c r="O15" s="15" t="str">
-        <f>_xlfn.CONCAT(ROUND(VLOOKUP($B$3 + (O$2 + ($J15 * 16)), $B$3:$E$258, 3), 0), ",")</f>
-        <v>247,</v>
+        <f t="shared" si="3"/>
+        <v>75,</v>
       </c>
       <c r="P15" s="15" t="str">
-        <f>_xlfn.CONCAT(ROUND(VLOOKUP($B$3 + (P$2 + ($J15 * 16)), $B$3:$E$258, 3), 0), ",")</f>
-        <v>186,</v>
+        <f t="shared" si="3"/>
+        <v>119,</v>
       </c>
       <c r="Q15" s="15" t="str">
-        <f>_xlfn.CONCAT(ROUND(VLOOKUP($B$3 + (Q$2 + ($J15 * 16)), $B$3:$E$258, 3), 0), ",")</f>
-        <v>132,</v>
+        <f t="shared" si="3"/>
+        <v>172,</v>
       </c>
       <c r="R15" s="15" t="str">
-        <f>_xlfn.CONCAT(ROUND(VLOOKUP($B$3 + (R$2 + ($J15 * 16)), $B$3:$E$258, 3), 0), ",")</f>
-        <v>85,</v>
+        <f t="shared" si="3"/>
+        <v>231,</v>
       </c>
       <c r="S15" s="15" t="str">
-        <f>_xlfn.CONCAT(ROUND(VLOOKUP($B$3 + (S$2 + ($J15 * 16)), $B$3:$E$258, 3), 0), ",")</f>
-        <v>49,</v>
+        <f t="shared" si="3"/>
+        <v>297,</v>
       </c>
       <c r="T15" s="15" t="str">
-        <f>_xlfn.CONCAT(ROUND(VLOOKUP($B$3 + (T$2 + ($J15 * 16)), $B$3:$E$258, 3), 0), ",")</f>
-        <v>22,</v>
+        <f t="shared" si="3"/>
+        <v>367,</v>
       </c>
       <c r="U15" s="15" t="str">
-        <f>_xlfn.CONCAT(ROUND(VLOOKUP($B$3 + (U$2 + ($J15 * 16)), $B$3:$E$258, 3), 0), ",")</f>
-        <v>5,</v>
+        <f t="shared" si="3"/>
+        <v>441,</v>
       </c>
       <c r="V15" s="15" t="str">
-        <f>_xlfn.CONCAT(ROUND(VLOOKUP($B$3 + (V$2 + ($J15 * 16)), $B$3:$E$258, 3), 0), ",")</f>
-        <v>0,</v>
+        <f t="shared" si="3"/>
+        <v>515,</v>
       </c>
       <c r="W15" s="15" t="str">
-        <f>_xlfn.CONCAT(ROUND(VLOOKUP($B$3 + (W$2 + ($J15 * 16)), $B$3:$E$258, 3), 0), ",")</f>
-        <v>6,</v>
+        <f t="shared" si="3"/>
+        <v>590,</v>
       </c>
       <c r="X15" s="15" t="str">
-        <f>_xlfn.CONCAT(ROUND(VLOOKUP($B$3 + (X$2 + ($J15 * 16)), $B$3:$E$258, 3), 0), ",")</f>
-        <v>22,</v>
+        <f t="shared" si="3"/>
+        <v>663,</v>
       </c>
       <c r="Y15" s="15" t="str">
-        <f>_xlfn.CONCAT(ROUND(VLOOKUP($B$3 + (Y$2 + ($J15 * 16)), $B$3:$E$258, 3), 0), ",")</f>
-        <v>49,</v>
+        <f t="shared" si="3"/>
+        <v>733,</v>
       </c>
       <c r="Z15" s="15" t="str">
-        <f>_xlfn.CONCAT(ROUND(VLOOKUP($B$3 + (Z$2 + ($J15 * 16)), $B$3:$E$258, 3), 0), ",")</f>
-        <v>86,</v>
-      </c>
-    </row>
-    <row r="16" spans="2:26" x14ac:dyDescent="0.2">
+        <f t="shared" si="3"/>
+        <v>798,</v>
+      </c>
+    </row>
+    <row r="16" spans="2:26">
       <c r="B16" s="2">
         <v>13</v>
       </c>
@@ -6647,75 +6545,75 @@
         <f t="shared" si="2"/>
         <v>481.65406617537235</v>
       </c>
-      <c r="J16" s="13">
-        <v>13</v>
+      <c r="J16" s="14">
+        <v>11</v>
       </c>
       <c r="K16" s="15" t="str">
-        <f>_xlfn.CONCAT(ROUND(VLOOKUP($B$3 + (K$2 + ($J16 * 16)), $B$3:$E$258, 3), 0), ",")</f>
-        <v>132,</v>
+        <f t="shared" si="3"/>
+        <v>857,</v>
       </c>
       <c r="L16" s="15" t="str">
-        <f>_xlfn.CONCAT(ROUND(VLOOKUP($B$3 + (L$2 + ($J16 * 16)), $B$3:$E$258, 3), 0), ",")</f>
-        <v>187,</v>
+        <f t="shared" si="3"/>
+        <v>908,</v>
       </c>
       <c r="M16" s="15" t="str">
-        <f>_xlfn.CONCAT(ROUND(VLOOKUP($B$3 + (M$2 + ($J16 * 16)), $B$3:$E$258, 3), 0), ",")</f>
-        <v>248,</v>
+        <f t="shared" si="3"/>
+        <v>951,</v>
       </c>
       <c r="N16" s="15" t="str">
-        <f>_xlfn.CONCAT(ROUND(VLOOKUP($B$3 + (N$2 + ($J16 * 16)), $B$3:$E$258, 3), 0), ",")</f>
-        <v>315,</v>
+        <f t="shared" si="3"/>
+        <v>984,</v>
       </c>
       <c r="O16" s="15" t="str">
-        <f>_xlfn.CONCAT(ROUND(VLOOKUP($B$3 + (O$2 + ($J16 * 16)), $B$3:$E$258, 3), 0), ",")</f>
-        <v>386,</v>
+        <f t="shared" si="3"/>
+        <v>1008,</v>
       </c>
       <c r="P16" s="15" t="str">
-        <f>_xlfn.CONCAT(ROUND(VLOOKUP($B$3 + (P$2 + ($J16 * 16)), $B$3:$E$258, 3), 0), ",")</f>
-        <v>460,</v>
+        <f t="shared" si="3"/>
+        <v>1020,</v>
       </c>
       <c r="Q16" s="15" t="str">
-        <f>_xlfn.CONCAT(ROUND(VLOOKUP($B$3 + (Q$2 + ($J16 * 16)), $B$3:$E$258, 3), 0), ",")</f>
-        <v>535,</v>
+        <f t="shared" si="3"/>
+        <v>1021,</v>
       </c>
       <c r="R16" s="15" t="str">
-        <f>_xlfn.CONCAT(ROUND(VLOOKUP($B$3 + (R$2 + ($J16 * 16)), $B$3:$E$258, 3), 0), ",")</f>
-        <v>610,</v>
+        <f t="shared" si="3"/>
+        <v>1012,</v>
       </c>
       <c r="S16" s="15" t="str">
-        <f>_xlfn.CONCAT(ROUND(VLOOKUP($B$3 + (S$2 + ($J16 * 16)), $B$3:$E$258, 3), 0), ",")</f>
-        <v>682,</v>
+        <f t="shared" si="3"/>
+        <v>991,</v>
       </c>
       <c r="T16" s="15" t="str">
-        <f>_xlfn.CONCAT(ROUND(VLOOKUP($B$3 + (T$2 + ($J16 * 16)), $B$3:$E$258, 3), 0), ",")</f>
-        <v>751,</v>
+        <f t="shared" si="3"/>
+        <v>960,</v>
       </c>
       <c r="U16" s="15" t="str">
-        <f>_xlfn.CONCAT(ROUND(VLOOKUP($B$3 + (U$2 + ($J16 * 16)), $B$3:$E$258, 3), 0), ",")</f>
-        <v>814,</v>
+        <f t="shared" si="3"/>
+        <v>920,</v>
       </c>
       <c r="V16" s="15" t="str">
-        <f>_xlfn.CONCAT(ROUND(VLOOKUP($B$3 + (V$2 + ($J16 * 16)), $B$3:$E$258, 3), 0), ",")</f>
+        <f t="shared" si="3"/>
         <v>871,</v>
       </c>
       <c r="W16" s="15" t="str">
-        <f>_xlfn.CONCAT(ROUND(VLOOKUP($B$3 + (W$2 + ($J16 * 16)), $B$3:$E$258, 3), 0), ",")</f>
-        <v>921,</v>
+        <f t="shared" si="3"/>
+        <v>813,</v>
       </c>
       <c r="X16" s="15" t="str">
-        <f>_xlfn.CONCAT(ROUND(VLOOKUP($B$3 + (X$2 + ($J16 * 16)), $B$3:$E$258, 3), 0), ",")</f>
-        <v>961,</v>
+        <f t="shared" si="3"/>
+        <v>750,</v>
       </c>
       <c r="Y16" s="15" t="str">
-        <f>_xlfn.CONCAT(ROUND(VLOOKUP($B$3 + (Y$2 + ($J16 * 16)), $B$3:$E$258, 3), 0), ",")</f>
-        <v>992,</v>
+        <f t="shared" si="3"/>
+        <v>681,</v>
       </c>
       <c r="Z16" s="15" t="str">
-        <f>_xlfn.CONCAT(ROUND(VLOOKUP($B$3 + (Z$2 + ($J16 * 16)), $B$3:$E$258, 3), 0), ",")</f>
-        <v>1012,</v>
-      </c>
-    </row>
-    <row r="17" spans="2:26" x14ac:dyDescent="0.2">
+        <f t="shared" si="3"/>
+        <v>609,</v>
+      </c>
+    </row>
+    <row r="17" spans="2:26">
       <c r="B17" s="2">
         <v>14</v>
       </c>
@@ -6731,75 +6629,75 @@
         <f t="shared" si="2"/>
         <v>451.45390925671245</v>
       </c>
-      <c r="J17" s="13">
-        <v>14</v>
+      <c r="J17" s="14">
+        <v>12</v>
       </c>
       <c r="K17" s="15" t="str">
-        <f>_xlfn.CONCAT(ROUND(VLOOKUP($B$3 + (K$2 + ($J17 * 16)), $B$3:$E$258, 3), 0), ",")</f>
-        <v>1021,</v>
+        <f t="shared" si="3"/>
+        <v>534,</v>
       </c>
       <c r="L17" s="15" t="str">
-        <f>_xlfn.CONCAT(ROUND(VLOOKUP($B$3 + (L$2 + ($J17 * 16)), $B$3:$E$258, 3), 0), ",")</f>
-        <v>1020,</v>
+        <f t="shared" si="3"/>
+        <v>459,</v>
       </c>
       <c r="M17" s="15" t="str">
-        <f>_xlfn.CONCAT(ROUND(VLOOKUP($B$3 + (M$2 + ($J17 * 16)), $B$3:$E$258, 3), 0), ",")</f>
-        <v>1007,</v>
+        <f t="shared" si="3"/>
+        <v>385,</v>
       </c>
       <c r="N17" s="15" t="str">
-        <f>_xlfn.CONCAT(ROUND(VLOOKUP($B$3 + (N$2 + ($J17 * 16)), $B$3:$E$258, 3), 0), ",")</f>
-        <v>984,</v>
+        <f t="shared" si="3"/>
+        <v>314,</v>
       </c>
       <c r="O17" s="15" t="str">
-        <f>_xlfn.CONCAT(ROUND(VLOOKUP($B$3 + (O$2 + ($J17 * 16)), $B$3:$E$258, 3), 0), ",")</f>
-        <v>951,</v>
+        <f t="shared" si="3"/>
+        <v>247,</v>
       </c>
       <c r="P17" s="15" t="str">
-        <f>_xlfn.CONCAT(ROUND(VLOOKUP($B$3 + (P$2 + ($J17 * 16)), $B$3:$E$258, 3), 0), ",")</f>
-        <v>908,</v>
+        <f t="shared" si="3"/>
+        <v>186,</v>
       </c>
       <c r="Q17" s="15" t="str">
-        <f>_xlfn.CONCAT(ROUND(VLOOKUP($B$3 + (Q$2 + ($J17 * 16)), $B$3:$E$258, 3), 0), ",")</f>
-        <v>856,</v>
+        <f t="shared" si="3"/>
+        <v>132,</v>
       </c>
       <c r="R17" s="15" t="str">
-        <f>_xlfn.CONCAT(ROUND(VLOOKUP($B$3 + (R$2 + ($J17 * 16)), $B$3:$E$258, 3), 0), ",")</f>
-        <v>797,</v>
+        <f t="shared" si="3"/>
+        <v>85,</v>
       </c>
       <c r="S17" s="15" t="str">
-        <f>_xlfn.CONCAT(ROUND(VLOOKUP($B$3 + (S$2 + ($J17 * 16)), $B$3:$E$258, 3), 0), ",")</f>
-        <v>732,</v>
+        <f t="shared" si="3"/>
+        <v>49,</v>
       </c>
       <c r="T17" s="15" t="str">
-        <f>_xlfn.CONCAT(ROUND(VLOOKUP($B$3 + (T$2 + ($J17 * 16)), $B$3:$E$258, 3), 0), ",")</f>
-        <v>662,</v>
+        <f t="shared" si="3"/>
+        <v>22,</v>
       </c>
       <c r="U17" s="15" t="str">
-        <f>_xlfn.CONCAT(ROUND(VLOOKUP($B$3 + (U$2 + ($J17 * 16)), $B$3:$E$258, 3), 0), ",")</f>
-        <v>589,</v>
+        <f t="shared" si="3"/>
+        <v>5,</v>
       </c>
       <c r="V17" s="15" t="str">
-        <f>_xlfn.CONCAT(ROUND(VLOOKUP($B$3 + (V$2 + ($J17 * 16)), $B$3:$E$258, 3), 0), ",")</f>
-        <v>514,</v>
+        <f t="shared" si="3"/>
+        <v>0,</v>
       </c>
       <c r="W17" s="15" t="str">
-        <f>_xlfn.CONCAT(ROUND(VLOOKUP($B$3 + (W$2 + ($J17 * 16)), $B$3:$E$258, 3), 0), ",")</f>
-        <v>439,</v>
+        <f t="shared" si="3"/>
+        <v>6,</v>
       </c>
       <c r="X17" s="15" t="str">
-        <f>_xlfn.CONCAT(ROUND(VLOOKUP($B$3 + (X$2 + ($J17 * 16)), $B$3:$E$258, 3), 0), ",")</f>
-        <v>366,</v>
+        <f t="shared" si="3"/>
+        <v>22,</v>
       </c>
       <c r="Y17" s="15" t="str">
-        <f>_xlfn.CONCAT(ROUND(VLOOKUP($B$3 + (Y$2 + ($J17 * 16)), $B$3:$E$258, 3), 0), ",")</f>
-        <v>296,</v>
+        <f t="shared" si="3"/>
+        <v>49,</v>
       </c>
       <c r="Z17" s="15" t="str">
-        <f>_xlfn.CONCAT(ROUND(VLOOKUP($B$3 + (Z$2 + ($J17 * 16)), $B$3:$E$258, 3), 0), ",")</f>
-        <v>230,</v>
-      </c>
-    </row>
-    <row r="18" spans="2:26" x14ac:dyDescent="0.2">
+        <f t="shared" si="3"/>
+        <v>86,</v>
+      </c>
+    </row>
+    <row r="18" spans="2:26">
       <c r="B18" s="2">
         <v>15</v>
       </c>
@@ -6815,75 +6713,75 @@
         <f t="shared" si="2"/>
         <v>411.51232959838319</v>
       </c>
-      <c r="J18" s="13">
-        <v>15</v>
+      <c r="J18" s="14">
+        <v>13</v>
       </c>
       <c r="K18" s="15" t="str">
-        <f>_xlfn.CONCAT(ROUND(VLOOKUP($B$3 + (K$2 + ($J18 * 16)), $B$3:$E$258, 3), 0), ",")</f>
-        <v>171,</v>
+        <f t="shared" si="3"/>
+        <v>132,</v>
       </c>
       <c r="L18" s="15" t="str">
-        <f>_xlfn.CONCAT(ROUND(VLOOKUP($B$3 + (L$2 + ($J18 * 16)), $B$3:$E$258, 3), 0), ",")</f>
-        <v>118,</v>
+        <f t="shared" si="3"/>
+        <v>187,</v>
       </c>
       <c r="M18" s="15" t="str">
-        <f>_xlfn.CONCAT(ROUND(VLOOKUP($B$3 + (M$2 + ($J18 * 16)), $B$3:$E$258, 3), 0), ",")</f>
-        <v>75,</v>
+        <f t="shared" si="3"/>
+        <v>248,</v>
       </c>
       <c r="N18" s="15" t="str">
-        <f>_xlfn.CONCAT(ROUND(VLOOKUP($B$3 + (N$2 + ($J18 * 16)), $B$3:$E$258, 3), 0), ",")</f>
-        <v>41,</v>
+        <f t="shared" si="3"/>
+        <v>315,</v>
       </c>
       <c r="O18" s="15" t="str">
-        <f>_xlfn.CONCAT(ROUND(VLOOKUP($B$3 + (O$2 + ($J18 * 16)), $B$3:$E$258, 3), 0), ",")</f>
-        <v>16,</v>
+        <f t="shared" si="3"/>
+        <v>386,</v>
       </c>
       <c r="P18" s="15" t="str">
-        <f>_xlfn.CONCAT(ROUND(VLOOKUP($B$3 + (P$2 + ($J18 * 16)), $B$3:$E$258, 3), 0), ",")</f>
-        <v>3,</v>
+        <f t="shared" si="3"/>
+        <v>460,</v>
       </c>
       <c r="Q18" s="15" t="str">
-        <f>_xlfn.CONCAT(ROUND(VLOOKUP($B$3 + (Q$2 + ($J18 * 16)), $B$3:$E$258, 3), 0), ",")</f>
-        <v>0,</v>
+        <f t="shared" si="3"/>
+        <v>535,</v>
       </c>
       <c r="R18" s="15" t="str">
-        <f>_xlfn.CONCAT(ROUND(VLOOKUP($B$3 + (R$2 + ($J18 * 16)), $B$3:$E$258, 3), 0), ",")</f>
-        <v>9,</v>
+        <f t="shared" si="3"/>
+        <v>610,</v>
       </c>
       <c r="S18" s="15" t="str">
-        <f>_xlfn.CONCAT(ROUND(VLOOKUP($B$3 + (S$2 + ($J18 * 16)), $B$3:$E$258, 3), 0), ",")</f>
-        <v>28,</v>
+        <f t="shared" si="3"/>
+        <v>682,</v>
       </c>
       <c r="T18" s="15" t="str">
-        <f>_xlfn.CONCAT(ROUND(VLOOKUP($B$3 + (T$2 + ($J18 * 16)), $B$3:$E$258, 3), 0), ",")</f>
-        <v>58,</v>
+        <f t="shared" si="3"/>
+        <v>751,</v>
       </c>
       <c r="U18" s="15" t="str">
-        <f>_xlfn.CONCAT(ROUND(VLOOKUP($B$3 + (U$2 + ($J18 * 16)), $B$3:$E$258, 3), 0), ",")</f>
-        <v>98,</v>
+        <f t="shared" si="3"/>
+        <v>814,</v>
       </c>
       <c r="V18" s="15" t="str">
-        <f>_xlfn.CONCAT(ROUND(VLOOKUP($B$3 + (V$2 + ($J18 * 16)), $B$3:$E$258, 3), 0), ",")</f>
-        <v>146,</v>
+        <f t="shared" si="3"/>
+        <v>871,</v>
       </c>
       <c r="W18" s="15" t="str">
-        <f>_xlfn.CONCAT(ROUND(VLOOKUP($B$3 + (W$2 + ($J18 * 16)), $B$3:$E$258, 3), 0), ",")</f>
-        <v>202,</v>
+        <f t="shared" si="3"/>
+        <v>921,</v>
       </c>
       <c r="X18" s="15" t="str">
-        <f>_xlfn.CONCAT(ROUND(VLOOKUP($B$3 + (X$2 + ($J18 * 16)), $B$3:$E$258, 3), 0), ",")</f>
-        <v>265,</v>
+        <f t="shared" si="3"/>
+        <v>961,</v>
       </c>
       <c r="Y18" s="15" t="str">
-        <f>_xlfn.CONCAT(ROUND(VLOOKUP($B$3 + (Y$2 + ($J18 * 16)), $B$3:$E$258, 3), 0), ",")</f>
-        <v>334,</v>
+        <f t="shared" si="3"/>
+        <v>992,</v>
       </c>
       <c r="Z18" s="15" t="str">
-        <f>_xlfn.CONCAT(ROUND(VLOOKUP($B$3 + (Z$2 + ($J18 * 16)), $B$3:$E$258, 3), 0), ",")</f>
-        <v>406,</v>
-      </c>
-    </row>
-    <row r="19" spans="2:26" x14ac:dyDescent="0.2">
+        <f t="shared" si="3"/>
+        <v>1012,</v>
+      </c>
+    </row>
+    <row r="19" spans="2:26">
       <c r="B19" s="2">
         <v>16</v>
       </c>
@@ -6899,8 +6797,75 @@
         <f t="shared" si="2"/>
         <v>362.69118220787061</v>
       </c>
-    </row>
-    <row r="20" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="J19" s="14">
+        <v>14</v>
+      </c>
+      <c r="K19" s="15" t="str">
+        <f t="shared" si="3"/>
+        <v>1021,</v>
+      </c>
+      <c r="L19" s="15" t="str">
+        <f t="shared" si="3"/>
+        <v>1020,</v>
+      </c>
+      <c r="M19" s="15" t="str">
+        <f t="shared" si="3"/>
+        <v>1007,</v>
+      </c>
+      <c r="N19" s="15" t="str">
+        <f t="shared" si="3"/>
+        <v>984,</v>
+      </c>
+      <c r="O19" s="15" t="str">
+        <f t="shared" si="3"/>
+        <v>951,</v>
+      </c>
+      <c r="P19" s="15" t="str">
+        <f t="shared" si="3"/>
+        <v>908,</v>
+      </c>
+      <c r="Q19" s="15" t="str">
+        <f t="shared" si="3"/>
+        <v>856,</v>
+      </c>
+      <c r="R19" s="15" t="str">
+        <f t="shared" si="3"/>
+        <v>797,</v>
+      </c>
+      <c r="S19" s="15" t="str">
+        <f t="shared" si="3"/>
+        <v>732,</v>
+      </c>
+      <c r="T19" s="15" t="str">
+        <f t="shared" si="3"/>
+        <v>662,</v>
+      </c>
+      <c r="U19" s="15" t="str">
+        <f t="shared" si="3"/>
+        <v>589,</v>
+      </c>
+      <c r="V19" s="15" t="str">
+        <f t="shared" si="3"/>
+        <v>514,</v>
+      </c>
+      <c r="W19" s="15" t="str">
+        <f t="shared" si="3"/>
+        <v>439,</v>
+      </c>
+      <c r="X19" s="15" t="str">
+        <f t="shared" si="3"/>
+        <v>366,</v>
+      </c>
+      <c r="Y19" s="15" t="str">
+        <f t="shared" si="3"/>
+        <v>296,</v>
+      </c>
+      <c r="Z19" s="15" t="str">
+        <f t="shared" si="3"/>
+        <v>230,</v>
+      </c>
+    </row>
+    <row r="20" spans="2:26">
       <c r="B20" s="2">
         <v>17</v>
       </c>
@@ -6916,8 +6881,75 @@
         <f t="shared" si="2"/>
         <v>306.04392442736412</v>
       </c>
-    </row>
-    <row r="21" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="J20" s="14">
+        <v>15</v>
+      </c>
+      <c r="K20" s="15" t="str">
+        <f t="shared" ref="K20:Y20" si="4">_xlfn.CONCAT(ROUND(VLOOKUP($B$3 + (K$4 + ($J20 * 16)), $B$3:$E$258, 3), 0), ",")</f>
+        <v>171,</v>
+      </c>
+      <c r="L20" s="15" t="str">
+        <f t="shared" si="4"/>
+        <v>118,</v>
+      </c>
+      <c r="M20" s="15" t="str">
+        <f t="shared" si="4"/>
+        <v>75,</v>
+      </c>
+      <c r="N20" s="15" t="str">
+        <f t="shared" si="4"/>
+        <v>41,</v>
+      </c>
+      <c r="O20" s="15" t="str">
+        <f t="shared" si="4"/>
+        <v>16,</v>
+      </c>
+      <c r="P20" s="15" t="str">
+        <f t="shared" si="4"/>
+        <v>3,</v>
+      </c>
+      <c r="Q20" s="15" t="str">
+        <f t="shared" si="4"/>
+        <v>0,</v>
+      </c>
+      <c r="R20" s="15" t="str">
+        <f t="shared" si="4"/>
+        <v>9,</v>
+      </c>
+      <c r="S20" s="15" t="str">
+        <f t="shared" si="4"/>
+        <v>28,</v>
+      </c>
+      <c r="T20" s="15" t="str">
+        <f t="shared" si="4"/>
+        <v>58,</v>
+      </c>
+      <c r="U20" s="15" t="str">
+        <f t="shared" si="4"/>
+        <v>98,</v>
+      </c>
+      <c r="V20" s="15" t="str">
+        <f t="shared" si="4"/>
+        <v>146,</v>
+      </c>
+      <c r="W20" s="15" t="str">
+        <f t="shared" si="4"/>
+        <v>202,</v>
+      </c>
+      <c r="X20" s="15" t="str">
+        <f t="shared" si="4"/>
+        <v>265,</v>
+      </c>
+      <c r="Y20" s="15" t="str">
+        <f t="shared" si="4"/>
+        <v>334,</v>
+      </c>
+      <c r="Z20" s="15">
+        <f>ROUND(VLOOKUP($B$3 + (Z$4 + ($J20 * 16)), $B$3:$E$258, 3), 0)</f>
+        <v>406</v>
+      </c>
+    </row>
+    <row r="21" spans="2:26">
       <c r="B21" s="2">
         <v>18</v>
       </c>
@@ -6934,7 +6966,7 @@
         <v>242.79288454723462</v>
       </c>
     </row>
-    <row r="22" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:26">
       <c r="B22" s="2">
         <v>19</v>
       </c>
@@ -6951,7 +6983,7 @@
         <v>174.30288654078777</v>
       </c>
     </row>
-    <row r="23" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:26">
       <c r="B23" s="2">
         <v>20</v>
       </c>
@@ -6968,7 +7000,7 @@
         <v>102.05180004286183</v>
       </c>
     </row>
-    <row r="24" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:26">
       <c r="B24" s="2">
         <v>21</v>
       </c>
@@ -6985,7 +7017,7 @@
         <v>27.598651041593257</v>
       </c>
     </row>
-    <row r="25" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:26">
       <c r="B25" s="2">
         <v>22</v>
       </c>
@@ -7002,7 +7034,7 @@
         <v>47.450018612676956</v>
       </c>
     </row>
-    <row r="26" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:26">
       <c r="B26" s="2">
         <v>23</v>
       </c>
@@ -7019,7 +7051,7 @@
         <v>121.47481699053657</v>
       </c>
     </row>
-    <row r="27" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:26">
       <c r="B27" s="2">
         <v>24</v>
       </c>
@@ -7036,7 +7068,7 @@
         <v>192.87844514422648</v>
       </c>
     </row>
-    <row r="28" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:26">
       <c r="B28" s="2">
         <v>25</v>
       </c>
@@ -7053,7 +7085,7 @@
         <v>260.12016344843994</v>
       </c>
     </row>
-    <row r="29" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:26">
       <c r="B29" s="2">
         <v>26</v>
       </c>
@@ -7069,8 +7101,47 @@
         <f t="shared" si="2"/>
         <v>321.749037510292</v>
       </c>
-    </row>
-    <row r="30" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="K29">
+        <v>4096</v>
+      </c>
+      <c r="L29">
+        <v>2048</v>
+      </c>
+      <c r="M29">
+        <v>1024</v>
+      </c>
+      <c r="N29">
+        <v>512</v>
+      </c>
+      <c r="O29">
+        <v>256</v>
+      </c>
+      <c r="P29">
+        <v>128</v>
+      </c>
+      <c r="Q29">
+        <v>64</v>
+      </c>
+      <c r="R29">
+        <v>32</v>
+      </c>
+      <c r="S29">
+        <v>16</v>
+      </c>
+      <c r="T29">
+        <v>8</v>
+      </c>
+      <c r="U29">
+        <v>4</v>
+      </c>
+      <c r="V29">
+        <v>2</v>
+      </c>
+      <c r="W29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="2:26">
       <c r="B30" s="2">
         <v>27</v>
       </c>
@@ -7087,7 +7158,7 @@
         <v>376.43524627187054</v>
       </c>
     </row>
-    <row r="31" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:26">
       <c r="B31" s="2">
         <v>28</v>
       </c>
@@ -7104,7 +7175,7 @@
         <v>422.9987767425838</v>
       </c>
     </row>
-    <row r="32" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:26">
       <c r="B32" s="2">
         <v>29</v>
       </c>
@@ -7121,7 +7192,7 @@
         <v>460.43488618952762</v>
       </c>
     </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:5">
       <c r="B33" s="2">
         <v>30</v>
       </c>
@@ -7138,7 +7209,7 @@
         <v>487.93578236553464</v>
       </c>
     </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:5">
       <c r="B34" s="2">
         <v>31</v>
       </c>
@@ -7155,7 +7226,7 @@
         <v>504.9080539613276</v>
       </c>
     </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:5">
       <c r="B35" s="2">
         <v>32</v>
       </c>
@@ -7172,7 +7243,7 @@
         <v>510.98547516940528</v>
       </c>
     </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:5">
       <c r="B36" s="2">
         <v>33</v>
       </c>
@@ -7189,7 +7260,7 @@
         <v>506.0369080641878</v>
       </c>
     </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:5">
       <c r="B37" s="2">
         <v>34</v>
       </c>
@@ -7206,7 +7277,7 @@
         <v>490.16913228173337</v>
       </c>
     </row>
-    <row r="38" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:5">
       <c r="B38" s="2">
         <v>35</v>
       </c>
@@ -7223,7 +7294,7 @@
         <v>463.72454094051068</v>
       </c>
     </row>
-    <row r="39" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:5">
       <c r="B39" s="2">
         <v>36</v>
       </c>
@@ -7240,7 +7311,7 @@
         <v>427.27375252039207</v>
       </c>
     </row>
-    <row r="40" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:5">
       <c r="B40" s="2">
         <v>37</v>
       </c>
@@ -7257,7 +7328,7 @@
         <v>381.60329811993284</v>
       </c>
     </row>
-    <row r="41" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:5">
       <c r="B41" s="2">
         <v>38</v>
       </c>
@@ -7274,7 +7345,7 @@
         <v>327.69864977493864</v>
       </c>
     </row>
-    <row r="42" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:5">
       <c r="B42" s="2">
         <v>39</v>
       </c>
@@ -7291,7 +7362,7 @@
         <v>266.72295605139703</v>
       </c>
     </row>
-    <row r="43" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:5">
       <c r="B43" s="2">
         <v>40</v>
       </c>
@@ -7308,7 +7379,7 @@
         <v>199.99194375381006</v>
       </c>
     </row>
-    <row r="44" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:5">
       <c r="B44" s="2">
         <v>41</v>
       </c>
@@ -7325,7 +7396,7 @@
         <v>128.94552731709007</v>
       </c>
     </row>
-    <row r="45" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:5">
       <c r="B45" s="2">
         <v>42</v>
       </c>
@@ -7342,7 +7413,7 @@
         <v>55.116738491451656</v>
       </c>
     </row>
-    <row r="46" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:5">
       <c r="B46" s="2">
         <v>43</v>
       </c>
@@ -7359,7 +7430,7 @@
         <v>19.90135324787957</v>
       </c>
     </row>
-    <row r="47" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:5">
       <c r="B47" s="2">
         <v>44</v>
       </c>
@@ -7376,7 +7447,7 @@
         <v>94.490015778372936</v>
       </c>
     </row>
-    <row r="48" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:5">
       <c r="B48" s="2">
         <v>45</v>
       </c>
@@ -7393,7 +7464,7 @@
         <v>167.03978315367578</v>
       </c>
     </row>
-    <row r="49" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:5">
       <c r="B49" s="2">
         <v>46</v>
       </c>
@@ -7410,7 +7481,7 @@
         <v>235.98518448257187</v>
       </c>
     </row>
-    <row r="50" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:5">
       <c r="B50" s="2">
         <v>47</v>
       </c>
@@ -7427,7 +7498,7 @@
         <v>299.83852348747916</v>
       </c>
     </row>
-    <row r="51" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:5">
       <c r="B51" s="2">
         <v>48</v>
       </c>
@@ -7444,7 +7515,7 @@
         <v>357.22197985090315</v>
       </c>
     </row>
-    <row r="52" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:5">
       <c r="B52" s="2">
         <v>49</v>
       </c>
@@ -7461,7 +7532,7 @@
         <v>406.89733967052098</v>
       </c>
     </row>
-    <row r="53" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:5">
       <c r="B53" s="2">
         <v>50</v>
       </c>
@@ -7478,7 +7549,7 @@
         <v>447.79271350241447</v>
       </c>
     </row>
-    <row r="54" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:5">
       <c r="B54" s="2">
         <v>51</v>
       </c>
@@ -7495,7 +7566,7 @@
         <v>479.02566547345293</v>
       </c>
     </row>
-    <row r="55" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:5">
       <c r="B55" s="2">
         <v>52</v>
       </c>
@@ -7512,7 +7583,7 @@
         <v>499.92225438538912</v>
       </c>
     </row>
-    <row r="56" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:5">
       <c r="B56" s="2">
         <v>53</v>
       </c>
@@ -7529,7 +7600,7 @@
         <v>510.03157594382185</v>
       </c>
     </row>
-    <row r="57" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:5">
       <c r="B57" s="2">
         <v>54</v>
       </c>
@@ -7546,7 +7617,7 @@
         <v>509.13549232140508</v>
       </c>
     </row>
-    <row r="58" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:5">
       <c r="B58" s="2">
         <v>55</v>
       </c>
@@ -7563,7 +7634,7 @@
         <v>497.25333911186658</v>
       </c>
     </row>
-    <row r="59" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:5">
       <c r="B59" s="2">
         <v>56</v>
       </c>
@@ -7580,7 +7651,7 @@
         <v>474.64150810869432</v>
       </c>
     </row>
-    <row r="60" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:5">
       <c r="B60" s="2">
         <v>57</v>
       </c>
@@ -7597,7 +7668,7 @@
         <v>441.78791491125207</v>
       </c>
     </row>
-    <row r="61" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:5">
       <c r="B61" s="2">
         <v>58</v>
       </c>
@@ -7614,7 +7685,7 @@
         <v>399.4014707357037</v>
       </c>
     </row>
-    <row r="62" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="62" spans="2:5">
       <c r="B62" s="2">
         <v>59</v>
       </c>
@@ -7631,7 +7702,7 @@
         <v>348.39678560685854</v>
       </c>
     </row>
-    <row r="63" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="63" spans="2:5">
       <c r="B63" s="2">
         <v>60</v>
       </c>
@@ -7648,7 +7719,7 @@
         <v>289.87443300377186</v>
       </c>
     </row>
-    <row r="64" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:5">
       <c r="B64" s="2">
         <v>61</v>
       </c>
@@ -7665,7 +7736,7 @@
         <v>225.09720180641079</v>
       </c>
     </row>
-    <row r="65" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:5">
       <c r="B65" s="2">
         <v>62</v>
       </c>
@@ -7682,7 +7753,7 @@
         <v>155.46284797625663</v>
       </c>
     </row>
-    <row r="66" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:5">
       <c r="B66" s="2">
         <v>63</v>
       </c>
@@ -7699,16 +7770,16 @@
         <v>82.473933932099158</v>
       </c>
     </row>
-    <row r="67" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:5">
       <c r="B67" s="2">
         <v>64</v>
       </c>
       <c r="C67" s="7">
-        <f t="shared" ref="C67:C130" si="3">$B67 * (360 / (SAMPLE_RATE / FREQ)) + PHASE_OFFSET</f>
+        <f t="shared" ref="C67:C130" si="5">$B67 * (360 / (SAMPLE_RATE / FREQ)) + PHASE_OFFSET</f>
         <v>539.13600000000008</v>
       </c>
       <c r="D67" s="11">
-        <f t="shared" ref="D67:D130" si="4">(SIN($C67 * (PI()/180)) * AMPLITUDE) + 511</f>
+        <f t="shared" ref="D67:D130" si="6">(SIN($C67 * (PI()/180)) * AMPLITUDE) + 511</f>
         <v>518.70540642361414</v>
       </c>
       <c r="E67" s="4">
@@ -7716,3254 +7787,3257 @@
         <v>7.7054064236141357</v>
       </c>
     </row>
-    <row r="68" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:5">
       <c r="B68" s="2">
         <v>65</v>
       </c>
       <c r="C68" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>547.56000000000006</v>
       </c>
       <c r="D68" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>443.77061250384349</v>
       </c>
       <c r="E68" s="4">
-        <f t="shared" ref="E68:E131" si="5">IF($D68 &lt; 511, 511 - $D68, $D68 - 511)</f>
+        <f t="shared" ref="E68:E131" si="7">IF($D68 &lt; 511, 511 - $D68, $D68 - 511)</f>
         <v>67.229387496156505</v>
       </c>
     </row>
-    <row r="69" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="69" spans="2:5">
       <c r="B69" s="2">
         <v>66</v>
       </c>
       <c r="C69" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>555.98400000000004</v>
       </c>
       <c r="D69" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>370.28648690413888</v>
       </c>
       <c r="E69" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>140.71351309586112</v>
       </c>
     </row>
-    <row r="70" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="70" spans="2:5">
       <c r="B70" s="2">
         <v>67</v>
       </c>
       <c r="C70" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>564.40800000000013</v>
       </c>
       <c r="D70" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>299.83866199459169</v>
       </c>
       <c r="E70" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>211.16133800540831</v>
       </c>
     </row>
-    <row r="71" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:5">
       <c r="B71" s="2">
         <v>68</v>
       </c>
       <c r="C71" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>572.83200000000011</v>
       </c>
       <c r="D71" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>233.94725318336191</v>
       </c>
       <c r="E71" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>277.05274681663809</v>
       </c>
     </row>
-    <row r="72" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="72" spans="2:5">
       <c r="B72" s="2">
         <v>69</v>
       </c>
       <c r="C72" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>581.25600000000009</v>
       </c>
       <c r="D72" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>174.03405803378945</v>
       </c>
       <c r="E72" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>336.96594196621055</v>
       </c>
     </row>
-    <row r="73" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:5">
       <c r="B73" s="2">
         <v>70</v>
       </c>
       <c r="C73" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>589.68000000000006</v>
       </c>
       <c r="D73" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>121.3918768731499</v>
       </c>
       <c r="E73" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>389.6081231268501</v>
       </c>
     </row>
-    <row r="74" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="74" spans="2:5">
       <c r="B74" s="2">
         <v>71</v>
       </c>
       <c r="C74" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>598.10400000000004</v>
       </c>
       <c r="D74" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>77.156616889549753</v>
       </c>
       <c r="E74" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>433.84338311045025</v>
       </c>
     </row>
-    <row r="75" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="75" spans="2:5">
       <c r="B75" s="2">
         <v>72</v>
       </c>
       <c r="C75" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>606.52800000000013</v>
       </c>
       <c r="D75" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>42.282781651712469</v>
       </c>
       <c r="E75" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>468.71721834828753</v>
       </c>
     </row>
-    <row r="76" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="76" spans="2:5">
       <c r="B76" s="2">
         <v>73</v>
       </c>
       <c r="C76" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>614.95200000000011</v>
       </c>
       <c r="D76" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>17.522874936080598</v>
       </c>
       <c r="E76" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>493.4771250639194</v>
       </c>
     </row>
-    <row r="77" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:5">
       <c r="B77" s="2">
         <v>74</v>
       </c>
       <c r="C77" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>623.37600000000009</v>
       </c>
       <c r="D77" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>3.4111632831939005</v>
       </c>
       <c r="E77" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>507.5888367168061</v>
       </c>
     </row>
-    <row r="78" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="78" spans="2:5">
       <c r="B78" s="2">
         <v>75</v>
       </c>
       <c r="C78" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>631.80000000000007</v>
       </c>
       <c r="D78" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.25214765311119436</v>
       </c>
       <c r="E78" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>510.74785234688881</v>
       </c>
     </row>
-    <row r="79" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="79" spans="2:5">
       <c r="B79" s="2">
         <v>76</v>
       </c>
       <c r="C79" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>640.22400000000005</v>
       </c>
       <c r="D79" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>8.1139929372264419</v>
       </c>
       <c r="E79" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>502.88600706277356</v>
       </c>
     </row>
-    <row r="80" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:5">
       <c r="B80" s="2">
         <v>77</v>
       </c>
       <c r="C80" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>648.64800000000014</v>
       </c>
       <c r="D80" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>26.827057103748814</v>
       </c>
       <c r="E80" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>484.17294289625119</v>
       </c>
     </row>
-    <row r="81" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="81" spans="2:5">
       <c r="B81" s="2">
         <v>78</v>
       </c>
       <c r="C81" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>657.07200000000012</v>
       </c>
       <c r="D81" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>55.987551714782171</v>
       </c>
       <c r="E81" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>455.01244828521783</v>
       </c>
     </row>
-    <row r="82" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="82" spans="2:5">
       <c r="B82" s="2">
         <v>79</v>
       </c>
       <c r="C82" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>665.49600000000009</v>
       </c>
       <c r="D82" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>94.966254828773799</v>
       </c>
       <c r="E82" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>416.0337451712262</v>
       </c>
     </row>
-    <row r="83" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="83" spans="2:5">
       <c r="B83" s="2">
         <v>80</v>
       </c>
       <c r="C83" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>673.92000000000007</v>
       </c>
       <c r="D83" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>142.92208828228013</v>
       </c>
       <c r="E83" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>368.07791171771987</v>
       </c>
     </row>
-    <row r="84" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="84" spans="2:5">
       <c r="B84" s="2">
         <v>81</v>
       </c>
       <c r="C84" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>682.34400000000005</v>
       </c>
       <c r="D84" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>198.82026638195447</v>
       </c>
       <c r="E84" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>312.17973361804553</v>
       </c>
     </row>
-    <row r="85" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="85" spans="2:5">
       <c r="B85" s="2">
         <v>82</v>
       </c>
       <c r="C85" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>690.76800000000014</v>
       </c>
       <c r="D85" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>261.45462439629239</v>
       </c>
       <c r="E85" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>249.54537560370761</v>
       </c>
     </row>
-    <row r="86" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="86" spans="2:5">
       <c r="B86" s="2">
         <v>83</v>
       </c>
       <c r="C86" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>699.19200000000012</v>
       </c>
       <c r="D86" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>329.47364504537609</v>
       </c>
       <c r="E86" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>181.52635495462391</v>
       </c>
     </row>
-    <row r="87" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="87" spans="2:5">
       <c r="B87" s="2">
         <v>84</v>
       </c>
       <c r="C87" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>707.6160000000001</v>
       </c>
       <c r="D87" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>401.40962139192192</v>
       </c>
       <c r="E87" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>109.59037860807808</v>
       </c>
     </row>
-    <row r="88" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="88" spans="2:5">
       <c r="B88" s="2">
         <v>85</v>
       </c>
       <c r="C88" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>716.04000000000008</v>
       </c>
       <c r="D88" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>475.71032685993879</v>
       </c>
       <c r="E88" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>35.289673140061211</v>
       </c>
     </row>
-    <row r="89" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="89" spans="2:5">
       <c r="B89" s="2">
         <v>86</v>
       </c>
       <c r="C89" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>724.46400000000006</v>
       </c>
       <c r="D89" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>550.77250900886088</v>
       </c>
       <c r="E89" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>39.772509008860879</v>
       </c>
     </row>
-    <row r="90" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="90" spans="2:5">
       <c r="B90" s="2">
         <v>87</v>
       </c>
       <c r="C90" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>732.88800000000015</v>
       </c>
       <c r="D90" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>624.97648433815402</v>
       </c>
       <c r="E90" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>113.97648433815402</v>
       </c>
     </row>
-    <row r="91" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="91" spans="2:5">
       <c r="B91" s="2">
         <v>88</v>
       </c>
       <c r="C91" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>741.31200000000013</v>
       </c>
       <c r="D91" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>696.72108763952963</v>
       </c>
       <c r="E91" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>185.72108763952963</v>
       </c>
     </row>
-    <row r="92" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="92" spans="2:5">
       <c r="B92" s="2">
         <v>89</v>
       </c>
       <c r="C92" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>749.7360000000001</v>
       </c>
       <c r="D92" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>764.45822176349543</v>
       </c>
       <c r="E92" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>253.45822176349543</v>
       </c>
     </row>
-    <row r="93" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="93" spans="2:5">
       <c r="B93" s="2">
         <v>90</v>
       </c>
       <c r="C93" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>758.16000000000008</v>
       </c>
       <c r="D93" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>826.72626228916113</v>
       </c>
       <c r="E93" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>315.72626228916113</v>
       </c>
     </row>
-    <row r="94" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="94" spans="2:5">
       <c r="B94" s="2">
         <v>91</v>
       </c>
       <c r="C94" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>766.58400000000006</v>
       </c>
       <c r="D94" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>882.18159629504532</v>
       </c>
       <c r="E94" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>371.18159629504532</v>
       </c>
     </row>
-    <row r="95" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="95" spans="2:5">
       <c r="B95" s="2">
         <v>92</v>
       </c>
       <c r="C95" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>775.00800000000015</v>
       </c>
       <c r="D95" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>929.62761469073018</v>
       </c>
       <c r="E95" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>418.62761469073018</v>
       </c>
     </row>
-    <row r="96" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="96" spans="2:5">
       <c r="B96" s="2">
         <v>93</v>
       </c>
       <c r="C96" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>783.43200000000013</v>
       </c>
       <c r="D96" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>968.04053251604671</v>
       </c>
       <c r="E96" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>457.04053251604671</v>
       </c>
     </row>
-    <row r="97" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="97" spans="2:5">
       <c r="B97" s="2">
         <v>94</v>
       </c>
       <c r="C97" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>791.85600000000011</v>
       </c>
       <c r="D97" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>996.59148006020496</v>
       </c>
       <c r="E97" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>485.59148006020496</v>
       </c>
     </row>
-    <row r="98" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="98" spans="2:5">
       <c r="B98" s="2">
         <v>95</v>
       </c>
       <c r="C98" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>800.28000000000009</v>
       </c>
       <c r="D98" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1014.6643881211381</v>
       </c>
       <c r="E98" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>503.66438812113813</v>
       </c>
     </row>
-    <row r="99" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="99" spans="2:5">
       <c r="B99" s="2">
         <v>96</v>
       </c>
       <c r="C99" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>808.70400000000018</v>
       </c>
       <c r="D99" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1021.8692814789028</v>
       </c>
       <c r="E99" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>510.86928147890285</v>
       </c>
     </row>
-    <row r="100" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="100" spans="2:5">
       <c r="B100" s="2">
         <v>97</v>
       </c>
       <c r="C100" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>817.12800000000016</v>
       </c>
       <c r="D100" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1018.0506937380308</v>
       </c>
       <c r="E100" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>507.05069373803076</v>
       </c>
     </row>
-    <row r="101" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="101" spans="2:5">
       <c r="B101" s="2">
         <v>98</v>
       </c>
       <c r="C101" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>825.55200000000013</v>
       </c>
       <c r="D101" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1003.2910219642898</v>
       </c>
       <c r="E101" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>492.29102196428983</v>
       </c>
     </row>
-    <row r="102" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="102" spans="2:5">
       <c r="B102" s="2">
         <v>99</v>
       </c>
       <c r="C102" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>833.97600000000011</v>
       </c>
       <c r="D102" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>977.90874872987388</v>
       </c>
       <c r="E102" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>466.90874872987388</v>
       </c>
     </row>
-    <row r="103" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="103" spans="2:5">
       <c r="B103" s="2">
         <v>100</v>
       </c>
       <c r="C103" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>842.40000000000009</v>
       </c>
       <c r="D103" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>942.45156993152932</v>
       </c>
       <c r="E103" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>431.45156993152932</v>
       </c>
     </row>
-    <row r="104" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="104" spans="2:5">
       <c r="B104" s="2">
         <v>101</v>
       </c>
       <c r="C104" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>850.82400000000018</v>
       </c>
       <c r="D104" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>897.6845766688084</v>
       </c>
       <c r="E104" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>386.6845766688084</v>
       </c>
     </row>
-    <row r="105" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="105" spans="2:5">
       <c r="B105" s="2">
         <v>102</v>
       </c>
       <c r="C105" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>859.24800000000016</v>
       </c>
       <c r="D105" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>844.57374619257826</v>
       </c>
       <c r="E105" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>333.57374619257826</v>
       </c>
     </row>
-    <row r="106" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="106" spans="2:5">
       <c r="B106" s="2">
         <v>103</v>
       </c>
       <c r="C106" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>867.67200000000014</v>
       </c>
       <c r="D106" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>784.26509815426891</v>
       </c>
       <c r="E106" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>273.26509815426891</v>
       </c>
     </row>
-    <row r="107" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="107" spans="2:5">
       <c r="B107" s="2">
         <v>104</v>
       </c>
       <c r="C107" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>876.09600000000012</v>
       </c>
       <c r="D107" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>718.05996592004146</v>
       </c>
       <c r="E107" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>207.05996592004146</v>
       </c>
     </row>
-    <row r="108" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="108" spans="2:5">
       <c r="B108" s="2">
         <v>105</v>
       </c>
       <c r="C108" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>884.5200000000001</v>
       </c>
       <c r="D108" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>647.38691654271088</v>
       </c>
       <c r="E108" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>136.38691654271088</v>
       </c>
     </row>
-    <row r="109" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="109" spans="2:5">
       <c r="B109" s="2">
         <v>106</v>
       </c>
       <c r="C109" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>892.94400000000019</v>
       </c>
       <c r="D109" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>573.77092529919958</v>
       </c>
       <c r="E109" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>62.770925299199575</v>
       </c>
     </row>
-    <row r="110" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="110" spans="2:5">
       <c r="B110" s="2">
         <v>107</v>
       </c>
       <c r="C110" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>901.36800000000017</v>
       </c>
       <c r="D110" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>498.80046994193975</v>
       </c>
       <c r="E110" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>12.199530058060247</v>
       </c>
     </row>
-    <row r="111" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="111" spans="2:5">
       <c r="B111" s="2">
         <v>108</v>
       </c>
       <c r="C111" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>909.79200000000014</v>
       </c>
       <c r="D111" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>424.09325470085685</v>
       </c>
       <c r="E111" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>86.906745299143154</v>
       </c>
     </row>
-    <row r="112" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="112" spans="2:5">
       <c r="B112" s="2">
         <v>109</v>
       </c>
       <c r="C112" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>918.21600000000012</v>
       </c>
       <c r="D112" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>351.2613036396358</v>
       </c>
       <c r="E112" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>159.7386963603642</v>
       </c>
     </row>
-    <row r="113" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="113" spans="2:5">
       <c r="B113" s="2">
         <v>110</v>
       </c>
       <c r="C113" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>926.6400000000001</v>
       </c>
       <c r="D113" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>281.8761765779924</v>
       </c>
       <c r="E113" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>229.1238234220076</v>
       </c>
     </row>
-    <row r="114" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="114" spans="2:5">
       <c r="B114" s="2">
         <v>111</v>
       </c>
       <c r="C114" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>935.06400000000019</v>
       </c>
       <c r="D114" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>217.43505814694879</v>
       </c>
       <c r="E114" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>293.56494185305121</v>
       </c>
     </row>
-    <row r="115" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="115" spans="2:5">
       <c r="B115" s="2">
         <v>112</v>
       </c>
       <c r="C115" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>943.48800000000017</v>
       </c>
       <c r="D115" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>159.32845170373145</v>
       </c>
       <c r="E115" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>351.67154829626855</v>
       </c>
     </row>
-    <row r="116" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="116" spans="2:5">
       <c r="B116" s="2">
         <v>113</v>
       </c>
       <c r="C116" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>951.91200000000015</v>
       </c>
       <c r="D116" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>108.81017520344932</v>
       </c>
       <c r="E116" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>402.18982479655068</v>
       </c>
     </row>
-    <row r="117" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="117" spans="2:5">
       <c r="B117" s="2">
         <v>114</v>
       </c>
       <c r="C117" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>960.33600000000013</v>
       </c>
       <c r="D117" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>66.970306453334274</v>
       </c>
       <c r="E117" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>444.02969354666573</v>
       </c>
     </row>
-    <row r="118" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="118" spans="2:5">
       <c r="B118" s="2">
         <v>115</v>
       </c>
       <c r="C118" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>968.7600000000001</v>
       </c>
       <c r="D118" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>34.711661533853714</v>
       </c>
       <c r="E118" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>476.28833846614629</v>
       </c>
     </row>
-    <row r="119" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="119" spans="2:5">
       <c r="B119" s="2">
         <v>116</v>
       </c>
       <c r="C119" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>977.1840000000002</v>
       </c>
       <c r="D119" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>12.730313932747606</v>
       </c>
       <c r="E119" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>498.26968606725239</v>
       </c>
     </row>
-    <row r="120" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="120" spans="2:5">
       <c r="B120" s="2">
         <v>117</v>
       </c>
       <c r="C120" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>985.60800000000017</v>
       </c>
       <c r="D120" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1.5005747479576144</v>
       </c>
       <c r="E120" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>509.49942525204239</v>
       </c>
     </row>
-    <row r="121" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="121" spans="2:5">
       <c r="B121" s="2">
         <v>118</v>
       </c>
       <c r="C121" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>994.03200000000015</v>
       </c>
       <c r="D121" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1.2647580549905797</v>
       </c>
       <c r="E121" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>509.73524194500942</v>
       </c>
     </row>
-    <row r="122" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="122" spans="2:5">
       <c r="B122" s="2">
         <v>119</v>
       </c>
       <c r="C122" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1002.4560000000001</v>
       </c>
       <c r="D122" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>12.027952280478587</v>
       </c>
       <c r="E122" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>498.97204771952141</v>
       </c>
     </row>
-    <row r="123" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="123" spans="2:5">
       <c r="B123" s="2">
         <v>120</v>
       </c>
       <c r="C123" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1010.8800000000001</v>
       </c>
       <c r="D123" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>33.557910404671816</v>
       </c>
       <c r="E123" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>477.44208959532818</v>
       </c>
     </row>
-    <row r="124" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="124" spans="2:5">
       <c r="B124" s="2">
         <v>121</v>
       </c>
       <c r="C124" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1019.3040000000002</v>
       </c>
       <c r="D124" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>65.390061362052336</v>
       </c>
       <c r="E124" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>445.60993863794766</v>
       </c>
     </row>
-    <row r="125" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="125" spans="2:5">
       <c r="B125" s="2">
         <v>122</v>
       </c>
       <c r="C125" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1027.7280000000001</v>
       </c>
       <c r="D125" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>106.83753450463041</v>
       </c>
       <c r="E125" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>404.16246549536959</v>
       </c>
     </row>
-    <row r="126" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="126" spans="2:5">
       <c r="B126" s="2">
         <v>123</v>
       </c>
       <c r="C126" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1036.152</v>
       </c>
       <c r="D126" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>157.00598082114675</v>
       </c>
       <c r="E126" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>353.99401917885325</v>
       </c>
     </row>
-    <row r="127" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="127" spans="2:5">
       <c r="B127" s="2">
         <v>124</v>
       </c>
       <c r="C127" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1044.5760000000002</v>
       </c>
       <c r="D127" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>214.81287110155432</v>
       </c>
       <c r="E127" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>296.18712889844568</v>
       </c>
     </row>
-    <row r="128" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="128" spans="2:5">
       <c r="B128" s="2">
         <v>125</v>
       </c>
       <c r="C128" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1053.0000000000002</v>
       </c>
       <c r="D128" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>279.01085463309329</v>
       </c>
       <c r="E128" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>231.98914536690671</v>
       </c>
     </row>
-    <row r="129" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="129" spans="2:5">
       <c r="B129" s="2">
         <v>126</v>
       </c>
       <c r="C129" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1061.4240000000002</v>
       </c>
       <c r="D129" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>348.21467439662842</v>
       </c>
       <c r="E129" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>162.78532560337158</v>
       </c>
     </row>
-    <row r="130" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="130" spans="2:5">
       <c r="B130" s="2">
         <v>127</v>
       </c>
       <c r="C130" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1069.8480000000002</v>
       </c>
       <c r="D130" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>420.9310579900544</v>
       </c>
       <c r="E130" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>90.068942009945602</v>
       </c>
     </row>
-    <row r="131" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="131" spans="2:5">
       <c r="B131" s="2">
         <v>128</v>
       </c>
       <c r="C131" s="7">
-        <f t="shared" ref="C131:C194" si="6">$B131 * (360 / (SAMPLE_RATE / FREQ)) + PHASE_OFFSET</f>
+        <f t="shared" ref="C131:C194" si="8">$B131 * (360 / (SAMPLE_RATE / FREQ)) + PHASE_OFFSET</f>
         <v>1078.2720000000002</v>
       </c>
       <c r="D131" s="11">
-        <f t="shared" ref="D131:D194" si="7">(SIN($C131 * (PI()/180)) * AMPLITUDE) + 511</f>
+        <f t="shared" ref="D131:D194" si="9">(SIN($C131 * (PI()/180)) * AMPLITUDE) + 511</f>
         <v>495.59093929574385</v>
       </c>
       <c r="E131" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>15.409060704256149</v>
       </c>
     </row>
-    <row r="132" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="132" spans="2:5">
       <c r="B132" s="2">
         <v>129</v>
       </c>
       <c r="C132" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1086.6960000000001</v>
       </c>
       <c r="D132" s="11">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>570.58331561645832</v>
       </c>
       <c r="E132" s="4">
-        <f t="shared" ref="E132:E195" si="8">IF($D132 &lt; 511, 511 - $D132, $D132 - 511)</f>
+        <f t="shared" ref="E132:E195" si="10">IF($D132 &lt; 511, 511 - $D132, $D132 - 511)</f>
         <v>59.583315616458322</v>
       </c>
     </row>
-    <row r="133" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="133" spans="2:5">
       <c r="B133" s="2">
         <v>130</v>
       </c>
       <c r="C133" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1095.1200000000001</v>
       </c>
       <c r="D133" s="11">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>644.29000971413757</v>
       </c>
       <c r="E133" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>133.29000971413757</v>
       </c>
     </row>
-    <row r="134" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="134" spans="2:5">
       <c r="B134" s="2">
         <v>131</v>
       </c>
       <c r="C134" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1103.5440000000001</v>
       </c>
       <c r="D134" s="11">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>715.12058666015241</v>
       </c>
       <c r="E134" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>204.12058666015241</v>
       </c>
     </row>
-    <row r="135" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="135" spans="2:5">
       <c r="B135" s="2">
         <v>132</v>
       </c>
       <c r="C135" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1111.9680000000001</v>
       </c>
       <c r="D135" s="11">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>781.54667206504746</v>
       </c>
       <c r="E135" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>270.54667206504746</v>
       </c>
     </row>
-    <row r="136" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="136" spans="2:5">
       <c r="B136" s="2">
         <v>133</v>
       </c>
       <c r="C136" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1120.3920000000003</v>
       </c>
       <c r="D136" s="11">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>842.13493117282439</v>
       </c>
       <c r="E136" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>331.13493117282439</v>
       </c>
     </row>
-    <row r="137" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="137" spans="2:5">
       <c r="B137" s="2">
         <v>134</v>
       </c>
       <c r="C137" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1128.8160000000003</v>
       </c>
       <c r="D137" s="11">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>895.57799720045546</v>
       </c>
       <c r="E137" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>384.57799720045546</v>
       </c>
     </row>
-    <row r="138" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="138" spans="2:5">
       <c r="B138" s="2">
         <v>135</v>
       </c>
       <c r="C138" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1137.2400000000002</v>
       </c>
       <c r="D138" s="11">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>940.72268155436564</v>
       </c>
       <c r="E138" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>429.72268155436564</v>
       </c>
     </row>
-    <row r="139" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="139" spans="2:5">
       <c r="B139" s="2">
         <v>136</v>
       </c>
       <c r="C139" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1145.6640000000002</v>
       </c>
       <c r="D139" s="11">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>976.59485720691714</v>
       </c>
       <c r="E139" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>465.59485720691714</v>
       </c>
     </row>
-    <row r="140" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="140" spans="2:5">
       <c r="B140" s="2">
         <v>137</v>
       </c>
       <c r="C140" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1154.0880000000002</v>
       </c>
       <c r="D140" s="11">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1002.4204783021364</v>
       </c>
       <c r="E140" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>491.42047830213642</v>
       </c>
     </row>
-    <row r="141" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="141" spans="2:5">
       <c r="B141" s="2">
         <v>138</v>
       </c>
       <c r="C141" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1162.5120000000002</v>
       </c>
       <c r="D141" s="11">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1017.6422824319583</v>
       </c>
       <c r="E141" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>506.64228243195828</v>
       </c>
     </row>
-    <row r="142" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="142" spans="2:5">
       <c r="B142" s="2">
         <v>139</v>
       </c>
       <c r="C142" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1170.9360000000001</v>
       </c>
       <c r="D142" s="11">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1021.9318151830992</v>
       </c>
       <c r="E142" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>510.93181518309916</v>
       </c>
     </row>
-    <row r="143" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="143" spans="2:5">
       <c r="B143" s="2">
         <v>140</v>
       </c>
       <c r="C143" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1179.3600000000001</v>
       </c>
       <c r="D143" s="11">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1015.1965174902205</v>
       </c>
       <c r="E143" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>504.19651749022046</v>
       </c>
     </row>
-    <row r="144" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="144" spans="2:5">
       <c r="B144" s="2">
         <v>141</v>
       </c>
       <c r="C144" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1187.7840000000001</v>
       </c>
       <c r="D144" s="11">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>997.58172286524564</v>
       </c>
       <c r="E144" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>486.58172286524564</v>
       </c>
     </row>
-    <row r="145" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="145" spans="2:5">
       <c r="B145" s="2">
         <v>142</v>
       </c>
       <c r="C145" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1196.2080000000001</v>
       </c>
       <c r="D145" s="11">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>969.46752140684407</v>
       </c>
       <c r="E145" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>458.46752140684407</v>
       </c>
     </row>
-    <row r="146" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="146" spans="2:5">
       <c r="B146" s="2">
         <v>143</v>
       </c>
       <c r="C146" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1204.6320000000003</v>
       </c>
       <c r="D146" s="11">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>931.46055825813869</v>
       </c>
       <c r="E146" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>420.46055825813869</v>
       </c>
     </row>
-    <row r="147" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="147" spans="2:5">
       <c r="B147" s="2">
         <v>144</v>
       </c>
       <c r="C147" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1213.0560000000003</v>
       </c>
       <c r="D147" s="11">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>884.38094348461311</v>
       </c>
       <c r="E147" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>373.38094348461311</v>
       </c>
     </row>
-    <row r="148" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="148" spans="2:5">
       <c r="B148" s="2">
         <v>145</v>
       </c>
       <c r="C148" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1221.4800000000002</v>
       </c>
       <c r="D148" s="11">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>829.24455582942323</v>
       </c>
       <c r="E148" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>318.24455582942323</v>
       </c>
     </row>
-    <row r="149" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="149" spans="2:5">
       <c r="B149" s="2">
         <v>146</v>
       </c>
       <c r="C149" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1229.9040000000002</v>
       </c>
       <c r="D149" s="11">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>767.24112219375615</v>
       </c>
       <c r="E149" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>256.24112219375615</v>
       </c>
     </row>
-    <row r="150" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="150" spans="2:5">
       <c r="B150" s="2">
         <v>147</v>
       </c>
       <c r="C150" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1238.3280000000002</v>
       </c>
       <c r="D150" s="11">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>699.70854584075983</v>
       </c>
       <c r="E150" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>188.70854584075983</v>
       </c>
     </row>
-    <row r="151" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="151" spans="2:5">
       <c r="B151" s="2">
         <v>148</v>
       </c>
       <c r="C151" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1246.7520000000002</v>
       </c>
       <c r="D151" s="11">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>628.1040372662668</v>
       </c>
       <c r="E151" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>117.1040372662668</v>
       </c>
     </row>
-    <row r="152" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="152" spans="2:5">
       <c r="B152" s="2">
         <v>149</v>
       </c>
       <c r="C152" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1255.1760000000002</v>
       </c>
       <c r="D152" s="11">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>553.97267067118048</v>
       </c>
       <c r="E152" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>42.972670671180481</v>
       </c>
     </row>
-    <row r="153" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="153" spans="2:5">
       <c r="B153" s="2">
         <v>150</v>
       </c>
       <c r="C153" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1263.6000000000001</v>
       </c>
       <c r="D153" s="11">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>478.91404452051967</v>
       </c>
       <c r="E153" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>32.085955479480333</v>
       </c>
     </row>
-    <row r="154" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="154" spans="2:5">
       <c r="B154" s="2">
         <v>151</v>
       </c>
       <c r="C154" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1272.0240000000001</v>
       </c>
       <c r="D154" s="11">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>404.54776558387778</v>
       </c>
       <c r="E154" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>106.45223441612222</v>
       </c>
     </row>
-    <row r="155" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="155" spans="2:5">
       <c r="B155" s="2">
         <v>152</v>
       </c>
       <c r="C155" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1280.4480000000001</v>
       </c>
       <c r="D155" s="11">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>332.47850123890731</v>
       </c>
       <c r="E155" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>178.52149876109269</v>
       </c>
     </row>
-    <row r="156" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="156" spans="2:5">
       <c r="B156" s="2">
         <v>153</v>
       </c>
       <c r="C156" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1288.8720000000003</v>
       </c>
       <c r="D156" s="11">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>264.26135413534678</v>
       </c>
       <c r="E156" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>246.73864586465322</v>
       </c>
     </row>
-    <row r="157" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="157" spans="2:5">
       <c r="B157" s="2">
         <v>154</v>
       </c>
       <c r="C157" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1297.2960000000003</v>
       </c>
       <c r="D157" s="11">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>201.36830636130577</v>
       </c>
       <c r="E157" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>309.63169363869423</v>
       </c>
     </row>
-    <row r="158" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="158" spans="2:5">
       <c r="B158" s="2">
         <v>155</v>
       </c>
       <c r="C158" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1305.7200000000003</v>
       </c>
       <c r="D158" s="11">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>145.15645717584329</v>
       </c>
       <c r="E158" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>365.84354282415671</v>
       </c>
     </row>
-    <row r="159" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="159" spans="2:5">
       <c r="B159" s="2">
         <v>156</v>
       </c>
       <c r="C159" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1314.1440000000002</v>
       </c>
       <c r="D159" s="11">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>96.83873967061254</v>
       </c>
       <c r="E159" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>414.16126032938746</v>
       </c>
     </row>
-    <row r="160" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="160" spans="2:5">
       <c r="B160" s="2">
         <v>157</v>
       </c>
       <c r="C160" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1322.5680000000002</v>
       </c>
       <c r="D160" s="11">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>57.457748233178677</v>
       </c>
       <c r="E160" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>453.54225176682132</v>
       </c>
     </row>
-    <row r="161" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="161" spans="2:5">
       <c r="B161" s="2">
         <v>158</v>
       </c>
       <c r="C161" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1330.9920000000002</v>
       </c>
       <c r="D161" s="11">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>27.86324156012796</v>
       </c>
       <c r="E161" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>483.13675843987204</v>
       </c>
     </row>
-    <row r="162" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="162" spans="2:5">
       <c r="B162" s="2">
         <v>159</v>
       </c>
       <c r="C162" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1339.4160000000002</v>
       </c>
       <c r="D162" s="11">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>8.6938066574934396</v>
       </c>
       <c r="E162" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>502.30619334250656</v>
       </c>
     </row>
-    <row r="163" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="163" spans="2:5">
       <c r="B163" s="2">
         <v>160</v>
       </c>
       <c r="C163" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1347.8400000000001</v>
       </c>
       <c r="D163" s="11">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.3630794806588824</v>
       </c>
       <c r="E163" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>510.63692051934112</v>
       </c>
     </row>
-    <row r="164" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="164" spans="2:5">
       <c r="B164" s="2">
         <v>161</v>
       </c>
       <c r="C164" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1356.2640000000001</v>
       </c>
       <c r="D164" s="11">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>3.0508195432634011</v>
       </c>
       <c r="E164" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>507.9491804567366</v>
       </c>
     </row>
-    <row r="165" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="165" spans="2:5">
       <c r="B165" s="2">
         <v>162</v>
       </c>
       <c r="C165" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1364.6880000000001</v>
       </c>
       <c r="D165" s="11">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>16.699031086210937</v>
       </c>
       <c r="E165" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>494.30096891378906</v>
       </c>
     </row>
-    <row r="166" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="166" spans="2:5">
       <c r="B166" s="2">
         <v>163</v>
       </c>
       <c r="C166" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1373.1120000000003</v>
       </c>
       <c r="D166" s="11">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>41.013214503775259</v>
       </c>
       <c r="E166" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>469.98678549622474</v>
       </c>
     </row>
-    <row r="167" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="167" spans="2:5">
       <c r="B167" s="2">
         <v>164</v>
       </c>
       <c r="C167" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1381.5360000000003</v>
       </c>
       <c r="D167" s="11">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>75.468721023656713</v>
       </c>
       <c r="E167" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>435.53127897634329</v>
       </c>
     </row>
-    <row r="168" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="168" spans="2:5">
       <c r="B168" s="2">
         <v>165</v>
       </c>
       <c r="C168" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1389.9600000000003</v>
       </c>
       <c r="D168" s="11">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>119.32207352042343</v>
       </c>
       <c r="E168" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>391.67792647957657</v>
       </c>
     </row>
-    <row r="169" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="169" spans="2:5">
       <c r="B169" s="2">
         <v>166</v>
       </c>
       <c r="C169" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1398.3840000000002</v>
       </c>
       <c r="D169" s="11">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>171.62700918304762</v>
       </c>
       <c r="E169" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>339.37299081695238</v>
       </c>
     </row>
-    <row r="170" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="170" spans="2:5">
       <c r="B170" s="2">
         <v>167</v>
       </c>
       <c r="C170" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1406.8080000000002</v>
       </c>
       <c r="D170" s="11">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>231.25489786964164</v>
       </c>
       <c r="E170" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>279.74510213035836</v>
       </c>
     </row>
-    <row r="171" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="171" spans="2:5">
       <c r="B171" s="2">
         <v>168</v>
       </c>
       <c r="C171" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1415.2320000000002</v>
       </c>
       <c r="D171" s="11">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>296.9190955643686</v>
       </c>
       <c r="E171" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>214.0809044356314</v>
       </c>
     </row>
-    <row r="172" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="172" spans="2:5">
       <c r="B172" s="2">
         <v>169</v>
       </c>
       <c r="C172" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1423.6560000000002</v>
       </c>
       <c r="D172" s="11">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>367.20270744033888</v>
       </c>
       <c r="E172" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>143.79729255966112</v>
       </c>
     </row>
-    <row r="173" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="173" spans="2:5">
       <c r="B173" s="2">
         <v>170</v>
       </c>
       <c r="C173" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1432.0800000000002</v>
       </c>
       <c r="D173" s="11">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>440.58916146015019</v>
       </c>
       <c r="E173" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>70.410838539849806</v>
       </c>
     </row>
-    <row r="174" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="174" spans="2:5">
       <c r="B174" s="2">
         <v>171</v>
       </c>
       <c r="C174" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1440.5040000000001</v>
       </c>
       <c r="D174" s="11">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>515.49493280030856</v>
       </c>
       <c r="E174" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>4.4949328003085611</v>
       </c>
     </row>
-    <row r="175" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="175" spans="2:5">
       <c r="B175" s="2">
         <v>172</v>
       </c>
       <c r="C175" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1448.9280000000001</v>
       </c>
       <c r="D175" s="11">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>590.30371297548368</v>
       </c>
       <c r="E175" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>79.303712975483677</v>
       </c>
     </row>
-    <row r="176" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="176" spans="2:5">
       <c r="B176" s="2">
         <v>173</v>
       </c>
       <c r="C176" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1457.3520000000003</v>
       </c>
       <c r="D176" s="11">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>663.40128636502993</v>
       </c>
       <c r="E176" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>152.40128636502993</v>
       </c>
     </row>
-    <row r="177" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="177" spans="2:5">
       <c r="B177" s="2">
         <v>174</v>
       </c>
       <c r="C177" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1465.7760000000003</v>
       </c>
       <c r="D177" s="11">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>733.2103615798776</v>
       </c>
       <c r="E177" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>222.2103615798776</v>
       </c>
     </row>
-    <row r="178" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="178" spans="2:5">
       <c r="B178" s="2">
         <v>175</v>
       </c>
       <c r="C178" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1474.2000000000003</v>
       </c>
       <c r="D178" s="11">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>798.22460608244069</v>
       </c>
       <c r="E178" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>287.22460608244069</v>
       </c>
     </row>
-    <row r="179" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="179" spans="2:5">
       <c r="B179" s="2">
         <v>176</v>
       </c>
       <c r="C179" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1482.6240000000003</v>
       </c>
       <c r="D179" s="11">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>857.04114966423708</v>
       </c>
       <c r="E179" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>346.04114966423708</v>
       </c>
     </row>
-    <row r="180" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="180" spans="2:5">
       <c r="B180" s="2">
         <v>177</v>
       </c>
       <c r="C180" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1491.0480000000002</v>
       </c>
       <c r="D180" s="11">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>908.39085542475868</v>
       </c>
       <c r="E180" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>397.39085542475868</v>
       </c>
     </row>
-    <row r="181" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="181" spans="2:5">
       <c r="B181" s="2">
         <v>178</v>
       </c>
       <c r="C181" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1499.4720000000002</v>
       </c>
       <c r="D181" s="11">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>951.16570506775429</v>
       </c>
       <c r="E181" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>440.16570506775429</v>
       </c>
     </row>
-    <row r="182" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="182" spans="2:5">
       <c r="B182" s="2">
         <v>179</v>
       </c>
       <c r="C182" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1507.8960000000002</v>
       </c>
       <c r="D182" s="11">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>984.44270759800793</v>
       </c>
       <c r="E182" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>473.44270759800793</v>
       </c>
     </row>
-    <row r="183" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="183" spans="2:5">
       <c r="B183" s="2">
         <v>180</v>
       </c>
       <c r="C183" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1516.3200000000002</v>
       </c>
       <c r="D183" s="11">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1007.5038155193986</v>
       </c>
       <c r="E183" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>496.50381551939859</v>
       </c>
     </row>
-    <row r="184" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="184" spans="2:5">
       <c r="B184" s="2">
         <v>181</v>
       </c>
       <c r="C184" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1524.7440000000001</v>
       </c>
       <c r="D184" s="11">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1019.8514187846965</v>
       </c>
       <c r="E184" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>508.85141878469653</v>
       </c>
     </row>
-    <row r="185" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="185" spans="2:5">
       <c r="B185" s="2">
         <v>182</v>
       </c>
       <c r="C185" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1533.1680000000001</v>
       </c>
       <c r="D185" s="11">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1021.219082170365</v>
       </c>
       <c r="E185" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>510.21908217036503</v>
       </c>
     </row>
-    <row r="186" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="186" spans="2:5">
       <c r="B186" s="2">
         <v>183</v>
       </c>
       <c r="C186" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1541.5920000000003</v>
       </c>
       <c r="D186" s="11">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1011.5772943864761</v>
       </c>
       <c r="E186" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>500.57729438647607</v>
       </c>
     </row>
-    <row r="187" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="187" spans="2:5">
       <c r="B187" s="2">
         <v>184</v>
       </c>
       <c r="C187" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1550.0160000000003</v>
       </c>
       <c r="D187" s="11">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>991.13410486807356</v>
       </c>
       <c r="E187" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>480.13410486807356</v>
       </c>
     </row>
-    <row r="188" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="188" spans="2:5">
       <c r="B188" s="2">
         <v>185</v>
       </c>
       <c r="C188" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1558.4400000000003</v>
       </c>
       <c r="D188" s="11">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>960.33063450737291</v>
       </c>
       <c r="E188" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>449.33063450737291</v>
       </c>
     </row>
-    <row r="189" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="189" spans="2:5">
       <c r="B189" s="2">
         <v>186</v>
       </c>
       <c r="C189" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1566.8640000000003</v>
       </c>
       <c r="D189" s="11">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>919.83155719572926</v>
       </c>
       <c r="E189" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>408.83155719572926</v>
       </c>
     </row>
-    <row r="190" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="190" spans="2:5">
       <c r="B190" s="2">
         <v>187</v>
       </c>
       <c r="C190" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1575.2880000000002</v>
       </c>
       <c r="D190" s="11">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>870.5107575635991</v>
       </c>
       <c r="E190" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>359.5107575635991</v>
       </c>
     </row>
-    <row r="191" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="191" spans="2:5">
       <c r="B191" s="2">
         <v>188</v>
       </c>
       <c r="C191" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1583.7120000000002</v>
       </c>
       <c r="D191" s="11">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>813.43247439421839</v>
       </c>
       <c r="E191" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>302.43247439421839</v>
       </c>
     </row>
-    <row r="192" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="192" spans="2:5">
       <c r="B192" s="2">
         <v>189</v>
       </c>
       <c r="C192" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1592.1360000000002</v>
       </c>
       <c r="D192" s="11">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>749.82833659633707</v>
       </c>
       <c r="E192" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>238.82833659633707</v>
       </c>
     </row>
-    <row r="193" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="193" spans="2:5">
       <c r="B193" s="2">
         <v>190</v>
       </c>
       <c r="C193" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1600.5600000000002</v>
       </c>
       <c r="D193" s="11">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>681.07078725124506</v>
       </c>
       <c r="E193" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>170.07078725124506</v>
       </c>
     </row>
-    <row r="194" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="194" spans="2:5">
       <c r="B194" s="2">
         <v>191</v>
       </c>
       <c r="C194" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1608.9840000000002</v>
       </c>
       <c r="D194" s="11">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>608.64346918710407</v>
       </c>
       <c r="E194" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>97.643469187104074</v>
       </c>
     </row>
-    <row r="195" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="195" spans="2:5">
       <c r="B195" s="2">
         <v>192</v>
       </c>
       <c r="C195" s="7">
-        <f t="shared" ref="C195:C258" si="9">$B195 * (360 / (SAMPLE_RATE / FREQ)) + PHASE_OFFSET</f>
+        <f t="shared" ref="C195:C258" si="11">$B195 * (360 / (SAMPLE_RATE / FREQ)) + PHASE_OFFSET</f>
         <v>1617.4080000000004</v>
       </c>
       <c r="D195" s="11">
-        <f t="shared" ref="D195:D258" si="10">(SIN($C195 * (PI()/180)) * AMPLITUDE) + 511</f>
+        <f t="shared" ref="D195:D258" si="12">(SIN($C195 * (PI()/180)) * AMPLITUDE) + 511</f>
         <v>534.10921109737512</v>
       </c>
       <c r="E195" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>23.109211097375123</v>
       </c>
     </row>
-    <row r="196" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="196" spans="2:5">
       <c r="B196" s="2">
         <v>193</v>
       </c>
       <c r="C196" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1625.8320000000003</v>
       </c>
       <c r="D196" s="11">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>459.07630499538556</v>
       </c>
       <c r="E196" s="4">
-        <f t="shared" ref="E196:E258" si="11">IF($D196 &lt; 511, 511 - $D196, $D196 - 511)</f>
+        <f t="shared" ref="E196:E258" si="13">IF($D196 &lt; 511, 511 - $D196, $D196 - 511)</f>
         <v>51.923695004614444</v>
       </c>
     </row>
-    <row r="197" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="197" spans="2:5">
       <c r="B197" s="2">
         <v>194</v>
       </c>
       <c r="C197" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1634.2560000000003</v>
       </c>
       <c r="D197" s="11">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>385.163802666349</v>
       </c>
       <c r="E197" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>125.836197333651</v>
       </c>
     </row>
-    <row r="198" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="198" spans="2:5">
       <c r="B198" s="2">
         <v>195</v>
       </c>
       <c r="C198" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1642.6800000000003</v>
       </c>
       <c r="D198" s="11">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>313.96657994624741</v>
       </c>
       <c r="E198" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>197.03342005375259</v>
       </c>
     </row>
-    <row r="199" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="199" spans="2:5">
       <c r="B199" s="2">
         <v>196</v>
       </c>
       <c r="C199" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1651.1040000000003</v>
       </c>
       <c r="D199" s="11">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>247.02092266667404</v>
       </c>
       <c r="E199" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>263.97907733332596</v>
       </c>
     </row>
-    <row r="200" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="200" spans="2:5">
       <c r="B200" s="2">
         <v>197</v>
       </c>
       <c r="C200" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1659.5280000000002</v>
       </c>
       <c r="D200" s="11">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>185.77137684832513</v>
       </c>
       <c r="E200" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>325.22862315167487</v>
       </c>
     </row>
-    <row r="201" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="201" spans="2:5">
       <c r="B201" s="2">
         <v>198</v>
       </c>
       <c r="C201" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1667.9520000000002</v>
       </c>
       <c r="D201" s="11">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>131.53957844604616</v>
       </c>
       <c r="E201" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>379.46042155395384</v>
       </c>
     </row>
-    <row r="202" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="202" spans="2:5">
       <c r="B202" s="2">
         <v>199</v>
       </c>
       <c r="C202" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1676.3760000000002</v>
       </c>
       <c r="D202" s="11">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>85.495735233734763</v>
       </c>
       <c r="E202" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>425.50426476626524</v>
       </c>
     </row>
-    <row r="203" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="203" spans="2:5">
       <c r="B203" s="2">
         <v>200</v>
       </c>
       <c r="C203" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1684.8000000000002</v>
       </c>
       <c r="D203" s="11">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>48.633376189863327</v>
       </c>
       <c r="E203" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>462.36662381013667</v>
       </c>
     </row>
-    <row r="204" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="204" spans="2:5">
       <c r="B204" s="2">
         <v>201</v>
       </c>
       <c r="C204" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1693.2240000000002</v>
       </c>
       <c r="D204" s="11">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>21.747913238582612</v>
       </c>
       <c r="E204" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>489.25208676141739</v>
       </c>
     </row>
-    <row r="205" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="205" spans="2:5">
       <c r="B205" s="2">
         <v>202</v>
       </c>
       <c r="C205" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1701.6480000000004</v>
       </c>
       <c r="D205" s="11">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>5.4194779388175789</v>
       </c>
       <c r="E205" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>505.58052206118242</v>
       </c>
     </row>
-    <row r="206" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="206" spans="2:5">
       <c r="B206" s="2">
         <v>203</v>
       </c>
       <c r="C206" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1710.0720000000003</v>
       </c>
       <c r="D206" s="11">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>4.0346937481672285E-4</v>
       </c>
       <c r="E206" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>510.99959653062518</v>
       </c>
     </row>
-    <row r="207" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="207" spans="2:5">
       <c r="B207" s="2">
         <v>204</v>
       </c>
       <c r="C207" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1718.4960000000003</v>
       </c>
       <c r="D207" s="11">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>5.6076220224044278</v>
       </c>
       <c r="E207" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>505.39237797759557</v>
       </c>
     </row>
-    <row r="208" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="208" spans="2:5">
       <c r="B208" s="2">
         <v>205</v>
       </c>
       <c r="C208" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1726.9200000000003</v>
       </c>
       <c r="D208" s="11">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>22.120141653438168</v>
       </c>
       <c r="E208" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>488.87985834656183</v>
       </c>
     </row>
-    <row r="209" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="209" spans="2:5">
       <c r="B209" s="2">
         <v>206</v>
       </c>
       <c r="C209" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1735.3440000000003</v>
       </c>
       <c r="D209" s="11">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>49.181657032243038</v>
       </c>
       <c r="E209" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>461.81834296775696</v>
       </c>
     </row>
-    <row r="210" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="210" spans="2:5">
       <c r="B210" s="2">
         <v>207</v>
       </c>
       <c r="C210" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1743.7680000000003</v>
       </c>
       <c r="D210" s="11">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>86.208237759998156</v>
       </c>
       <c r="E210" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>424.79176224000184</v>
       </c>
     </row>
-    <row r="211" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="211" spans="2:5">
       <c r="B211" s="2">
         <v>208</v>
       </c>
       <c r="C211" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1752.1920000000002</v>
       </c>
       <c r="D211" s="11">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>132.40092835514133</v>
       </c>
       <c r="E211" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>378.59907164485867</v>
       </c>
     </row>
-    <row r="212" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="212" spans="2:5">
       <c r="B212" s="2">
         <v>209</v>
       </c>
       <c r="C212" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1760.6160000000002</v>
       </c>
       <c r="D212" s="11">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>186.76298802676672</v>
       </c>
       <c r="E212" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>324.23701197323328</v>
       </c>
     </row>
-    <row r="213" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="213" spans="2:5">
       <c r="B213" s="2">
         <v>210</v>
       </c>
       <c r="C213" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1769.0400000000002</v>
       </c>
       <c r="D213" s="11">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>248.12139823765193</v>
       </c>
       <c r="E213" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>262.87860176234807</v>
       </c>
     </row>
-    <row r="214" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="214" spans="2:5">
       <c r="B214" s="2">
         <v>211</v>
       </c>
       <c r="C214" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1777.4640000000002</v>
       </c>
       <c r="D214" s="11">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>315.1521739690744</v>
       </c>
       <c r="E214" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>195.8478260309256</v>
       </c>
     </row>
-    <row r="215" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="215" spans="2:5">
       <c r="B215" s="2">
         <v>212</v>
       </c>
       <c r="C215" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1785.8880000000004</v>
       </c>
       <c r="D215" s="11">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>386.40893252375849</v>
       </c>
       <c r="E215" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>124.59106747624151</v>
       </c>
     </row>
-    <row r="216" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="216" spans="2:5">
       <c r="B216" s="2">
         <v>213</v>
       </c>
       <c r="C216" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1794.3120000000004</v>
       </c>
       <c r="D216" s="11">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>460.35410341243039</v>
       </c>
       <c r="E216" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>50.645896587569609</v>
       </c>
     </row>
-    <row r="217" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="217" spans="2:5">
       <c r="B217" s="2">
         <v>214</v>
       </c>
       <c r="C217" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1802.7360000000003</v>
       </c>
       <c r="D217" s="11">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>535.39210588052219</v>
       </c>
       <c r="E217" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>24.392105880522195</v>
       </c>
     </row>
-    <row r="218" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="218" spans="2:5">
       <c r="B218" s="2">
         <v>215</v>
       </c>
       <c r="C218" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1811.1600000000003</v>
       </c>
       <c r="D218" s="11">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>609.90377817399178</v>
       </c>
       <c r="E218" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>98.903778173991782</v>
       </c>
     </row>
-    <row r="219" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="219" spans="2:5">
       <c r="B219" s="2">
         <v>216</v>
       </c>
       <c r="C219" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1819.5840000000003</v>
       </c>
       <c r="D219" s="11">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>682.28131563334387</v>
       </c>
       <c r="E219" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>171.28131563334387</v>
       </c>
     </row>
-    <row r="220" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="220" spans="2:5">
       <c r="B220" s="2">
         <v>217</v>
       </c>
       <c r="C220" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1828.0080000000003</v>
       </c>
       <c r="D220" s="11">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>750.96296372552331</v>
       </c>
       <c r="E220" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>239.96296372552331</v>
       </c>
     </row>
-    <row r="221" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="221" spans="2:5">
       <c r="B221" s="2">
         <v>218</v>
       </c>
       <c r="C221" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1836.4320000000002</v>
       </c>
       <c r="D221" s="11">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>814.46671741124101</v>
       </c>
       <c r="E221" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>303.46671741124101</v>
       </c>
     </row>
-    <row r="222" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="222" spans="2:5">
       <c r="B222" s="2">
         <v>219</v>
       </c>
       <c r="C222" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1844.8560000000002</v>
       </c>
       <c r="D222" s="11">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>871.42229968653089</v>
       </c>
       <c r="E222" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>360.42229968653089</v>
       </c>
     </row>
-    <row r="223" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="223" spans="2:5">
       <c r="B223" s="2">
         <v>220</v>
       </c>
       <c r="C223" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1853.2800000000002</v>
       </c>
       <c r="D223" s="11">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>920.60072926901944</v>
       </c>
       <c r="E223" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>409.60072926901944</v>
       </c>
     </row>
-    <row r="224" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="224" spans="2:5">
       <c r="B224" s="2">
         <v>221</v>
       </c>
       <c r="C224" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1861.7040000000002</v>
       </c>
       <c r="D224" s="11">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>960.94083942072552</v>
       </c>
       <c r="E224" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>449.94083942072552</v>
       </c>
     </row>
-    <row r="225" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="225" spans="2:5">
       <c r="B225" s="2">
         <v>222</v>
       </c>
       <c r="C225" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1870.1280000000004</v>
       </c>
       <c r="D225" s="11">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>991.57217568706494</v>
       </c>
       <c r="E225" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>480.57217568706494</v>
       </c>
     </row>
-    <row r="226" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="226" spans="2:5">
       <c r="B226" s="2">
         <v>223</v>
       </c>
       <c r="C226" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1878.5520000000004</v>
       </c>
       <c r="D226" s="11">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1011.8337784672137</v>
       </c>
       <c r="E226" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>500.83377846721373</v>
       </c>
     </row>
-    <row r="227" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="227" spans="2:5">
       <c r="B227" s="2">
         <v>224</v>
       </c>
       <c r="C227" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1886.9760000000003</v>
       </c>
       <c r="D227" s="11">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1021.2884451275987</v>
       </c>
       <c r="E227" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>510.28844512759872</v>
       </c>
     </row>
-    <row r="228" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="228" spans="2:5">
       <c r="B228" s="2">
         <v>225</v>
       </c>
       <c r="C228" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1895.4000000000003</v>
       </c>
       <c r="D228" s="11">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1019.7321639121736</v>
       </c>
       <c r="E228" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>508.73216391217363</v>
       </c>
     </row>
-    <row r="229" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="229" spans="2:5">
       <c r="B229" s="2">
         <v>226</v>
       </c>
       <c r="C229" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1903.8240000000003</v>
       </c>
       <c r="D229" s="11">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1007.1985160856266</v>
       </c>
       <c r="E229" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>496.19851608562658</v>
       </c>
     </row>
-    <row r="230" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="230" spans="2:5">
       <c r="B230" s="2">
         <v>227</v>
       </c>
       <c r="C230" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1912.2480000000003</v>
       </c>
       <c r="D230" s="11">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>983.95795132054889</v>
       </c>
       <c r="E230" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>472.95795132054889</v>
       </c>
     </row>
-    <row r="231" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="231" spans="2:5">
       <c r="B231" s="2">
         <v>228</v>
       </c>
       <c r="C231" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1920.6720000000003</v>
       </c>
       <c r="D231" s="11">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>950.51195196418166</v>
       </c>
       <c r="E231" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>439.51195196418166</v>
       </c>
     </row>
-    <row r="232" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="232" spans="2:5">
       <c r="B232" s="2">
         <v>229</v>
       </c>
       <c r="C232" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1929.0960000000002</v>
       </c>
       <c r="D232" s="11">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>907.58221210755096</v>
       </c>
       <c r="E232" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>396.58221210755096</v>
       </c>
     </row>
-    <row r="233" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="233" spans="2:5">
       <c r="B233" s="2">
         <v>230</v>
       </c>
       <c r="C233" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1937.5200000000002</v>
       </c>
       <c r="D233" s="11">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>856.09506494984134</v>
       </c>
       <c r="E233" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>345.09506494984134</v>
       </c>
     </row>
-    <row r="234" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="234" spans="2:5">
       <c r="B234" s="2">
         <v>231</v>
       </c>
       <c r="C234" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1945.9440000000002</v>
       </c>
       <c r="D234" s="11">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>797.16149448264309</v>
       </c>
       <c r="E234" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>286.16149448264309</v>
       </c>
     </row>
-    <row r="235" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="235" spans="2:5">
       <c r="B235" s="2">
         <v>232</v>
       </c>
       <c r="C235" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1954.3680000000004</v>
       </c>
       <c r="D235" s="11">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>732.0531627997085</v>
       </c>
       <c r="E235" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>221.0531627997085</v>
       </c>
     </row>
-    <row r="236" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="236" spans="2:5">
       <c r="B236" s="2">
         <v>233</v>
       </c>
       <c r="C236" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1962.7920000000004</v>
       </c>
       <c r="D236" s="11">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>662.17497031233484</v>
       </c>
       <c r="E236" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>151.17497031233484</v>
       </c>
     </row>
-    <row r="237" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="237" spans="2:5">
       <c r="B237" s="2">
         <v>234</v>
       </c>
       <c r="C237" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1971.2160000000003</v>
       </c>
       <c r="D237" s="11">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>589.03474096300874</v>
       </c>
       <c r="E237" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>78.034740963008744</v>
       </c>
     </row>
-    <row r="238" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="238" spans="2:5">
       <c r="B238" s="2">
         <v>235</v>
       </c>
       <c r="C238" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1979.6400000000003</v>
       </c>
       <c r="D238" s="11">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>514.2106865663975</v>
       </c>
       <c r="E238" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>3.2106865663974986</v>
       </c>
     </row>
-    <row r="239" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="239" spans="2:5">
       <c r="B239" s="2">
         <v>236</v>
       </c>
       <c r="C239" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1988.0640000000003</v>
       </c>
       <c r="D239" s="11">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>439.31735232861854</v>
       </c>
       <c r="E239" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>71.68264767138146</v>
       </c>
     </row>
-    <row r="240" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="240" spans="2:5">
       <c r="B240" s="2">
         <v>237</v>
       </c>
       <c r="C240" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1996.4880000000003</v>
       </c>
       <c r="D240" s="11">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>365.97077836857284</v>
       </c>
       <c r="E240" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>145.02922163142716</v>
       </c>
     </row>
-    <row r="241" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="241" spans="2:5">
       <c r="B241" s="2">
         <v>238</v>
       </c>
       <c r="C241" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>2004.9120000000003</v>
       </c>
       <c r="D241" s="11">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>295.75362898221829</v>
       </c>
       <c r="E241" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>215.24637101778171</v>
       </c>
     </row>
-    <row r="242" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="242" spans="2:5">
       <c r="B242" s="2">
         <v>239</v>
       </c>
       <c r="C242" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>2013.3360000000002</v>
       </c>
       <c r="D242" s="11">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>230.18104208667506</v>
       </c>
       <c r="E242" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>280.81895791332494</v>
       </c>
     </row>
-    <row r="243" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="243" spans="2:5">
       <c r="B243" s="2">
         <v>240</v>
       </c>
       <c r="C243" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>2021.7600000000002</v>
       </c>
       <c r="D243" s="11">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>170.66793574109488</v>
       </c>
       <c r="E243" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>340.33206425890512</v>
       </c>
     </row>
-    <row r="244" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="244" spans="2:5">
       <c r="B244" s="2">
         <v>241</v>
       </c>
       <c r="C244" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>2030.1840000000002</v>
       </c>
       <c r="D244" s="11">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>118.49847720060302</v>
       </c>
       <c r="E244" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>392.50152279939698</v>
       </c>
     </row>
-    <row r="245" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="245" spans="2:5">
       <c r="B245" s="2">
         <v>242</v>
       </c>
       <c r="C245" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>2038.6080000000004</v>
       </c>
       <c r="D245" s="11">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>74.79837329666293</v>
       </c>
       <c r="E245" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>436.20162670333707</v>
       </c>
     </row>
-    <row r="246" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="246" spans="2:5">
       <c r="B246" s="2">
         <v>243</v>
       </c>
       <c r="C246" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>2047.0320000000004</v>
       </c>
       <c r="D246" s="11">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>40.510580059042297</v>
       </c>
       <c r="E246" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>470.4894199409577</v>
       </c>
     </row>
-    <row r="247" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="247" spans="2:5">
       <c r="B247" s="2">
         <v>244</v>
       </c>
       <c r="C247" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>2055.4560000000001</v>
       </c>
       <c r="D247" s="11">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>16.374955714437874</v>
       </c>
       <c r="E247" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>494.62504428556213</v>
       </c>
     </row>
-    <row r="248" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="248" spans="2:5">
       <c r="B248" s="2">
         <v>245</v>
       </c>
       <c r="C248" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>2063.88</v>
       </c>
       <c r="D248" s="11">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>2.9122961071335567</v>
       </c>
       <c r="E248" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>508.08770389286644</v>
       </c>
     </row>
-    <row r="249" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="249" spans="2:5">
       <c r="B249" s="2">
         <v>246</v>
       </c>
       <c r="C249" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>2072.3040000000001</v>
       </c>
       <c r="D249" s="11">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0.41309702362275402</v>
       </c>
       <c r="E249" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>510.58690297637725</v>
       </c>
     </row>
-    <row r="250" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="250" spans="2:5">
       <c r="B250" s="2">
         <v>247</v>
       </c>
       <c r="C250" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>2080.7280000000005</v>
       </c>
       <c r="D250" s="11">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>8.9312859065181556</v>
       </c>
       <c r="E250" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>502.06871409348184</v>
       </c>
     </row>
-    <row r="251" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="251" spans="2:5">
       <c r="B251" s="2">
         <v>248</v>
       </c>
       <c r="C251" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>2089.1520000000005</v>
       </c>
       <c r="D251" s="11">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>28.283058214129028</v>
       </c>
       <c r="E251" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>482.71694178587097</v>
       </c>
     </row>
-    <row r="252" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="252" spans="2:5">
       <c r="B252" s="2">
         <v>249</v>
       </c>
       <c r="C252" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>2097.5760000000005</v>
       </c>
       <c r="D252" s="11">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>58.050843534626324</v>
       </c>
       <c r="E252" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>452.94915646537368</v>
       </c>
     </row>
-    <row r="253" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="253" spans="2:5">
       <c r="B253" s="2">
         <v>250</v>
       </c>
       <c r="C253" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>2106.0000000000005</v>
       </c>
       <c r="D253" s="11">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>97.592315874404107</v>
       </c>
       <c r="E253" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>413.40768412559589</v>
       </c>
     </row>
-    <row r="254" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="254" spans="2:5">
       <c r="B254" s="2">
         <v>251</v>
       </c>
       <c r="C254" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>2114.4240000000004</v>
       </c>
       <c r="D254" s="11">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>146.05425369763617</v>
       </c>
       <c r="E254" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>364.94574630236383</v>
       </c>
     </row>
-    <row r="255" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="255" spans="2:5">
       <c r="B255" s="2">
         <v>252</v>
       </c>
       <c r="C255" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>2122.8480000000004</v>
       </c>
       <c r="D255" s="11">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>202.39095064661939</v>
       </c>
       <c r="E255" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>308.60904935338061</v>
       </c>
     </row>
-    <row r="256" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="256" spans="2:5">
       <c r="B256" s="2">
         <v>253</v>
       </c>
       <c r="C256" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>2131.2720000000004</v>
       </c>
       <c r="D256" s="11">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>265.3867796784067</v>
       </c>
       <c r="E256" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>245.6132203215933</v>
       </c>
     </row>
-    <row r="257" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="257" spans="2:5">
       <c r="B257" s="2">
         <v>254</v>
       </c>
       <c r="C257" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>2139.6960000000004</v>
       </c>
       <c r="D257" s="11">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>333.68242373127771</v>
       </c>
       <c r="E257" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>177.31757626872229</v>
       </c>
     </row>
-    <row r="258" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="258" spans="2:5">
       <c r="B258" s="2">
         <v>255</v>
       </c>
       <c r="C258" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>2148.1200000000003</v>
       </c>
       <c r="D258" s="11">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>405.80420691859456</v>
       </c>
       <c r="E258" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>105.19579308140544</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="K2:Z2"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -10976,7 +11050,7 @@
       <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -10994,44 +11068,44 @@
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:2">
       <c r="B2" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:2">
       <c r="B3" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:2">
       <c r="B4" s="2">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:2">
       <c r="B5" s="2">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:2">
       <c r="B6" s="2">
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:2">
       <c r="B7" s="2">
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:2">
       <c r="B8" s="2">
         <v>64</v>
       </c>
     </row>
-    <row r="9" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:2">
       <c r="B9" s="2">
         <v>128</v>
       </c>
